--- a/PC移行時チェックリスト.xlsx
+++ b/PC移行時チェックリスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B17FE0D-9168-4E03-B290-268078A5848C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845A5A50-8954-4ABE-A70D-A8FBD625DEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="-120" windowWidth="26880" windowHeight="16440" activeTab="1" xr2:uid="{4766EE0F-731E-4860-9E19-7E5345AFF867}"/>
+    <workbookView xWindow="2040" yWindow="-120" windowWidth="26880" windowHeight="16440" activeTab="3" xr2:uid="{4766EE0F-731E-4860-9E19-7E5345AFF867}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="13" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2341" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="702">
   <si>
     <t>タイミング</t>
     <phoneticPr fontId="4"/>
@@ -2860,12 +2860,28 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>KeePass自動入力用 F16キーIMEオフ割り当て</t>
+    <rPh sb="7" eb="9">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ニュウリョクヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -2959,6 +2975,27 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -3096,7 +3133,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3188,8 +3225,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3199,7 +3273,237 @@
     <cellStyle name="標準 2 2" xfId="3" xr:uid="{C46C4C46-E081-4EDD-82B1-6D995E4030C0}"/>
     <cellStyle name="標準 3" xfId="4" xr:uid="{23B8E028-7CA1-41C4-999A-F97A9CBE175A}"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -3425,127 +3729,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color rgb="FF000000"/>
@@ -3573,40 +3756,6 @@
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -3644,29 +3793,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{72048007-8526-42DE-A339-9D8654C4D34C}" name="テーブル223" displayName="テーブル223" ref="A1:F170" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21" headerRowCellStyle="標準 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{72048007-8526-42DE-A339-9D8654C4D34C}" name="テーブル223" displayName="テーブル223" ref="A1:F170" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23" headerRowCellStyle="標準 2">
   <autoFilter ref="A1:F170" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{D99A842B-D9B6-4C9F-9FA3-4DF6CE6BDD1C}" name="タイミング_x000a_(移行前)" dataDxfId="20" dataCellStyle="標準 2"/>
-    <tableColumn id="5" xr3:uid="{76EB8367-01C4-41B3-9DDC-88A368E31715}" name="タイミング_x000a_(移行後)" dataDxfId="19" dataCellStyle="標準 2"/>
-    <tableColumn id="1" xr3:uid="{60F4688E-5497-471B-8448-F31F20035DD5}" name="カテゴリ2" dataDxfId="18" dataCellStyle="標準 2"/>
-    <tableColumn id="3" xr3:uid="{C969242E-1AB3-48E9-BA43-2BB0F4826FEC}" name="列1" dataDxfId="17" dataCellStyle="標準 2"/>
-    <tableColumn id="14" xr3:uid="{21D8CC79-387E-4056-8934-97B278BC68CD}" name="状態" dataDxfId="16" dataCellStyle="標準 2"/>
-    <tableColumn id="15" xr3:uid="{68902BC1-ED87-4EA6-941E-472D4B2FD768}" name="備考" dataDxfId="15" dataCellStyle="標準 2"/>
+    <tableColumn id="2" xr3:uid="{D99A842B-D9B6-4C9F-9FA3-4DF6CE6BDD1C}" name="タイミング_x000a_(移行前)" dataDxfId="7" dataCellStyle="標準 2"/>
+    <tableColumn id="5" xr3:uid="{76EB8367-01C4-41B3-9DDC-88A368E31715}" name="タイミング_x000a_(移行後)" dataDxfId="6" dataCellStyle="標準 2"/>
+    <tableColumn id="1" xr3:uid="{60F4688E-5497-471B-8448-F31F20035DD5}" name="カテゴリ2" dataDxfId="5" dataCellStyle="標準 2"/>
+    <tableColumn id="3" xr3:uid="{C969242E-1AB3-48E9-BA43-2BB0F4826FEC}" name="列1" dataDxfId="4" dataCellStyle="標準 2"/>
+    <tableColumn id="14" xr3:uid="{21D8CC79-387E-4056-8934-97B278BC68CD}" name="状態" dataDxfId="3" dataCellStyle="標準 2"/>
+    <tableColumn id="15" xr3:uid="{68902BC1-ED87-4EA6-941E-472D4B2FD768}" name="備考" dataDxfId="2" dataCellStyle="標準 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{248A480A-6FD2-43C6-B3BA-4CF7AC7127B5}" name="テーブル2234" displayName="テーブル2234" ref="A1:E31" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11" headerRowCellStyle="標準 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{248A480A-6FD2-43C6-B3BA-4CF7AC7127B5}" name="テーブル2234" displayName="テーブル2234" ref="A1:E31" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19" headerRowCellStyle="標準 2">
   <autoFilter ref="A1:E31" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{CEB566B4-6D6F-4F25-B33A-D611DB93E464}" name="タイミング" dataDxfId="10" dataCellStyle="標準 2"/>
-    <tableColumn id="1" xr3:uid="{4C641D77-0FCC-41F0-821A-5DA16D3AE90A}" name="カテゴリ2" dataDxfId="9" dataCellStyle="標準 2"/>
-    <tableColumn id="3" xr3:uid="{6B098D03-165C-4A2A-A512-C837659BE2C8}" name="列1" dataDxfId="8" dataCellStyle="標準 2"/>
-    <tableColumn id="14" xr3:uid="{216A3697-FE04-4C9D-8A94-D348CE32B4A5}" name="状態" dataDxfId="7" dataCellStyle="標準 2"/>
-    <tableColumn id="15" xr3:uid="{ED56086A-6964-4D3B-94F0-C34432CC72F5}" name="備考" dataDxfId="6" dataCellStyle="標準 2"/>
+    <tableColumn id="2" xr3:uid="{CEB566B4-6D6F-4F25-B33A-D611DB93E464}" name="タイミング" dataDxfId="18" dataCellStyle="標準 2"/>
+    <tableColumn id="1" xr3:uid="{4C641D77-0FCC-41F0-821A-5DA16D3AE90A}" name="カテゴリ2" dataDxfId="17" dataCellStyle="標準 2"/>
+    <tableColumn id="3" xr3:uid="{6B098D03-165C-4A2A-A512-C837659BE2C8}" name="列1" dataDxfId="16" dataCellStyle="標準 2"/>
+    <tableColumn id="14" xr3:uid="{216A3697-FE04-4C9D-8A94-D348CE32B4A5}" name="状態" dataDxfId="15" dataCellStyle="標準 2"/>
+    <tableColumn id="15" xr3:uid="{ED56086A-6964-4D3B-94F0-C34432CC72F5}" name="備考" dataDxfId="14" dataCellStyle="標準 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4152,11 +4301,11 @@
   </sheetPr>
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -5772,22 +5921,22 @@
   </sheetPr>
   <dimension ref="A1:K170"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="16.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="84.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="120.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="1" customWidth="1"/>
-    <col min="8" max="8" width="66.6640625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="3.33203125" style="2"/>
+    <col min="1" max="2" width="16.1640625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.6640625" style="37" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="120.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="38" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" style="37" customWidth="1"/>
+    <col min="9" max="16384" width="3.33203125" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="34.15" customHeight="1">
@@ -5797,1921 +5946,1925 @@
       <c r="B1" s="33" t="s">
         <v>699</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="1"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="39" t="s">
         <v>696</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="41" t="s">
         <v>564</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="37.5">
-      <c r="A3" s="10" t="s">
+      <c r="E2" s="39"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="38"/>
+    </row>
+    <row r="3" spans="1:11" ht="27">
+      <c r="A3" s="39" t="s">
         <v>696</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="41" t="s">
         <v>565</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" ht="37.5">
-      <c r="A4" s="10" t="s">
+      <c r="E3" s="39"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+    </row>
+    <row r="4" spans="1:11" ht="27">
+      <c r="A4" s="39" t="s">
         <v>696</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="13" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41" t="s">
         <v>566</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="1"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="39" t="s">
         <v>696</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="41" t="s">
         <v>567</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="1"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="38"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="39" t="s">
         <v>696</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="40"/>
+      <c r="C6" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="41" t="s">
         <v>568</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="1"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="39" t="s">
         <v>696</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="41" t="s">
         <v>569</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="1"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="39" t="s">
         <v>696</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="41" t="s">
         <v>570</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="1"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="38"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="39" t="s">
         <v>696</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="40"/>
+      <c r="C9" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="41" t="s">
         <v>571</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="1"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="38"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="39" t="s">
         <v>696</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="40"/>
+      <c r="C10" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="41" t="s">
         <v>572</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="1"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="38"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="39" t="s">
         <v>696</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="40"/>
+      <c r="C11" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="41" t="s">
         <v>573</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="1"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="38"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="39" t="s">
         <v>696</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="40"/>
+      <c r="C12" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="38"/>
+      <c r="K12" s="38"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="39" t="s">
         <v>696</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="40"/>
+      <c r="C13" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="12"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="42"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="K13" s="38"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="39" t="s">
         <v>696</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="40"/>
+      <c r="C14" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="38"/>
+      <c r="K14" s="38"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="39" t="s">
         <v>696</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="40"/>
+      <c r="C15" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="38"/>
+      <c r="K15" s="38"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="39" t="s">
         <v>696</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="40"/>
+      <c r="C16" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="38"/>
+      <c r="K16" s="38"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="39" t="s">
         <v>696</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11" t="s">
+      <c r="B17" s="40"/>
+      <c r="C17" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="41" t="s">
         <v>695</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="38"/>
+      <c r="K17" s="38"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="43"/>
+      <c r="B18" s="43" t="s">
         <v>697</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="41" t="s">
         <v>564</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" ht="37.5">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6" t="s">
+      <c r="E18" s="43"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="38"/>
+      <c r="K18" s="38"/>
+    </row>
+    <row r="19" spans="1:11" ht="27">
+      <c r="A19" s="43"/>
+      <c r="B19" s="43" t="s">
         <v>697</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="41" t="s">
         <v>565</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" ht="37.5">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6" t="s">
+      <c r="E19" s="43"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="38"/>
+      <c r="K19" s="38"/>
+    </row>
+    <row r="20" spans="1:11" ht="27">
+      <c r="A20" s="43"/>
+      <c r="B20" s="43" t="s">
         <v>697</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="41" t="s">
         <v>566</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="38"/>
+      <c r="K20" s="38"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="43"/>
+      <c r="B21" s="43" t="s">
         <v>697</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="41" t="s">
         <v>567</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="38"/>
+      <c r="K21" s="38"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="43"/>
+      <c r="B22" s="43" t="s">
         <v>697</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="41" t="s">
         <v>568</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="38"/>
+      <c r="K22" s="38"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="43"/>
+      <c r="B23" s="43" t="s">
         <v>697</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="41" t="s">
         <v>569</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="38"/>
+      <c r="K23" s="38"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="43"/>
+      <c r="B24" s="43" t="s">
         <v>697</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="41" t="s">
         <v>570</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="38"/>
+      <c r="K24" s="38"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="43"/>
+      <c r="B25" s="43" t="s">
         <v>697</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="41" t="s">
         <v>571</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="38"/>
+      <c r="K25" s="38"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="43"/>
+      <c r="B26" s="43" t="s">
         <v>697</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="41" t="s">
         <v>572</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="38"/>
+      <c r="K26" s="38"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="6"/>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="43"/>
+      <c r="B27" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="41" t="s">
         <v>573</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="38"/>
+      <c r="K27" s="38"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="6"/>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="43"/>
+      <c r="B28" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="38"/>
+      <c r="K28" s="38"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="6"/>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="43"/>
+      <c r="B29" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="38"/>
+      <c r="K29" s="38"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="6"/>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="43"/>
+      <c r="B30" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="38"/>
+      <c r="K30" s="38"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="6"/>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="43"/>
+      <c r="B31" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="38"/>
+      <c r="K31" s="38"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="6"/>
-      <c r="B32" s="9" t="s">
+      <c r="A32" s="43"/>
+      <c r="B32" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="38"/>
+      <c r="K32" s="38"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="6"/>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="43"/>
+      <c r="B33" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="41" t="s">
         <v>695</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="38"/>
+      <c r="K33" s="38"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11" t="s">
+      <c r="A34" s="39"/>
+      <c r="B34" s="40" t="s">
         <v>697</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="1"/>
-      <c r="K34" s="1"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="38"/>
+      <c r="K34" s="38"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="10"/>
-      <c r="B35" s="11" t="s">
+      <c r="A35" s="39"/>
+      <c r="B35" s="40" t="s">
         <v>697</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="1"/>
-      <c r="K35" s="1"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="38"/>
+      <c r="K35" s="38"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11" t="s">
+      <c r="A36" s="39"/>
+      <c r="B36" s="40" t="s">
         <v>697</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="1"/>
-      <c r="K36" s="1"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="38"/>
+      <c r="K36" s="38"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11" t="s">
+      <c r="A37" s="39"/>
+      <c r="B37" s="40" t="s">
         <v>697</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="38"/>
+      <c r="K37" s="38"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11" t="s">
+      <c r="A38" s="39"/>
+      <c r="B38" s="40" t="s">
         <v>697</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="38"/>
+      <c r="K38" s="38"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11" t="s">
+      <c r="A39" s="39"/>
+      <c r="B39" s="40" t="s">
         <v>697</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="1"/>
-      <c r="K39" s="1"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="38"/>
+      <c r="K39" s="38"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11" t="s">
+      <c r="A40" s="39"/>
+      <c r="B40" s="40" t="s">
         <v>697</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="1"/>
-      <c r="K40" s="1"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="38"/>
+      <c r="K40" s="38"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11" t="s">
+      <c r="A41" s="39"/>
+      <c r="B41" s="40" t="s">
         <v>697</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="1"/>
-      <c r="K41" s="1"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="38"/>
+      <c r="K41" s="38"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="10"/>
-      <c r="B42" s="11" t="s">
+      <c r="A42" s="39"/>
+      <c r="B42" s="40" t="s">
         <v>697</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="1"/>
-      <c r="K42" s="1"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="38"/>
+      <c r="K42" s="38"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="10"/>
-      <c r="B43" s="11" t="s">
+      <c r="A43" s="39"/>
+      <c r="B43" s="40" t="s">
         <v>697</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="1"/>
-      <c r="K43" s="1"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="38"/>
+      <c r="K43" s="38"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="10"/>
-      <c r="B44" s="11" t="s">
+      <c r="A44" s="39"/>
+      <c r="B44" s="40" t="s">
         <v>697</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="1"/>
-      <c r="K44" s="1"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="38"/>
+      <c r="K44" s="38"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="10"/>
-      <c r="B45" s="11" t="s">
+      <c r="A45" s="39"/>
+      <c r="B45" s="40" t="s">
         <v>697</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="1"/>
-      <c r="K45" s="1"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="38"/>
+      <c r="K45" s="38"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="10"/>
-      <c r="B46" s="11" t="s">
+      <c r="A46" s="39"/>
+      <c r="B46" s="40" t="s">
         <v>697</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="1"/>
-      <c r="K46" s="1"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="38"/>
+      <c r="K46" s="38"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11" t="s">
+      <c r="A47" s="39"/>
+      <c r="B47" s="40" t="s">
         <v>697</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="12"/>
-      <c r="J47" s="1"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="42"/>
+      <c r="J47" s="38"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="10"/>
-      <c r="B48" s="11" t="s">
+      <c r="A48" s="39"/>
+      <c r="B48" s="40" t="s">
         <v>697</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="12"/>
-      <c r="J48" s="1"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="42"/>
+      <c r="J48" s="38"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="10"/>
-      <c r="B49" s="11" t="s">
+      <c r="A49" s="39"/>
+      <c r="B49" s="40" t="s">
         <v>697</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="12"/>
-      <c r="J49" s="1"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="42"/>
+      <c r="J49" s="38"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="10"/>
-      <c r="B50" s="11" t="s">
+      <c r="A50" s="39"/>
+      <c r="B50" s="40" t="s">
         <v>697</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="12"/>
-      <c r="J50" s="1"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="42"/>
+      <c r="J50" s="38"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="10"/>
-      <c r="B51" s="11" t="s">
+      <c r="A51" s="39"/>
+      <c r="B51" s="40" t="s">
         <v>697</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="12"/>
-      <c r="J51" s="1"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="42"/>
+      <c r="J51" s="38"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="10"/>
-      <c r="B52" s="11" t="s">
+      <c r="A52" s="39"/>
+      <c r="B52" s="40" t="s">
         <v>697</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="12" t="s">
+      <c r="E52" s="39"/>
+      <c r="F52" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="J52" s="1"/>
+      <c r="J52" s="38"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="10"/>
-      <c r="B53" s="11" t="s">
+      <c r="A53" s="39"/>
+      <c r="B53" s="40" t="s">
         <v>697</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="41" t="s">
         <v>563</v>
       </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="12"/>
-      <c r="J53" s="1"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="42"/>
+      <c r="J53" s="38"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6" t="s">
+      <c r="A54" s="43"/>
+      <c r="B54" s="43" t="s">
         <v>697</v>
       </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="8" t="s">
+      <c r="C54" s="43"/>
+      <c r="D54" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="E54" s="6"/>
-      <c r="F54" s="7"/>
-      <c r="J54" s="1"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="44"/>
+      <c r="J54" s="38"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6" t="s">
+      <c r="A55" s="43"/>
+      <c r="B55" s="43" t="s">
         <v>697</v>
       </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="8" t="s">
+      <c r="C55" s="43"/>
+      <c r="D55" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="7"/>
-      <c r="J55" s="1"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="44"/>
+      <c r="J55" s="38"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6" t="s">
+      <c r="A56" s="43"/>
+      <c r="B56" s="43" t="s">
         <v>697</v>
       </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="8" t="s">
+      <c r="C56" s="43"/>
+      <c r="D56" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="7"/>
-      <c r="I56" s="1" t="s">
+      <c r="E56" s="43"/>
+      <c r="F56" s="44"/>
+      <c r="I56" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="J56" s="1"/>
+      <c r="J56" s="38"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6" t="s">
+      <c r="A57" s="43"/>
+      <c r="B57" s="43" t="s">
         <v>697</v>
       </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="8" t="s">
+      <c r="C57" s="43"/>
+      <c r="D57" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="21"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="47"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6" t="s">
+      <c r="A58" s="43"/>
+      <c r="B58" s="43" t="s">
         <v>697</v>
       </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="8" t="s">
+      <c r="C58" s="43"/>
+      <c r="D58" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="21"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="47"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6" t="s">
+      <c r="A59" s="43"/>
+      <c r="B59" s="43" t="s">
         <v>697</v>
       </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="8" t="s">
+      <c r="C59" s="43"/>
+      <c r="D59" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="E59" s="6"/>
-      <c r="F59" s="21"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="47"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6" t="s">
+      <c r="A60" s="43"/>
+      <c r="B60" s="43" t="s">
         <v>697</v>
       </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="8" t="s">
+      <c r="C60" s="43"/>
+      <c r="D60" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="E60" s="6"/>
-      <c r="F60" s="7"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="44"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6" t="s">
+      <c r="A61" s="43"/>
+      <c r="B61" s="43" t="s">
         <v>697</v>
       </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="8" t="s">
+      <c r="C61" s="43"/>
+      <c r="D61" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="E61" s="6"/>
-      <c r="F61" s="7"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="44"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6" t="s">
+      <c r="A62" s="43"/>
+      <c r="B62" s="43" t="s">
         <v>697</v>
       </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="8" t="s">
+      <c r="C62" s="43"/>
+      <c r="D62" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="E62" s="6"/>
-      <c r="F62" s="7"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="44"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6" t="s">
+      <c r="A63" s="43"/>
+      <c r="B63" s="43" t="s">
         <v>697</v>
       </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="8" t="s">
+      <c r="C63" s="43"/>
+      <c r="D63" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="E63" s="6"/>
-      <c r="F63" s="7"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="44"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6" t="s">
+      <c r="A64" s="43"/>
+      <c r="B64" s="43" t="s">
         <v>697</v>
       </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="8" t="s">
+      <c r="C64" s="43"/>
+      <c r="D64" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="E64" s="6"/>
-      <c r="F64" s="7"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="44"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6" t="s">
+      <c r="A65" s="43"/>
+      <c r="B65" s="43" t="s">
         <v>697</v>
       </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="8" t="s">
+      <c r="C65" s="43"/>
+      <c r="D65" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="E65" s="6"/>
-      <c r="F65" s="7"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="44"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6" t="s">
+      <c r="A66" s="43"/>
+      <c r="B66" s="43" t="s">
         <v>697</v>
       </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="8" t="s">
+      <c r="C66" s="43"/>
+      <c r="D66" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="E66" s="6"/>
-      <c r="F66" s="7"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="44"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6" t="s">
+      <c r="A67" s="43"/>
+      <c r="B67" s="43" t="s">
         <v>696</v>
       </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="8" t="s">
+      <c r="C67" s="43"/>
+      <c r="D67" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="E67" s="6"/>
-      <c r="F67" s="7"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="44"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="6"/>
-      <c r="B68" s="9" t="s">
+      <c r="A68" s="43"/>
+      <c r="B68" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="8" t="s">
+      <c r="C68" s="45"/>
+      <c r="D68" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="E68" s="6"/>
-      <c r="F68" s="7"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="44"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="6"/>
-      <c r="B69" s="9" t="s">
+      <c r="A69" s="43"/>
+      <c r="B69" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="8" t="s">
+      <c r="C69" s="45"/>
+      <c r="D69" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="E69" s="6"/>
-      <c r="F69" s="7"/>
+      <c r="E69" s="43"/>
+      <c r="F69" s="44"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="6"/>
-      <c r="B70" s="9" t="s">
+      <c r="A70" s="43"/>
+      <c r="B70" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="C70" s="9"/>
-      <c r="D70" s="8" t="s">
+      <c r="C70" s="45"/>
+      <c r="D70" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="E70" s="6"/>
-      <c r="F70" s="7"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="44"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="6"/>
-      <c r="B71" s="9" t="s">
+      <c r="A71" s="43"/>
+      <c r="B71" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="8" t="s">
+      <c r="C71" s="45"/>
+      <c r="D71" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="E71" s="6"/>
-      <c r="F71" s="7"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="44"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="6"/>
-      <c r="B72" s="9" t="s">
+      <c r="A72" s="43"/>
+      <c r="B72" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="8" t="s">
+      <c r="C72" s="45"/>
+      <c r="D72" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="E72" s="6"/>
-      <c r="F72" s="7"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="44"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="6"/>
-      <c r="B73" s="9" t="s">
+      <c r="A73" s="43"/>
+      <c r="B73" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="C73" s="9"/>
-      <c r="D73" s="8" t="s">
+      <c r="C73" s="45"/>
+      <c r="D73" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="E73" s="6"/>
-      <c r="F73" s="7"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="44"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="10"/>
-      <c r="B74" s="11" t="s">
+      <c r="A74" s="39"/>
+      <c r="B74" s="40" t="s">
         <v>697</v>
       </c>
-      <c r="C74" s="11"/>
-      <c r="D74" s="13" t="s">
+      <c r="C74" s="40"/>
+      <c r="D74" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="E74" s="10"/>
-      <c r="F74" s="12"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="42"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="10"/>
-      <c r="B75" s="11" t="s">
+      <c r="A75" s="39"/>
+      <c r="B75" s="40" t="s">
         <v>696</v>
       </c>
-      <c r="C75" s="11"/>
-      <c r="D75" s="13" t="s">
+      <c r="C75" s="40"/>
+      <c r="D75" s="41" t="s">
         <v>700</v>
       </c>
-      <c r="E75" s="10"/>
-      <c r="F75" s="12"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="42"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="10"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="12"/>
+      <c r="A76" s="39"/>
+      <c r="B76" s="40" t="s">
+        <v>696</v>
+      </c>
+      <c r="C76" s="40"/>
+      <c r="D76" s="48" t="s">
+        <v>701</v>
+      </c>
+      <c r="E76" s="39"/>
+      <c r="F76" s="42"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="10"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="12"/>
+      <c r="A77" s="39"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="42"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="10"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="12"/>
+      <c r="A78" s="39"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="42"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="10"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="12"/>
+      <c r="A79" s="39"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="40"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="42"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="10"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="12"/>
+      <c r="A80" s="39"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="42"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="10"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="12"/>
+      <c r="A81" s="39"/>
+      <c r="B81" s="40"/>
+      <c r="C81" s="40"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="42"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="10"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="12"/>
+      <c r="A82" s="39"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="41"/>
+      <c r="E82" s="39"/>
+      <c r="F82" s="42"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="10"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="12"/>
+      <c r="A83" s="39"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="41"/>
+      <c r="E83" s="39"/>
+      <c r="F83" s="42"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="10"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="12"/>
+      <c r="A84" s="39"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="42"/>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="10"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="12"/>
+      <c r="A85" s="39"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="41"/>
+      <c r="E85" s="39"/>
+      <c r="F85" s="42"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="10"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="12"/>
+      <c r="A86" s="39"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="39"/>
+      <c r="F86" s="42"/>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="10"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="12"/>
+      <c r="A87" s="39"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="41"/>
+      <c r="E87" s="39"/>
+      <c r="F87" s="42"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="10"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="12"/>
+      <c r="A88" s="39"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="39"/>
+      <c r="F88" s="42"/>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="10"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="12"/>
+      <c r="A89" s="39"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="40"/>
+      <c r="D89" s="41"/>
+      <c r="E89" s="39"/>
+      <c r="F89" s="42"/>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="10"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="12"/>
+      <c r="A90" s="39"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="40"/>
+      <c r="D90" s="41"/>
+      <c r="E90" s="39"/>
+      <c r="F90" s="42"/>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="10"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="12"/>
+      <c r="A91" s="39"/>
+      <c r="B91" s="40"/>
+      <c r="C91" s="40"/>
+      <c r="D91" s="41"/>
+      <c r="E91" s="39"/>
+      <c r="F91" s="42"/>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="10"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="12"/>
+      <c r="A92" s="39"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="41"/>
+      <c r="E92" s="39"/>
+      <c r="F92" s="42"/>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="10"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="12"/>
+      <c r="A93" s="39"/>
+      <c r="B93" s="40"/>
+      <c r="C93" s="40"/>
+      <c r="D93" s="41"/>
+      <c r="E93" s="39"/>
+      <c r="F93" s="42"/>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="10"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="12"/>
+      <c r="A94" s="39"/>
+      <c r="B94" s="40"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="41"/>
+      <c r="E94" s="39"/>
+      <c r="F94" s="42"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="10"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="12"/>
+      <c r="A95" s="39"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="41"/>
+      <c r="E95" s="39"/>
+      <c r="F95" s="42"/>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="10"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="12"/>
+      <c r="A96" s="39"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="41"/>
+      <c r="E96" s="39"/>
+      <c r="F96" s="42"/>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="10"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="12"/>
+      <c r="A97" s="39"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="40"/>
+      <c r="D97" s="41"/>
+      <c r="E97" s="39"/>
+      <c r="F97" s="42"/>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="10"/>
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="12"/>
+      <c r="A98" s="39"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="40"/>
+      <c r="D98" s="41"/>
+      <c r="E98" s="39"/>
+      <c r="F98" s="42"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="10"/>
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="12"/>
+      <c r="A99" s="39"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="41"/>
+      <c r="E99" s="39"/>
+      <c r="F99" s="42"/>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="10"/>
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="12"/>
+      <c r="A100" s="39"/>
+      <c r="B100" s="40"/>
+      <c r="C100" s="40"/>
+      <c r="D100" s="41"/>
+      <c r="E100" s="39"/>
+      <c r="F100" s="42"/>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="10"/>
-      <c r="B101" s="11"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="12"/>
+      <c r="A101" s="39"/>
+      <c r="B101" s="40"/>
+      <c r="C101" s="40"/>
+      <c r="D101" s="41"/>
+      <c r="E101" s="39"/>
+      <c r="F101" s="42"/>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="10"/>
-      <c r="B102" s="11"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="12"/>
+      <c r="A102" s="39"/>
+      <c r="B102" s="40"/>
+      <c r="C102" s="40"/>
+      <c r="D102" s="41"/>
+      <c r="E102" s="39"/>
+      <c r="F102" s="42"/>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="10"/>
-      <c r="B103" s="11"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="12"/>
+      <c r="A103" s="39"/>
+      <c r="B103" s="40"/>
+      <c r="C103" s="40"/>
+      <c r="D103" s="41"/>
+      <c r="E103" s="39"/>
+      <c r="F103" s="42"/>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="10"/>
-      <c r="B104" s="11"/>
-      <c r="C104" s="11"/>
-      <c r="D104" s="13"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="12"/>
+      <c r="A104" s="39"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="40"/>
+      <c r="D104" s="41"/>
+      <c r="E104" s="39"/>
+      <c r="F104" s="42"/>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="10"/>
-      <c r="B105" s="11"/>
-      <c r="C105" s="11"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="12"/>
+      <c r="A105" s="39"/>
+      <c r="B105" s="40"/>
+      <c r="C105" s="40"/>
+      <c r="D105" s="41"/>
+      <c r="E105" s="39"/>
+      <c r="F105" s="42"/>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="10"/>
-      <c r="B106" s="11"/>
-      <c r="C106" s="11"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="12"/>
+      <c r="A106" s="39"/>
+      <c r="B106" s="40"/>
+      <c r="C106" s="40"/>
+      <c r="D106" s="41"/>
+      <c r="E106" s="39"/>
+      <c r="F106" s="42"/>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="10"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="11"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="12"/>
+      <c r="A107" s="39"/>
+      <c r="B107" s="40"/>
+      <c r="C107" s="40"/>
+      <c r="D107" s="41"/>
+      <c r="E107" s="39"/>
+      <c r="F107" s="42"/>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="10"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="10"/>
-      <c r="F108" s="12"/>
+      <c r="A108" s="39"/>
+      <c r="B108" s="40"/>
+      <c r="C108" s="40"/>
+      <c r="D108" s="41"/>
+      <c r="E108" s="39"/>
+      <c r="F108" s="42"/>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="10"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="13"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="12"/>
+      <c r="A109" s="39"/>
+      <c r="B109" s="40"/>
+      <c r="C109" s="40"/>
+      <c r="D109" s="41"/>
+      <c r="E109" s="39"/>
+      <c r="F109" s="42"/>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="10"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="12"/>
+      <c r="A110" s="39"/>
+      <c r="B110" s="40"/>
+      <c r="C110" s="40"/>
+      <c r="D110" s="41"/>
+      <c r="E110" s="39"/>
+      <c r="F110" s="42"/>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="10"/>
-      <c r="B111" s="11"/>
-      <c r="C111" s="11"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="12"/>
+      <c r="A111" s="39"/>
+      <c r="B111" s="40"/>
+      <c r="C111" s="40"/>
+      <c r="D111" s="41"/>
+      <c r="E111" s="39"/>
+      <c r="F111" s="42"/>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="10"/>
-      <c r="B112" s="11"/>
-      <c r="C112" s="11"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="12"/>
+      <c r="A112" s="39"/>
+      <c r="B112" s="40"/>
+      <c r="C112" s="40"/>
+      <c r="D112" s="41"/>
+      <c r="E112" s="39"/>
+      <c r="F112" s="42"/>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="10"/>
-      <c r="B113" s="11"/>
-      <c r="C113" s="11"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="12"/>
+      <c r="A113" s="39"/>
+      <c r="B113" s="40"/>
+      <c r="C113" s="40"/>
+      <c r="D113" s="41"/>
+      <c r="E113" s="39"/>
+      <c r="F113" s="42"/>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="10"/>
-      <c r="B114" s="11"/>
-      <c r="C114" s="11"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="12"/>
+      <c r="A114" s="39"/>
+      <c r="B114" s="40"/>
+      <c r="C114" s="40"/>
+      <c r="D114" s="41"/>
+      <c r="E114" s="39"/>
+      <c r="F114" s="42"/>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="10"/>
-      <c r="B115" s="11"/>
-      <c r="C115" s="11"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="10"/>
-      <c r="F115" s="12"/>
+      <c r="A115" s="39"/>
+      <c r="B115" s="40"/>
+      <c r="C115" s="40"/>
+      <c r="D115" s="41"/>
+      <c r="E115" s="39"/>
+      <c r="F115" s="42"/>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="10"/>
-      <c r="B116" s="11"/>
-      <c r="C116" s="11"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="10"/>
-      <c r="F116" s="12"/>
+      <c r="A116" s="39"/>
+      <c r="B116" s="40"/>
+      <c r="C116" s="40"/>
+      <c r="D116" s="41"/>
+      <c r="E116" s="39"/>
+      <c r="F116" s="42"/>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="10"/>
-      <c r="B117" s="11"/>
-      <c r="C117" s="11"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="10"/>
-      <c r="F117" s="12"/>
+      <c r="A117" s="39"/>
+      <c r="B117" s="40"/>
+      <c r="C117" s="40"/>
+      <c r="D117" s="41"/>
+      <c r="E117" s="39"/>
+      <c r="F117" s="42"/>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="10"/>
-      <c r="B118" s="11"/>
-      <c r="C118" s="11"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="10"/>
-      <c r="F118" s="12"/>
+      <c r="A118" s="39"/>
+      <c r="B118" s="40"/>
+      <c r="C118" s="40"/>
+      <c r="D118" s="41"/>
+      <c r="E118" s="39"/>
+      <c r="F118" s="42"/>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="10"/>
-      <c r="B119" s="11"/>
-      <c r="C119" s="11"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="10"/>
-      <c r="F119" s="12"/>
+      <c r="A119" s="39"/>
+      <c r="B119" s="40"/>
+      <c r="C119" s="40"/>
+      <c r="D119" s="41"/>
+      <c r="E119" s="39"/>
+      <c r="F119" s="42"/>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="10"/>
-      <c r="B120" s="11"/>
-      <c r="C120" s="11"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="10"/>
-      <c r="F120" s="12"/>
+      <c r="A120" s="39"/>
+      <c r="B120" s="40"/>
+      <c r="C120" s="40"/>
+      <c r="D120" s="41"/>
+      <c r="E120" s="39"/>
+      <c r="F120" s="42"/>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="10"/>
-      <c r="B121" s="11"/>
-      <c r="C121" s="11"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="12"/>
+      <c r="A121" s="39"/>
+      <c r="B121" s="40"/>
+      <c r="C121" s="40"/>
+      <c r="D121" s="41"/>
+      <c r="E121" s="39"/>
+      <c r="F121" s="42"/>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="10"/>
-      <c r="B122" s="11"/>
-      <c r="C122" s="11"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="10"/>
-      <c r="F122" s="12"/>
+      <c r="A122" s="39"/>
+      <c r="B122" s="40"/>
+      <c r="C122" s="40"/>
+      <c r="D122" s="41"/>
+      <c r="E122" s="39"/>
+      <c r="F122" s="42"/>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="10"/>
-      <c r="B123" s="11"/>
-      <c r="C123" s="11"/>
-      <c r="D123" s="13"/>
-      <c r="E123" s="10"/>
-      <c r="F123" s="12"/>
+      <c r="A123" s="39"/>
+      <c r="B123" s="40"/>
+      <c r="C123" s="40"/>
+      <c r="D123" s="41"/>
+      <c r="E123" s="39"/>
+      <c r="F123" s="42"/>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="10"/>
-      <c r="B124" s="11"/>
-      <c r="C124" s="11"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="12"/>
+      <c r="A124" s="39"/>
+      <c r="B124" s="40"/>
+      <c r="C124" s="40"/>
+      <c r="D124" s="41"/>
+      <c r="E124" s="39"/>
+      <c r="F124" s="42"/>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="10"/>
-      <c r="B125" s="11"/>
-      <c r="C125" s="11"/>
-      <c r="D125" s="13"/>
-      <c r="E125" s="10"/>
-      <c r="F125" s="12"/>
+      <c r="A125" s="39"/>
+      <c r="B125" s="40"/>
+      <c r="C125" s="40"/>
+      <c r="D125" s="41"/>
+      <c r="E125" s="39"/>
+      <c r="F125" s="42"/>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="10"/>
-      <c r="B126" s="11"/>
-      <c r="C126" s="11"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="10"/>
-      <c r="F126" s="12"/>
+      <c r="A126" s="39"/>
+      <c r="B126" s="40"/>
+      <c r="C126" s="40"/>
+      <c r="D126" s="41"/>
+      <c r="E126" s="39"/>
+      <c r="F126" s="42"/>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="10"/>
-      <c r="B127" s="11"/>
-      <c r="C127" s="11"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="10"/>
-      <c r="F127" s="12"/>
+      <c r="A127" s="39"/>
+      <c r="B127" s="40"/>
+      <c r="C127" s="40"/>
+      <c r="D127" s="41"/>
+      <c r="E127" s="39"/>
+      <c r="F127" s="42"/>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="10"/>
-      <c r="B128" s="11"/>
-      <c r="C128" s="11"/>
-      <c r="D128" s="13"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="12"/>
+      <c r="A128" s="39"/>
+      <c r="B128" s="40"/>
+      <c r="C128" s="40"/>
+      <c r="D128" s="41"/>
+      <c r="E128" s="39"/>
+      <c r="F128" s="42"/>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="10"/>
-      <c r="B129" s="11"/>
-      <c r="C129" s="11"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="10"/>
-      <c r="F129" s="12"/>
+      <c r="A129" s="39"/>
+      <c r="B129" s="40"/>
+      <c r="C129" s="40"/>
+      <c r="D129" s="41"/>
+      <c r="E129" s="39"/>
+      <c r="F129" s="42"/>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="10"/>
-      <c r="B130" s="11"/>
-      <c r="C130" s="11"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="12"/>
+      <c r="A130" s="39"/>
+      <c r="B130" s="40"/>
+      <c r="C130" s="40"/>
+      <c r="D130" s="41"/>
+      <c r="E130" s="39"/>
+      <c r="F130" s="42"/>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="10"/>
-      <c r="B131" s="11"/>
-      <c r="C131" s="11"/>
-      <c r="D131" s="13"/>
-      <c r="E131" s="10"/>
-      <c r="F131" s="12"/>
+      <c r="A131" s="39"/>
+      <c r="B131" s="40"/>
+      <c r="C131" s="40"/>
+      <c r="D131" s="41"/>
+      <c r="E131" s="39"/>
+      <c r="F131" s="42"/>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="10"/>
-      <c r="B132" s="11"/>
-      <c r="C132" s="11"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="10"/>
-      <c r="F132" s="12"/>
+      <c r="A132" s="39"/>
+      <c r="B132" s="40"/>
+      <c r="C132" s="40"/>
+      <c r="D132" s="41"/>
+      <c r="E132" s="39"/>
+      <c r="F132" s="42"/>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="10"/>
-      <c r="B133" s="11"/>
-      <c r="C133" s="11"/>
-      <c r="D133" s="13"/>
-      <c r="E133" s="10"/>
-      <c r="F133" s="12"/>
+      <c r="A133" s="39"/>
+      <c r="B133" s="40"/>
+      <c r="C133" s="40"/>
+      <c r="D133" s="41"/>
+      <c r="E133" s="39"/>
+      <c r="F133" s="42"/>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="10"/>
-      <c r="B134" s="11"/>
-      <c r="C134" s="11"/>
-      <c r="D134" s="13"/>
-      <c r="E134" s="10"/>
-      <c r="F134" s="12"/>
+      <c r="A134" s="39"/>
+      <c r="B134" s="40"/>
+      <c r="C134" s="40"/>
+      <c r="D134" s="41"/>
+      <c r="E134" s="39"/>
+      <c r="F134" s="42"/>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="10"/>
-      <c r="B135" s="11"/>
-      <c r="C135" s="11"/>
-      <c r="D135" s="13"/>
-      <c r="E135" s="10"/>
-      <c r="F135" s="12"/>
+      <c r="A135" s="39"/>
+      <c r="B135" s="40"/>
+      <c r="C135" s="40"/>
+      <c r="D135" s="41"/>
+      <c r="E135" s="39"/>
+      <c r="F135" s="42"/>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="10"/>
-      <c r="B136" s="11"/>
-      <c r="C136" s="11"/>
-      <c r="D136" s="13"/>
-      <c r="E136" s="10"/>
-      <c r="F136" s="12"/>
+      <c r="A136" s="39"/>
+      <c r="B136" s="40"/>
+      <c r="C136" s="40"/>
+      <c r="D136" s="41"/>
+      <c r="E136" s="39"/>
+      <c r="F136" s="42"/>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="10"/>
-      <c r="B137" s="11"/>
-      <c r="C137" s="11"/>
-      <c r="D137" s="13"/>
-      <c r="E137" s="10"/>
-      <c r="F137" s="12"/>
+      <c r="A137" s="39"/>
+      <c r="B137" s="40"/>
+      <c r="C137" s="40"/>
+      <c r="D137" s="41"/>
+      <c r="E137" s="39"/>
+      <c r="F137" s="42"/>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="10"/>
-      <c r="B138" s="11"/>
-      <c r="C138" s="11"/>
-      <c r="D138" s="13"/>
-      <c r="E138" s="10"/>
-      <c r="F138" s="12"/>
+      <c r="A138" s="39"/>
+      <c r="B138" s="40"/>
+      <c r="C138" s="40"/>
+      <c r="D138" s="41"/>
+      <c r="E138" s="39"/>
+      <c r="F138" s="42"/>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="10"/>
-      <c r="B139" s="11"/>
-      <c r="C139" s="11"/>
-      <c r="D139" s="13"/>
-      <c r="E139" s="10"/>
-      <c r="F139" s="12"/>
+      <c r="A139" s="39"/>
+      <c r="B139" s="40"/>
+      <c r="C139" s="40"/>
+      <c r="D139" s="41"/>
+      <c r="E139" s="39"/>
+      <c r="F139" s="42"/>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="10"/>
-      <c r="B140" s="11"/>
-      <c r="C140" s="11"/>
-      <c r="D140" s="13"/>
-      <c r="E140" s="10"/>
-      <c r="F140" s="12"/>
+      <c r="A140" s="39"/>
+      <c r="B140" s="40"/>
+      <c r="C140" s="40"/>
+      <c r="D140" s="41"/>
+      <c r="E140" s="39"/>
+      <c r="F140" s="42"/>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="10"/>
-      <c r="B141" s="11"/>
-      <c r="C141" s="11"/>
-      <c r="D141" s="13"/>
-      <c r="E141" s="10"/>
-      <c r="F141" s="12"/>
+      <c r="A141" s="39"/>
+      <c r="B141" s="40"/>
+      <c r="C141" s="40"/>
+      <c r="D141" s="41"/>
+      <c r="E141" s="39"/>
+      <c r="F141" s="42"/>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="10"/>
-      <c r="B142" s="11"/>
-      <c r="C142" s="11"/>
-      <c r="D142" s="13"/>
-      <c r="E142" s="10"/>
-      <c r="F142" s="12"/>
+      <c r="A142" s="39"/>
+      <c r="B142" s="40"/>
+      <c r="C142" s="40"/>
+      <c r="D142" s="41"/>
+      <c r="E142" s="39"/>
+      <c r="F142" s="42"/>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="10"/>
-      <c r="B143" s="11"/>
-      <c r="C143" s="11"/>
-      <c r="D143" s="13"/>
-      <c r="E143" s="10"/>
-      <c r="F143" s="12"/>
+      <c r="A143" s="39"/>
+      <c r="B143" s="40"/>
+      <c r="C143" s="40"/>
+      <c r="D143" s="41"/>
+      <c r="E143" s="39"/>
+      <c r="F143" s="42"/>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="10"/>
-      <c r="B144" s="11"/>
-      <c r="C144" s="11"/>
-      <c r="D144" s="13"/>
-      <c r="E144" s="10"/>
-      <c r="F144" s="12"/>
+      <c r="A144" s="39"/>
+      <c r="B144" s="40"/>
+      <c r="C144" s="40"/>
+      <c r="D144" s="41"/>
+      <c r="E144" s="39"/>
+      <c r="F144" s="42"/>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="10"/>
-      <c r="B145" s="11"/>
-      <c r="C145" s="11"/>
-      <c r="D145" s="13"/>
-      <c r="E145" s="10"/>
-      <c r="F145" s="12"/>
+      <c r="A145" s="39"/>
+      <c r="B145" s="40"/>
+      <c r="C145" s="40"/>
+      <c r="D145" s="41"/>
+      <c r="E145" s="39"/>
+      <c r="F145" s="42"/>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="10"/>
-      <c r="B146" s="11"/>
-      <c r="C146" s="11"/>
-      <c r="D146" s="13"/>
-      <c r="E146" s="10"/>
-      <c r="F146" s="12"/>
+      <c r="A146" s="39"/>
+      <c r="B146" s="40"/>
+      <c r="C146" s="40"/>
+      <c r="D146" s="41"/>
+      <c r="E146" s="39"/>
+      <c r="F146" s="42"/>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="10"/>
-      <c r="B147" s="11"/>
-      <c r="C147" s="11"/>
-      <c r="D147" s="13"/>
-      <c r="E147" s="10"/>
-      <c r="F147" s="12"/>
+      <c r="A147" s="39"/>
+      <c r="B147" s="40"/>
+      <c r="C147" s="40"/>
+      <c r="D147" s="41"/>
+      <c r="E147" s="39"/>
+      <c r="F147" s="42"/>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="10"/>
-      <c r="B148" s="11"/>
-      <c r="C148" s="11"/>
-      <c r="D148" s="13"/>
-      <c r="E148" s="10"/>
-      <c r="F148" s="12"/>
+      <c r="A148" s="39"/>
+      <c r="B148" s="40"/>
+      <c r="C148" s="40"/>
+      <c r="D148" s="41"/>
+      <c r="E148" s="39"/>
+      <c r="F148" s="42"/>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="10"/>
-      <c r="B149" s="11"/>
-      <c r="C149" s="11"/>
-      <c r="D149" s="13"/>
-      <c r="E149" s="10"/>
-      <c r="F149" s="12"/>
+      <c r="A149" s="39"/>
+      <c r="B149" s="40"/>
+      <c r="C149" s="40"/>
+      <c r="D149" s="41"/>
+      <c r="E149" s="39"/>
+      <c r="F149" s="42"/>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="10"/>
-      <c r="B150" s="11"/>
-      <c r="C150" s="11"/>
-      <c r="D150" s="13"/>
-      <c r="E150" s="10"/>
-      <c r="F150" s="12"/>
+      <c r="A150" s="39"/>
+      <c r="B150" s="40"/>
+      <c r="C150" s="40"/>
+      <c r="D150" s="41"/>
+      <c r="E150" s="39"/>
+      <c r="F150" s="42"/>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="10"/>
-      <c r="B151" s="11"/>
-      <c r="C151" s="11"/>
-      <c r="D151" s="13"/>
-      <c r="E151" s="10"/>
-      <c r="F151" s="12"/>
+      <c r="A151" s="39"/>
+      <c r="B151" s="40"/>
+      <c r="C151" s="40"/>
+      <c r="D151" s="41"/>
+      <c r="E151" s="39"/>
+      <c r="F151" s="42"/>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="10"/>
-      <c r="B152" s="11"/>
-      <c r="C152" s="11"/>
-      <c r="D152" s="13"/>
-      <c r="E152" s="10"/>
-      <c r="F152" s="12"/>
+      <c r="A152" s="39"/>
+      <c r="B152" s="40"/>
+      <c r="C152" s="40"/>
+      <c r="D152" s="41"/>
+      <c r="E152" s="39"/>
+      <c r="F152" s="42"/>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="10"/>
-      <c r="B153" s="11"/>
-      <c r="C153" s="11"/>
-      <c r="D153" s="13"/>
-      <c r="E153" s="10"/>
-      <c r="F153" s="12"/>
+      <c r="A153" s="39"/>
+      <c r="B153" s="40"/>
+      <c r="C153" s="40"/>
+      <c r="D153" s="41"/>
+      <c r="E153" s="39"/>
+      <c r="F153" s="42"/>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="10"/>
-      <c r="B154" s="11"/>
-      <c r="C154" s="11"/>
-      <c r="D154" s="13"/>
-      <c r="E154" s="10"/>
-      <c r="F154" s="12"/>
+      <c r="A154" s="39"/>
+      <c r="B154" s="40"/>
+      <c r="C154" s="40"/>
+      <c r="D154" s="41"/>
+      <c r="E154" s="39"/>
+      <c r="F154" s="42"/>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="10"/>
-      <c r="B155" s="11"/>
-      <c r="C155" s="11"/>
-      <c r="D155" s="13"/>
-      <c r="E155" s="10"/>
-      <c r="F155" s="12"/>
+      <c r="A155" s="39"/>
+      <c r="B155" s="40"/>
+      <c r="C155" s="40"/>
+      <c r="D155" s="41"/>
+      <c r="E155" s="39"/>
+      <c r="F155" s="42"/>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="10"/>
-      <c r="B156" s="11"/>
-      <c r="C156" s="11"/>
-      <c r="D156" s="13"/>
-      <c r="E156" s="10"/>
-      <c r="F156" s="12"/>
+      <c r="A156" s="39"/>
+      <c r="B156" s="40"/>
+      <c r="C156" s="40"/>
+      <c r="D156" s="41"/>
+      <c r="E156" s="39"/>
+      <c r="F156" s="42"/>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="10"/>
-      <c r="B157" s="11"/>
-      <c r="C157" s="11"/>
-      <c r="D157" s="13"/>
-      <c r="E157" s="10"/>
-      <c r="F157" s="12"/>
+      <c r="A157" s="39"/>
+      <c r="B157" s="40"/>
+      <c r="C157" s="40"/>
+      <c r="D157" s="41"/>
+      <c r="E157" s="39"/>
+      <c r="F157" s="42"/>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="10"/>
-      <c r="B158" s="11"/>
-      <c r="C158" s="11"/>
-      <c r="D158" s="13"/>
-      <c r="E158" s="10"/>
-      <c r="F158" s="12"/>
+      <c r="A158" s="39"/>
+      <c r="B158" s="40"/>
+      <c r="C158" s="40"/>
+      <c r="D158" s="41"/>
+      <c r="E158" s="39"/>
+      <c r="F158" s="42"/>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="10"/>
-      <c r="B159" s="11"/>
-      <c r="C159" s="11"/>
-      <c r="D159" s="13"/>
-      <c r="E159" s="10"/>
-      <c r="F159" s="12"/>
+      <c r="A159" s="39"/>
+      <c r="B159" s="40"/>
+      <c r="C159" s="40"/>
+      <c r="D159" s="41"/>
+      <c r="E159" s="39"/>
+      <c r="F159" s="42"/>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="10"/>
-      <c r="B160" s="11"/>
-      <c r="C160" s="11"/>
-      <c r="D160" s="13"/>
-      <c r="E160" s="10"/>
-      <c r="F160" s="12"/>
+      <c r="A160" s="39"/>
+      <c r="B160" s="40"/>
+      <c r="C160" s="40"/>
+      <c r="D160" s="41"/>
+      <c r="E160" s="39"/>
+      <c r="F160" s="42"/>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="10"/>
-      <c r="B161" s="11"/>
-      <c r="C161" s="11"/>
-      <c r="D161" s="13"/>
-      <c r="E161" s="10"/>
-      <c r="F161" s="12"/>
+      <c r="A161" s="39"/>
+      <c r="B161" s="40"/>
+      <c r="C161" s="40"/>
+      <c r="D161" s="41"/>
+      <c r="E161" s="39"/>
+      <c r="F161" s="42"/>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="10"/>
-      <c r="B162" s="11"/>
-      <c r="C162" s="11"/>
-      <c r="D162" s="13"/>
-      <c r="E162" s="10"/>
-      <c r="F162" s="12"/>
+      <c r="A162" s="39"/>
+      <c r="B162" s="40"/>
+      <c r="C162" s="40"/>
+      <c r="D162" s="41"/>
+      <c r="E162" s="39"/>
+      <c r="F162" s="42"/>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="10"/>
-      <c r="B163" s="11"/>
-      <c r="C163" s="11"/>
-      <c r="D163" s="13"/>
-      <c r="E163" s="10"/>
-      <c r="F163" s="12"/>
+      <c r="A163" s="39"/>
+      <c r="B163" s="40"/>
+      <c r="C163" s="40"/>
+      <c r="D163" s="41"/>
+      <c r="E163" s="39"/>
+      <c r="F163" s="42"/>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="10"/>
-      <c r="B164" s="11"/>
-      <c r="C164" s="11"/>
-      <c r="D164" s="13"/>
-      <c r="E164" s="10"/>
-      <c r="F164" s="12"/>
+      <c r="A164" s="39"/>
+      <c r="B164" s="40"/>
+      <c r="C164" s="40"/>
+      <c r="D164" s="41"/>
+      <c r="E164" s="39"/>
+      <c r="F164" s="42"/>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="10"/>
-      <c r="B165" s="11"/>
-      <c r="C165" s="11"/>
-      <c r="D165" s="13"/>
-      <c r="E165" s="10"/>
-      <c r="F165" s="12"/>
+      <c r="A165" s="39"/>
+      <c r="B165" s="40"/>
+      <c r="C165" s="40"/>
+      <c r="D165" s="41"/>
+      <c r="E165" s="39"/>
+      <c r="F165" s="42"/>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="10"/>
-      <c r="B166" s="11"/>
-      <c r="C166" s="11"/>
-      <c r="D166" s="13"/>
-      <c r="E166" s="10"/>
-      <c r="F166" s="12"/>
+      <c r="A166" s="39"/>
+      <c r="B166" s="40"/>
+      <c r="C166" s="40"/>
+      <c r="D166" s="41"/>
+      <c r="E166" s="39"/>
+      <c r="F166" s="42"/>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="10"/>
-      <c r="B167" s="11"/>
-      <c r="C167" s="11"/>
-      <c r="D167" s="13"/>
-      <c r="E167" s="10"/>
-      <c r="F167" s="12"/>
+      <c r="A167" s="39"/>
+      <c r="B167" s="40"/>
+      <c r="C167" s="40"/>
+      <c r="D167" s="41"/>
+      <c r="E167" s="39"/>
+      <c r="F167" s="42"/>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="10"/>
-      <c r="B168" s="11"/>
-      <c r="C168" s="11"/>
-      <c r="D168" s="13"/>
-      <c r="E168" s="10"/>
-      <c r="F168" s="12"/>
+      <c r="A168" s="39"/>
+      <c r="B168" s="40"/>
+      <c r="C168" s="40"/>
+      <c r="D168" s="41"/>
+      <c r="E168" s="39"/>
+      <c r="F168" s="42"/>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="10"/>
-      <c r="B169" s="11"/>
-      <c r="C169" s="11"/>
-      <c r="D169" s="13"/>
-      <c r="E169" s="10"/>
-      <c r="F169" s="12"/>
+      <c r="A169" s="39"/>
+      <c r="B169" s="40"/>
+      <c r="C169" s="40"/>
+      <c r="D169" s="41"/>
+      <c r="E169" s="39"/>
+      <c r="F169" s="42"/>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="10"/>
-      <c r="B170" s="11"/>
-      <c r="C170" s="11"/>
-      <c r="D170" s="13"/>
-      <c r="E170" s="10"/>
-      <c r="F170" s="12"/>
+      <c r="A170" s="39"/>
+      <c r="B170" s="40"/>
+      <c r="C170" s="40"/>
+      <c r="D170" s="41"/>
+      <c r="E170" s="39"/>
+      <c r="F170" s="42"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <conditionalFormatting sqref="A54:F73 A18:C33 E18:F33">
-    <cfRule type="expression" dxfId="5" priority="4">
+  <conditionalFormatting sqref="A18:C33 E18:F33 A54:F73">
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>$E18="★"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="12" priority="5">
       <formula>$E18="-"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="11" priority="6">
       <formula>$E18="○"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7720,10 +7873,13 @@
       <formula1>"★,○,-"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D76" r:id="rId1" xr:uid="{B3F8473A-3F5A-4776-8458-187ADDBAAA91}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -28564,13 +28720,13 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="A2:E30">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>$D2="★"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>$D2="-"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>$D2="○"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/PC移行時チェックリスト.xlsx
+++ b/PC移行時チェックリスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF4A29B-67F3-451D-B46F-442EC26D9D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F9DDB3-704C-4C41-9F37-F69FD2648416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32400" yWindow="-10470" windowWidth="32415" windowHeight="40725" activeTab="1" xr2:uid="{4766EE0F-731E-4860-9E19-7E5345AFF867}"/>
+    <workbookView xWindow="-32400" yWindow="-10485" windowWidth="32415" windowHeight="40725" activeTab="5" xr2:uid="{4766EE0F-731E-4860-9E19-7E5345AFF867}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="13" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2367" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2370" uniqueCount="714">
   <si>
     <t>タイミング</t>
     <phoneticPr fontId="4"/>
@@ -2920,6 +2920,18 @@
   <si>
     <t>設定(VIM)</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C:\prg\uvnc bvba\UltraVNC\vncviewer.exe</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UltraVNCViewer</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UltraVNC Viewer（RDP-Mac）</t>
+    <phoneticPr fontId="10"/>
   </si>
 </sst>
 </file>
@@ -4346,11 +4358,11 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -8166,12 +8178,12 @@
   </sheetPr>
   <dimension ref="A2:U204"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D54" sqref="D54"/>
       <selection pane="topRight" activeCell="D54" sqref="D54"/>
       <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
-      <selection pane="bottomRight" activeCell="J114" sqref="J114"/>
+      <selection pane="bottomRight" activeCell="J122" sqref="J122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.83203125" defaultRowHeight="11.25" outlineLevelCol="1"/>
@@ -16729,11 +16741,20 @@
       <c r="A119" s="23">
         <v>115</v>
       </c>
+      <c r="B119" s="23" t="s">
+        <v>712</v>
+      </c>
+      <c r="C119" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="D119" s="23" t="s">
+        <v>711</v>
+      </c>
       <c r="E119" s="23" t="s">
-        <v>201</v>
+        <v>332</v>
       </c>
       <c r="F119" s="23" t="s">
-        <v>201</v>
+        <v>713</v>
       </c>
       <c r="G119" s="23" t="s">
         <v>201</v>
@@ -16746,20 +16767,20 @@
         <v/>
       </c>
       <c r="K119" s="23" t="str">
-        <f>IFERROR(VLOOKUP($E119,私用_data!$C:$H,5,FALSE),"")</f>
-        <v/>
+        <f ca="1">IFERROR(VLOOKUP($E119,私用_data!$C:$H,5,FALSE),"")</f>
+        <v>620</v>
       </c>
       <c r="L119" s="23" t="str">
-        <f>IFERROR(VLOOKUP($E119,私用_data!$C:$H,6,FALSE),"")</f>
-        <v/>
+        <f ca="1">IFERROR(VLOOKUP($E119,私用_data!$C:$H,6,FALSE),"")</f>
+        <v>62</v>
       </c>
       <c r="M119" s="23" t="str">
-        <f>IF($B119="","","mkdir """&amp;N119&amp;""" &amp; """&amp;私用_概要!$C$7&amp;""" """&amp;N119&amp;"\"&amp;F119&amp;".lnk"" """&amp;D119&amp;"""")</f>
-        <v/>
+        <f ca="1">IF($B119="","","mkdir """&amp;N119&amp;""" &amp; """&amp;私用_概要!$C$7&amp;""" """&amp;N119&amp;"\"&amp;F119&amp;".lnk"" """&amp;D119&amp;"""")</f>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\620_Network_Local" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\620_Network_Local\UltraVNC Viewer（RDP-Mac）.lnk" "C:\prg\uvnc bvba\UltraVNC\vncviewer.exe"</v>
       </c>
       <c r="N119" s="23" t="str">
-        <f>IF($B119="","",私用_概要!$C$4&amp;"\"&amp;K119&amp;"_"&amp;E119)</f>
-        <v/>
+        <f ca="1">IF($B119="","",私用_概要!$C$4&amp;"\"&amp;K119&amp;"_"&amp;E119)</f>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\620_Network_Local</v>
       </c>
       <c r="O119" s="23" t="str">
         <f>IF($G119="-","",""""&amp;私用_概要!$C$7&amp;""" """&amp;$S119&amp;""" """&amp;$D119&amp;"""")</f>

--- a/PC移行時チェックリスト.xlsx
+++ b/PC移行時チェックリスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F9DDB3-704C-4C41-9F37-F69FD2648416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39E122C-3C8D-47B0-B588-B3B47C095228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32400" yWindow="-10485" windowWidth="32415" windowHeight="40725" activeTab="5" xr2:uid="{4766EE0F-731E-4860-9E19-7E5345AFF867}"/>
+    <workbookView xWindow="-32400" yWindow="-10470" windowWidth="32415" windowHeight="40725" activeTab="1" xr2:uid="{4766EE0F-731E-4860-9E19-7E5345AFF867}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="13" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2370" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="719">
   <si>
     <t>タイミング</t>
     <phoneticPr fontId="4"/>
@@ -2933,12 +2933,62 @@
     <t>UltraVNC Viewer（RDP-Mac）</t>
     <phoneticPr fontId="10"/>
   </si>
+  <si>
+    <t>Visioステンシル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C:\other\template\fav.vssx</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>fav.vssx</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>%USERPROFILE%\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>OneDrive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>\Documents\個人用図形\fav.vssx</t>
+    </r>
+  </si>
+  <si>
+    <t>★OneDrive⇔それ以外のパス切り替え</t>
+    <rPh sb="12" eb="14">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -3053,6 +3103,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00B0F0"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -4356,13 +4413,13 @@
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
+      <selection pane="bottomRight" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -5899,27 +5956,45 @@
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
+      <c r="A39" s="14" t="s">
+        <v>714</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>716</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>717</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>715</v>
+      </c>
       <c r="J39" s="14" t="str">
-        <f t="shared" ref="J39:J44" si="2">IF(F39="○","rename """&amp;H39&amp;""" """&amp;RIGHT(H39,LEN(H39)-FIND("●",SUBSTITUTE(H39,"\","●",LEN(H39)-LEN(SUBSTITUTE(H39,"\","")))))&amp;"_bak""","")</f>
-        <v/>
+        <f>IF(F39="○","rename """&amp;H39&amp;""" """&amp;RIGHT(H39,LEN(H39)-FIND("●",SUBSTITUTE(H39,"\","●",LEN(H39)-LEN(SUBSTITUTE(H39,"\","")))))&amp;"_bak""","")</f>
+        <v>rename "%USERPROFILE%\OneDrive\Documents\個人用図形\fav.vssx" "fav.vssx_bak"</v>
       </c>
       <c r="K39" s="14" t="str">
-        <f t="shared" ref="K39:K44" si="3">IF(G39&lt;&gt;"○","",
+        <f>IF(G39&lt;&gt;"○","",
 IF(
 D39="symbolic",
 "mklink "&amp;IF(E39="folder","/d ","")&amp;""""&amp;H39&amp;""" """&amp;I39&amp;"""",
 "powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;H39&amp;".lnk');$s.TargetPath='"&amp;I39&amp;"';$s.Save()"""
 ))</f>
-        <v/>
+        <v>mklink "%USERPROFILE%\OneDrive\Documents\個人用図形\fav.vssx" "C:\other\template\fav.vssx"</v>
       </c>
       <c r="L39" t="s">
         <v>65</v>
@@ -5936,11 +6011,16 @@
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
       <c r="J40" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J39:J44" si="2">IF(F40="○","rename """&amp;H40&amp;""" """&amp;RIGHT(H40,LEN(H40)-FIND("●",SUBSTITUTE(H40,"\","●",LEN(H40)-LEN(SUBSTITUTE(H40,"\","")))))&amp;"_bak""","")</f>
         <v/>
       </c>
       <c r="K40" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="K39:K44" si="3">IF(G40&lt;&gt;"○","",
+IF(
+D40="symbolic",
+"mklink "&amp;IF(E40="folder","/d ","")&amp;""""&amp;H40&amp;""" """&amp;I40&amp;"""",
+"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;H40&amp;".lnk');$s.TargetPath='"&amp;I40&amp;"';$s.Save()"""
+))</f>
         <v/>
       </c>
       <c r="L40" t="s">
@@ -6045,16 +6125,21 @@
         <v>128</v>
       </c>
     </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>718</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:F19 E20:F44" xr:uid="{60CC322B-9EB3-4D89-B01B-A544B01530D7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:F44" xr:uid="{60CC322B-9EB3-4D89-B01B-A544B01530D7}">
       <formula1>"file,folder"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D19 D20:D44" xr:uid="{0A17BE79-7904-4D38-BCC0-4D07C77549F3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D44" xr:uid="{0A17BE79-7904-4D38-BCC0-4D07C77549F3}">
       <formula1>"symbolic,shortcut"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:G19 F20:G44" xr:uid="{7FB2DFF1-E232-4BC5-AEE3-9BB8342879DC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:G44" xr:uid="{7FB2DFF1-E232-4BC5-AEE3-9BB8342879DC}">
       <formula1>"○,×"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8178,12 +8263,12 @@
   </sheetPr>
   <dimension ref="A2:U204"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D54" sqref="D54"/>
       <selection pane="topRight" activeCell="D54" sqref="D54"/>
       <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
-      <selection pane="bottomRight" activeCell="J122" sqref="J122"/>
+      <selection pane="bottomRight" activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.83203125" defaultRowHeight="11.25" outlineLevelCol="1"/>

--- a/PC移行時チェックリスト.xlsx
+++ b/PC移行時チェックリスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39E122C-3C8D-47B0-B588-B3B47C095228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A60C2E-C0FA-406E-B36A-2041FB7F97D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32400" yWindow="-10470" windowWidth="32415" windowHeight="40725" activeTab="1" xr2:uid="{4766EE0F-731E-4860-9E19-7E5345AFF867}"/>
+    <workbookView xWindow="2040" yWindow="-120" windowWidth="26880" windowHeight="16440" activeTab="6" xr2:uid="{4766EE0F-731E-4860-9E19-7E5345AFF867}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="13" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2384" uniqueCount="724">
   <si>
     <t>タイミング</t>
     <phoneticPr fontId="4"/>
@@ -2982,6 +2982,31 @@
       <t>カ</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>★WSLコマンド追加</t>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>sudo apt install universal-ctags</t>
+  </si>
+  <si>
+    <t>C:\codes\ttl\login_mac.ttl</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>login_mac.ttl</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ttm（SSH接続toMac＠Teraterm）</t>
+    <rPh sb="7" eb="9">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
   </si>
 </sst>
 </file>
@@ -4413,13 +4438,13 @@
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A50" sqref="A50"/>
+      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -6011,11 +6036,11 @@
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
       <c r="J40" s="14" t="str">
-        <f t="shared" ref="J39:J44" si="2">IF(F40="○","rename """&amp;H40&amp;""" """&amp;RIGHT(H40,LEN(H40)-FIND("●",SUBSTITUTE(H40,"\","●",LEN(H40)-LEN(SUBSTITUTE(H40,"\","")))))&amp;"_bak""","")</f>
+        <f t="shared" ref="J40:J44" si="2">IF(F40="○","rename """&amp;H40&amp;""" """&amp;RIGHT(H40,LEN(H40)-FIND("●",SUBSTITUTE(H40,"\","●",LEN(H40)-LEN(SUBSTITUTE(H40,"\","")))))&amp;"_bak""","")</f>
         <v/>
       </c>
       <c r="K40" s="14" t="str">
-        <f t="shared" ref="K39:K44" si="3">IF(G40&lt;&gt;"○","",
+        <f t="shared" ref="K40:K44" si="3">IF(G40&lt;&gt;"○","",
 IF(
 D40="symbolic",
 "mklink "&amp;IF(E40="folder","/d ","")&amp;""""&amp;H40&amp;""" """&amp;I40&amp;"""",
@@ -6128,6 +6153,16 @@
     <row r="48" spans="1:12">
       <c r="A48" t="s">
         <v>718</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>720</v>
       </c>
     </row>
   </sheetData>
@@ -8264,11 +8299,11 @@
   <dimension ref="A2:U204"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D74" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D54" sqref="D54"/>
       <selection pane="topRight" activeCell="D54" sqref="D54"/>
       <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
-      <selection pane="bottomRight" activeCell="A126" sqref="A126"/>
+      <selection pane="bottomRight" activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.83203125" defaultRowHeight="11.25" outlineLevelCol="1"/>
@@ -22446,12 +22481,12 @@
   </sheetPr>
   <dimension ref="A2:O110"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D54" sqref="D54"/>
       <selection pane="topRight" activeCell="D54" sqref="D54"/>
       <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
-      <selection pane="bottomRight" activeCell="H43" sqref="H43"/>
+      <selection pane="bottomRight" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.83203125" defaultRowHeight="11.25" outlineLevelCol="1"/>
@@ -24686,8 +24721,14 @@
       <c r="A46" s="23">
         <v>43</v>
       </c>
+      <c r="B46" s="23" t="s">
+        <v>722</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>721</v>
+      </c>
       <c r="D46" s="23" t="s">
-        <v>201</v>
+        <v>723</v>
       </c>
       <c r="E46" s="23" t="s">
         <v>201</v>
@@ -24697,11 +24738,11 @@
       </c>
       <c r="H46" s="23" t="str">
         <f>IF($D46="-","","mkdir """&amp;私用_概要!$C$4&amp;"\"&amp;私用_概要!$C$8&amp;""" &amp; """&amp;私用_概要!$C$7&amp;""" """&amp;$I46&amp;""" """&amp;$C46&amp;"""")</f>
-        <v/>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttm（SSH接続toMac＠Teraterm）.lnk" "C:\codes\ttl\login_mac.ttl"</v>
       </c>
       <c r="I46" s="23" t="str">
         <f>IF($D46="-","",私用_概要!$C$4&amp;"\"&amp;私用_概要!$C$8&amp;"\"&amp;D46&amp;".lnk")</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttm（SSH接続toMac＠Teraterm）.lnk</v>
       </c>
       <c r="J46" s="23" t="str">
         <f>IF($E46="-","",""""&amp;私用_概要!$C$7&amp;""" """&amp;$L46&amp;""" """&amp;$C46&amp;"""")</f>

--- a/PC移行時チェックリスト.xlsx
+++ b/PC移行時チェックリスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A60C2E-C0FA-406E-B36A-2041FB7F97D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A3FB0C-5C1F-496D-AEA3-4C324D8396B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="-120" windowWidth="26880" windowHeight="16440" activeTab="6" xr2:uid="{4766EE0F-731E-4860-9E19-7E5345AFF867}"/>
+    <workbookView xWindow="-32400" yWindow="-10470" windowWidth="32415" windowHeight="40725" xr2:uid="{4766EE0F-731E-4860-9E19-7E5345AFF867}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="13" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2384" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="725">
   <si>
     <t>タイミング</t>
     <phoneticPr fontId="4"/>
@@ -3007,6 +3007,16 @@
       <t>セツゾク</t>
     </rPh>
     <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>root配下 git管理</t>
+    <rPh sb="4" eb="6">
+      <t>ハイカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -4263,7 +4273,7 @@
   </sheetPr>
   <dimension ref="C3:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -6264,7 +6274,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
+      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="13.5"/>
@@ -22481,12 +22491,12 @@
   </sheetPr>
   <dimension ref="A2:O110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D54" sqref="D54"/>
       <selection pane="topRight" activeCell="D54" sqref="D54"/>
       <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
-      <selection pane="bottomRight" activeCell="F46" sqref="F46"/>
+      <selection pane="bottomRight" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.83203125" defaultRowHeight="11.25" outlineLevelCol="1"/>
@@ -28518,7 +28528,7 @@
     <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G44" sqref="G44"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="18.75"/>
@@ -28874,8 +28884,12 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="6"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="8"/>
+      <c r="B23" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>724</v>
+      </c>
       <c r="D23" s="6"/>
       <c r="E23" s="7"/>
       <c r="F23" s="2"/>

--- a/PC移行時チェックリスト.xlsx
+++ b/PC移行時チェックリスト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A3FB0C-5C1F-496D-AEA3-4C324D8396B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C42523-1847-41FD-B618-C42D3FBE4174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32400" yWindow="-10470" windowWidth="32415" windowHeight="40725" xr2:uid="{4766EE0F-731E-4860-9E19-7E5345AFF867}"/>
+    <workbookView xWindow="2040" yWindow="-120" windowWidth="26880" windowHeight="16440" activeTab="5" xr2:uid="{4766EE0F-731E-4860-9E19-7E5345AFF867}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="13" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="728">
   <si>
     <t>タイミング</t>
     <phoneticPr fontId="4"/>
@@ -2752,9 +2752,6 @@
   </si>
   <si>
     <t>%USERPROFILE%\programs\prg_exe\WinShot\WinShot.exe</t>
-  </si>
-  <si>
-    <t>%USERPROFILE%\programs\prg_exe\WinSplitRevolution\WinSplit.exe</t>
   </si>
   <si>
     <t>%USERPROFILE%\programs\prg_exe\X-Finder\XF.exe</t>
@@ -3017,6 +3014,22 @@
       <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>%USERPROFILE%\programs\prg_exe\WinSplitRevolution\WinSplit.exe</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>%USERPROFILE%\programs\prg_exe\RealVNC-Viewer\RealVNC-Viewer.exe</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>RealVNC-Viewer</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>RealVNC-Viewer（RDP-Mac）</t>
+    <phoneticPr fontId="10"/>
   </si>
 </sst>
 </file>
@@ -4273,7 +4286,7 @@
   </sheetPr>
   <dimension ref="C3:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -4454,7 +4467,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -4817,7 +4830,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="22" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>80</v>
@@ -4838,7 +4851,7 @@
         <v>6</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>16</v>
@@ -4857,7 +4870,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="22" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>81</v>
@@ -4897,7 +4910,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="22" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>82</v>
@@ -4937,7 +4950,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="22" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>83</v>
@@ -5217,10 +5230,10 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="14" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>560</v>
@@ -5238,10 +5251,10 @@
         <v>6</v>
       </c>
       <c r="H20" s="14" t="s">
+        <v>701</v>
+      </c>
+      <c r="I20" s="14" t="s">
         <v>702</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>703</v>
       </c>
       <c r="J20" s="14" t="str">
         <f>IF(F20="○","rename """&amp;H20&amp;""" """&amp;RIGHT(H20,LEN(H20)-FIND("●",SUBSTITUTE(H20,"\","●",LEN(H20)-LEN(SUBSTITUTE(H20,"\","")))))&amp;"_bak""","")</f>
@@ -5262,10 +5275,10 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="14" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>560</v>
@@ -5283,10 +5296,10 @@
         <v>6</v>
       </c>
       <c r="H21" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="I21" s="14" t="s">
         <v>704</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>705</v>
       </c>
       <c r="J21" s="14" t="str">
         <f>IF(F21="○","rename """&amp;H21&amp;""" """&amp;RIGHT(H21,LEN(H21)-FIND("●",SUBSTITUTE(H21,"\","●",LEN(H21)-LEN(SUBSTITUTE(H21,"\","")))))&amp;"_bak""","")</f>
@@ -5307,7 +5320,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="22" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>108</v>
@@ -5331,7 +5344,7 @@
         <v>29</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J22" s="14" t="str">
         <f>IF(F22="○","rename """&amp;H22&amp;""" """&amp;RIGHT(H22,LEN(H22)-FIND("●",SUBSTITUTE(H22,"\","●",LEN(H22)-LEN(SUBSTITUTE(H22,"\","")))))&amp;"_bak""","")</f>
@@ -5435,7 +5448,7 @@
         <v>91</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>559</v>
@@ -5453,10 +5466,10 @@
         <v>6</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J25" s="14" t="str">
         <f t="shared" si="0"/>
@@ -5952,7 +5965,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="14" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>109</v>
@@ -5992,10 +6005,10 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="14" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>560</v>
@@ -6013,10 +6026,10 @@
         <v>6</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="J39" s="14" t="str">
         <f>IF(F39="○","rename """&amp;H39&amp;""" """&amp;RIGHT(H39,LEN(H39)-FIND("●",SUBSTITUTE(H39,"\","●",LEN(H39)-LEN(SUBSTITUTE(H39,"\","")))))&amp;"_bak""","")</f>
@@ -6162,17 +6175,17 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
   </sheetData>
@@ -6210,52 +6223,52 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
   </sheetData>
@@ -6291,10 +6304,10 @@
   <sheetData>
     <row r="1" spans="1:11" ht="34.15" customHeight="1">
       <c r="A1" s="33" t="s">
+        <v>695</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>696</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>697</v>
       </c>
       <c r="C1" s="34" t="s">
         <v>1</v>
@@ -6313,7 +6326,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="39" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B2" s="40"/>
       <c r="C2" s="40" t="s">
@@ -6329,7 +6342,7 @@
     </row>
     <row r="3" spans="1:11" ht="27">
       <c r="A3" s="39" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B3" s="40"/>
       <c r="C3" s="40" t="s">
@@ -6345,7 +6358,7 @@
     </row>
     <row r="4" spans="1:11" ht="27">
       <c r="A4" s="39" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
@@ -6359,7 +6372,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="39" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B5" s="40"/>
       <c r="C5" s="40" t="s">
@@ -6375,7 +6388,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="39" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="40" t="s">
@@ -6391,7 +6404,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="39" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B7" s="40"/>
       <c r="C7" s="40" t="s">
@@ -6407,7 +6420,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="39" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B8" s="40"/>
       <c r="C8" s="40" t="s">
@@ -6423,7 +6436,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="39" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B9" s="40"/>
       <c r="C9" s="40" t="s">
@@ -6439,7 +6452,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="39" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B10" s="40"/>
       <c r="C10" s="40" t="s">
@@ -6455,7 +6468,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="39" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B11" s="40"/>
       <c r="C11" s="40" t="s">
@@ -6471,7 +6484,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="39" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B12" s="40"/>
       <c r="C12" s="40" t="s">
@@ -6488,7 +6501,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="39" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B13" s="40"/>
       <c r="C13" s="40" t="s">
@@ -6505,7 +6518,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="39" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B14" s="40"/>
       <c r="C14" s="40" t="s">
@@ -6522,7 +6535,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="39" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B15" s="40"/>
       <c r="C15" s="40" t="s">
@@ -6539,7 +6552,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="39" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="40" t="s">
@@ -6556,14 +6569,14 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="39" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B17" s="40"/>
       <c r="C17" s="40" t="s">
         <v>164</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E17" s="39"/>
       <c r="F17" s="42"/>
@@ -6574,7 +6587,7 @@
     <row r="18" spans="1:11">
       <c r="A18" s="43"/>
       <c r="B18" s="43" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C18" s="43" t="s">
         <v>167</v>
@@ -6591,7 +6604,7 @@
     <row r="19" spans="1:11" ht="27">
       <c r="A19" s="43"/>
       <c r="B19" s="43" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C19" s="43" t="s">
         <v>167</v>
@@ -6608,7 +6621,7 @@
     <row r="20" spans="1:11" ht="27">
       <c r="A20" s="43"/>
       <c r="B20" s="43" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C20" s="43" t="s">
         <v>167</v>
@@ -6625,7 +6638,7 @@
     <row r="21" spans="1:11">
       <c r="A21" s="43"/>
       <c r="B21" s="43" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C21" s="43" t="s">
         <v>167</v>
@@ -6642,7 +6655,7 @@
     <row r="22" spans="1:11">
       <c r="A22" s="43"/>
       <c r="B22" s="43" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C22" s="43" t="s">
         <v>167</v>
@@ -6659,7 +6672,7 @@
     <row r="23" spans="1:11">
       <c r="A23" s="43"/>
       <c r="B23" s="43" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C23" s="43" t="s">
         <v>167</v>
@@ -6676,7 +6689,7 @@
     <row r="24" spans="1:11">
       <c r="A24" s="43"/>
       <c r="B24" s="43" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C24" s="43" t="s">
         <v>167</v>
@@ -6693,7 +6706,7 @@
     <row r="25" spans="1:11">
       <c r="A25" s="43"/>
       <c r="B25" s="43" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C25" s="43" t="s">
         <v>167</v>
@@ -6710,7 +6723,7 @@
     <row r="26" spans="1:11">
       <c r="A26" s="43"/>
       <c r="B26" s="43" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C26" s="43" t="s">
         <v>167</v>
@@ -6727,7 +6740,7 @@
     <row r="27" spans="1:11">
       <c r="A27" s="43"/>
       <c r="B27" s="45" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C27" s="45" t="s">
         <v>167</v>
@@ -6744,7 +6757,7 @@
     <row r="28" spans="1:11">
       <c r="A28" s="43"/>
       <c r="B28" s="45" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C28" s="45" t="s">
         <v>167</v>
@@ -6761,7 +6774,7 @@
     <row r="29" spans="1:11">
       <c r="A29" s="43"/>
       <c r="B29" s="45" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C29" s="45" t="s">
         <v>167</v>
@@ -6778,7 +6791,7 @@
     <row r="30" spans="1:11">
       <c r="A30" s="43"/>
       <c r="B30" s="45" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C30" s="45" t="s">
         <v>167</v>
@@ -6795,7 +6808,7 @@
     <row r="31" spans="1:11">
       <c r="A31" s="43"/>
       <c r="B31" s="45" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C31" s="45" t="s">
         <v>167</v>
@@ -6812,7 +6825,7 @@
     <row r="32" spans="1:11">
       <c r="A32" s="43"/>
       <c r="B32" s="45" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C32" s="45" t="s">
         <v>167</v>
@@ -6829,13 +6842,13 @@
     <row r="33" spans="1:11">
       <c r="A33" s="43"/>
       <c r="B33" s="45" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C33" s="45" t="s">
         <v>167</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E33" s="43"/>
       <c r="F33" s="44"/>
@@ -6846,7 +6859,7 @@
     <row r="34" spans="1:11">
       <c r="A34" s="39"/>
       <c r="B34" s="40" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C34" s="40" t="s">
         <v>129</v>
@@ -6863,7 +6876,7 @@
     <row r="35" spans="1:11">
       <c r="A35" s="39"/>
       <c r="B35" s="40" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C35" s="40" t="s">
         <v>129</v>
@@ -6880,7 +6893,7 @@
     <row r="36" spans="1:11">
       <c r="A36" s="39"/>
       <c r="B36" s="40" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C36" s="40" t="s">
         <v>129</v>
@@ -6897,7 +6910,7 @@
     <row r="37" spans="1:11">
       <c r="A37" s="39"/>
       <c r="B37" s="40" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C37" s="40" t="s">
         <v>129</v>
@@ -6914,7 +6927,7 @@
     <row r="38" spans="1:11">
       <c r="A38" s="39"/>
       <c r="B38" s="40" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C38" s="40" t="s">
         <v>129</v>
@@ -6931,7 +6944,7 @@
     <row r="39" spans="1:11">
       <c r="A39" s="39"/>
       <c r="B39" s="40" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C39" s="40" t="s">
         <v>129</v>
@@ -6948,7 +6961,7 @@
     <row r="40" spans="1:11">
       <c r="A40" s="39"/>
       <c r="B40" s="40" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C40" s="40" t="s">
         <v>129</v>
@@ -6965,7 +6978,7 @@
     <row r="41" spans="1:11">
       <c r="A41" s="39"/>
       <c r="B41" s="40" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C41" s="40" t="s">
         <v>129</v>
@@ -6982,7 +6995,7 @@
     <row r="42" spans="1:11">
       <c r="A42" s="39"/>
       <c r="B42" s="40" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C42" s="40" t="s">
         <v>129</v>
@@ -6999,7 +7012,7 @@
     <row r="43" spans="1:11">
       <c r="A43" s="39"/>
       <c r="B43" s="40" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C43" s="40" t="s">
         <v>129</v>
@@ -7016,7 +7029,7 @@
     <row r="44" spans="1:11">
       <c r="A44" s="39"/>
       <c r="B44" s="40" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C44" s="40" t="s">
         <v>129</v>
@@ -7033,7 +7046,7 @@
     <row r="45" spans="1:11">
       <c r="A45" s="39"/>
       <c r="B45" s="40" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C45" s="40" t="s">
         <v>129</v>
@@ -7050,7 +7063,7 @@
     <row r="46" spans="1:11">
       <c r="A46" s="39"/>
       <c r="B46" s="40" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C46" s="40" t="s">
         <v>129</v>
@@ -7067,7 +7080,7 @@
     <row r="47" spans="1:11">
       <c r="A47" s="39"/>
       <c r="B47" s="40" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C47" s="40" t="s">
         <v>129</v>
@@ -7082,7 +7095,7 @@
     <row r="48" spans="1:11">
       <c r="A48" s="39"/>
       <c r="B48" s="40" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C48" s="40" t="s">
         <v>129</v>
@@ -7097,7 +7110,7 @@
     <row r="49" spans="1:10">
       <c r="A49" s="39"/>
       <c r="B49" s="40" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C49" s="40" t="s">
         <v>129</v>
@@ -7112,7 +7125,7 @@
     <row r="50" spans="1:10">
       <c r="A50" s="39"/>
       <c r="B50" s="40" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C50" s="40" t="s">
         <v>129</v>
@@ -7127,7 +7140,7 @@
     <row r="51" spans="1:10">
       <c r="A51" s="39"/>
       <c r="B51" s="40" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C51" s="40" t="s">
         <v>129</v>
@@ -7142,7 +7155,7 @@
     <row r="52" spans="1:10">
       <c r="A52" s="39"/>
       <c r="B52" s="40" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C52" s="40" t="s">
         <v>129</v>
@@ -7159,7 +7172,7 @@
     <row r="53" spans="1:10">
       <c r="A53" s="39"/>
       <c r="B53" s="40" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C53" s="40" t="s">
         <v>129</v>
@@ -7174,7 +7187,7 @@
     <row r="54" spans="1:10">
       <c r="A54" s="43"/>
       <c r="B54" s="43" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C54" s="43"/>
       <c r="D54" s="46" t="s">
@@ -7187,7 +7200,7 @@
     <row r="55" spans="1:10">
       <c r="A55" s="43"/>
       <c r="B55" s="43" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C55" s="43"/>
       <c r="D55" s="46" t="s">
@@ -7200,7 +7213,7 @@
     <row r="56" spans="1:10">
       <c r="A56" s="43"/>
       <c r="B56" s="43" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C56" s="43"/>
       <c r="D56" s="46" t="s">
@@ -7216,7 +7229,7 @@
     <row r="57" spans="1:10">
       <c r="A57" s="43"/>
       <c r="B57" s="43" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C57" s="43"/>
       <c r="D57" s="46" t="s">
@@ -7228,7 +7241,7 @@
     <row r="58" spans="1:10">
       <c r="A58" s="43"/>
       <c r="B58" s="43" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C58" s="43"/>
       <c r="D58" s="46" t="s">
@@ -7240,7 +7253,7 @@
     <row r="59" spans="1:10">
       <c r="A59" s="43"/>
       <c r="B59" s="43" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C59" s="43"/>
       <c r="D59" s="46" t="s">
@@ -7252,7 +7265,7 @@
     <row r="60" spans="1:10">
       <c r="A60" s="43"/>
       <c r="B60" s="43" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C60" s="43"/>
       <c r="D60" s="46" t="s">
@@ -7264,7 +7277,7 @@
     <row r="61" spans="1:10">
       <c r="A61" s="43"/>
       <c r="B61" s="43" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C61" s="43"/>
       <c r="D61" s="46" t="s">
@@ -7276,7 +7289,7 @@
     <row r="62" spans="1:10">
       <c r="A62" s="43"/>
       <c r="B62" s="43" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C62" s="43"/>
       <c r="D62" s="46" t="s">
@@ -7288,7 +7301,7 @@
     <row r="63" spans="1:10">
       <c r="A63" s="43"/>
       <c r="B63" s="43" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C63" s="43"/>
       <c r="D63" s="46" t="s">
@@ -7300,7 +7313,7 @@
     <row r="64" spans="1:10">
       <c r="A64" s="43"/>
       <c r="B64" s="43" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C64" s="43"/>
       <c r="D64" s="46" t="s">
@@ -7312,7 +7325,7 @@
     <row r="65" spans="1:6">
       <c r="A65" s="43"/>
       <c r="B65" s="43" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C65" s="43"/>
       <c r="D65" s="46" t="s">
@@ -7324,7 +7337,7 @@
     <row r="66" spans="1:6">
       <c r="A66" s="43"/>
       <c r="B66" s="43" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C66" s="43"/>
       <c r="D66" s="46" t="s">
@@ -7336,7 +7349,7 @@
     <row r="67" spans="1:6">
       <c r="A67" s="43"/>
       <c r="B67" s="43" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C67" s="43"/>
       <c r="D67" s="46" t="s">
@@ -7348,7 +7361,7 @@
     <row r="68" spans="1:6">
       <c r="A68" s="43"/>
       <c r="B68" s="45" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C68" s="45"/>
       <c r="D68" s="46" t="s">
@@ -7360,7 +7373,7 @@
     <row r="69" spans="1:6">
       <c r="A69" s="43"/>
       <c r="B69" s="45" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C69" s="45"/>
       <c r="D69" s="46" t="s">
@@ -7372,7 +7385,7 @@
     <row r="70" spans="1:6">
       <c r="A70" s="43"/>
       <c r="B70" s="45" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C70" s="45"/>
       <c r="D70" s="46" t="s">
@@ -7384,7 +7397,7 @@
     <row r="71" spans="1:6">
       <c r="A71" s="43"/>
       <c r="B71" s="45" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C71" s="45"/>
       <c r="D71" s="46" t="s">
@@ -7396,7 +7409,7 @@
     <row r="72" spans="1:6">
       <c r="A72" s="43"/>
       <c r="B72" s="45" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C72" s="45"/>
       <c r="D72" s="46" t="s">
@@ -7408,7 +7421,7 @@
     <row r="73" spans="1:6">
       <c r="A73" s="43"/>
       <c r="B73" s="45" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C73" s="45"/>
       <c r="D73" s="46" t="s">
@@ -7420,7 +7433,7 @@
     <row r="74" spans="1:6">
       <c r="A74" s="39"/>
       <c r="B74" s="40" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C74" s="40"/>
       <c r="D74" s="41" t="s">
@@ -7432,11 +7445,11 @@
     <row r="75" spans="1:6">
       <c r="A75" s="39"/>
       <c r="B75" s="40" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C75" s="40"/>
       <c r="D75" s="41" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E75" s="39"/>
       <c r="F75" s="42"/>
@@ -7444,11 +7457,11 @@
     <row r="76" spans="1:6">
       <c r="A76" s="39"/>
       <c r="B76" s="40" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C76" s="40"/>
       <c r="D76" s="48" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E76" s="39"/>
       <c r="F76" s="42"/>
@@ -8308,12 +8321,12 @@
   </sheetPr>
   <dimension ref="A2:U204"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D74" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="E74" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D54" sqref="D54"/>
       <selection pane="topRight" activeCell="D54" sqref="D54"/>
       <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
-      <selection pane="bottomRight" activeCell="D120" sqref="D120"/>
+      <selection pane="bottomRight" activeCell="M120" sqref="M120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.83203125" defaultRowHeight="11.25" outlineLevelCol="1"/>
@@ -16063,7 +16076,7 @@
         <v>198</v>
       </c>
       <c r="D108" s="23" t="s">
-        <v>675</v>
+        <v>724</v>
       </c>
       <c r="E108" s="23" t="s">
         <v>216</v>
@@ -16211,7 +16224,7 @@
         <v>198</v>
       </c>
       <c r="D110" s="23" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E110" s="23" t="s">
         <v>203</v>
@@ -16434,7 +16447,7 @@
         <v>408</v>
       </c>
       <c r="D113" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E113" s="23" t="s">
         <v>283</v>
@@ -16872,19 +16885,19 @@
         <v>115</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C119" s="23" t="s">
         <v>405</v>
       </c>
       <c r="D119" s="23" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E119" s="23" t="s">
         <v>332</v>
       </c>
       <c r="F119" s="23" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G119" s="23" t="s">
         <v>201</v>
@@ -16945,11 +16958,20 @@
       <c r="A120" s="23">
         <v>116</v>
       </c>
+      <c r="B120" s="23" t="s">
+        <v>726</v>
+      </c>
+      <c r="C120" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D120" s="23" t="s">
+        <v>725</v>
+      </c>
       <c r="E120" s="23" t="s">
-        <v>201</v>
+        <v>332</v>
       </c>
       <c r="F120" s="23" t="s">
-        <v>201</v>
+        <v>727</v>
       </c>
       <c r="G120" s="23" t="s">
         <v>201</v>
@@ -16962,20 +16984,20 @@
         <v/>
       </c>
       <c r="K120" s="23" t="str">
-        <f>IFERROR(VLOOKUP($E120,私用_data!$C:$H,5,FALSE),"")</f>
-        <v/>
+        <f ca="1">IFERROR(VLOOKUP($E120,私用_data!$C:$H,5,FALSE),"")</f>
+        <v>620</v>
       </c>
       <c r="L120" s="23" t="str">
-        <f>IFERROR(VLOOKUP($E120,私用_data!$C:$H,6,FALSE),"")</f>
-        <v/>
+        <f ca="1">IFERROR(VLOOKUP($E120,私用_data!$C:$H,6,FALSE),"")</f>
+        <v>62</v>
       </c>
       <c r="M120" s="23" t="str">
-        <f>IF($B120="","","mkdir """&amp;N120&amp;""" &amp; """&amp;私用_概要!$C$7&amp;""" """&amp;N120&amp;"\"&amp;F120&amp;".lnk"" """&amp;D120&amp;"""")</f>
-        <v/>
+        <f ca="1">IF($B120="","","mkdir """&amp;N120&amp;""" &amp; """&amp;私用_概要!$C$7&amp;""" """&amp;N120&amp;"\"&amp;F120&amp;".lnk"" """&amp;D120&amp;"""")</f>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\620_Network_Local" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\620_Network_Local\RealVNC-Viewer（RDP-Mac）.lnk" "%USERPROFILE%\programs\prg_exe\RealVNC-Viewer\RealVNC-Viewer.exe"</v>
       </c>
       <c r="N120" s="23" t="str">
-        <f>IF($B120="","",私用_概要!$C$4&amp;"\"&amp;K120&amp;"_"&amp;E120)</f>
-        <v/>
+        <f ca="1">IF($B120="","",私用_概要!$C$4&amp;"\"&amp;K120&amp;"_"&amp;E120)</f>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\620_Network_Local</v>
       </c>
       <c r="O120" s="23" t="str">
         <f>IF($G120="-","",""""&amp;私用_概要!$C$7&amp;""" """&amp;$S120&amp;""" """&amp;$D120&amp;"""")</f>
@@ -24732,13 +24754,13 @@
         <v>43</v>
       </c>
       <c r="B46" s="23" t="s">
+        <v>721</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>720</v>
+      </c>
+      <c r="D46" s="23" t="s">
         <v>722</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>721</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>723</v>
       </c>
       <c r="E46" s="23" t="s">
         <v>201</v>
@@ -28888,7 +28910,7 @@
         <v>522</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="7"/>

--- a/PC移行時チェックリスト.xlsx
+++ b/PC移行時チェックリスト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C42523-1847-41FD-B618-C42D3FBE4174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F478245-0BFE-4467-ACA1-00EA26E08F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="-120" windowWidth="26880" windowHeight="16440" activeTab="5" xr2:uid="{4766EE0F-731E-4860-9E19-7E5345AFF867}"/>
+    <workbookView xWindow="2040" yWindow="-120" windowWidth="26880" windowHeight="16440" activeTab="6" xr2:uid="{4766EE0F-731E-4860-9E19-7E5345AFF867}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="13" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2411" uniqueCount="756">
   <si>
     <t>タイミング</t>
     <phoneticPr fontId="4"/>
@@ -1926,9 +1926,6 @@
   <si>
     <t>C:\codes\vbs\tools\win\other\PopupTimeSignal.vbs</t>
     <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>C:\codes\vbs\tools\win\other\StartupWsl.vbs</t>
   </si>
   <si>
     <t>Common</t>
@@ -3030,6 +3027,142 @@
   <si>
     <t>RealVNC-Viewer（RDP-Mac）</t>
     <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>C:\prg\LibreOffice\program\soffice.exe</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>LibreOffice</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>LibreOffice</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>C:\prg\iTunes\iTunes.exe</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>iTunes</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>iTunes</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>C:\prg\DigiDNA\iMazing Converter\iMazing Converter.exe</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>iMazing Converter</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>iMazingConverter（HEIC→JPG変換）</t>
+    <rPh sb="25" eb="27">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C:\codes\vbs\tools\win\other\StartupWsl.vbs</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C:\codes\ttl\login_robocip_server.ttl</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>login_robocip_server.ttl</t>
+  </si>
+  <si>
+    <t>ttr（SSH接続toRobocipServer＠Teraterm）</t>
+    <rPh sb="7" eb="9">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>C:\codes\winscp\login_robocip_server.bat</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>login_robocip_server.bat</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>wsr（SFTP接続toRobocipServer＠WinSCP）</t>
+    <rPh sb="8" eb="10">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>C:\codes\winscp\login_raspberrypi.bat</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>login_raspberrypi.bat</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>wsr（SFTP接続toRaspberryPi＠WinSCP）</t>
+    <rPh sb="8" eb="10">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>C:\codes\vcxsrv\config.xlaunch</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>config.xlaunch</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C:\prg_exe\ClickStamper\ClickStamper.exe</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C:\prg\VcXsrv\xlaunch.exe</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>VcXsrv</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ClickStamper</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ClickStamper（電子印作成）</t>
+    <rPh sb="13" eb="15">
+      <t>デンシ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>イン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>VcXsrv（X11サーバー）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -3295,7 +3428,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3426,6 +3559,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4280,7 +4419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3B1885-7ADF-4EF5-BB14-51F21FAD913F}">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <tabColor theme="8" tint="0.79998168889431442"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -4294,26 +4433,26 @@
   <sheetData>
     <row r="3" spans="3:7">
       <c r="C3" t="s">
+        <v>555</v>
+      </c>
+      <c r="G3" t="s">
         <v>556</v>
-      </c>
-      <c r="G3" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="4" spans="3:7">
       <c r="C4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="5" spans="3:7">
       <c r="C5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -4324,7 +4463,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B994AFC-7BB5-4B7E-8CCB-CE443B1CFA59}">
-  <sheetPr>
+  <sheetPr codeName="Sheet10">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:C10"/>
@@ -4350,10 +4489,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="32" t="s">
+        <v>534</v>
+      </c>
+      <c r="B2" t="s">
         <v>535</v>
-      </c>
-      <c r="B2" t="s">
-        <v>536</v>
       </c>
       <c r="C2" t="str">
         <f>"mkdir ""%USERPROFILE%\_root\"&amp;A2&amp;""""</f>
@@ -4362,10 +4501,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="32" t="s">
+        <v>536</v>
+      </c>
+      <c r="B3" t="s">
         <v>537</v>
-      </c>
-      <c r="B3" t="s">
-        <v>538</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C9" si="0">"mkdir ""%USERPROFILE%\_root\"&amp;A3&amp;""""</f>
@@ -4374,10 +4513,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="32" t="s">
+        <v>538</v>
+      </c>
+      <c r="B4" t="s">
         <v>539</v>
-      </c>
-      <c r="B4" t="s">
-        <v>540</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -4386,10 +4525,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="B5" t="s">
         <v>541</v>
-      </c>
-      <c r="B5" t="s">
-        <v>542</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -4398,10 +4537,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="32" t="s">
+        <v>542</v>
+      </c>
+      <c r="B6" t="s">
         <v>543</v>
-      </c>
-      <c r="B6" t="s">
-        <v>544</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -4410,10 +4549,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="32" t="s">
+        <v>544</v>
+      </c>
+      <c r="B7" t="s">
         <v>545</v>
-      </c>
-      <c r="B7" t="s">
-        <v>546</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -4422,10 +4561,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="32" t="s">
+        <v>546</v>
+      </c>
+      <c r="B8" t="s">
         <v>547</v>
-      </c>
-      <c r="B8" t="s">
-        <v>548</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -4434,10 +4573,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="32" t="s">
+        <v>548</v>
+      </c>
+      <c r="B9" t="s">
         <v>549</v>
-      </c>
-      <c r="B9" t="s">
-        <v>550</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -4446,7 +4585,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="C10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -4458,7 +4597,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E542800-9A9D-462F-B766-66624AB39BBF}">
-  <sheetPr>
+  <sheetPr codeName="Sheet2">
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:L50"/>
@@ -4508,7 +4647,7 @@
         <v>72</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>31</v>
@@ -4546,7 +4685,7 @@
         <v>57</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>34</v>
@@ -4591,7 +4730,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>34</v>
@@ -4631,7 +4770,7 @@
         <v>74</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>34</v>
@@ -4671,7 +4810,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>34</v>
@@ -4716,7 +4855,7 @@
         <v>76</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>34</v>
@@ -4756,7 +4895,7 @@
         <v>77</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>34</v>
@@ -4796,7 +4935,7 @@
         <v>78</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>34</v>
@@ -4830,13 +4969,13 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="22" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>80</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>34</v>
@@ -4851,7 +4990,7 @@
         <v>6</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>16</v>
@@ -4870,13 +5009,13 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="22" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>81</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>34</v>
@@ -4910,13 +5049,13 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="22" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>82</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>34</v>
@@ -4950,13 +5089,13 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="22" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>83</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>34</v>
@@ -4996,7 +5135,7 @@
         <v>85</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>34</v>
@@ -5036,7 +5175,7 @@
         <v>86</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>34</v>
@@ -5076,7 +5215,7 @@
         <v>87</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>34</v>
@@ -5116,7 +5255,7 @@
         <v>88</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>34</v>
@@ -5156,7 +5295,7 @@
         <v>89</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>34</v>
@@ -5196,7 +5335,7 @@
         <v>90</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>34</v>
@@ -5230,13 +5369,13 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="14" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>34</v>
@@ -5251,10 +5390,10 @@
         <v>6</v>
       </c>
       <c r="H20" s="14" t="s">
+        <v>700</v>
+      </c>
+      <c r="I20" s="14" t="s">
         <v>701</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>702</v>
       </c>
       <c r="J20" s="14" t="str">
         <f>IF(F20="○","rename """&amp;H20&amp;""" """&amp;RIGHT(H20,LEN(H20)-FIND("●",SUBSTITUTE(H20,"\","●",LEN(H20)-LEN(SUBSTITUTE(H20,"\","")))))&amp;"_bak""","")</f>
@@ -5275,13 +5414,13 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="14" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>34</v>
@@ -5296,10 +5435,10 @@
         <v>6</v>
       </c>
       <c r="H21" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="I21" s="14" t="s">
         <v>703</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>704</v>
       </c>
       <c r="J21" s="14" t="str">
         <f>IF(F21="○","rename """&amp;H21&amp;""" """&amp;RIGHT(H21,LEN(H21)-FIND("●",SUBSTITUTE(H21,"\","●",LEN(H21)-LEN(SUBSTITUTE(H21,"\","")))))&amp;"_bak""","")</f>
@@ -5320,13 +5459,13 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="22" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>108</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>34</v>
@@ -5344,7 +5483,7 @@
         <v>29</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J22" s="14" t="str">
         <f>IF(F22="○","rename """&amp;H22&amp;""" """&amp;RIGHT(H22,LEN(H22)-FIND("●",SUBSTITUTE(H22,"\","●",LEN(H22)-LEN(SUBSTITUTE(H22,"\","")))))&amp;"_bak""","")</f>
@@ -5371,7 +5510,7 @@
         <v>92</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>35</v>
@@ -5411,7 +5550,7 @@
         <v>106</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>35</v>
@@ -5448,10 +5587,10 @@
         <v>91</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>35</v>
@@ -5466,10 +5605,10 @@
         <v>6</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J25" s="14" t="str">
         <f t="shared" si="0"/>
@@ -5491,7 +5630,7 @@
         <v>94</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>35</v>
@@ -5531,7 +5670,7 @@
         <v>79</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>35</v>
@@ -5571,7 +5710,7 @@
         <v>96</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>35</v>
@@ -5611,7 +5750,7 @@
         <v>76</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>35</v>
@@ -5651,7 +5790,7 @@
         <v>77</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>35</v>
@@ -5691,7 +5830,7 @@
         <v>95</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>35</v>
@@ -5731,7 +5870,7 @@
         <v>97</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>35</v>
@@ -5771,7 +5910,7 @@
         <v>98</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>35</v>
@@ -5811,7 +5950,7 @@
         <v>99</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>35</v>
@@ -5851,7 +5990,7 @@
         <v>100</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>35</v>
@@ -5891,7 +6030,7 @@
         <v>101</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>35</v>
@@ -5931,7 +6070,7 @@
         <v>105</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>35</v>
@@ -5965,13 +6104,13 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="14" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>109</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>35</v>
@@ -6005,13 +6144,13 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="14" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>34</v>
@@ -6026,10 +6165,10 @@
         <v>6</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="J39" s="14" t="str">
         <f>IF(F39="○","rename """&amp;H39&amp;""" """&amp;RIGHT(H39,LEN(H39)-FIND("●",SUBSTITUTE(H39,"\","●",LEN(H39)-LEN(SUBSTITUTE(H39,"\","")))))&amp;"_bak""","")</f>
@@ -6175,17 +6314,17 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -6209,7 +6348,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B473CF6F-D58E-4DAB-8433-A42572470D82}">
-  <sheetPr>
+  <sheetPr codeName="Sheet3">
     <tabColor theme="8" tint="0.79998168889431442"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -6223,52 +6362,52 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
   </sheetData>
@@ -6279,7 +6418,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96AD35A-AD8A-4F44-9CB3-8A5AFF024648}">
-  <sheetPr>
+  <sheetPr codeName="Sheet4">
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:K170"/>
@@ -6304,10 +6443,10 @@
   <sheetData>
     <row r="1" spans="1:11" ht="34.15" customHeight="1">
       <c r="A1" s="33" t="s">
+        <v>694</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>695</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>696</v>
       </c>
       <c r="C1" s="34" t="s">
         <v>1</v>
@@ -6326,14 +6465,14 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="39" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B2" s="40"/>
       <c r="C2" s="40" t="s">
         <v>164</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E2" s="39"/>
       <c r="F2" s="42"/>
@@ -6342,14 +6481,14 @@
     </row>
     <row r="3" spans="1:11" ht="27">
       <c r="A3" s="39" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B3" s="40"/>
       <c r="C3" s="40" t="s">
         <v>164</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E3" s="39"/>
       <c r="F3" s="42"/>
@@ -6358,12 +6497,12 @@
     </row>
     <row r="4" spans="1:11" ht="27">
       <c r="A4" s="39" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
       <c r="D4" s="41" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E4" s="39"/>
       <c r="F4" s="42"/>
@@ -6372,14 +6511,14 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="39" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B5" s="40"/>
       <c r="C5" s="40" t="s">
         <v>164</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="42"/>
@@ -6388,14 +6527,14 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="39" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="40" t="s">
         <v>164</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E6" s="39"/>
       <c r="F6" s="42"/>
@@ -6404,14 +6543,14 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="39" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B7" s="40"/>
       <c r="C7" s="40" t="s">
         <v>164</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E7" s="39"/>
       <c r="F7" s="42"/>
@@ -6420,14 +6559,14 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="39" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B8" s="40"/>
       <c r="C8" s="40" t="s">
         <v>164</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E8" s="39"/>
       <c r="F8" s="42"/>
@@ -6436,14 +6575,14 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="39" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B9" s="40"/>
       <c r="C9" s="40" t="s">
         <v>164</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E9" s="39"/>
       <c r="F9" s="42"/>
@@ -6452,14 +6591,14 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="39" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B10" s="40"/>
       <c r="C10" s="40" t="s">
         <v>164</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="42"/>
@@ -6468,14 +6607,14 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="39" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B11" s="40"/>
       <c r="C11" s="40" t="s">
         <v>164</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="42"/>
@@ -6484,7 +6623,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="39" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B12" s="40"/>
       <c r="C12" s="40" t="s">
@@ -6501,7 +6640,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="39" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B13" s="40"/>
       <c r="C13" s="40" t="s">
@@ -6518,7 +6657,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="39" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B14" s="40"/>
       <c r="C14" s="40" t="s">
@@ -6535,7 +6674,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="39" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B15" s="40"/>
       <c r="C15" s="40" t="s">
@@ -6552,7 +6691,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="39" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="40" t="s">
@@ -6569,14 +6708,14 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="39" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B17" s="40"/>
       <c r="C17" s="40" t="s">
         <v>164</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E17" s="39"/>
       <c r="F17" s="42"/>
@@ -6587,13 +6726,13 @@
     <row r="18" spans="1:11">
       <c r="A18" s="43"/>
       <c r="B18" s="43" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C18" s="43" t="s">
         <v>167</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E18" s="43"/>
       <c r="F18" s="44"/>
@@ -6604,13 +6743,13 @@
     <row r="19" spans="1:11" ht="27">
       <c r="A19" s="43"/>
       <c r="B19" s="43" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C19" s="43" t="s">
         <v>167</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E19" s="43"/>
       <c r="F19" s="44"/>
@@ -6621,13 +6760,13 @@
     <row r="20" spans="1:11" ht="27">
       <c r="A20" s="43"/>
       <c r="B20" s="43" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C20" s="43" t="s">
         <v>167</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E20" s="43"/>
       <c r="F20" s="44"/>
@@ -6638,13 +6777,13 @@
     <row r="21" spans="1:11">
       <c r="A21" s="43"/>
       <c r="B21" s="43" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C21" s="43" t="s">
         <v>167</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E21" s="43"/>
       <c r="F21" s="44"/>
@@ -6655,13 +6794,13 @@
     <row r="22" spans="1:11">
       <c r="A22" s="43"/>
       <c r="B22" s="43" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C22" s="43" t="s">
         <v>167</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E22" s="43"/>
       <c r="F22" s="44"/>
@@ -6672,13 +6811,13 @@
     <row r="23" spans="1:11">
       <c r="A23" s="43"/>
       <c r="B23" s="43" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C23" s="43" t="s">
         <v>167</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E23" s="43"/>
       <c r="F23" s="44"/>
@@ -6689,13 +6828,13 @@
     <row r="24" spans="1:11">
       <c r="A24" s="43"/>
       <c r="B24" s="43" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C24" s="43" t="s">
         <v>167</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E24" s="43"/>
       <c r="F24" s="44"/>
@@ -6706,13 +6845,13 @@
     <row r="25" spans="1:11">
       <c r="A25" s="43"/>
       <c r="B25" s="43" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C25" s="43" t="s">
         <v>167</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E25" s="43"/>
       <c r="F25" s="44"/>
@@ -6723,13 +6862,13 @@
     <row r="26" spans="1:11">
       <c r="A26" s="43"/>
       <c r="B26" s="43" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C26" s="43" t="s">
         <v>167</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E26" s="43"/>
       <c r="F26" s="44"/>
@@ -6740,13 +6879,13 @@
     <row r="27" spans="1:11">
       <c r="A27" s="43"/>
       <c r="B27" s="45" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C27" s="45" t="s">
         <v>167</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E27" s="43"/>
       <c r="F27" s="44"/>
@@ -6757,7 +6896,7 @@
     <row r="28" spans="1:11">
       <c r="A28" s="43"/>
       <c r="B28" s="45" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C28" s="45" t="s">
         <v>167</v>
@@ -6774,7 +6913,7 @@
     <row r="29" spans="1:11">
       <c r="A29" s="43"/>
       <c r="B29" s="45" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C29" s="45" t="s">
         <v>167</v>
@@ -6791,7 +6930,7 @@
     <row r="30" spans="1:11">
       <c r="A30" s="43"/>
       <c r="B30" s="45" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C30" s="45" t="s">
         <v>167</v>
@@ -6808,7 +6947,7 @@
     <row r="31" spans="1:11">
       <c r="A31" s="43"/>
       <c r="B31" s="45" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C31" s="45" t="s">
         <v>167</v>
@@ -6825,7 +6964,7 @@
     <row r="32" spans="1:11">
       <c r="A32" s="43"/>
       <c r="B32" s="45" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C32" s="45" t="s">
         <v>167</v>
@@ -6842,13 +6981,13 @@
     <row r="33" spans="1:11">
       <c r="A33" s="43"/>
       <c r="B33" s="45" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C33" s="45" t="s">
         <v>167</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E33" s="43"/>
       <c r="F33" s="44"/>
@@ -6859,7 +6998,7 @@
     <row r="34" spans="1:11">
       <c r="A34" s="39"/>
       <c r="B34" s="40" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C34" s="40" t="s">
         <v>129</v>
@@ -6876,7 +7015,7 @@
     <row r="35" spans="1:11">
       <c r="A35" s="39"/>
       <c r="B35" s="40" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C35" s="40" t="s">
         <v>129</v>
@@ -6893,7 +7032,7 @@
     <row r="36" spans="1:11">
       <c r="A36" s="39"/>
       <c r="B36" s="40" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C36" s="40" t="s">
         <v>129</v>
@@ -6910,7 +7049,7 @@
     <row r="37" spans="1:11">
       <c r="A37" s="39"/>
       <c r="B37" s="40" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C37" s="40" t="s">
         <v>129</v>
@@ -6927,7 +7066,7 @@
     <row r="38" spans="1:11">
       <c r="A38" s="39"/>
       <c r="B38" s="40" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C38" s="40" t="s">
         <v>129</v>
@@ -6944,7 +7083,7 @@
     <row r="39" spans="1:11">
       <c r="A39" s="39"/>
       <c r="B39" s="40" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C39" s="40" t="s">
         <v>129</v>
@@ -6961,7 +7100,7 @@
     <row r="40" spans="1:11">
       <c r="A40" s="39"/>
       <c r="B40" s="40" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C40" s="40" t="s">
         <v>129</v>
@@ -6978,7 +7117,7 @@
     <row r="41" spans="1:11">
       <c r="A41" s="39"/>
       <c r="B41" s="40" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C41" s="40" t="s">
         <v>129</v>
@@ -6995,7 +7134,7 @@
     <row r="42" spans="1:11">
       <c r="A42" s="39"/>
       <c r="B42" s="40" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C42" s="40" t="s">
         <v>129</v>
@@ -7012,7 +7151,7 @@
     <row r="43" spans="1:11">
       <c r="A43" s="39"/>
       <c r="B43" s="40" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C43" s="40" t="s">
         <v>129</v>
@@ -7029,7 +7168,7 @@
     <row r="44" spans="1:11">
       <c r="A44" s="39"/>
       <c r="B44" s="40" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C44" s="40" t="s">
         <v>129</v>
@@ -7046,7 +7185,7 @@
     <row r="45" spans="1:11">
       <c r="A45" s="39"/>
       <c r="B45" s="40" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C45" s="40" t="s">
         <v>129</v>
@@ -7063,7 +7202,7 @@
     <row r="46" spans="1:11">
       <c r="A46" s="39"/>
       <c r="B46" s="40" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C46" s="40" t="s">
         <v>129</v>
@@ -7080,7 +7219,7 @@
     <row r="47" spans="1:11">
       <c r="A47" s="39"/>
       <c r="B47" s="40" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C47" s="40" t="s">
         <v>129</v>
@@ -7095,7 +7234,7 @@
     <row r="48" spans="1:11">
       <c r="A48" s="39"/>
       <c r="B48" s="40" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C48" s="40" t="s">
         <v>129</v>
@@ -7110,7 +7249,7 @@
     <row r="49" spans="1:10">
       <c r="A49" s="39"/>
       <c r="B49" s="40" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C49" s="40" t="s">
         <v>129</v>
@@ -7125,7 +7264,7 @@
     <row r="50" spans="1:10">
       <c r="A50" s="39"/>
       <c r="B50" s="40" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C50" s="40" t="s">
         <v>129</v>
@@ -7140,7 +7279,7 @@
     <row r="51" spans="1:10">
       <c r="A51" s="39"/>
       <c r="B51" s="40" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C51" s="40" t="s">
         <v>129</v>
@@ -7155,7 +7294,7 @@
     <row r="52" spans="1:10">
       <c r="A52" s="39"/>
       <c r="B52" s="40" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C52" s="40" t="s">
         <v>129</v>
@@ -7172,13 +7311,13 @@
     <row r="53" spans="1:10">
       <c r="A53" s="39"/>
       <c r="B53" s="40" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C53" s="40" t="s">
         <v>129</v>
       </c>
       <c r="D53" s="41" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E53" s="39"/>
       <c r="F53" s="42"/>
@@ -7187,7 +7326,7 @@
     <row r="54" spans="1:10">
       <c r="A54" s="43"/>
       <c r="B54" s="43" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C54" s="43"/>
       <c r="D54" s="46" t="s">
@@ -7200,7 +7339,7 @@
     <row r="55" spans="1:10">
       <c r="A55" s="43"/>
       <c r="B55" s="43" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C55" s="43"/>
       <c r="D55" s="46" t="s">
@@ -7213,7 +7352,7 @@
     <row r="56" spans="1:10">
       <c r="A56" s="43"/>
       <c r="B56" s="43" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C56" s="43"/>
       <c r="D56" s="46" t="s">
@@ -7229,7 +7368,7 @@
     <row r="57" spans="1:10">
       <c r="A57" s="43"/>
       <c r="B57" s="43" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C57" s="43"/>
       <c r="D57" s="46" t="s">
@@ -7241,7 +7380,7 @@
     <row r="58" spans="1:10">
       <c r="A58" s="43"/>
       <c r="B58" s="43" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C58" s="43"/>
       <c r="D58" s="46" t="s">
@@ -7253,7 +7392,7 @@
     <row r="59" spans="1:10">
       <c r="A59" s="43"/>
       <c r="B59" s="43" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C59" s="43"/>
       <c r="D59" s="46" t="s">
@@ -7265,7 +7404,7 @@
     <row r="60" spans="1:10">
       <c r="A60" s="43"/>
       <c r="B60" s="43" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C60" s="43"/>
       <c r="D60" s="46" t="s">
@@ -7277,7 +7416,7 @@
     <row r="61" spans="1:10">
       <c r="A61" s="43"/>
       <c r="B61" s="43" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C61" s="43"/>
       <c r="D61" s="46" t="s">
@@ -7289,7 +7428,7 @@
     <row r="62" spans="1:10">
       <c r="A62" s="43"/>
       <c r="B62" s="43" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C62" s="43"/>
       <c r="D62" s="46" t="s">
@@ -7301,7 +7440,7 @@
     <row r="63" spans="1:10">
       <c r="A63" s="43"/>
       <c r="B63" s="43" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C63" s="43"/>
       <c r="D63" s="46" t="s">
@@ -7313,7 +7452,7 @@
     <row r="64" spans="1:10">
       <c r="A64" s="43"/>
       <c r="B64" s="43" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C64" s="43"/>
       <c r="D64" s="46" t="s">
@@ -7325,7 +7464,7 @@
     <row r="65" spans="1:6">
       <c r="A65" s="43"/>
       <c r="B65" s="43" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C65" s="43"/>
       <c r="D65" s="46" t="s">
@@ -7337,7 +7476,7 @@
     <row r="66" spans="1:6">
       <c r="A66" s="43"/>
       <c r="B66" s="43" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C66" s="43"/>
       <c r="D66" s="46" t="s">
@@ -7349,7 +7488,7 @@
     <row r="67" spans="1:6">
       <c r="A67" s="43"/>
       <c r="B67" s="43" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C67" s="43"/>
       <c r="D67" s="46" t="s">
@@ -7361,7 +7500,7 @@
     <row r="68" spans="1:6">
       <c r="A68" s="43"/>
       <c r="B68" s="45" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C68" s="45"/>
       <c r="D68" s="46" t="s">
@@ -7373,7 +7512,7 @@
     <row r="69" spans="1:6">
       <c r="A69" s="43"/>
       <c r="B69" s="45" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C69" s="45"/>
       <c r="D69" s="46" t="s">
@@ -7385,7 +7524,7 @@
     <row r="70" spans="1:6">
       <c r="A70" s="43"/>
       <c r="B70" s="45" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C70" s="45"/>
       <c r="D70" s="46" t="s">
@@ -7397,7 +7536,7 @@
     <row r="71" spans="1:6">
       <c r="A71" s="43"/>
       <c r="B71" s="45" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C71" s="45"/>
       <c r="D71" s="46" t="s">
@@ -7409,7 +7548,7 @@
     <row r="72" spans="1:6">
       <c r="A72" s="43"/>
       <c r="B72" s="45" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C72" s="45"/>
       <c r="D72" s="46" t="s">
@@ -7421,7 +7560,7 @@
     <row r="73" spans="1:6">
       <c r="A73" s="43"/>
       <c r="B73" s="45" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C73" s="45"/>
       <c r="D73" s="46" t="s">
@@ -7433,7 +7572,7 @@
     <row r="74" spans="1:6">
       <c r="A74" s="39"/>
       <c r="B74" s="40" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C74" s="40"/>
       <c r="D74" s="41" t="s">
@@ -7445,11 +7584,11 @@
     <row r="75" spans="1:6">
       <c r="A75" s="39"/>
       <c r="B75" s="40" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C75" s="40"/>
       <c r="D75" s="41" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E75" s="39"/>
       <c r="F75" s="42"/>
@@ -7457,11 +7596,11 @@
     <row r="76" spans="1:6">
       <c r="A76" s="39"/>
       <c r="B76" s="40" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C76" s="40"/>
       <c r="D76" s="48" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E76" s="39"/>
       <c r="F76" s="42"/>
@@ -8249,14 +8388,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1848D87-6445-412C-AA69-1A0BE851F765}">
-  <sheetPr>
+  <sheetPr codeName="Sheet5">
     <tabColor theme="9" tint="0.79998168889431442"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B4:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -8272,7 +8411,7 @@
         <v>174</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -8280,7 +8419,7 @@
         <v>175</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>562</v>
+        <v>754</v>
       </c>
     </row>
     <row r="6" spans="2:3">
@@ -8288,7 +8427,7 @@
         <v>176</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>564</v>
+        <v>755</v>
       </c>
     </row>
     <row r="7" spans="2:3">
@@ -8315,18 +8454,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C608AB1-AA41-4163-A6D0-385491F1755D}">
-  <sheetPr>
+  <sheetPr codeName="Sheet6">
     <tabColor theme="9" tint="0.79998168889431442"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A2:U204"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="E74" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="E96" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D54" sqref="D54"/>
       <selection pane="topRight" activeCell="D54" sqref="D54"/>
       <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
-      <selection pane="bottomRight" activeCell="M120" sqref="M120"/>
+      <selection pane="bottomRight" activeCell="M125" sqref="M125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.83203125" defaultRowHeight="11.25" outlineLevelCol="1"/>
@@ -8446,7 +8585,7 @@
         <v>198</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>199</v>
@@ -8520,7 +8659,7 @@
         <v>198</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>203</v>
@@ -8594,7 +8733,7 @@
         <v>198</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>206</v>
@@ -8668,7 +8807,7 @@
         <v>198</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>206</v>
@@ -8742,7 +8881,7 @@
         <v>198</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>211</v>
@@ -8816,7 +8955,7 @@
         <v>198</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>211</v>
@@ -8890,7 +9029,7 @@
         <v>198</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>216</v>
@@ -8964,7 +9103,7 @@
         <v>198</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>219</v>
@@ -9038,7 +9177,7 @@
         <v>198</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>221</v>
@@ -9112,7 +9251,7 @@
         <v>198</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>216</v>
@@ -9186,7 +9325,7 @@
         <v>198</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>216</v>
@@ -9260,7 +9399,7 @@
         <v>198</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>227</v>
@@ -9335,7 +9474,7 @@
         <v>198</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>216</v>
@@ -9409,7 +9548,7 @@
         <v>198</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>199</v>
@@ -9483,7 +9622,7 @@
         <v>198</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>199</v>
@@ -9557,7 +9696,7 @@
         <v>198</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E20" s="23" t="s">
         <v>199</v>
@@ -9631,7 +9770,7 @@
         <v>198</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>199</v>
@@ -9705,7 +9844,7 @@
         <v>198</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E22" s="23" t="s">
         <v>199</v>
@@ -9779,7 +9918,7 @@
         <v>198</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E23" s="23" t="s">
         <v>242</v>
@@ -9853,7 +9992,7 @@
         <v>198</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E24" s="23" t="s">
         <v>242</v>
@@ -9927,7 +10066,7 @@
         <v>198</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E25" s="23" t="s">
         <v>242</v>
@@ -10001,7 +10140,7 @@
         <v>198</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E26" s="23" t="s">
         <v>211</v>
@@ -10075,7 +10214,7 @@
         <v>198</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E27" s="23" t="s">
         <v>216</v>
@@ -10149,7 +10288,7 @@
         <v>198</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E28" s="23" t="s">
         <v>227</v>
@@ -10223,7 +10362,7 @@
         <v>198</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E29" s="23" t="s">
         <v>227</v>
@@ -10297,7 +10436,7 @@
         <v>198</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E30" s="23" t="s">
         <v>256</v>
@@ -10371,7 +10510,7 @@
         <v>198</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E31" s="23" t="s">
         <v>216</v>
@@ -10446,7 +10585,7 @@
         <v>198</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E32" s="23" t="s">
         <v>221</v>
@@ -10520,7 +10659,7 @@
         <v>198</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E33" s="23" t="s">
         <v>211</v>
@@ -10594,7 +10733,7 @@
         <v>198</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E34" s="23" t="s">
         <v>211</v>
@@ -10668,7 +10807,7 @@
         <v>198</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E35" s="23" t="s">
         <v>242</v>
@@ -10742,7 +10881,7 @@
         <v>198</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E36" s="23" t="s">
         <v>256</v>
@@ -10816,7 +10955,7 @@
         <v>198</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E37" s="23" t="s">
         <v>211</v>
@@ -10890,7 +11029,7 @@
         <v>198</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E38" s="23" t="s">
         <v>199</v>
@@ -10964,7 +11103,7 @@
         <v>198</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E39" s="23" t="s">
         <v>219</v>
@@ -11038,7 +11177,7 @@
         <v>198</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E40" s="23" t="s">
         <v>211</v>
@@ -11112,7 +11251,7 @@
         <v>198</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E41" s="23" t="s">
         <v>277</v>
@@ -11186,7 +11325,7 @@
         <v>198</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E42" s="23" t="s">
         <v>280</v>
@@ -11260,7 +11399,7 @@
         <v>198</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E43" s="23" t="s">
         <v>277</v>
@@ -11334,7 +11473,7 @@
         <v>198</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E44" s="23" t="s">
         <v>283</v>
@@ -11409,7 +11548,7 @@
         <v>198</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E45" s="23" t="s">
         <v>203</v>
@@ -11483,7 +11622,7 @@
         <v>198</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E46" s="23" t="s">
         <v>219</v>
@@ -11557,7 +11696,7 @@
         <v>198</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E47" s="23" t="s">
         <v>211</v>
@@ -11631,7 +11770,7 @@
         <v>198</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E48" s="23" t="s">
         <v>277</v>
@@ -11705,7 +11844,7 @@
         <v>198</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E49" s="23" t="s">
         <v>211</v>
@@ -11779,7 +11918,7 @@
         <v>198</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E50" s="23" t="s">
         <v>227</v>
@@ -11853,7 +11992,7 @@
         <v>198</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E51" s="23" t="s">
         <v>227</v>
@@ -11927,7 +12066,7 @@
         <v>198</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E52" s="23" t="s">
         <v>227</v>
@@ -12001,7 +12140,7 @@
         <v>198</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E53" s="23" t="s">
         <v>199</v>
@@ -12075,7 +12214,7 @@
         <v>198</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E54" s="23" t="s">
         <v>283</v>
@@ -12149,7 +12288,7 @@
         <v>198</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E55" s="23" t="s">
         <v>277</v>
@@ -12223,7 +12362,7 @@
         <v>198</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E56" s="23" t="s">
         <v>201</v>
@@ -12297,7 +12436,7 @@
         <v>198</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E57" s="23" t="s">
         <v>201</v>
@@ -12371,7 +12510,7 @@
         <v>198</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E58" s="23" t="s">
         <v>283</v>
@@ -12445,7 +12584,7 @@
         <v>198</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E59" s="23" t="s">
         <v>211</v>
@@ -12519,7 +12658,7 @@
         <v>198</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E60" s="23" t="s">
         <v>216</v>
@@ -12594,7 +12733,7 @@
         <v>198</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E61" s="23" t="s">
         <v>199</v>
@@ -12668,7 +12807,7 @@
         <v>198</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E62" s="23" t="s">
         <v>216</v>
@@ -12742,7 +12881,7 @@
         <v>198</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E63" s="23" t="s">
         <v>316</v>
@@ -12816,7 +12955,7 @@
         <v>198</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E64" s="23" t="s">
         <v>199</v>
@@ -12890,7 +13029,7 @@
         <v>198</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E65" s="23" t="s">
         <v>320</v>
@@ -12965,7 +13104,7 @@
         <v>198</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E66" s="23" t="s">
         <v>211</v>
@@ -13039,7 +13178,7 @@
         <v>198</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E67" s="23" t="s">
         <v>221</v>
@@ -13113,7 +13252,7 @@
         <v>198</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E68" s="23" t="s">
         <v>221</v>
@@ -13187,7 +13326,7 @@
         <v>198</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E69" s="23" t="s">
         <v>327</v>
@@ -13261,7 +13400,7 @@
         <v>198</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E70" s="23" t="s">
         <v>320</v>
@@ -13336,7 +13475,7 @@
         <v>198</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E71" s="23" t="s">
         <v>332</v>
@@ -13410,7 +13549,7 @@
         <v>198</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E72" s="23" t="s">
         <v>256</v>
@@ -13484,7 +13623,7 @@
         <v>198</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E73" s="23" t="s">
         <v>216</v>
@@ -13558,7 +13697,7 @@
         <v>198</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E74" s="23" t="s">
         <v>332</v>
@@ -13632,7 +13771,7 @@
         <v>198</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E75" s="23" t="s">
         <v>203</v>
@@ -13706,7 +13845,7 @@
         <v>198</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E76" s="23" t="s">
         <v>203</v>
@@ -13780,7 +13919,7 @@
         <v>198</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E77" s="23" t="s">
         <v>203</v>
@@ -13854,7 +13993,7 @@
         <v>198</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E78" s="23" t="s">
         <v>277</v>
@@ -13929,7 +14068,7 @@
         <v>198</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E79" s="23" t="s">
         <v>199</v>
@@ -14003,7 +14142,7 @@
         <v>198</v>
       </c>
       <c r="D80" s="23" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E80" s="23" t="s">
         <v>216</v>
@@ -14077,7 +14216,7 @@
         <v>198</v>
       </c>
       <c r="D81" s="23" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E81" s="23" t="s">
         <v>216</v>
@@ -14151,7 +14290,7 @@
         <v>198</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E82" s="23" t="s">
         <v>199</v>
@@ -14225,7 +14364,7 @@
         <v>198</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E83" s="23" t="s">
         <v>227</v>
@@ -14299,7 +14438,7 @@
         <v>198</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E84" s="23" t="s">
         <v>332</v>
@@ -14373,7 +14512,7 @@
         <v>198</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E85" s="23" t="s">
         <v>277</v>
@@ -14447,7 +14586,7 @@
         <v>198</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E86" s="23" t="s">
         <v>256</v>
@@ -14521,7 +14660,7 @@
         <v>198</v>
       </c>
       <c r="D87" s="23" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E87" s="23" t="s">
         <v>283</v>
@@ -14596,7 +14735,7 @@
         <v>198</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E88" s="23" t="s">
         <v>219</v>
@@ -14670,7 +14809,7 @@
         <v>198</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E89" s="23" t="s">
         <v>199</v>
@@ -14744,7 +14883,7 @@
         <v>198</v>
       </c>
       <c r="D90" s="23" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E90" s="23" t="s">
         <v>277</v>
@@ -14818,7 +14957,7 @@
         <v>198</v>
       </c>
       <c r="D91" s="23" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E91" s="23" t="s">
         <v>221</v>
@@ -14892,7 +15031,7 @@
         <v>198</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E92" s="23" t="s">
         <v>203</v>
@@ -14966,7 +15105,7 @@
         <v>198</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E93" s="23" t="s">
         <v>332</v>
@@ -15040,7 +15179,7 @@
         <v>198</v>
       </c>
       <c r="D94" s="23" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E94" s="23" t="s">
         <v>219</v>
@@ -15114,7 +15253,7 @@
         <v>198</v>
       </c>
       <c r="D95" s="23" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E95" s="23" t="s">
         <v>211</v>
@@ -15188,7 +15327,7 @@
         <v>198</v>
       </c>
       <c r="D96" s="23" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E96" s="23" t="s">
         <v>216</v>
@@ -15262,7 +15401,7 @@
         <v>198</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E97" s="23" t="s">
         <v>256</v>
@@ -15336,7 +15475,7 @@
         <v>198</v>
       </c>
       <c r="D98" s="23" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E98" s="29" t="s">
         <v>216</v>
@@ -15410,7 +15549,7 @@
         <v>198</v>
       </c>
       <c r="D99" s="23" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E99" s="29" t="s">
         <v>216</v>
@@ -15484,7 +15623,7 @@
         <v>198</v>
       </c>
       <c r="D100" s="23" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E100" s="23" t="s">
         <v>277</v>
@@ -15558,7 +15697,7 @@
         <v>198</v>
       </c>
       <c r="D101" s="23" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E101" s="23" t="s">
         <v>277</v>
@@ -15632,7 +15771,7 @@
         <v>198</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E102" s="23" t="s">
         <v>277</v>
@@ -15706,7 +15845,7 @@
         <v>198</v>
       </c>
       <c r="D103" s="23" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E103" s="23" t="s">
         <v>199</v>
@@ -15780,7 +15919,7 @@
         <v>198</v>
       </c>
       <c r="D104" s="23" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E104" s="23" t="s">
         <v>227</v>
@@ -15854,7 +15993,7 @@
         <v>198</v>
       </c>
       <c r="D105" s="23" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E105" s="23" t="s">
         <v>277</v>
@@ -15928,7 +16067,7 @@
         <v>198</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E106" s="23" t="s">
         <v>203</v>
@@ -16002,7 +16141,7 @@
         <v>198</v>
       </c>
       <c r="D107" s="23" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E107" s="23" t="s">
         <v>216</v>
@@ -16076,7 +16215,7 @@
         <v>198</v>
       </c>
       <c r="D108" s="23" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E108" s="23" t="s">
         <v>216</v>
@@ -16224,7 +16363,7 @@
         <v>198</v>
       </c>
       <c r="D110" s="23" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E110" s="23" t="s">
         <v>203</v>
@@ -16447,7 +16586,7 @@
         <v>408</v>
       </c>
       <c r="D113" s="23" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E113" s="23" t="s">
         <v>283</v>
@@ -16885,19 +17024,19 @@
         <v>115</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C119" s="23" t="s">
         <v>405</v>
       </c>
       <c r="D119" s="23" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E119" s="23" t="s">
         <v>332</v>
       </c>
       <c r="F119" s="23" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G119" s="23" t="s">
         <v>201</v>
@@ -16959,19 +17098,19 @@
         <v>116</v>
       </c>
       <c r="B120" s="23" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C120" s="23" t="s">
         <v>74</v>
       </c>
       <c r="D120" s="23" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E120" s="23" t="s">
         <v>332</v>
       </c>
       <c r="F120" s="23" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G120" s="23" t="s">
         <v>201</v>
@@ -17032,11 +17171,20 @@
       <c r="A121" s="23">
         <v>117</v>
       </c>
+      <c r="B121" s="23" t="s">
+        <v>728</v>
+      </c>
+      <c r="C121" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="D121" s="23" t="s">
+        <v>727</v>
+      </c>
       <c r="E121" s="23" t="s">
-        <v>201</v>
+        <v>277</v>
       </c>
       <c r="F121" s="23" t="s">
-        <v>201</v>
+        <v>729</v>
       </c>
       <c r="G121" s="23" t="s">
         <v>201</v>
@@ -17049,20 +17197,20 @@
         <v/>
       </c>
       <c r="K121" s="23" t="str">
-        <f>IFERROR(VLOOKUP($E121,私用_data!$C:$H,5,FALSE),"")</f>
-        <v/>
+        <f ca="1">IFERROR(VLOOKUP($E121,私用_data!$C:$H,5,FALSE),"")</f>
+        <v>230</v>
       </c>
       <c r="L121" s="23" t="str">
-        <f>IFERROR(VLOOKUP($E121,私用_data!$C:$H,6,FALSE),"")</f>
-        <v/>
+        <f ca="1">IFERROR(VLOOKUP($E121,私用_data!$C:$H,6,FALSE),"")</f>
+        <v>23</v>
       </c>
       <c r="M121" s="23" t="str">
-        <f>IF($B121="","","mkdir """&amp;N121&amp;""" &amp; """&amp;私用_概要!$C$7&amp;""" """&amp;N121&amp;"\"&amp;F121&amp;".lnk"" """&amp;D121&amp;"""")</f>
-        <v/>
+        <f ca="1">IF($B121="","","mkdir """&amp;N121&amp;""" &amp; """&amp;私用_概要!$C$7&amp;""" """&amp;N121&amp;"\"&amp;F121&amp;".lnk"" """&amp;D121&amp;"""")</f>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\230_Doc_Edit" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\230_Doc_Edit\LibreOffice.lnk" "C:\prg\LibreOffice\program\soffice.exe"</v>
       </c>
       <c r="N121" s="23" t="str">
-        <f>IF($B121="","",私用_概要!$C$4&amp;"\"&amp;K121&amp;"_"&amp;E121)</f>
-        <v/>
+        <f ca="1">IF($B121="","",私用_概要!$C$4&amp;"\"&amp;K121&amp;"_"&amp;E121)</f>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\230_Doc_Edit</v>
       </c>
       <c r="O121" s="23" t="str">
         <f>IF($G121="-","",""""&amp;私用_概要!$C$7&amp;""" """&amp;$S121&amp;""" """&amp;$D121&amp;"""")</f>
@@ -17097,11 +17245,20 @@
       <c r="A122" s="23">
         <v>118</v>
       </c>
+      <c r="B122" s="23" t="s">
+        <v>731</v>
+      </c>
+      <c r="C122" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="D122" s="23" t="s">
+        <v>730</v>
+      </c>
       <c r="E122" s="23" t="s">
-        <v>201</v>
+        <v>280</v>
       </c>
       <c r="F122" s="23" t="s">
-        <v>201</v>
+        <v>732</v>
       </c>
       <c r="G122" s="23" t="s">
         <v>201</v>
@@ -17114,20 +17271,20 @@
         <v/>
       </c>
       <c r="K122" s="23" t="str">
-        <f>IFERROR(VLOOKUP($E122,私用_data!$C:$H,5,FALSE),"")</f>
-        <v/>
+        <f ca="1">IFERROR(VLOOKUP($E122,私用_data!$C:$H,5,FALSE),"")</f>
+        <v>330</v>
       </c>
       <c r="L122" s="23" t="str">
-        <f>IFERROR(VLOOKUP($E122,私用_data!$C:$H,6,FALSE),"")</f>
-        <v/>
+        <f ca="1">IFERROR(VLOOKUP($E122,私用_data!$C:$H,6,FALSE),"")</f>
+        <v>33</v>
       </c>
       <c r="M122" s="23" t="str">
-        <f>IF($B122="","","mkdir """&amp;N122&amp;""" &amp; """&amp;私用_概要!$C$7&amp;""" """&amp;N122&amp;"\"&amp;F122&amp;".lnk"" """&amp;D122&amp;"""")</f>
-        <v/>
+        <f ca="1">IF($B122="","","mkdir """&amp;N122&amp;""" &amp; """&amp;私用_概要!$C$7&amp;""" """&amp;N122&amp;"\"&amp;F122&amp;".lnk"" """&amp;D122&amp;"""")</f>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\330_Music_Listen" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\330_Music_Listen\iTunes.lnk" "C:\prg\iTunes\iTunes.exe"</v>
       </c>
       <c r="N122" s="23" t="str">
-        <f>IF($B122="","",私用_概要!$C$4&amp;"\"&amp;K122&amp;"_"&amp;E122)</f>
-        <v/>
+        <f ca="1">IF($B122="","",私用_概要!$C$4&amp;"\"&amp;K122&amp;"_"&amp;E122)</f>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\330_Music_Listen</v>
       </c>
       <c r="O122" s="23" t="str">
         <f>IF($G122="-","",""""&amp;私用_概要!$C$7&amp;""" """&amp;$S122&amp;""" """&amp;$D122&amp;"""")</f>
@@ -17162,11 +17319,20 @@
       <c r="A123" s="23">
         <v>119</v>
       </c>
+      <c r="B123" s="23" t="s">
+        <v>734</v>
+      </c>
+      <c r="C123" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="D123" s="23" t="s">
+        <v>733</v>
+      </c>
       <c r="E123" s="23" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="F123" s="23" t="s">
-        <v>201</v>
+        <v>735</v>
       </c>
       <c r="G123" s="23" t="s">
         <v>201</v>
@@ -17179,20 +17345,20 @@
         <v/>
       </c>
       <c r="K123" s="23" t="str">
-        <f>IFERROR(VLOOKUP($E123,私用_data!$C:$H,5,FALSE),"")</f>
-        <v/>
+        <f ca="1">IFERROR(VLOOKUP($E123,私用_data!$C:$H,5,FALSE),"")</f>
+        <v>530</v>
       </c>
       <c r="L123" s="23" t="str">
-        <f>IFERROR(VLOOKUP($E123,私用_data!$C:$H,6,FALSE),"")</f>
-        <v/>
+        <f ca="1">IFERROR(VLOOKUP($E123,私用_data!$C:$H,6,FALSE),"")</f>
+        <v>53</v>
       </c>
       <c r="M123" s="23" t="str">
-        <f>IF($B123="","","mkdir """&amp;N123&amp;""" &amp; """&amp;私用_概要!$C$7&amp;""" """&amp;N123&amp;"\"&amp;F123&amp;".lnk"" """&amp;D123&amp;"""")</f>
-        <v/>
+        <f ca="1">IF($B123="","","mkdir """&amp;N123&amp;""" &amp; """&amp;私用_概要!$C$7&amp;""" """&amp;N123&amp;"\"&amp;F123&amp;".lnk"" """&amp;D123&amp;"""")</f>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\530_Picture_Edit" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\530_Picture_Edit\iMazingConverter（HEIC→JPG変換）.lnk" "C:\prg\DigiDNA\iMazing Converter\iMazing Converter.exe"</v>
       </c>
       <c r="N123" s="23" t="str">
-        <f>IF($B123="","",私用_概要!$C$4&amp;"\"&amp;K123&amp;"_"&amp;E123)</f>
-        <v/>
+        <f ca="1">IF($B123="","",私用_概要!$C$4&amp;"\"&amp;K123&amp;"_"&amp;E123)</f>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\530_Picture_Edit</v>
       </c>
       <c r="O123" s="23" t="str">
         <f>IF($G123="-","",""""&amp;私用_概要!$C$7&amp;""" """&amp;$S123&amp;""" """&amp;$D123&amp;"""")</f>
@@ -17227,11 +17393,20 @@
       <c r="A124" s="23">
         <v>120</v>
       </c>
+      <c r="B124" s="23" t="s">
+        <v>750</v>
+      </c>
+      <c r="C124" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="D124" s="23" t="s">
+        <v>749</v>
+      </c>
       <c r="E124" s="23" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="F124" s="23" t="s">
-        <v>201</v>
+        <v>753</v>
       </c>
       <c r="G124" s="23" t="s">
         <v>201</v>
@@ -17244,20 +17419,20 @@
         <v/>
       </c>
       <c r="K124" s="23" t="str">
-        <f>IFERROR(VLOOKUP($E124,私用_data!$C:$H,5,FALSE),"")</f>
-        <v/>
+        <f ca="1">IFERROR(VLOOKUP($E124,私用_data!$C:$H,5,FALSE),"")</f>
+        <v>610</v>
       </c>
       <c r="L124" s="23" t="str">
-        <f>IFERROR(VLOOKUP($E124,私用_data!$C:$H,6,FALSE),"")</f>
-        <v/>
+        <f ca="1">IFERROR(VLOOKUP($E124,私用_data!$C:$H,6,FALSE),"")</f>
+        <v>61</v>
       </c>
       <c r="M124" s="23" t="str">
-        <f>IF($B124="","","mkdir """&amp;N124&amp;""" &amp; """&amp;私用_概要!$C$7&amp;""" """&amp;N124&amp;"\"&amp;F124&amp;".lnk"" """&amp;D124&amp;"""")</f>
-        <v/>
+        <f ca="1">IF($B124="","","mkdir """&amp;N124&amp;""" &amp; """&amp;私用_概要!$C$7&amp;""" """&amp;N124&amp;"\"&amp;F124&amp;".lnk"" """&amp;D124&amp;"""")</f>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\610_Network_Global" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\610_Network_Global\VcXsrv（X11サーバー）.lnk" "C:\prg\VcXsrv\xlaunch.exe"</v>
       </c>
       <c r="N124" s="23" t="str">
-        <f>IF($B124="","",私用_概要!$C$4&amp;"\"&amp;K124&amp;"_"&amp;E124)</f>
-        <v/>
+        <f ca="1">IF($B124="","",私用_概要!$C$4&amp;"\"&amp;K124&amp;"_"&amp;E124)</f>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\610_Network_Global</v>
       </c>
       <c r="O124" s="23" t="str">
         <f>IF($G124="-","",""""&amp;私用_概要!$C$7&amp;""" """&amp;$S124&amp;""" """&amp;$D124&amp;"""")</f>
@@ -17292,11 +17467,20 @@
       <c r="A125" s="23">
         <v>121</v>
       </c>
+      <c r="B125" s="23" t="s">
+        <v>751</v>
+      </c>
+      <c r="C125" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D125" s="23" t="s">
+        <v>748</v>
+      </c>
       <c r="E125" s="23" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="F125" s="23" t="s">
-        <v>201</v>
+        <v>752</v>
       </c>
       <c r="G125" s="23" t="s">
         <v>201</v>
@@ -17309,20 +17493,20 @@
         <v/>
       </c>
       <c r="K125" s="23" t="str">
-        <f>IFERROR(VLOOKUP($E125,私用_data!$C:$H,5,FALSE),"")</f>
-        <v/>
+        <f ca="1">IFERROR(VLOOKUP($E125,私用_data!$C:$H,5,FALSE),"")</f>
+        <v>720</v>
       </c>
       <c r="L125" s="23" t="str">
-        <f>IFERROR(VLOOKUP($E125,私用_data!$C:$H,6,FALSE),"")</f>
-        <v/>
+        <f ca="1">IFERROR(VLOOKUP($E125,私用_data!$C:$H,6,FALSE),"")</f>
+        <v>72</v>
       </c>
       <c r="M125" s="23" t="str">
-        <f>IF($B125="","","mkdir """&amp;N125&amp;""" &amp; """&amp;私用_概要!$C$7&amp;""" """&amp;N125&amp;"\"&amp;F125&amp;".lnk"" """&amp;D125&amp;"""")</f>
-        <v/>
+        <f ca="1">IF($B125="","","mkdir """&amp;N125&amp;""" &amp; """&amp;私用_概要!$C$7&amp;""" """&amp;N125&amp;"\"&amp;F125&amp;".lnk"" """&amp;D125&amp;"""")</f>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\720_Utility_Other" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\720_Utility_Other\ClickStamper（電子印作成）.lnk" "C:\prg_exe\ClickStamper\ClickStamper.exe"</v>
       </c>
       <c r="N125" s="23" t="str">
-        <f>IF($B125="","",私用_概要!$C$4&amp;"\"&amp;K125&amp;"_"&amp;E125)</f>
-        <v/>
+        <f ca="1">IF($B125="","",私用_概要!$C$4&amp;"\"&amp;K125&amp;"_"&amp;E125)</f>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\720_Utility_Other</v>
       </c>
       <c r="O125" s="23" t="str">
         <f>IF($G125="-","",""""&amp;私用_概要!$C$7&amp;""" """&amp;$S125&amp;""" """&amp;$D125&amp;"""")</f>
@@ -22507,18 +22691,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D126DDDF-0DCA-4EEE-BC40-601E6CB0772B}">
-  <sheetPr>
+  <sheetPr codeName="Sheet7">
     <tabColor theme="9" tint="0.79998168889431442"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A2:O110"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D54" sqref="D54"/>
       <selection pane="topRight" activeCell="D54" sqref="D54"/>
       <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
-      <selection pane="bottomRight" activeCell="D47" sqref="D47"/>
+      <selection pane="bottomRight" activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.83203125" defaultRowHeight="11.25" outlineLevelCol="1"/>
@@ -22535,7 +22719,7 @@
     <col min="10" max="10" width="9" style="23" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="49.5" style="23" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="11.83203125" style="23" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="11.83203125" style="23" collapsed="1"/>
+    <col min="13" max="13" width="15.33203125" style="23" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="11.83203125" style="23" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="15" max="16384" width="11.83203125" style="23"/>
   </cols>
@@ -24705,7 +24889,7 @@
         <v>StartupWsl.vbs</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>469</v>
+        <v>736</v>
       </c>
       <c r="D45" s="23" t="s">
         <v>201</v>
@@ -24754,13 +24938,13 @@
         <v>43</v>
       </c>
       <c r="B46" s="23" t="s">
+        <v>720</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>719</v>
+      </c>
+      <c r="D46" s="23" t="s">
         <v>721</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>720</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>722</v>
       </c>
       <c r="E46" s="23" t="s">
         <v>201</v>
@@ -24804,8 +24988,14 @@
       <c r="A47" s="23">
         <v>44</v>
       </c>
+      <c r="B47" s="23" t="s">
+        <v>738</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>737</v>
+      </c>
       <c r="D47" s="23" t="s">
-        <v>201</v>
+        <v>739</v>
       </c>
       <c r="E47" s="23" t="s">
         <v>201</v>
@@ -24815,11 +25005,11 @@
       </c>
       <c r="H47" s="23" t="str">
         <f>IF($D47="-","","mkdir """&amp;私用_概要!$C$4&amp;"\"&amp;私用_概要!$C$8&amp;""" &amp; """&amp;私用_概要!$C$7&amp;""" """&amp;$I47&amp;""" """&amp;$C47&amp;"""")</f>
-        <v/>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttr（SSH接続toRobocipServer＠Teraterm）.lnk" "C:\codes\ttl\login_robocip_server.ttl"</v>
       </c>
       <c r="I47" s="23" t="str">
         <f>IF($D47="-","",私用_概要!$C$4&amp;"\"&amp;私用_概要!$C$8&amp;"\"&amp;D47&amp;".lnk")</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttr（SSH接続toRobocipServer＠Teraterm）.lnk</v>
       </c>
       <c r="J47" s="23" t="str">
         <f>IF($E47="-","",""""&amp;私用_概要!$C$7&amp;""" """&amp;$L47&amp;""" """&amp;$C47&amp;"""")</f>
@@ -24849,8 +25039,14 @@
       <c r="A48" s="23">
         <v>45</v>
       </c>
+      <c r="B48" s="23" t="s">
+        <v>741</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>740</v>
+      </c>
       <c r="D48" s="23" t="s">
-        <v>201</v>
+        <v>742</v>
       </c>
       <c r="E48" s="23" t="s">
         <v>201</v>
@@ -24860,11 +25056,11 @@
       </c>
       <c r="H48" s="23" t="str">
         <f>IF($D48="-","","mkdir """&amp;私用_概要!$C$4&amp;"\"&amp;私用_概要!$C$8&amp;""" &amp; """&amp;私用_概要!$C$7&amp;""" """&amp;$I48&amp;""" """&amp;$C48&amp;"""")</f>
-        <v/>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\wsr（SFTP接続toRobocipServer＠WinSCP）.lnk" "C:\codes\winscp\login_robocip_server.bat"</v>
       </c>
       <c r="I48" s="23" t="str">
         <f>IF($D48="-","",私用_概要!$C$4&amp;"\"&amp;私用_概要!$C$8&amp;"\"&amp;D48&amp;".lnk")</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\wsr（SFTP接続toRobocipServer＠WinSCP）.lnk</v>
       </c>
       <c r="J48" s="23" t="str">
         <f>IF($E48="-","",""""&amp;私用_概要!$C$7&amp;""" """&amp;$L48&amp;""" """&amp;$C48&amp;"""")</f>
@@ -24894,8 +25090,14 @@
       <c r="A49" s="23">
         <v>46</v>
       </c>
+      <c r="B49" s="23" t="s">
+        <v>744</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>743</v>
+      </c>
       <c r="D49" s="23" t="s">
-        <v>201</v>
+        <v>745</v>
       </c>
       <c r="E49" s="23" t="s">
         <v>201</v>
@@ -24905,11 +25107,11 @@
       </c>
       <c r="H49" s="23" t="str">
         <f>IF($D49="-","","mkdir """&amp;私用_概要!$C$4&amp;"\"&amp;私用_概要!$C$8&amp;""" &amp; """&amp;私用_概要!$C$7&amp;""" """&amp;$I49&amp;""" """&amp;$C49&amp;"""")</f>
-        <v/>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\wsr（SFTP接続toRaspberryPi＠WinSCP）.lnk" "C:\codes\winscp\login_raspberrypi.bat"</v>
       </c>
       <c r="I49" s="23" t="str">
         <f>IF($D49="-","",私用_概要!$C$4&amp;"\"&amp;私用_概要!$C$8&amp;"\"&amp;D49&amp;".lnk")</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\wsr（SFTP接続toRaspberryPi＠WinSCP）.lnk</v>
       </c>
       <c r="J49" s="23" t="str">
         <f>IF($E49="-","",""""&amp;私用_概要!$C$7&amp;""" """&amp;$L49&amp;""" """&amp;$C49&amp;"""")</f>
@@ -24939,14 +25141,21 @@
       <c r="A50" s="23">
         <v>47</v>
       </c>
+      <c r="B50" s="23" t="s">
+        <v>747</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>746</v>
+      </c>
       <c r="D50" s="23" t="s">
         <v>201</v>
       </c>
       <c r="E50" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="F50" s="23" t="s">
-        <v>201</v>
+      <c r="F50" s="23" t="str">
+        <f t="shared" ref="F50" si="3">$B50</f>
+        <v>config.xlaunch</v>
       </c>
       <c r="H50" s="23" t="str">
         <f>IF($D50="-","","mkdir """&amp;私用_概要!$C$4&amp;"\"&amp;私用_概要!$C$8&amp;""" &amp; """&amp;私用_概要!$C$7&amp;""" """&amp;$I50&amp;""" """&amp;$C50&amp;"""")</f>
@@ -24970,11 +25179,11 @@
       </c>
       <c r="M50" s="23" t="str">
         <f>IF($F50="-","",""""&amp;私用_概要!$C$7&amp;""" """&amp;$N50&amp;""" """&amp;$C50&amp;"""")</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\config.xlaunch.lnk" "C:\codes\vcxsrv\config.xlaunch"</v>
       </c>
       <c r="N50" s="23" t="str">
         <f>IF($F50="-","",私用_概要!$C$6&amp;"\"&amp;$F50&amp;".lnk")</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\config.xlaunch.lnk</v>
       </c>
       <c r="O50" s="23" t="s">
         <v>429</v>
@@ -24984,13 +25193,14 @@
       <c r="A51" s="23">
         <v>48</v>
       </c>
-      <c r="D51" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="E51" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="F51" s="23" t="s">
+      <c r="B51" s="49"/>
+      <c r="D51" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="E51" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="F51" s="49" t="s">
         <v>201</v>
       </c>
       <c r="H51" s="23" t="str">
@@ -25029,13 +25239,14 @@
       <c r="A52" s="23">
         <v>49</v>
       </c>
-      <c r="D52" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="E52" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="F52" s="23" t="s">
+      <c r="B52" s="49"/>
+      <c r="D52" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="E52" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="F52" s="49" t="s">
         <v>201</v>
       </c>
       <c r="H52" s="23" t="str">
@@ -25074,13 +25285,14 @@
       <c r="A53" s="23">
         <v>50</v>
       </c>
-      <c r="D53" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="E53" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="F53" s="23" t="s">
+      <c r="B53" s="49"/>
+      <c r="D53" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="E53" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="F53" s="49" t="s">
         <v>201</v>
       </c>
       <c r="H53" s="23" t="str">
@@ -25861,7 +26073,7 @@
         <v/>
       </c>
       <c r="K70" s="23" t="str">
-        <f t="shared" ref="K70:K110" si="3">IF($E70="-","","800_"&amp;$E70&amp;".lnk")</f>
+        <f t="shared" ref="K70:K110" si="4">IF($E70="-","","800_"&amp;$E70&amp;".lnk")</f>
         <v/>
       </c>
       <c r="L70" s="23" t="str">
@@ -25906,7 +26118,7 @@
         <v/>
       </c>
       <c r="K71" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L71" s="23" t="str">
@@ -25951,7 +26163,7 @@
         <v/>
       </c>
       <c r="K72" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L72" s="23" t="str">
@@ -25996,7 +26208,7 @@
         <v/>
       </c>
       <c r="K73" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L73" s="23" t="str">
@@ -26041,7 +26253,7 @@
         <v/>
       </c>
       <c r="K74" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L74" s="23" t="str">
@@ -26086,7 +26298,7 @@
         <v/>
       </c>
       <c r="K75" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L75" s="23" t="str">
@@ -26131,7 +26343,7 @@
         <v/>
       </c>
       <c r="K76" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L76" s="23" t="str">
@@ -26176,7 +26388,7 @@
         <v/>
       </c>
       <c r="K77" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L77" s="23" t="str">
@@ -26221,7 +26433,7 @@
         <v/>
       </c>
       <c r="K78" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L78" s="23" t="str">
@@ -26266,7 +26478,7 @@
         <v/>
       </c>
       <c r="K79" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L79" s="23" t="str">
@@ -26311,7 +26523,7 @@
         <v/>
       </c>
       <c r="K80" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L80" s="23" t="str">
@@ -26356,7 +26568,7 @@
         <v/>
       </c>
       <c r="K81" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L81" s="23" t="str">
@@ -26401,7 +26613,7 @@
         <v/>
       </c>
       <c r="K82" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L82" s="23" t="str">
@@ -26446,7 +26658,7 @@
         <v/>
       </c>
       <c r="K83" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L83" s="23" t="str">
@@ -26491,7 +26703,7 @@
         <v/>
       </c>
       <c r="K84" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L84" s="23" t="str">
@@ -26536,7 +26748,7 @@
         <v/>
       </c>
       <c r="K85" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L85" s="23" t="str">
@@ -26581,7 +26793,7 @@
         <v/>
       </c>
       <c r="K86" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L86" s="23" t="str">
@@ -26626,7 +26838,7 @@
         <v/>
       </c>
       <c r="K87" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L87" s="23" t="str">
@@ -26671,7 +26883,7 @@
         <v/>
       </c>
       <c r="K88" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L88" s="23" t="str">
@@ -26716,7 +26928,7 @@
         <v/>
       </c>
       <c r="K89" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L89" s="23" t="str">
@@ -26761,7 +26973,7 @@
         <v/>
       </c>
       <c r="K90" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L90" s="23" t="str">
@@ -26806,7 +27018,7 @@
         <v/>
       </c>
       <c r="K91" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L91" s="23" t="str">
@@ -26851,7 +27063,7 @@
         <v/>
       </c>
       <c r="K92" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L92" s="23" t="str">
@@ -26896,7 +27108,7 @@
         <v/>
       </c>
       <c r="K93" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L93" s="23" t="str">
@@ -26941,7 +27153,7 @@
         <v/>
       </c>
       <c r="K94" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L94" s="23" t="str">
@@ -26986,7 +27198,7 @@
         <v/>
       </c>
       <c r="K95" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L95" s="23" t="str">
@@ -27031,7 +27243,7 @@
         <v/>
       </c>
       <c r="K96" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L96" s="23" t="str">
@@ -27076,7 +27288,7 @@
         <v/>
       </c>
       <c r="K97" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L97" s="23" t="str">
@@ -27121,7 +27333,7 @@
         <v/>
       </c>
       <c r="K98" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L98" s="23" t="str">
@@ -27166,7 +27378,7 @@
         <v/>
       </c>
       <c r="K99" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L99" s="23" t="str">
@@ -27211,7 +27423,7 @@
         <v/>
       </c>
       <c r="K100" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L100" s="23" t="str">
@@ -27256,7 +27468,7 @@
         <v/>
       </c>
       <c r="K101" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L101" s="23" t="str">
@@ -27301,7 +27513,7 @@
         <v/>
       </c>
       <c r="K102" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L102" s="23" t="str">
@@ -27346,7 +27558,7 @@
         <v/>
       </c>
       <c r="K103" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L103" s="23" t="str">
@@ -27391,7 +27603,7 @@
         <v/>
       </c>
       <c r="K104" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L104" s="23" t="str">
@@ -27436,7 +27648,7 @@
         <v/>
       </c>
       <c r="K105" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L105" s="23" t="str">
@@ -27481,7 +27693,7 @@
         <v/>
       </c>
       <c r="K106" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L106" s="23" t="str">
@@ -27526,7 +27738,7 @@
         <v/>
       </c>
       <c r="K107" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L107" s="23" t="str">
@@ -27571,7 +27783,7 @@
         <v/>
       </c>
       <c r="K108" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L108" s="23" t="str">
@@ -27616,7 +27828,7 @@
         <v/>
       </c>
       <c r="K109" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L109" s="23" t="str">
@@ -27661,7 +27873,7 @@
         <v/>
       </c>
       <c r="K110" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L110" s="23" t="str">
@@ -27694,7 +27906,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838B0B6A-C809-44FA-8349-9E01A541D35B}">
-  <sheetPr>
+  <sheetPr codeName="Sheet8">
     <tabColor theme="9" tint="0.79998168889431442"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -27734,10 +27946,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="30" t="s">
+        <v>469</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>470</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>471</v>
       </c>
       <c r="C3" s="31" t="str">
         <f>$A3&amp;"_"&amp;$B3</f>
@@ -27770,10 +27982,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="30" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C4" s="31" t="str">
         <f t="shared" ref="C4:C24" si="0">$A4&amp;"_"&amp;$B4</f>
@@ -27806,10 +28018,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="30" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C5" s="31" t="str">
         <f t="shared" si="0"/>
@@ -27842,10 +28054,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="30" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C6" s="31" t="str">
         <f t="shared" si="0"/>
@@ -27878,10 +28090,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="30" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C7" s="31" t="str">
         <f t="shared" si="0"/>
@@ -27914,10 +28126,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="30" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C8" s="31" t="str">
         <f t="shared" si="0"/>
@@ -27950,10 +28162,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="30" t="s">
+        <v>474</v>
+      </c>
+      <c r="B9" s="30" t="s">
         <v>475</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>476</v>
       </c>
       <c r="C9" s="31" t="str">
         <f t="shared" si="0"/>
@@ -27986,10 +28198,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="30" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C10" s="31" t="str">
         <f t="shared" si="0"/>
@@ -28022,10 +28234,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="30" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C11" s="31" t="str">
         <f t="shared" si="0"/>
@@ -28058,10 +28270,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="30" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C12" s="31" t="str">
         <f t="shared" si="0"/>
@@ -28094,10 +28306,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="30" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C13" s="31" t="str">
         <f t="shared" si="0"/>
@@ -28130,10 +28342,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="30" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C14" s="31" t="str">
         <f t="shared" si="0"/>
@@ -28166,10 +28378,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="30" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C15" s="31" t="str">
         <f t="shared" si="0"/>
@@ -28202,10 +28414,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="30" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C16" s="31" t="str">
         <f t="shared" si="0"/>
@@ -28238,10 +28450,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="30" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C17" s="31" t="str">
         <f t="shared" si="0"/>
@@ -28274,10 +28486,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="30" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C18" s="31" t="str">
         <f t="shared" si="0"/>
@@ -28310,10 +28522,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="30" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C19" s="31" t="str">
         <f t="shared" si="0"/>
@@ -28346,10 +28558,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="30" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C20" s="31" t="str">
         <f t="shared" si="0"/>
@@ -28382,10 +28594,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="30" t="s">
+        <v>480</v>
+      </c>
+      <c r="B21" s="30" t="s">
         <v>481</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>482</v>
       </c>
       <c r="C21" s="31" t="str">
         <f t="shared" si="0"/>
@@ -28418,10 +28630,10 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="30" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C22" s="31" t="str">
         <f t="shared" si="0"/>
@@ -28454,10 +28666,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="30" t="s">
+        <v>483</v>
+      </c>
+      <c r="B23" s="30" t="s">
         <v>484</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>485</v>
       </c>
       <c r="C23" s="31" t="str">
         <f t="shared" si="0"/>
@@ -28490,10 +28702,10 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="30" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C24" s="31" t="str">
         <f t="shared" si="0"/>
@@ -28542,7 +28754,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF61A2C-121F-4A55-9062-3CF46A2BFCB3}">
-  <sheetPr>
+  <sheetPr codeName="Sheet9">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:J56"/>
@@ -28587,14 +28799,14 @@
     <row r="2" spans="1:10">
       <c r="A2" s="6"/>
       <c r="B2" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>487</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>488</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
@@ -28602,14 +28814,14 @@
     <row r="3" spans="1:10">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>490</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>491</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="1"/>
@@ -28617,14 +28829,14 @@
     <row r="4" spans="1:10">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="1"/>
@@ -28632,14 +28844,14 @@
     <row r="5" spans="1:10">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="21" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="1"/>
@@ -28647,14 +28859,14 @@
     <row r="6" spans="1:10">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="21" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="1"/>
@@ -28662,14 +28874,14 @@
     <row r="7" spans="1:10">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="21" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1"/>
@@ -28677,14 +28889,14 @@
     <row r="8" spans="1:10">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>500</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>501</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1"/>
@@ -28692,14 +28904,14 @@
     <row r="9" spans="1:10">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>503</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>504</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
@@ -28707,10 +28919,10 @@
     <row r="10" spans="1:10">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>506</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>507</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="7" t="s">
@@ -28722,14 +28934,14 @@
     <row r="11" spans="1:10">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>508</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>509</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
@@ -28737,14 +28949,14 @@
     <row r="12" spans="1:10">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="1"/>
@@ -28753,14 +28965,14 @@
     <row r="13" spans="1:10">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>513</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>514</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -28769,14 +28981,14 @@
     <row r="14" spans="1:10">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
@@ -28785,14 +28997,14 @@
     <row r="15" spans="1:10">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="1"/>
@@ -28801,14 +29013,14 @@
     <row r="16" spans="1:10">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
@@ -28817,14 +29029,14 @@
     <row r="17" spans="1:10">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>522</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>523</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
@@ -28833,10 +29045,10 @@
     <row r="18" spans="1:10">
       <c r="A18" s="6"/>
       <c r="B18" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>525</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>526</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
@@ -28847,14 +29059,14 @@
     <row r="19" spans="1:10">
       <c r="A19" s="6"/>
       <c r="B19" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="1"/>
@@ -28863,14 +29075,14 @@
     <row r="20" spans="1:10">
       <c r="A20" s="6"/>
       <c r="B20" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>529</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>530</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="1"/>
@@ -28879,10 +29091,10 @@
     <row r="21" spans="1:10">
       <c r="A21" s="6"/>
       <c r="B21" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>532</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>533</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
@@ -28893,10 +29105,10 @@
     <row r="22" spans="1:10">
       <c r="A22" s="6"/>
       <c r="B22" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="7"/>
@@ -28907,10 +29119,10 @@
     <row r="23" spans="1:10">
       <c r="A23" s="6"/>
       <c r="B23" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="7"/>

--- a/PC移行時チェックリスト.xlsx
+++ b/PC移行時チェックリスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F478245-0BFE-4467-ACA1-00EA26E08F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96659AA3-EEC9-4CFC-96E4-B9679507E234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="-120" windowWidth="26880" windowHeight="16440" activeTab="6" xr2:uid="{4766EE0F-731E-4860-9E19-7E5345AFF867}"/>
+    <workbookView xWindow="2430" yWindow="-120" windowWidth="26490" windowHeight="16440" activeTab="6" xr2:uid="{4766EE0F-731E-4860-9E19-7E5345AFF867}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="13" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2411" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="759">
   <si>
     <t>タイミング</t>
     <phoneticPr fontId="4"/>
@@ -3162,6 +3162,17 @@
   </si>
   <si>
     <t>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C:\prg_exe\X-Finder\BackupIniToTabbak.bat</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XF_BackupIniToTabbak.bat</t>
+  </si>
+  <si>
+    <t>XF_BackupIniToTabbak.bat</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -3428,7 +3439,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3559,12 +3570,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFill="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -22702,7 +22707,7 @@
       <selection activeCell="D54" sqref="D54"/>
       <selection pane="topRight" activeCell="D54" sqref="D54"/>
       <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
-      <selection pane="bottomRight" activeCell="A52" sqref="A52"/>
+      <selection pane="bottomRight" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.83203125" defaultRowHeight="11.25" outlineLevelCol="1"/>
@@ -25193,15 +25198,20 @@
       <c r="A51" s="23">
         <v>48</v>
       </c>
-      <c r="B51" s="49"/>
-      <c r="D51" s="49" t="s">
-        <v>201</v>
-      </c>
-      <c r="E51" s="49" t="s">
-        <v>201</v>
-      </c>
-      <c r="F51" s="49" t="s">
-        <v>201</v>
+      <c r="B51" s="23" t="s">
+        <v>758</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>756</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>757</v>
       </c>
       <c r="H51" s="23" t="str">
         <f>IF($D51="-","","mkdir """&amp;私用_概要!$C$4&amp;"\"&amp;私用_概要!$C$8&amp;""" &amp; """&amp;私用_概要!$C$7&amp;""" """&amp;$I51&amp;""" """&amp;$C51&amp;"""")</f>
@@ -25225,11 +25235,11 @@
       </c>
       <c r="M51" s="23" t="str">
         <f>IF($F51="-","",""""&amp;私用_概要!$C$7&amp;""" """&amp;$N51&amp;""" """&amp;$C51&amp;"""")</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\XF_BackupIniToTabbak.bat.lnk" "C:\prg_exe\X-Finder\BackupIniToTabbak.bat"</v>
       </c>
       <c r="N51" s="23" t="str">
         <f>IF($F51="-","",私用_概要!$C$6&amp;"\"&amp;$F51&amp;".lnk")</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\XF_BackupIniToTabbak.bat.lnk</v>
       </c>
       <c r="O51" s="23" t="s">
         <v>429</v>
@@ -25239,14 +25249,13 @@
       <c r="A52" s="23">
         <v>49</v>
       </c>
-      <c r="B52" s="49"/>
-      <c r="D52" s="49" t="s">
-        <v>201</v>
-      </c>
-      <c r="E52" s="49" t="s">
-        <v>201</v>
-      </c>
-      <c r="F52" s="49" t="s">
+      <c r="D52" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="F52" s="23" t="s">
         <v>201</v>
       </c>
       <c r="H52" s="23" t="str">
@@ -25285,14 +25294,13 @@
       <c r="A53" s="23">
         <v>50</v>
       </c>
-      <c r="B53" s="49"/>
-      <c r="D53" s="49" t="s">
-        <v>201</v>
-      </c>
-      <c r="E53" s="50" t="s">
-        <v>201</v>
-      </c>
-      <c r="F53" s="49" t="s">
+      <c r="D53" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="F53" s="23" t="s">
         <v>201</v>
       </c>
       <c r="H53" s="23" t="str">

--- a/PC移行時チェックリスト.xlsx
+++ b/PC移行時チェックリスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96659AA3-EEC9-4CFC-96E4-B9679507E234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2F23C9-251B-4E13-B35C-CBAE1793D461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="-120" windowWidth="26490" windowHeight="16440" activeTab="6" xr2:uid="{4766EE0F-731E-4860-9E19-7E5345AFF867}"/>
+    <workbookView xWindow="-32400" yWindow="-4080" windowWidth="32415" windowHeight="40725" activeTab="6" xr2:uid="{4766EE0F-731E-4860-9E19-7E5345AFF867}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="13" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="765">
   <si>
     <t>タイミング</t>
     <phoneticPr fontId="4"/>
@@ -3173,6 +3173,29 @@
   </si>
   <si>
     <t>XF_BackupIniToTabbak.bat</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SSHPortforward_robocipA1.vbs</t>
+  </si>
+  <si>
+    <t>spr（SSHポートフォワードtoRobocipA1）</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>C:\root\30_tool\TurboVNC_robocipA1.vbs</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C:\root\30_tool\SSHPortforward_robocipA1.vbs</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>TurboVNC_robocipA1.vbs</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>tvr（TurboVNCtoRobocipA1）</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -4608,10 +4631,10 @@
   <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomRight" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -22707,7 +22730,7 @@
       <selection activeCell="D54" sqref="D54"/>
       <selection pane="topRight" activeCell="D54" sqref="D54"/>
       <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
-      <selection pane="bottomRight" activeCell="C52" sqref="C52"/>
+      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.83203125" defaultRowHeight="11.25" outlineLevelCol="1"/>
@@ -25249,22 +25272,29 @@
       <c r="A52" s="23">
         <v>49</v>
       </c>
+      <c r="B52" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>762</v>
+      </c>
       <c r="D52" s="23" t="s">
-        <v>201</v>
+        <v>760</v>
       </c>
       <c r="E52" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="F52" s="23" t="s">
-        <v>201</v>
+      <c r="F52" s="23" t="str">
+        <f>B52</f>
+        <v>SSHPortforward_robocipA1.vbs</v>
       </c>
       <c r="H52" s="23" t="str">
         <f>IF($D52="-","","mkdir """&amp;私用_概要!$C$4&amp;"\"&amp;私用_概要!$C$8&amp;""" &amp; """&amp;私用_概要!$C$7&amp;""" """&amp;$I52&amp;""" """&amp;$C52&amp;"""")</f>
-        <v/>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\spr（SSHポートフォワードtoRobocipA1）.lnk" "C:\root\30_tool\SSHPortforward_robocipA1.vbs"</v>
       </c>
       <c r="I52" s="23" t="str">
         <f>IF($D52="-","",私用_概要!$C$4&amp;"\"&amp;私用_概要!$C$8&amp;"\"&amp;D52&amp;".lnk")</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\spr（SSHポートフォワードtoRobocipA1）.lnk</v>
       </c>
       <c r="J52" s="23" t="str">
         <f>IF($E52="-","",""""&amp;私用_概要!$C$7&amp;""" """&amp;$L52&amp;""" """&amp;$C52&amp;"""")</f>
@@ -25280,11 +25310,11 @@
       </c>
       <c r="M52" s="23" t="str">
         <f>IF($F52="-","",""""&amp;私用_概要!$C$7&amp;""" """&amp;$N52&amp;""" """&amp;$C52&amp;"""")</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\SSHPortforward_robocipA1.vbs.lnk" "C:\root\30_tool\SSHPortforward_robocipA1.vbs"</v>
       </c>
       <c r="N52" s="23" t="str">
         <f>IF($F52="-","",私用_概要!$C$6&amp;"\"&amp;$F52&amp;".lnk")</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\SSHPortforward_robocipA1.vbs.lnk</v>
       </c>
       <c r="O52" s="23" t="s">
         <v>429</v>
@@ -25294,8 +25324,14 @@
       <c r="A53" s="23">
         <v>50</v>
       </c>
+      <c r="B53" s="23" t="s">
+        <v>763</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>761</v>
+      </c>
       <c r="D53" s="23" t="s">
-        <v>201</v>
+        <v>764</v>
       </c>
       <c r="E53" s="23" t="s">
         <v>201</v>
@@ -25305,11 +25341,11 @@
       </c>
       <c r="H53" s="23" t="str">
         <f>IF($D53="-","","mkdir """&amp;私用_概要!$C$4&amp;"\"&amp;私用_概要!$C$8&amp;""" &amp; """&amp;私用_概要!$C$7&amp;""" """&amp;$I53&amp;""" """&amp;$C53&amp;"""")</f>
-        <v/>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\tvr（TurboVNCtoRobocipA1）.lnk" "C:\root\30_tool\TurboVNC_robocipA1.vbs"</v>
       </c>
       <c r="I53" s="23" t="str">
         <f>IF($D53="-","",私用_概要!$C$4&amp;"\"&amp;私用_概要!$C$8&amp;"\"&amp;D53&amp;".lnk")</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\tvr（TurboVNCtoRobocipA1）.lnk</v>
       </c>
       <c r="J53" s="23" t="str">
         <f>IF($E53="-","",""""&amp;私用_概要!$C$7&amp;""" """&amp;$L53&amp;""" """&amp;$C53&amp;"""")</f>

--- a/PC移行時チェックリスト.xlsx
+++ b/PC移行時チェックリスト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D03C82-077F-4F3D-8CD6-71EFC7063FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20039844-8A16-48B4-AB6A-83D8C4F508D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32400" yWindow="-4080" windowWidth="32415" windowHeight="40725" xr2:uid="{4766EE0F-731E-4860-9E19-7E5345AFF867}"/>
+    <workbookView xWindow="-32400" yWindow="-4080" windowWidth="32415" windowHeight="40725" activeTab="2" xr2:uid="{4766EE0F-731E-4860-9E19-7E5345AFF867}"/>
   </bookViews>
   <sheets>
     <sheet name="セットアップ事項" sheetId="21" r:id="rId1"/>
@@ -168,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E134" authorId="0" shapeId="0" xr:uid="{4C93F09A-40AC-41BB-9DAE-6C149CF1E2EE}">
+    <comment ref="E135" authorId="0" shapeId="0" xr:uid="{4C93F09A-40AC-41BB-9DAE-6C149CF1E2EE}">
       <text>
         <r>
           <rPr>
@@ -182,7 +182,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="J172" authorId="0" shapeId="0" xr:uid="{43599851-4CD4-47C7-9140-5CEACB3348C9}">
+    <comment ref="D136" authorId="0" shapeId="0" xr:uid="{29535578-1AD5-4AA4-8C7E-B9B08032B313}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>初期ディレクトリ指定用</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J174" authorId="0" shapeId="0" xr:uid="{43599851-4CD4-47C7-9140-5CEACB3348C9}">
       <text>
         <r>
           <rPr>
@@ -196,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J174" authorId="0" shapeId="0" xr:uid="{2D07A148-9B37-4407-977A-36F9D8D46C29}">
+    <comment ref="J176" authorId="0" shapeId="0" xr:uid="{2D07A148-9B37-4407-977A-36F9D8D46C29}">
       <text>
         <r>
           <rPr>
@@ -638,7 +652,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4861" uniqueCount="1244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4889" uniqueCount="1250">
   <si>
     <t>○</t>
   </si>
@@ -6159,10 +6173,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>%USERPROFILE%</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>%windir%\system32\cmd.exe</t>
   </si>
   <si>
@@ -6399,6 +6409,41 @@
       <t>カクシュ</t>
     </rPh>
     <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>C:\prg\Steam\steam.exe</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Steam</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲーム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>%MYDIRPATH_DESKTOP%</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C:\codes\bat\tools\win\OpenCmdPromptAsRunas.bat</t>
+  </si>
+  <si>
+    <t>コマンドプロンプト起動_管理者権限</t>
+    <rPh sb="9" eb="11">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>%MYDIRPATH_DESKTOP%</t>
   </si>
 </sst>
 </file>
@@ -7772,8 +7817,8 @@
   </sheetPr>
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="11.25"/>
@@ -9010,15 +9055,15 @@
         <v>156</v>
       </c>
       <c r="D47" s="120" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E47" s="149"/>
       <c r="F47" s="150"/>
       <c r="G47" s="121" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H47" s="121" t="s">
         <v>1241</v>
-      </c>
-      <c r="H47" s="121" t="s">
-        <v>1242</v>
       </c>
       <c r="I47" s="108" t="s">
         <v>29</v>
@@ -11073,7 +11118,7 @@
   </sheetPr>
   <dimension ref="A1:AJ190"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="10" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -11085,8 +11130,7 @@
     <col min="1" max="1" width="42" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.5" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="73.6640625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" style="7" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="19.1640625" style="7" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="5" width="21.5" style="7" customWidth="1" outlineLevel="1"/>
     <col min="6" max="7" width="8.33203125" style="8" customWidth="1"/>
     <col min="8" max="8" width="21.6640625" style="7" customWidth="1"/>
     <col min="9" max="9" width="10.1640625" style="7" customWidth="1"/>
@@ -11158,7 +11202,7 @@
     </row>
     <row r="6" spans="1:32" customFormat="1">
       <c r="A6" s="99" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -11417,7 +11461,7 @@
         <v>981</v>
       </c>
       <c r="P11" s="9" t="str">
-        <f t="shared" ref="P11:P42" si="0">IF(
+        <f>IF(
   AND(
     $A11&lt;&gt;"",
     COUNTIF(C:C,$A11)&gt;1
@@ -11428,7 +11472,7 @@
         <v/>
       </c>
       <c r="Q11" s="9" t="str">
-        <f t="shared" ref="Q11:Q42" si="1">IF(
+        <f t="shared" ref="Q11:Q42" si="0">IF(
   OR(
     $H11="-",
     COUNTIF(カテゴリ,$H11)&gt;0
@@ -11558,7 +11602,7 @@
         <v>113</v>
       </c>
       <c r="AA11" s="20" t="str">
-        <f t="shared" ref="AA11:AA74" si="2">IF(AND($M11&lt;&gt;"",$M11&lt;&gt;"-")," (&amp;"&amp;$M11&amp;")","")</f>
+        <f t="shared" ref="AA11:AA74" si="1">IF(AND($M11&lt;&gt;"",$M11&lt;&gt;"-")," (&amp;"&amp;$M11&amp;")","")</f>
         <v/>
       </c>
       <c r="AB11" s="13" t="str">
@@ -11656,11 +11700,18 @@
         <v>981</v>
       </c>
       <c r="P12" s="9" t="str">
+        <f>IF(
+  AND(
+    $A12&lt;&gt;"",
+    COUNTIF(C:C,$A12)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
+        <v/>
+      </c>
+      <c r="Q12" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q12" s="9" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R12" s="13" t="str">
@@ -11783,7 +11834,7 @@
         <v>122</v>
       </c>
       <c r="AA12" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB12" s="13" t="str">
@@ -11881,11 +11932,18 @@
         <v>981</v>
       </c>
       <c r="P13" s="9" t="str">
+        <f>IF(
+  AND(
+    $A13&lt;&gt;"",
+    COUNTIF(C:C,$A13)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
+        <v/>
+      </c>
+      <c r="Q13" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q13" s="9" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R13" s="13" t="str">
@@ -12008,7 +12066,7 @@
         <v>142</v>
       </c>
       <c r="AA13" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB13" s="13" t="str">
@@ -12106,11 +12164,18 @@
         <v>981</v>
       </c>
       <c r="P14" s="9" t="str">
+        <f>IF(
+  AND(
+    $A14&lt;&gt;"",
+    COUNTIF(C:C,$A14)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
+        <v/>
+      </c>
+      <c r="Q14" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q14" s="9" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R14" s="13" t="str">
@@ -12233,7 +12298,7 @@
         <v>142</v>
       </c>
       <c r="AA14" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB14" s="13" t="str">
@@ -12331,11 +12396,18 @@
         <v>981</v>
       </c>
       <c r="P15" s="9" t="str">
+        <f>IF(
+  AND(
+    $A15&lt;&gt;"",
+    COUNTIF(C:C,$A15)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
+        <v/>
+      </c>
+      <c r="Q15" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q15" s="9" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R15" s="13" t="str">
@@ -12458,7 +12530,7 @@
         <v>121</v>
       </c>
       <c r="AA15" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB15" s="13" t="str">
@@ -12557,11 +12629,18 @@
         <v>981</v>
       </c>
       <c r="P16" s="9" t="str">
+        <f>IF(
+  AND(
+    $A16&lt;&gt;"",
+    COUNTIF(C:C,$A16)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
+        <v/>
+      </c>
+      <c r="Q16" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q16" s="9" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R16" s="13" t="str">
@@ -12684,7 +12763,7 @@
         <v>121</v>
       </c>
       <c r="AA16" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB16" s="13" t="str">
@@ -12782,11 +12861,18 @@
         <v>981</v>
       </c>
       <c r="P17" s="9" t="str">
+        <f>IF(
+  AND(
+    $A17&lt;&gt;"",
+    COUNTIF(C:C,$A17)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
+        <v/>
+      </c>
+      <c r="Q17" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q17" s="9" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R17" s="13" t="str">
@@ -12909,7 +12995,7 @@
         <v>172</v>
       </c>
       <c r="AA17" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB17" s="13" t="str">
@@ -13007,11 +13093,18 @@
         <v>981</v>
       </c>
       <c r="P18" s="9" t="str">
+        <f>IF(
+  AND(
+    $A18&lt;&gt;"",
+    COUNTIF(C:C,$A18)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
+        <v/>
+      </c>
+      <c r="Q18" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q18" s="9" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R18" s="13" t="str">
@@ -13134,7 +13227,7 @@
         <v>161</v>
       </c>
       <c r="AA18" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB18" s="13" t="str">
@@ -13232,11 +13325,18 @@
         <v>981</v>
       </c>
       <c r="P19" s="9" t="str">
+        <f>IF(
+  AND(
+    $A19&lt;&gt;"",
+    COUNTIF(C:C,$A19)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
+        <v/>
+      </c>
+      <c r="Q19" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q19" s="9" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R19" s="13" t="str">
@@ -13359,7 +13459,7 @@
         <v>134</v>
       </c>
       <c r="AA19" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB19" s="13" t="str">
@@ -13457,11 +13557,18 @@
         <v>981</v>
       </c>
       <c r="P20" s="9" t="str">
+        <f>IF(
+  AND(
+    $A20&lt;&gt;"",
+    COUNTIF(C:C,$A20)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
+        <v/>
+      </c>
+      <c r="Q20" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q20" s="9" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R20" s="13" t="str">
@@ -13584,7 +13691,7 @@
         <v>172</v>
       </c>
       <c r="AA20" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB20" s="13" t="str">
@@ -13682,11 +13789,18 @@
         <v>981</v>
       </c>
       <c r="P21" s="9" t="str">
+        <f>IF(
+  AND(
+    $A21&lt;&gt;"",
+    COUNTIF(C:C,$A21)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
+        <v/>
+      </c>
+      <c r="Q21" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q21" s="9" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R21" s="13" t="str">
@@ -13809,7 +13923,7 @@
         <v>172</v>
       </c>
       <c r="AA21" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB21" s="13" t="str">
@@ -13907,11 +14021,18 @@
         <v>981</v>
       </c>
       <c r="P22" s="9" t="str">
+        <f>IF(
+  AND(
+    $A22&lt;&gt;"",
+    COUNTIF(C:C,$A22)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
+        <v/>
+      </c>
+      <c r="Q22" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q22" s="9" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R22" s="13" t="str">
@@ -14034,7 +14155,7 @@
         <v>171</v>
       </c>
       <c r="AA22" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB22" s="13" t="str">
@@ -14132,11 +14253,18 @@
         <v>981</v>
       </c>
       <c r="P23" s="9" t="str">
+        <f>IF(
+  AND(
+    $A23&lt;&gt;"",
+    COUNTIF(C:C,$A23)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
+        <v/>
+      </c>
+      <c r="Q23" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q23" s="9" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R23" s="13" t="str">
@@ -14259,7 +14387,7 @@
         <v>172</v>
       </c>
       <c r="AA23" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB23" s="13" t="str">
@@ -14357,11 +14485,18 @@
         <v>981</v>
       </c>
       <c r="P24" s="9" t="str">
+        <f>IF(
+  AND(
+    $A24&lt;&gt;"",
+    COUNTIF(C:C,$A24)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
+        <v/>
+      </c>
+      <c r="Q24" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q24" s="9" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R24" s="13" t="str">
@@ -14484,7 +14619,7 @@
         <v>113</v>
       </c>
       <c r="AA24" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB24" s="13" t="str">
@@ -14582,11 +14717,18 @@
         <v>981</v>
       </c>
       <c r="P25" s="9" t="str">
+        <f>IF(
+  AND(
+    $A25&lt;&gt;"",
+    COUNTIF(C:C,$A25)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
+        <v/>
+      </c>
+      <c r="Q25" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q25" s="9" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R25" s="13" t="str">
@@ -14709,7 +14851,7 @@
         <v>113</v>
       </c>
       <c r="AA25" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB25" s="13" t="str">
@@ -14807,11 +14949,18 @@
         <v>981</v>
       </c>
       <c r="P26" s="9" t="str">
+        <f>IF(
+  AND(
+    $A26&lt;&gt;"",
+    COUNTIF(C:C,$A26)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
+        <v/>
+      </c>
+      <c r="Q26" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q26" s="9" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R26" s="13" t="str">
@@ -14934,7 +15083,7 @@
         <v>113</v>
       </c>
       <c r="AA26" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB26" s="13" t="str">
@@ -15032,11 +15181,18 @@
         <v>981</v>
       </c>
       <c r="P27" s="9" t="str">
+        <f>IF(
+  AND(
+    $A27&lt;&gt;"",
+    COUNTIF(C:C,$A27)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
+        <v/>
+      </c>
+      <c r="Q27" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q27" s="9" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R27" s="13" t="str">
@@ -15159,7 +15315,7 @@
         <v>113</v>
       </c>
       <c r="AA27" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB27" s="13" t="str">
@@ -15257,11 +15413,18 @@
         <v>981</v>
       </c>
       <c r="P28" s="9" t="str">
+        <f>IF(
+  AND(
+    $A28&lt;&gt;"",
+    COUNTIF(C:C,$A28)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
+        <v/>
+      </c>
+      <c r="Q28" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q28" s="9" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R28" s="13" t="str">
@@ -15384,7 +15547,7 @@
         <v>113</v>
       </c>
       <c r="AA28" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB28" s="13" t="str">
@@ -15482,11 +15645,18 @@
         <v>981</v>
       </c>
       <c r="P29" s="9" t="str">
+        <f>IF(
+  AND(
+    $A29&lt;&gt;"",
+    COUNTIF(C:C,$A29)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
+        <v/>
+      </c>
+      <c r="Q29" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q29" s="9" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R29" s="13" t="str">
@@ -15609,7 +15779,7 @@
         <v>112</v>
       </c>
       <c r="AA29" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB29" s="13" t="str">
@@ -15707,11 +15877,18 @@
         <v>981</v>
       </c>
       <c r="P30" s="9" t="str">
+        <f>IF(
+  AND(
+    $A30&lt;&gt;"",
+    COUNTIF(C:C,$A30)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
+        <v/>
+      </c>
+      <c r="Q30" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q30" s="9" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R30" s="13" t="str">
@@ -15834,7 +16011,7 @@
         <v>112</v>
       </c>
       <c r="AA30" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB30" s="13" t="str">
@@ -15932,11 +16109,18 @@
         <v>981</v>
       </c>
       <c r="P31" s="9" t="str">
+        <f>IF(
+  AND(
+    $A31&lt;&gt;"",
+    COUNTIF(C:C,$A31)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
+        <v/>
+      </c>
+      <c r="Q31" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q31" s="9" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R31" s="13" t="str">
@@ -16059,7 +16243,7 @@
         <v>112</v>
       </c>
       <c r="AA31" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB31" s="13" t="str">
@@ -16157,11 +16341,18 @@
         <v>981</v>
       </c>
       <c r="P32" s="9" t="str">
+        <f>IF(
+  AND(
+    $A32&lt;&gt;"",
+    COUNTIF(C:C,$A32)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
+        <v/>
+      </c>
+      <c r="Q32" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q32" s="9" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R32" s="13" t="str">
@@ -16284,7 +16475,7 @@
         <v>121</v>
       </c>
       <c r="AA32" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB32" s="13" t="str">
@@ -16382,11 +16573,18 @@
         <v>981</v>
       </c>
       <c r="P33" s="9" t="str">
+        <f>IF(
+  AND(
+    $A33&lt;&gt;"",
+    COUNTIF(C:C,$A33)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
+        <v/>
+      </c>
+      <c r="Q33" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q33" s="9" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R33" s="13" t="str">
@@ -16509,7 +16707,7 @@
         <v>172</v>
       </c>
       <c r="AA33" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB33" s="13" t="str">
@@ -16607,11 +16805,18 @@
         <v>981</v>
       </c>
       <c r="P34" s="9" t="str">
+        <f>IF(
+  AND(
+    $A34&lt;&gt;"",
+    COUNTIF(C:C,$A34)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
+        <v/>
+      </c>
+      <c r="Q34" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q34" s="9" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R34" s="13" t="str">
@@ -16734,7 +16939,7 @@
         <v>171</v>
       </c>
       <c r="AA34" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB34" s="13" t="str">
@@ -16832,11 +17037,18 @@
         <v>981</v>
       </c>
       <c r="P35" s="9" t="str">
+        <f>IF(
+  AND(
+    $A35&lt;&gt;"",
+    COUNTIF(C:C,$A35)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
+        <v/>
+      </c>
+      <c r="Q35" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q35" s="9" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R35" s="13" t="str">
@@ -16959,7 +17171,7 @@
         <v>171</v>
       </c>
       <c r="AA35" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB35" s="13" t="str">
@@ -17057,11 +17269,18 @@
         <v>981</v>
       </c>
       <c r="P36" s="9" t="str">
+        <f>IF(
+  AND(
+    $A36&lt;&gt;"",
+    COUNTIF(C:C,$A36)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
+        <v/>
+      </c>
+      <c r="Q36" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q36" s="9" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R36" s="13" t="str">
@@ -17184,7 +17403,7 @@
         <v>111</v>
       </c>
       <c r="AA36" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB36" s="13" t="str">
@@ -17282,11 +17501,18 @@
         <v>981</v>
       </c>
       <c r="P37" s="9" t="str">
+        <f>IF(
+  AND(
+    $A37&lt;&gt;"",
+    COUNTIF(C:C,$A37)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
+        <v/>
+      </c>
+      <c r="Q37" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q37" s="9" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R37" s="13" t="str">
@@ -17409,7 +17635,7 @@
         <v>172</v>
       </c>
       <c r="AA37" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB37" s="13" t="str">
@@ -17507,11 +17733,18 @@
         <v>981</v>
       </c>
       <c r="P38" s="9" t="str">
+        <f>IF(
+  AND(
+    $A38&lt;&gt;"",
+    COUNTIF(C:C,$A38)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
+        <v/>
+      </c>
+      <c r="Q38" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q38" s="9" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R38" s="13" t="str">
@@ -17634,7 +17867,7 @@
         <v>134</v>
       </c>
       <c r="AA38" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB38" s="13" t="str">
@@ -17732,11 +17965,18 @@
         <v>981</v>
       </c>
       <c r="P39" s="9" t="str">
+        <f>IF(
+  AND(
+    $A39&lt;&gt;"",
+    COUNTIF(C:C,$A39)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
+        <v/>
+      </c>
+      <c r="Q39" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q39" s="9" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R39" s="13" t="str">
@@ -17859,7 +18099,7 @@
         <v>121</v>
       </c>
       <c r="AA39" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB39" s="13" t="str">
@@ -17957,11 +18197,18 @@
         <v>981</v>
       </c>
       <c r="P40" s="9" t="str">
+        <f>IF(
+  AND(
+    $A40&lt;&gt;"",
+    COUNTIF(C:C,$A40)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
+        <v/>
+      </c>
+      <c r="Q40" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q40" s="9" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R40" s="13" t="str">
@@ -18084,7 +18331,7 @@
         <v>121</v>
       </c>
       <c r="AA40" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB40" s="13" t="str">
@@ -18182,11 +18429,18 @@
         <v>981</v>
       </c>
       <c r="P41" s="9" t="str">
+        <f>IF(
+  AND(
+    $A41&lt;&gt;"",
+    COUNTIF(C:C,$A41)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
+        <v/>
+      </c>
+      <c r="Q41" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q41" s="9" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R41" s="13" t="str">
@@ -18309,7 +18563,7 @@
         <v>112</v>
       </c>
       <c r="AA41" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB41" s="13" t="str">
@@ -18407,11 +18661,18 @@
         <v>981</v>
       </c>
       <c r="P42" s="9" t="str">
+        <f>IF(
+  AND(
+    $A42&lt;&gt;"",
+    COUNTIF(C:C,$A42)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
+        <v/>
+      </c>
+      <c r="Q42" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q42" s="9" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R42" s="13" t="str">
@@ -18534,7 +18795,7 @@
         <v>111</v>
       </c>
       <c r="AA42" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB42" s="13" t="str">
@@ -18632,7 +18893,7 @@
         <v>981</v>
       </c>
       <c r="P43" s="9" t="str">
-        <f t="shared" ref="P43:P74" si="3">IF(
+        <f>IF(
   AND(
     $A43&lt;&gt;"",
     COUNTIF(C:C,$A43)&gt;1
@@ -18643,7 +18904,7 @@
         <v/>
       </c>
       <c r="Q43" s="9" t="str">
-        <f t="shared" ref="Q43:Q72" si="4">IF(
+        <f t="shared" ref="Q43:Q72" si="2">IF(
   OR(
     $H43="-",
     COUNTIF(カテゴリ,$H43)&gt;0
@@ -18773,7 +19034,7 @@
         <v>121</v>
       </c>
       <c r="AA43" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB43" s="13" t="str">
@@ -18871,11 +19132,18 @@
         <v>981</v>
       </c>
       <c r="P44" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(
+  AND(
+    $A44&lt;&gt;"",
+    COUNTIF(C:C,$A44)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q44" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R44" s="13" t="str">
@@ -18998,7 +19266,7 @@
         <v>113</v>
       </c>
       <c r="AA44" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB44" s="13" t="str">
@@ -19096,11 +19364,18 @@
         <v>981</v>
       </c>
       <c r="P45" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(
+  AND(
+    $A45&lt;&gt;"",
+    COUNTIF(C:C,$A45)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q45" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R45" s="13" t="str">
@@ -19223,7 +19498,7 @@
         <v>161</v>
       </c>
       <c r="AA45" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB45" s="13" t="str">
@@ -19321,11 +19596,18 @@
         <v>981</v>
       </c>
       <c r="P46" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(
+  AND(
+    $A46&lt;&gt;"",
+    COUNTIF(C:C,$A46)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q46" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R46" s="13" t="str">
@@ -19448,7 +19730,7 @@
         <v>121</v>
       </c>
       <c r="AA46" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB46" s="13" t="str">
@@ -19546,11 +19828,18 @@
         <v>981</v>
       </c>
       <c r="P47" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(
+  AND(
+    $A47&lt;&gt;"",
+    COUNTIF(C:C,$A47)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q47" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R47" s="13" t="str">
@@ -19673,7 +19962,7 @@
         <v>123</v>
       </c>
       <c r="AA47" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB47" s="13" t="str">
@@ -19771,11 +20060,18 @@
         <v>981</v>
       </c>
       <c r="P48" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(
+  AND(
+    $A48&lt;&gt;"",
+    COUNTIF(C:C,$A48)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q48" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R48" s="13" t="str">
@@ -19898,7 +20194,7 @@
         <v>133</v>
       </c>
       <c r="AA48" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB48" s="13" t="str">
@@ -19996,11 +20292,18 @@
         <v>981</v>
       </c>
       <c r="P49" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(
+  AND(
+    $A49&lt;&gt;"",
+    COUNTIF(C:C,$A49)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q49" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R49" s="13" t="str">
@@ -20123,7 +20426,7 @@
         <v>123</v>
       </c>
       <c r="AA49" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB49" s="13" t="str">
@@ -20221,11 +20524,18 @@
         <v>981</v>
       </c>
       <c r="P50" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(
+  AND(
+    $A50&lt;&gt;"",
+    COUNTIF(C:C,$A50)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q50" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R50" s="13" t="str">
@@ -20348,7 +20658,7 @@
         <v>153</v>
       </c>
       <c r="AA50" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB50" s="13" t="str">
@@ -20446,11 +20756,18 @@
         <v>981</v>
       </c>
       <c r="P51" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(
+  AND(
+    $A51&lt;&gt;"",
+    COUNTIF(C:C,$A51)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q51" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R51" s="13" t="str">
@@ -20573,7 +20890,7 @@
         <v>122</v>
       </c>
       <c r="AA51" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB51" s="13" t="str">
@@ -20671,11 +20988,18 @@
         <v>981</v>
       </c>
       <c r="P52" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(
+  AND(
+    $A52&lt;&gt;"",
+    COUNTIF(C:C,$A52)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q52" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R52" s="13" t="str">
@@ -20798,7 +21122,7 @@
         <v>161</v>
       </c>
       <c r="AA52" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB52" s="13" t="str">
@@ -20896,11 +21220,18 @@
         <v>981</v>
       </c>
       <c r="P53" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(
+  AND(
+    $A53&lt;&gt;"",
+    COUNTIF(C:C,$A53)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q53" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R53" s="13" t="str">
@@ -21023,7 +21354,7 @@
         <v>121</v>
       </c>
       <c r="AA53" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB53" s="13" t="str">
@@ -21121,11 +21452,18 @@
         <v>981</v>
       </c>
       <c r="P54" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(
+  AND(
+    $A54&lt;&gt;"",
+    COUNTIF(C:C,$A54)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q54" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R54" s="13" t="str">
@@ -21248,7 +21586,7 @@
         <v>123</v>
       </c>
       <c r="AA54" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB54" s="13" t="str">
@@ -21346,11 +21684,18 @@
         <v>981</v>
       </c>
       <c r="P55" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(
+  AND(
+    $A55&lt;&gt;"",
+    COUNTIF(C:C,$A55)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q55" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R55" s="13" t="str">
@@ -21473,7 +21818,7 @@
         <v>121</v>
       </c>
       <c r="AA55" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB55" s="13" t="str">
@@ -21571,11 +21916,18 @@
         <v>981</v>
       </c>
       <c r="P56" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(
+  AND(
+    $A56&lt;&gt;"",
+    COUNTIF(C:C,$A56)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q56" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R56" s="13" t="str">
@@ -21698,7 +22050,7 @@
         <v>171</v>
       </c>
       <c r="AA56" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB56" s="13" t="str">
@@ -21796,11 +22148,18 @@
         <v>981</v>
       </c>
       <c r="P57" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(
+  AND(
+    $A57&lt;&gt;"",
+    COUNTIF(C:C,$A57)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q57" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R57" s="13" t="str">
@@ -21923,7 +22282,7 @@
         <v>171</v>
       </c>
       <c r="AA57" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB57" s="13" t="str">
@@ -22021,11 +22380,18 @@
         <v>981</v>
       </c>
       <c r="P58" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(
+  AND(
+    $A58&lt;&gt;"",
+    COUNTIF(C:C,$A58)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q58" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R58" s="13" t="str">
@@ -22148,7 +22514,7 @@
         <v>171</v>
       </c>
       <c r="AA58" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB58" s="13" t="str">
@@ -22246,11 +22612,18 @@
         <v>981</v>
       </c>
       <c r="P59" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(
+  AND(
+    $A59&lt;&gt;"",
+    COUNTIF(C:C,$A59)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q59" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R59" s="13" t="str">
@@ -22373,7 +22746,7 @@
         <v>113</v>
       </c>
       <c r="AA59" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB59" s="13" t="str">
@@ -22471,11 +22844,18 @@
         <v>981</v>
       </c>
       <c r="P60" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(
+  AND(
+    $A60&lt;&gt;"",
+    COUNTIF(C:C,$A60)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q60" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R60" s="13" t="str">
@@ -22598,7 +22978,7 @@
         <v>153</v>
       </c>
       <c r="AA60" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB60" s="13" t="str">
@@ -22696,11 +23076,18 @@
         <v>981</v>
       </c>
       <c r="P61" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(
+  AND(
+    $A61&lt;&gt;"",
+    COUNTIF(C:C,$A61)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q61" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R61" s="13" t="str">
@@ -22823,7 +23210,7 @@
         <v>123</v>
       </c>
       <c r="AA61" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB61" s="13" t="str">
@@ -22921,11 +23308,18 @@
         <v>981</v>
       </c>
       <c r="P62" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(
+  AND(
+    $A62&lt;&gt;"",
+    COUNTIF(C:C,$A62)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q62" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R62" s="13" t="str">
@@ -23048,7 +23442,7 @@
         <v>153</v>
       </c>
       <c r="AA62" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB62" s="13" t="str">
@@ -23146,11 +23540,18 @@
         <v>981</v>
       </c>
       <c r="P63" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(
+  AND(
+    $A63&lt;&gt;"",
+    COUNTIF(C:C,$A63)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q63" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R63" s="13" t="str">
@@ -23273,7 +23674,7 @@
         <v>121</v>
       </c>
       <c r="AA63" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB63" s="13" t="str">
@@ -23371,11 +23772,18 @@
         <v>981</v>
       </c>
       <c r="P64" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(
+  AND(
+    $A64&lt;&gt;"",
+    COUNTIF(C:C,$A64)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q64" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R64" s="13" t="str">
@@ -23498,7 +23906,7 @@
         <v>172</v>
       </c>
       <c r="AA64" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB64" s="13" t="str">
@@ -23596,11 +24004,18 @@
         <v>981</v>
       </c>
       <c r="P65" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(
+  AND(
+    $A65&lt;&gt;"",
+    COUNTIF(C:C,$A65)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q65" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R65" s="13" t="str">
@@ -23723,7 +24138,7 @@
         <v>113</v>
       </c>
       <c r="AA65" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB65" s="13" t="str">
@@ -23821,11 +24236,18 @@
         <v>981</v>
       </c>
       <c r="P66" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(
+  AND(
+    $A66&lt;&gt;"",
+    COUNTIF(C:C,$A66)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q66" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R66" s="13" t="str">
@@ -23948,7 +24370,7 @@
         <v>172</v>
       </c>
       <c r="AA66" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB66" s="13" t="str">
@@ -24046,11 +24468,18 @@
         <v>981</v>
       </c>
       <c r="P67" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(
+  AND(
+    $A67&lt;&gt;"",
+    COUNTIF(C:C,$A67)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q67" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R67" s="13" t="str">
@@ -24173,7 +24602,7 @@
         <v>143</v>
       </c>
       <c r="AA67" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB67" s="13" t="str">
@@ -24271,11 +24700,18 @@
         <v>981</v>
       </c>
       <c r="P68" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(
+  AND(
+    $A68&lt;&gt;"",
+    COUNTIF(C:C,$A68)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q68" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R68" s="13" t="str">
@@ -24398,7 +24834,7 @@
         <v>113</v>
       </c>
       <c r="AA68" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB68" s="13" t="str">
@@ -24496,11 +24932,18 @@
         <v>981</v>
       </c>
       <c r="P69" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(
+  AND(
+    $A69&lt;&gt;"",
+    COUNTIF(C:C,$A69)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q69" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R69" s="13" t="str">
@@ -24623,7 +25066,7 @@
         <v>154</v>
       </c>
       <c r="AA69" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB69" s="13" t="str">
@@ -24721,11 +25164,18 @@
         <v>981</v>
       </c>
       <c r="P70" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(
+  AND(
+    $A70&lt;&gt;"",
+    COUNTIF(C:C,$A70)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q70" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R70" s="13" t="str">
@@ -24848,7 +25298,7 @@
         <v>121</v>
       </c>
       <c r="AA70" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB70" s="13" t="str">
@@ -24946,11 +25396,18 @@
         <v>981</v>
       </c>
       <c r="P71" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(
+  AND(
+    $A71&lt;&gt;"",
+    COUNTIF(C:C,$A71)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q71" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R71" s="13" t="str">
@@ -25073,7 +25530,7 @@
         <v>134</v>
       </c>
       <c r="AA71" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB71" s="13" t="str">
@@ -25171,11 +25628,18 @@
         <v>981</v>
       </c>
       <c r="P72" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(
+  AND(
+    $A72&lt;&gt;"",
+    COUNTIF(C:C,$A72)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q72" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R72" s="13" t="str">
@@ -25298,7 +25762,7 @@
         <v>134</v>
       </c>
       <c r="AA72" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB72" s="13" t="str">
@@ -25396,11 +25860,18 @@
         <v>981</v>
       </c>
       <c r="P73" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(
+  AND(
+    $A73&lt;&gt;"",
+    COUNTIF(C:C,$A73)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q73" s="9" t="str">
-        <f t="shared" ref="Q73:Q104" si="5">IF(
+        <f t="shared" ref="Q73:Q104" si="3">IF(
   OR(
     $H73="-",
     COUNTIF(カテゴリ,$H73)&gt;0
@@ -25530,7 +26001,7 @@
         <v>144</v>
       </c>
       <c r="AA73" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB73" s="13" t="str">
@@ -25628,11 +26099,18 @@
         <v>981</v>
       </c>
       <c r="P74" s="9" t="str">
+        <f>IF(
+  AND(
+    $A74&lt;&gt;"",
+    COUNTIF(C:C,$A74)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
+        <v/>
+      </c>
+      <c r="Q74" s="9" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Q74" s="9" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R74" s="13" t="str">
@@ -25755,7 +26233,7 @@
         <v>154</v>
       </c>
       <c r="AA74" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB74" s="13" t="str">
@@ -25853,7 +26331,7 @@
         <v>981</v>
       </c>
       <c r="P75" s="9" t="str">
-        <f t="shared" ref="P75:P106" si="6">IF(
+        <f>IF(
   AND(
     $A75&lt;&gt;"",
     COUNTIF(C:C,$A75)&gt;1
@@ -25864,7 +26342,7 @@
         <v/>
       </c>
       <c r="Q75" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R75" s="13" t="str">
@@ -25987,7 +26465,7 @@
         <v>162</v>
       </c>
       <c r="AA75" s="20" t="str">
-        <f t="shared" ref="AA75:AA143" si="7">IF(AND($M75&lt;&gt;"",$M75&lt;&gt;"-")," (&amp;"&amp;$M75&amp;")","")</f>
+        <f t="shared" ref="AA75:AA145" si="4">IF(AND($M75&lt;&gt;"",$M75&lt;&gt;"-")," (&amp;"&amp;$M75&amp;")","")</f>
         <v/>
       </c>
       <c r="AB75" s="13" t="str">
@@ -26085,11 +26563,18 @@
         <v>981</v>
       </c>
       <c r="P76" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(
+  AND(
+    $A76&lt;&gt;"",
+    COUNTIF(C:C,$A76)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q76" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R76" s="13" t="str">
@@ -26212,7 +26697,7 @@
         <v>111</v>
       </c>
       <c r="AA76" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB76" s="13" t="str">
@@ -26310,11 +26795,18 @@
         <v>981</v>
       </c>
       <c r="P77" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(
+  AND(
+    $A77&lt;&gt;"",
+    COUNTIF(C:C,$A77)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q77" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R77" s="13" t="str">
@@ -26437,7 +26929,7 @@
         <v>172</v>
       </c>
       <c r="AA77" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB77" s="13" t="str">
@@ -26535,11 +27027,18 @@
         <v>981</v>
       </c>
       <c r="P78" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(
+  AND(
+    $A78&lt;&gt;"",
+    COUNTIF(C:C,$A78)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q78" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R78" s="13" t="str">
@@ -26662,7 +27161,7 @@
         <v>162</v>
       </c>
       <c r="AA78" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB78" s="13" t="str">
@@ -26760,11 +27259,18 @@
         <v>981</v>
       </c>
       <c r="P79" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(
+  AND(
+    $A79&lt;&gt;"",
+    COUNTIF(C:C,$A79)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q79" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R79" s="13" t="str">
@@ -26887,7 +27393,7 @@
         <v>122</v>
       </c>
       <c r="AA79" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB79" s="13" t="str">
@@ -26985,11 +27491,18 @@
         <v>981</v>
       </c>
       <c r="P80" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(
+  AND(
+    $A80&lt;&gt;"",
+    COUNTIF(C:C,$A80)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q80" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R80" s="13" t="str">
@@ -27112,7 +27625,7 @@
         <v>122</v>
       </c>
       <c r="AA80" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB80" s="13" t="str">
@@ -27210,11 +27723,18 @@
         <v>981</v>
       </c>
       <c r="P81" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(
+  AND(
+    $A81&lt;&gt;"",
+    COUNTIF(C:C,$A81)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q81" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R81" s="13" t="str">
@@ -27337,7 +27857,7 @@
         <v>122</v>
       </c>
       <c r="AA81" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB81" s="13" t="str">
@@ -27435,11 +27955,18 @@
         <v>981</v>
       </c>
       <c r="P82" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(
+  AND(
+    $A82&lt;&gt;"",
+    COUNTIF(C:C,$A82)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q82" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R82" s="13" t="str">
@@ -27562,7 +28089,7 @@
         <v>123</v>
       </c>
       <c r="AA82" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB82" s="13" t="str">
@@ -27660,11 +28187,18 @@
         <v>981</v>
       </c>
       <c r="P83" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(
+  AND(
+    $A83&lt;&gt;"",
+    COUNTIF(C:C,$A83)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q83" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R83" s="13" t="str">
@@ -27787,7 +28321,7 @@
         <v>113</v>
       </c>
       <c r="AA83" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB83" s="13" t="str">
@@ -27885,11 +28419,18 @@
         <v>981</v>
       </c>
       <c r="P84" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(
+  AND(
+    $A84&lt;&gt;"",
+    COUNTIF(C:C,$A84)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q84" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R84" s="13" t="str">
@@ -28012,7 +28553,7 @@
         <v>172</v>
       </c>
       <c r="AA84" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB84" s="13" t="str">
@@ -28111,11 +28652,18 @@
         <v>981</v>
       </c>
       <c r="P85" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(
+  AND(
+    $A85&lt;&gt;"",
+    COUNTIF(C:C,$A85)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q85" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R85" s="13" t="str">
@@ -28238,7 +28786,7 @@
         <v>172</v>
       </c>
       <c r="AA85" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB85" s="13" t="str">
@@ -28336,11 +28884,18 @@
         <v>981</v>
       </c>
       <c r="P86" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(
+  AND(
+    $A86&lt;&gt;"",
+    COUNTIF(C:C,$A86)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q86" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R86" s="13" t="str">
@@ -28463,7 +29018,7 @@
         <v>113</v>
       </c>
       <c r="AA86" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB86" s="13" t="str">
@@ -28561,11 +29116,18 @@
         <v>981</v>
       </c>
       <c r="P87" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(
+  AND(
+    $A87&lt;&gt;"",
+    COUNTIF(C:C,$A87)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q87" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R87" s="13" t="str">
@@ -28688,7 +29250,7 @@
         <v>171</v>
       </c>
       <c r="AA87" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB87" s="13" t="str">
@@ -28786,11 +29348,18 @@
         <v>981</v>
       </c>
       <c r="P88" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(
+  AND(
+    $A88&lt;&gt;"",
+    COUNTIF(C:C,$A88)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q88" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R88" s="13" t="str">
@@ -28913,7 +29482,7 @@
         <v>162</v>
       </c>
       <c r="AA88" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB88" s="13" t="str">
@@ -29011,11 +29580,18 @@
         <v>981</v>
       </c>
       <c r="P89" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(
+  AND(
+    $A89&lt;&gt;"",
+    COUNTIF(C:C,$A89)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q89" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R89" s="13" t="str">
@@ -29138,7 +29714,7 @@
         <v>123</v>
       </c>
       <c r="AA89" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB89" s="13" t="str">
@@ -29236,11 +29812,18 @@
         <v>981</v>
       </c>
       <c r="P90" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(
+  AND(
+    $A90&lt;&gt;"",
+    COUNTIF(C:C,$A90)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q90" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R90" s="13" t="str">
@@ -29363,7 +29946,7 @@
         <v>111</v>
       </c>
       <c r="AA90" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB90" s="13" t="str">
@@ -29461,11 +30044,18 @@
         <v>981</v>
       </c>
       <c r="P91" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(
+  AND(
+    $A91&lt;&gt;"",
+    COUNTIF(C:C,$A91)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q91" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R91" s="13" t="str">
@@ -29588,7 +30178,7 @@
         <v>153</v>
       </c>
       <c r="AA91" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB91" s="13" t="str">
@@ -29686,11 +30276,18 @@
         <v>981</v>
       </c>
       <c r="P92" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(
+  AND(
+    $A92&lt;&gt;"",
+    COUNTIF(C:C,$A92)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q92" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R92" s="13" t="str">
@@ -29813,7 +30410,7 @@
         <v>161</v>
       </c>
       <c r="AA92" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB92" s="13" t="str">
@@ -29911,11 +30508,18 @@
         <v>981</v>
       </c>
       <c r="P93" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(
+  AND(
+    $A93&lt;&gt;"",
+    COUNTIF(C:C,$A93)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q93" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R93" s="13" t="str">
@@ -30038,7 +30642,7 @@
         <v>113</v>
       </c>
       <c r="AA93" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB93" s="13" t="str">
@@ -30136,11 +30740,18 @@
         <v>981</v>
       </c>
       <c r="P94" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(
+  AND(
+    $A94&lt;&gt;"",
+    COUNTIF(C:C,$A94)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q94" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R94" s="13" t="str">
@@ -30263,7 +30874,7 @@
         <v>123</v>
       </c>
       <c r="AA94" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB94" s="13" t="str">
@@ -30361,11 +30972,18 @@
         <v>981</v>
       </c>
       <c r="P95" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(
+  AND(
+    $A95&lt;&gt;"",
+    COUNTIF(C:C,$A95)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q95" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R95" s="13" t="str">
@@ -30488,7 +31106,7 @@
         <v>134</v>
       </c>
       <c r="AA95" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB95" s="13" t="str">
@@ -30586,11 +31204,18 @@
         <v>981</v>
       </c>
       <c r="P96" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(
+  AND(
+    $A96&lt;&gt;"",
+    COUNTIF(C:C,$A96)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q96" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R96" s="13" t="str">
@@ -30713,7 +31338,7 @@
         <v>122</v>
       </c>
       <c r="AA96" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB96" s="13" t="str">
@@ -30811,11 +31436,18 @@
         <v>981</v>
       </c>
       <c r="P97" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(
+  AND(
+    $A97&lt;&gt;"",
+    COUNTIF(C:C,$A97)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q97" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R97" s="13" t="str">
@@ -30938,7 +31570,7 @@
         <v>162</v>
       </c>
       <c r="AA97" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB97" s="13" t="str">
@@ -31036,11 +31668,18 @@
         <v>981</v>
       </c>
       <c r="P98" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(
+  AND(
+    $A98&lt;&gt;"",
+    COUNTIF(C:C,$A98)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q98" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R98" s="13" t="str">
@@ -31163,7 +31802,7 @@
         <v>161</v>
       </c>
       <c r="AA98" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB98" s="13" t="str">
@@ -31261,11 +31900,18 @@
         <v>981</v>
       </c>
       <c r="P99" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(
+  AND(
+    $A99&lt;&gt;"",
+    COUNTIF(C:C,$A99)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q99" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R99" s="13" t="str">
@@ -31388,7 +32034,7 @@
         <v>121</v>
       </c>
       <c r="AA99" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB99" s="13" t="str">
@@ -31486,11 +32132,18 @@
         <v>981</v>
       </c>
       <c r="P100" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(
+  AND(
+    $A100&lt;&gt;"",
+    COUNTIF(C:C,$A100)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q100" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R100" s="13" t="str">
@@ -31613,7 +32266,7 @@
         <v>172</v>
       </c>
       <c r="AA100" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB100" s="13" t="str">
@@ -31711,11 +32364,18 @@
         <v>981</v>
       </c>
       <c r="P101" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(
+  AND(
+    $A101&lt;&gt;"",
+    COUNTIF(C:C,$A101)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q101" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R101" s="13" t="str">
@@ -31838,7 +32498,7 @@
         <v>111</v>
       </c>
       <c r="AA101" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB101" s="13" t="str">
@@ -31936,11 +32596,18 @@
         <v>981</v>
       </c>
       <c r="P102" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(
+  AND(
+    $A102&lt;&gt;"",
+    COUNTIF(C:C,$A102)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q102" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R102" s="13" t="str">
@@ -32063,7 +32730,7 @@
         <v>172</v>
       </c>
       <c r="AA102" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB102" s="13" t="str">
@@ -32161,11 +32828,18 @@
         <v>981</v>
       </c>
       <c r="P103" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(
+  AND(
+    $A103&lt;&gt;"",
+    COUNTIF(C:C,$A103)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q103" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R103" s="13" t="str">
@@ -32288,7 +32962,7 @@
         <v>172</v>
       </c>
       <c r="AA103" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB103" s="13" t="str">
@@ -32377,7 +33051,7 @@
         <v>0</v>
       </c>
       <c r="M104" s="98" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="N104" s="15" t="s">
         <v>66</v>
@@ -32386,11 +33060,18 @@
         <v>981</v>
       </c>
       <c r="P104" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(
+  AND(
+    $A104&lt;&gt;"",
+    COUNTIF(C:C,$A104)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q104" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R104" s="13" t="str">
@@ -32513,7 +33194,7 @@
         <v>123</v>
       </c>
       <c r="AA104" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> (&amp;V)</v>
       </c>
       <c r="AB104" s="13" t="str">
@@ -32602,7 +33283,7 @@
         <v>0</v>
       </c>
       <c r="M105" s="98" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="N105" s="15" t="s">
         <v>66</v>
@@ -32611,11 +33292,18 @@
         <v>981</v>
       </c>
       <c r="P105" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(
+  AND(
+    $A105&lt;&gt;"",
+    COUNTIF(C:C,$A105)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q105" s="9" t="str">
-        <f t="shared" ref="Q105:Q139" si="8">IF(
+        <f t="shared" ref="Q105:Q141" si="5">IF(
   OR(
     $H105="-",
     COUNTIF(カテゴリ,$H105)&gt;0
@@ -32745,7 +33433,7 @@
         <v>123</v>
       </c>
       <c r="AA105" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> (&amp;C)</v>
       </c>
       <c r="AB105" s="13" t="str">
@@ -32843,11 +33531,18 @@
         <v>981</v>
       </c>
       <c r="P106" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(
+  AND(
+    $A106&lt;&gt;"",
+    COUNTIF(C:C,$A106)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q106" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R106" s="13" t="str">
@@ -32970,7 +33665,7 @@
         <v>113</v>
       </c>
       <c r="AA106" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB106" s="13" t="str">
@@ -33068,7 +33763,7 @@
         <v>981</v>
       </c>
       <c r="P107" s="9" t="str">
-        <f t="shared" ref="P107:P138" si="9">IF(
+        <f>IF(
   AND(
     $A107&lt;&gt;"",
     COUNTIF(C:C,$A107)&gt;1
@@ -33079,7 +33774,7 @@
         <v/>
       </c>
       <c r="Q107" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R107" s="13" t="str">
@@ -33202,7 +33897,7 @@
         <v>171</v>
       </c>
       <c r="AA107" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB107" s="13" t="str">
@@ -33300,11 +33995,18 @@
         <v>981</v>
       </c>
       <c r="P108" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(
+  AND(
+    $A108&lt;&gt;"",
+    COUNTIF(C:C,$A108)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q108" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R108" s="13" t="str">
@@ -33427,7 +34129,7 @@
         <v>123</v>
       </c>
       <c r="AA108" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB108" s="13" t="str">
@@ -33525,11 +34227,18 @@
         <v>981</v>
       </c>
       <c r="P109" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(
+  AND(
+    $A109&lt;&gt;"",
+    COUNTIF(C:C,$A109)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q109" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R109" s="13" t="str">
@@ -33652,7 +34361,7 @@
         <v>122</v>
       </c>
       <c r="AA109" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB109" s="13" t="str">
@@ -33750,11 +34459,18 @@
         <v>981</v>
       </c>
       <c r="P110" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(
+  AND(
+    $A110&lt;&gt;"",
+    COUNTIF(C:C,$A110)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q110" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R110" s="13" t="str">
@@ -33877,7 +34593,7 @@
         <v>172</v>
       </c>
       <c r="AA110" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB110" s="13" t="str">
@@ -33975,11 +34691,18 @@
         <v>981</v>
       </c>
       <c r="P111" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(
+  AND(
+    $A111&lt;&gt;"",
+    COUNTIF(C:C,$A111)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q111" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R111" s="13" t="str">
@@ -34102,7 +34825,7 @@
         <v>172</v>
       </c>
       <c r="AA111" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB111" s="13" t="str">
@@ -34200,11 +34923,18 @@
         <v>981</v>
       </c>
       <c r="P112" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(
+  AND(
+    $A112&lt;&gt;"",
+    COUNTIF(C:C,$A112)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q112" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R112" s="13" t="str">
@@ -34327,7 +35057,7 @@
         <v>122</v>
       </c>
       <c r="AA112" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB112" s="13" t="str">
@@ -34425,11 +35155,18 @@
         <v>981</v>
       </c>
       <c r="P113" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(
+  AND(
+    $A113&lt;&gt;"",
+    COUNTIF(C:C,$A113)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q113" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R113" s="13" t="str">
@@ -34552,7 +35289,7 @@
         <v>162</v>
       </c>
       <c r="AA113" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB113" s="13" t="str">
@@ -34650,11 +35387,18 @@
         <v>981</v>
       </c>
       <c r="P114" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(
+  AND(
+    $A114&lt;&gt;"",
+    COUNTIF(C:C,$A114)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q114" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R114" s="13" t="str">
@@ -34777,7 +35521,7 @@
         <v>172</v>
       </c>
       <c r="AA114" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB114" s="13" t="str">
@@ -34875,7 +35619,14 @@
         <v>1184</v>
       </c>
       <c r="P115" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(
+  AND(
+    $A115&lt;&gt;"",
+    COUNTIF(C:C,$A115)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q115" s="9" t="str">
@@ -35107,11 +35858,18 @@
         <v>981</v>
       </c>
       <c r="P116" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(
+  AND(
+    $A116&lt;&gt;"",
+    COUNTIF(C:C,$A116)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q116" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R116" s="13" t="str">
@@ -35234,7 +35992,7 @@
         <v>143</v>
       </c>
       <c r="AA116" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB116" s="13" t="str">
@@ -35332,11 +36090,18 @@
         <v>981</v>
       </c>
       <c r="P117" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(
+  AND(
+    $A117&lt;&gt;"",
+    COUNTIF(C:C,$A117)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q117" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R117" s="13" t="str">
@@ -35459,7 +36224,7 @@
         <v>162</v>
       </c>
       <c r="AA117" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB117" s="13" t="str">
@@ -35557,11 +36322,18 @@
         <v>981</v>
       </c>
       <c r="P118" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(
+  AND(
+    $A118&lt;&gt;"",
+    COUNTIF(C:C,$A118)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q118" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R118" s="13" t="str">
@@ -35684,7 +36456,7 @@
         <v>123</v>
       </c>
       <c r="AA118" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB118" s="13" t="str">
@@ -35782,11 +36554,18 @@
         <v>981</v>
       </c>
       <c r="P119" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(
+  AND(
+    $A119&lt;&gt;"",
+    COUNTIF(C:C,$A119)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q119" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R119" s="13" t="str">
@@ -35909,7 +36688,7 @@
         <v>133</v>
       </c>
       <c r="AA119" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB119" s="13" t="str">
@@ -36007,11 +36786,18 @@
         <v>981</v>
       </c>
       <c r="P120" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(
+  AND(
+    $A120&lt;&gt;"",
+    COUNTIF(C:C,$A120)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q120" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R120" s="13" t="str">
@@ -36134,7 +36920,7 @@
         <v>153</v>
       </c>
       <c r="AA120" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB120" s="13" t="str">
@@ -36232,11 +37018,18 @@
         <v>981</v>
       </c>
       <c r="P121" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(
+  AND(
+    $A121&lt;&gt;"",
+    COUNTIF(C:C,$A121)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q121" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R121" s="13" t="str">
@@ -36359,7 +37152,7 @@
         <v>161</v>
       </c>
       <c r="AA121" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB121" s="13" t="str">
@@ -36457,11 +37250,18 @@
         <v>981</v>
       </c>
       <c r="P122" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(
+  AND(
+    $A122&lt;&gt;"",
+    COUNTIF(C:C,$A122)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q122" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R122" s="13" t="str">
@@ -36584,7 +37384,7 @@
         <v>172</v>
       </c>
       <c r="AA122" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB122" s="13" t="str">
@@ -36682,11 +37482,18 @@
         <v>981</v>
       </c>
       <c r="P123" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(
+  AND(
+    $A123&lt;&gt;"",
+    COUNTIF(C:C,$A123)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q123" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R123" s="13" t="str">
@@ -36809,7 +37616,7 @@
         <v>123</v>
       </c>
       <c r="AA123" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB123" s="13" t="str">
@@ -36907,11 +37714,18 @@
         <v>981</v>
       </c>
       <c r="P124" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(
+  AND(
+    $A124&lt;&gt;"",
+    COUNTIF(C:C,$A124)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q124" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R124" s="13" t="str">
@@ -37034,7 +37848,7 @@
         <v>123</v>
       </c>
       <c r="AA124" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB124" s="13" t="str">
@@ -37087,56 +37901,70 @@
     </row>
     <row r="125" spans="1:32">
       <c r="A125" s="9" t="s">
-        <v>687</v>
+        <v>1244</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>751</v>
+        <v>1245</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>89</v>
+        <v>1243</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="E125" s="26" t="s">
         <v>40</v>
       </c>
       <c r="F125" s="15" t="s">
-        <v>156</v>
+        <v>28</v>
       </c>
       <c r="G125" s="15" t="s">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="H125" s="9" t="s">
         <v>71</v>
       </c>
       <c r="I125" s="15" t="s">
-        <v>878</v>
+        <v>0</v>
       </c>
       <c r="J125" s="15" t="s">
-        <v>66</v>
+        <v>980</v>
       </c>
       <c r="K125" s="15" t="s">
-        <v>66</v>
+        <v>980</v>
       </c>
       <c r="L125" s="97" t="s">
-        <v>66</v>
+        <v>980</v>
       </c>
       <c r="M125" s="98" t="s">
-        <v>579</v>
+        <v>980</v>
       </c>
       <c r="N125" s="15" t="s">
-        <v>878</v>
+        <v>980</v>
       </c>
       <c r="O125" s="26" t="s">
-        <v>981</v>
+        <v>40</v>
       </c>
       <c r="P125" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(
+  AND(
+    $A125&lt;&gt;"",
+    COUNTIF(C:C,$A125)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q125" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(
+  OR(
+    $H125="-",
+    COUNTIF(カテゴリ,$H125)&gt;0
+  ),
+  "",
+  "★NG★"
+)</f>
         <v/>
       </c>
       <c r="R125" s="13" t="str">
@@ -37153,7 +37981,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global\MicrosoftEdge（ブラウザ）.lnk" "C:\Program Files (x86)\Microsoft\Edge\Application\msedge.exe" "" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global\Steam（ゲーム）.lnk" "C:\prg\Steam\steam.exe" "" ""</v>
       </c>
       <c r="S125" s="9" t="str">
         <f ca="1">IFERROR(
@@ -37259,7 +38087,7 @@
         <v>161</v>
       </c>
       <c r="AA125" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(AND($M125&lt;&gt;"",$M125&lt;&gt;"-")," (&amp;"&amp;$M125&amp;")","")</f>
         <v/>
       </c>
       <c r="AB125" s="13" t="str">
@@ -37282,7 +38110,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\MicrosoftEdge（ブラウザ）.lnk" "C:\Program Files (x86)\Microsoft\Edge\Application\msedge.exe" "" ""</v>
+        <v/>
       </c>
       <c r="AD125" s="9" t="str">
         <f>IF(
@@ -37290,7 +38118,7 @@
   shortcut設定!$F$6&amp;"\"&amp;A125&amp;"（"&amp;B125&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\MicrosoftEdge（ブラウザ）.lnk</v>
+        <v/>
       </c>
       <c r="AE125" s="13" t="str">
         <f>IF(
@@ -37312,16 +38140,16 @@
     </row>
     <row r="126" spans="1:32">
       <c r="A126" s="9" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>827</v>
-      </c>
-      <c r="C126" s="81" t="s">
-        <v>91</v>
+        <v>751</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>900</v>
+        <v>40</v>
       </c>
       <c r="E126" s="26" t="s">
         <v>40</v>
@@ -37333,7 +38161,7 @@
         <v>156</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I126" s="15" t="s">
         <v>878</v>
@@ -37351,17 +38179,24 @@
         <v>579</v>
       </c>
       <c r="N126" s="15" t="s">
-        <v>66</v>
+        <v>878</v>
       </c>
       <c r="O126" s="26" t="s">
         <v>981</v>
       </c>
       <c r="P126" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(
+  AND(
+    $A126&lt;&gt;"",
+    COUNTIF(C:C,$A126)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q126" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R126" s="13" t="str">
@@ -37378,7 +38213,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit\MicrosoftExcel（ドキュメント編集）.lnk" "C:\Program Files (x86)\Microsoft Office\root\Office16\EXCEL.EXE" "/x" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global\MicrosoftEdge（ブラウザ）.lnk" "C:\Program Files (x86)\Microsoft\Edge\Application\msedge.exe" "" ""</v>
       </c>
       <c r="S126" s="9" t="str">
         <f ca="1">IFERROR(
@@ -37394,7 +38229,7 @@
   ),
   ""
 )</f>
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="T126" s="13" t="str">
         <f ca="1">IF(
@@ -37402,7 +38237,7 @@
   shortcut設定!$F$4&amp;"\"&amp;S126&amp;"_"&amp;H126,
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global</v>
       </c>
       <c r="U126" s="13" t="str">
         <f>IF(
@@ -37481,10 +38316,10 @@
   ),
   ""
 )</f>
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="AA126" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB126" s="13" t="str">
@@ -37507,7 +38342,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\MicrosoftEdge（ブラウザ）.lnk" "C:\Program Files (x86)\Microsoft\Edge\Application\msedge.exe" "" ""</v>
       </c>
       <c r="AD126" s="9" t="str">
         <f>IF(
@@ -37515,7 +38350,7 @@
   shortcut設定!$F$6&amp;"\"&amp;A126&amp;"（"&amp;B126&amp;"）.lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\MicrosoftEdge（ブラウザ）.lnk</v>
       </c>
       <c r="AE126" s="13" t="str">
         <f>IF(
@@ -37537,16 +38372,16 @@
     </row>
     <row r="127" spans="1:32">
       <c r="A127" s="9" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B127" s="9" t="s">
         <v>827</v>
       </c>
-      <c r="C127" s="9" t="s">
-        <v>92</v>
+      <c r="C127" s="81" t="s">
+        <v>91</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>40</v>
+        <v>900</v>
       </c>
       <c r="E127" s="26" t="s">
         <v>40</v>
@@ -37582,11 +38417,18 @@
         <v>981</v>
       </c>
       <c r="P127" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(
+  AND(
+    $A127&lt;&gt;"",
+    COUNTIF(C:C,$A127)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q127" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R127" s="13" t="str">
@@ -37603,7 +38445,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit\MicrosoftVisio（ドキュメント編集）.lnk" "C:\Program Files (x86)\Microsoft Office\root\Office16\VISIO.EXE" "" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit\MicrosoftExcel（ドキュメント編集）.lnk" "C:\Program Files (x86)\Microsoft Office\root\Office16\EXCEL.EXE" "/x" ""</v>
       </c>
       <c r="S127" s="9" t="str">
         <f ca="1">IFERROR(
@@ -37709,7 +38551,7 @@
         <v>123</v>
       </c>
       <c r="AA127" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB127" s="13" t="str">
@@ -37762,13 +38604,13 @@
     </row>
     <row r="128" spans="1:32">
       <c r="A128" s="9" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B128" s="9" t="s">
         <v>827</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D128" s="15" t="s">
         <v>40</v>
@@ -37807,11 +38649,18 @@
         <v>981</v>
       </c>
       <c r="P128" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(
+  AND(
+    $A128&lt;&gt;"",
+    COUNTIF(C:C,$A128)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q128" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R128" s="13" t="str">
@@ -37828,7 +38677,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit\MicrosoftWord（ドキュメント編集）.lnk" "C:\Program Files (x86)\Microsoft Office\root\Office16\WINWORD.EXE" "" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit\MicrosoftVisio（ドキュメント編集）.lnk" "C:\Program Files (x86)\Microsoft Office\root\Office16\VISIO.EXE" "" ""</v>
       </c>
       <c r="S128" s="9" t="str">
         <f ca="1">IFERROR(
@@ -37934,7 +38783,7 @@
         <v>123</v>
       </c>
       <c r="AA128" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB128" s="13" t="str">
@@ -37987,13 +38836,13 @@
     </row>
     <row r="129" spans="1:32">
       <c r="A129" s="9" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D129" s="15" t="s">
         <v>40</v>
@@ -38008,7 +38857,7 @@
         <v>156</v>
       </c>
       <c r="H129" s="9" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I129" s="15" t="s">
         <v>878</v>
@@ -38032,11 +38881,18 @@
         <v>981</v>
       </c>
       <c r="P129" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(
+  AND(
+    $A129&lt;&gt;"",
+    COUNTIF(C:C,$A129)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q129" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R129" s="13" t="str">
@@ -38053,7 +38909,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global\MicrosoftOutlook（メーラー）.lnk" "C:\Program Files (x86)\Microsoft Office\root\Office16\OUTLOOK.EXE" "" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit\MicrosoftWord（ドキュメント編集）.lnk" "C:\Program Files (x86)\Microsoft Office\root\Office16\WINWORD.EXE" "" ""</v>
       </c>
       <c r="S129" s="9" t="str">
         <f ca="1">IFERROR(
@@ -38069,7 +38925,7 @@
   ),
   ""
 )</f>
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="T129" s="13" t="str">
         <f ca="1">IF(
@@ -38077,7 +38933,7 @@
   shortcut設定!$F$4&amp;"\"&amp;S129&amp;"_"&amp;H129,
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit</v>
       </c>
       <c r="U129" s="13" t="str">
         <f>IF(
@@ -38156,10 +39012,10 @@
   ),
   ""
 )</f>
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="AA129" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB129" s="13" t="str">
@@ -38212,13 +39068,13 @@
     </row>
     <row r="130" spans="1:32">
       <c r="A130" s="9" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>889</v>
+        <v>94</v>
       </c>
       <c r="D130" s="15" t="s">
         <v>40</v>
@@ -38227,13 +39083,13 @@
         <v>40</v>
       </c>
       <c r="F130" s="15" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="G130" s="15" t="s">
         <v>156</v>
       </c>
       <c r="H130" s="9" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="I130" s="15" t="s">
         <v>878</v>
@@ -38257,11 +39113,18 @@
         <v>981</v>
       </c>
       <c r="P130" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(
+  AND(
+    $A130&lt;&gt;"",
+    COUNTIF(C:C,$A130)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q130" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R130" s="13" t="str">
@@ -38278,7 +39141,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\153_Picture_Edit" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\153_Picture_Edit\CopyTransPhoto（iPhone写真移動）.lnk" "%USERPROFILE%\AppData\Roaming\WindSolutions\CopyTransControlCenter\Applications\CopyTransControlCenter.exe" "" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global\MicrosoftOutlook（メーラー）.lnk" "C:\Program Files (x86)\Microsoft Office\root\Office16\OUTLOOK.EXE" "" ""</v>
       </c>
       <c r="S130" s="9" t="str">
         <f ca="1">IFERROR(
@@ -38294,7 +39157,7 @@
   ),
   ""
 )</f>
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="T130" s="13" t="str">
         <f ca="1">IF(
@@ -38302,7 +39165,7 @@
   shortcut設定!$F$4&amp;"\"&amp;S130&amp;"_"&amp;H130,
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\153_Picture_Edit</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global</v>
       </c>
       <c r="U130" s="13" t="str">
         <f>IF(
@@ -38381,10 +39244,10 @@
   ),
   ""
 )</f>
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="AA130" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB130" s="13" t="str">
@@ -38437,13 +39300,13 @@
     </row>
     <row r="131" spans="1:32">
       <c r="A131" s="9" t="s">
-        <v>887</v>
+        <v>692</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>888</v>
+        <v>829</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D131" s="15" t="s">
         <v>40</v>
@@ -38452,48 +39315,48 @@
         <v>40</v>
       </c>
       <c r="F131" s="15" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="G131" s="15" t="s">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="H131" s="9" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="I131" s="15" t="s">
-        <v>0</v>
+        <v>878</v>
       </c>
       <c r="J131" s="15" t="s">
-        <v>583</v>
+        <v>66</v>
       </c>
       <c r="K131" s="15" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="L131" s="97" t="s">
-        <v>583</v>
+        <v>66</v>
       </c>
       <c r="M131" s="98" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="N131" s="15" t="s">
-        <v>583</v>
+        <v>66</v>
       </c>
       <c r="O131" s="26" t="s">
         <v>981</v>
       </c>
       <c r="P131" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(
+  AND(
+    $A131&lt;&gt;"",
+    COUNTIF(C:C,$A131)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q131" s="9" t="str">
-        <f>IF(
-  OR(
-    $H131="-",
-    COUNTIF(カテゴリ,$H131)&gt;0
-  ),
-  "",
-  "★NG★"
-)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R131" s="13" t="str">
@@ -38510,7 +39373,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\122_Doc_View" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\122_Doc_View\Kindle（電子書籍）.lnk" "%USERPROFILE%\AppData\Local\Amazon\Kindle\application\Kindle.exe" "" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\153_Picture_Edit" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\153_Picture_Edit\CopyTransPhoto（iPhone写真移動）.lnk" "%USERPROFILE%\AppData\Roaming\WindSolutions\CopyTransControlCenter\Applications\CopyTransControlCenter.exe" "" ""</v>
       </c>
       <c r="S131" s="9" t="str">
         <f ca="1">IFERROR(
@@ -38526,7 +39389,7 @@
   ),
   ""
 )</f>
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="T131" s="13" t="str">
         <f ca="1">IF(
@@ -38534,7 +39397,7 @@
   shortcut設定!$F$4&amp;"\"&amp;S131&amp;"_"&amp;H131,
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\122_Doc_View</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\153_Picture_Edit</v>
       </c>
       <c r="U131" s="13" t="str">
         <f>IF(
@@ -38613,10 +39476,10 @@
   ),
   ""
 )</f>
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="AA131" s="20" t="str">
-        <f>IF(AND($M131&lt;&gt;"",$M131&lt;&gt;"-")," (&amp;"&amp;$M131&amp;")","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB131" s="13" t="str">
@@ -38669,13 +39532,13 @@
     </row>
     <row r="132" spans="1:32">
       <c r="A132" s="9" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D132" s="15" t="s">
         <v>40</v>
@@ -38690,7 +39553,7 @@
         <v>0</v>
       </c>
       <c r="H132" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I132" s="15" t="s">
         <v>0</v>
@@ -38714,7 +39577,14 @@
         <v>981</v>
       </c>
       <c r="P132" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(
+  AND(
+    $A132&lt;&gt;"",
+    COUNTIF(C:C,$A132)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q132" s="9" t="str">
@@ -38742,7 +39612,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global\LINE（コミュニケーション）.lnk" "%USERPROFILE%\AppData\Local\LINE\bin\LineLauncher.exe" "" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\122_Doc_View" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\122_Doc_View\Kindle（電子書籍）.lnk" "%USERPROFILE%\AppData\Local\Amazon\Kindle\application\Kindle.exe" "" ""</v>
       </c>
       <c r="S132" s="9" t="str">
         <f ca="1">IFERROR(
@@ -38758,7 +39628,7 @@
   ),
   ""
 )</f>
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="T132" s="13" t="str">
         <f ca="1">IF(
@@ -38766,7 +39636,7 @@
   shortcut設定!$F$4&amp;"\"&amp;S132&amp;"_"&amp;H132,
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\122_Doc_View</v>
       </c>
       <c r="U132" s="13" t="str">
         <f>IF(
@@ -38845,7 +39715,7 @@
   ),
   ""
 )</f>
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="AA132" s="20" t="str">
         <f>IF(AND($M132&lt;&gt;"",$M132&lt;&gt;"-")," (&amp;"&amp;$M132&amp;")","")</f>
@@ -38901,13 +39771,13 @@
     </row>
     <row r="133" spans="1:32">
       <c r="A133" s="9" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B133" s="9" t="s">
         <v>895</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D133" s="15" t="s">
         <v>40</v>
@@ -38916,10 +39786,10 @@
         <v>40</v>
       </c>
       <c r="F133" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G133" s="15" t="s">
         <v>0</v>
-      </c>
-      <c r="G133" s="15" t="s">
-        <v>28</v>
       </c>
       <c r="H133" s="9" t="s">
         <v>71</v>
@@ -38946,7 +39816,14 @@
         <v>981</v>
       </c>
       <c r="P133" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(
+  AND(
+    $A133&lt;&gt;"",
+    COUNTIF(C:C,$A133)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q133" s="9" t="str">
@@ -38974,7 +39851,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global\MicrosoftTeams（コミュニケーション）.lnk" "C:\Users\draem\AppData\Local\Microsoft\Teams\Update.exe --processStart "Teams.exe"" "" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global\LINE（コミュニケーション）.lnk" "%USERPROFILE%\AppData\Local\LINE\bin\LineLauncher.exe" "" ""</v>
       </c>
       <c r="S133" s="9" t="str">
         <f ca="1">IFERROR(
@@ -39133,52 +40010,59 @@
     </row>
     <row r="134" spans="1:32">
       <c r="A134" s="9" t="s">
-        <v>1198</v>
+        <v>894</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>1200</v>
+        <v>895</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>1197</v>
+        <v>893</v>
       </c>
       <c r="D134" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E134" s="26" t="s">
-        <v>1196</v>
+        <v>40</v>
       </c>
       <c r="F134" s="15" t="s">
         <v>0</v>
       </c>
       <c r="G134" s="15" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I134" s="15" t="s">
         <v>0</v>
       </c>
       <c r="J134" s="15" t="s">
-        <v>1199</v>
+        <v>583</v>
       </c>
       <c r="K134" s="15" t="s">
         <v>40</v>
       </c>
       <c r="L134" s="97" t="s">
-        <v>40</v>
+        <v>583</v>
       </c>
       <c r="M134" s="98" t="s">
-        <v>40</v>
+        <v>583</v>
       </c>
       <c r="N134" s="15" t="s">
-        <v>40</v>
+        <v>583</v>
       </c>
       <c r="O134" s="26" t="s">
-        <v>40</v>
+        <v>981</v>
       </c>
       <c r="P134" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(
+  AND(
+    $A134&lt;&gt;"",
+    COUNTIF(C:C,$A134)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q134" s="9" t="str">
@@ -39206,7 +40090,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\172_Utility_Other" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\172_Utility_Other\コマンドプロンプト（コマンドプロンプト起動）.lnk" "%windir%\system32\cmd.exe" "" "%USERPROFILE%"</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global\MicrosoftTeams（コミュニケーション）.lnk" "C:\Users\draem\AppData\Local\Microsoft\Teams\Update.exe --processStart "Teams.exe"" "" ""</v>
       </c>
       <c r="S134" s="9" t="str">
         <f ca="1">IFERROR(
@@ -39222,7 +40106,7 @@
   ),
   ""
 )</f>
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="T134" s="13" t="str">
         <f ca="1">IF(
@@ -39230,7 +40114,7 @@
   shortcut設定!$F$4&amp;"\"&amp;S134&amp;"_"&amp;H134,
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\172_Utility_Other</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global</v>
       </c>
       <c r="U134" s="13" t="str">
         <f>IF(
@@ -39246,7 +40130,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\cmd（コマンドプロンプト起動）.lnk" "%windir%\system32\cmd.exe" "" "%USERPROFILE%"</v>
+        <v/>
       </c>
       <c r="V134" s="14" t="str">
         <f>IF(
@@ -39254,7 +40138,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J134&amp;"（"&amp;$B134&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\cmd（コマンドプロンプト起動）.lnk</v>
+        <v/>
       </c>
       <c r="W134" s="13" t="str">
         <f>IF(
@@ -39309,7 +40193,7 @@
   ),
   ""
 )</f>
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="AA134" s="20" t="str">
         <f>IF(AND($M134&lt;&gt;"",$M134&lt;&gt;"-")," (&amp;"&amp;$M134&amp;")","")</f>
@@ -39365,19 +40249,19 @@
     </row>
     <row r="135" spans="1:32">
       <c r="A135" s="9" t="s">
-        <v>693</v>
+        <v>1197</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>830</v>
+        <v>1199</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>96</v>
+        <v>1196</v>
       </c>
       <c r="D135" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E135" s="26" t="s">
-        <v>40</v>
+        <v>1246</v>
       </c>
       <c r="F135" s="15" t="s">
         <v>0</v>
@@ -39386,39 +40270,53 @@
         <v>0</v>
       </c>
       <c r="H135" s="9" t="s">
-        <v>551</v>
+        <v>70</v>
       </c>
       <c r="I135" s="15" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="J135" s="15" t="s">
-        <v>66</v>
+        <v>1198</v>
       </c>
       <c r="K135" s="15" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="L135" s="97" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="M135" s="98" t="s">
-        <v>579</v>
+        <v>40</v>
       </c>
       <c r="N135" s="15" t="s">
-        <v>878</v>
+        <v>40</v>
       </c>
       <c r="O135" s="26" t="s">
-        <v>981</v>
+        <v>40</v>
       </c>
       <c r="P135" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(
+  AND(
+    $A135&lt;&gt;"",
+    COUNTIF(C:C,$A135)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q135" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(
+  OR(
+    $H135="-",
+    COUNTIF(カテゴリ,$H135)&gt;0
+  ),
+  "",
+  "★NG★"
+)</f>
         <v/>
       </c>
       <c r="R135" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A135&lt;&gt;"",$I135="○"),
   (
     "mkdir """&amp;T135&amp;""" &amp; "
@@ -39431,7 +40329,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\172_Utility_Other" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\172_Utility_Other\コマンドプロンプト（コマンドプロンプト起動）.lnk" "%windir%\system32\cmd.exe" "" "%MYDIRPATH_DESKTOP%"</v>
       </c>
       <c r="S135" s="9" t="str">
         <f ca="1">IFERROR(
@@ -39447,15 +40345,15 @@
   ),
   ""
 )</f>
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="T135" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A135&lt;&gt;"",$I135="○"),
   shortcut設定!$F$4&amp;"\"&amp;S135&amp;"_"&amp;H135,
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\172_Utility_Other</v>
       </c>
       <c r="U135" s="13" t="str">
         <f>IF(
@@ -39471,7 +40369,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\cmd（コマンドプロンプト起動）.lnk" "%windir%\system32\cmd.exe" "" "%MYDIRPATH_DESKTOP%"</v>
       </c>
       <c r="V135" s="14" t="str">
         <f>IF(
@@ -39479,7 +40377,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J135&amp;"（"&amp;$B135&amp;"）.lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\cmd（コマンドプロンプト起動）.lnk</v>
       </c>
       <c r="W135" s="13" t="str">
         <f>IF(
@@ -39534,10 +40432,10 @@
   ),
   ""
 )</f>
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="AA135" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(AND($M135&lt;&gt;"",$M135&lt;&gt;"-")," (&amp;"&amp;$M135&amp;")","")</f>
         <v/>
       </c>
       <c r="AB135" s="13" t="str">
@@ -39560,7 +40458,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\UserDefHotKey2.ahk（ホットキー）.lnk" "C:\codes\ahk\UserDefHotKey2.ahk" "" ""</v>
+        <v/>
       </c>
       <c r="AD135" s="9" t="str">
         <f>IF(
@@ -39568,7 +40466,7 @@
   shortcut設定!$F$6&amp;"\"&amp;A135&amp;"（"&amp;B135&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\UserDefHotKey2.ahk（ホットキー）.lnk</v>
+        <v/>
       </c>
       <c r="AE135" s="13" t="str">
         <f>IF(
@@ -39590,16 +40488,16 @@
     </row>
     <row r="136" spans="1:32">
       <c r="A136" s="9" t="s">
-        <v>694</v>
+        <v>1197</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>831</v>
+        <v>1248</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>575</v>
+        <v>1247</v>
       </c>
       <c r="D136" s="15" t="s">
-        <v>40</v>
+        <v>1249</v>
       </c>
       <c r="E136" s="26" t="s">
         <v>40</v>
@@ -39611,39 +40509,53 @@
         <v>0</v>
       </c>
       <c r="H136" s="9" t="s">
-        <v>551</v>
+        <v>70</v>
       </c>
       <c r="I136" s="15" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="J136" s="15" t="s">
-        <v>66</v>
+        <v>1198</v>
       </c>
       <c r="K136" s="15" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="L136" s="97" t="s">
-        <v>878</v>
+        <v>40</v>
       </c>
       <c r="M136" s="98" t="s">
-        <v>579</v>
+        <v>40</v>
       </c>
       <c r="N136" s="15" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="O136" s="26" t="s">
-        <v>981</v>
+        <v>40</v>
       </c>
       <c r="P136" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(
+  AND(
+    $A136&lt;&gt;"",
+    COUNTIF(C:C,$A136)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q136" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(
+  OR(
+    $H136="-",
+    COUNTIF(カテゴリ,$H136)&gt;0
+  ),
+  "",
+  "★NG★"
+)</f>
         <v/>
       </c>
       <c r="R136" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A136&lt;&gt;"",$I136="○"),
   (
     "mkdir """&amp;T136&amp;""" &amp; "
@@ -39656,7 +40568,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\172_Utility_Other" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\172_Utility_Other\コマンドプロンプト（コマンドプロンプト起動_管理者権限）.lnk" "C:\codes\bat\tools\win\OpenCmdPromptAsRunas.bat" "%MYDIRPATH_DESKTOP%" ""</v>
       </c>
       <c r="S136" s="9" t="str">
         <f ca="1">IFERROR(
@@ -39672,15 +40584,15 @@
   ),
   ""
 )</f>
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="T136" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A136&lt;&gt;"",$I136="○"),
   shortcut設定!$F$4&amp;"\"&amp;S136&amp;"_"&amp;H136,
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\172_Utility_Other</v>
       </c>
       <c r="U136" s="13" t="str">
         <f>IF(
@@ -39696,7 +40608,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\cmd（コマンドプロンプト起動_管理者権限）.lnk" "C:\codes\bat\tools\win\OpenCmdPromptAsRunas.bat" "%MYDIRPATH_DESKTOP%" ""</v>
       </c>
       <c r="V136" s="14" t="str">
         <f>IF(
@@ -39704,7 +40616,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J136&amp;"（"&amp;$B136&amp;"）.lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\cmd（コマンドプロンプト起動_管理者権限）.lnk</v>
       </c>
       <c r="W136" s="13" t="str">
         <f>IF(
@@ -39732,7 +40644,7 @@
         <v/>
       </c>
       <c r="Y136" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A136&lt;&gt;"",$L136&lt;&gt;"-",$L136&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -39743,7 +40655,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_AddString2FileFolder.vbs（ファイルフォルダ接尾辞付与）.lnk" "C:\codes\vbs\tools\win\file_ope\AddString2FileFolder.vbs" "" ""</v>
+        <v/>
       </c>
       <c r="Z136" s="9" t="str">
         <f ca="1">IFERROR(
@@ -39759,19 +40671,19 @@
   ),
   ""
 )</f>
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="AA136" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(AND($M136&lt;&gt;"",$M136&lt;&gt;"-")," (&amp;"&amp;$M136&amp;")","")</f>
         <v/>
       </c>
       <c r="AB136" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A136&lt;&gt;"",$L136="○"),
   shortcut設定!$F$5&amp;"\"&amp;Z136&amp;"_"&amp;A136&amp;"（"&amp;B136&amp;"）"&amp;AA136&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_AddString2FileFolder.vbs（ファイルフォルダ接尾辞付与）.lnk</v>
+        <v/>
       </c>
       <c r="AC136" s="13" t="str">
         <f>IF(
@@ -39815,13 +40727,13 @@
     </row>
     <row r="137" spans="1:32">
       <c r="A137" s="9" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D137" s="15" t="s">
         <v>40</v>
@@ -39848,23 +40760,30 @@
         <v>66</v>
       </c>
       <c r="L137" s="97" t="s">
-        <v>878</v>
+        <v>66</v>
       </c>
       <c r="M137" s="98" t="s">
         <v>579</v>
       </c>
       <c r="N137" s="15" t="s">
-        <v>66</v>
+        <v>878</v>
       </c>
       <c r="O137" s="26" t="s">
         <v>981</v>
       </c>
       <c r="P137" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(
+  AND(
+    $A137&lt;&gt;"",
+    COUNTIF(C:C,$A137)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q137" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R137" s="13" t="str">
@@ -39957,7 +40876,7 @@
         <v/>
       </c>
       <c r="Y137" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A137&lt;&gt;"",$L137&lt;&gt;"-",$L137&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -39968,7 +40887,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_BackUpFile.vbs（ファイルバックアップ）.lnk" "C:\codes\vbs\tools\win\file_ope\BackUpFile.vbs" "" ""</v>
+        <v/>
       </c>
       <c r="Z137" s="9" t="str">
         <f ca="1">IFERROR(
@@ -39987,16 +40906,16 @@
         <v>200</v>
       </c>
       <c r="AA137" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB137" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A137&lt;&gt;"",$L137="○"),
   shortcut設定!$F$5&amp;"\"&amp;Z137&amp;"_"&amp;A137&amp;"（"&amp;B137&amp;"）"&amp;AA137&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_BackUpFile.vbs（ファイルバックアップ）.lnk</v>
+        <v/>
       </c>
       <c r="AC137" s="13" t="str">
         <f>IF(
@@ -40010,7 +40929,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\UserDefHotKey2.ahk（ホットキー）.lnk" "C:\codes\ahk\UserDefHotKey2.ahk" "" ""</v>
       </c>
       <c r="AD137" s="9" t="str">
         <f>IF(
@@ -40018,7 +40937,7 @@
   shortcut設定!$F$6&amp;"\"&amp;A137&amp;"（"&amp;B137&amp;"）.lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\UserDefHotKey2.ahk（ホットキー）.lnk</v>
       </c>
       <c r="AE137" s="13" t="str">
         <f>IF(
@@ -40040,13 +40959,13 @@
     </row>
     <row r="138" spans="1:32">
       <c r="A138" s="9" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>98</v>
+        <v>575</v>
       </c>
       <c r="D138" s="15" t="s">
         <v>40</v>
@@ -40085,11 +41004,18 @@
         <v>981</v>
       </c>
       <c r="P138" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(
+  AND(
+    $A138&lt;&gt;"",
+    COUNTIF(C:C,$A138)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q138" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R138" s="13" t="str">
@@ -40193,7 +41119,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_BackUpMemoFiles.vbs（ファイル一括バックアップ）.lnk" "C:\codes\vbs\tools\win\file_ope\BackUpMemoFiles.vbs" "" ""</v>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_AddString2FileFolder.vbs（ファイルフォルダ接尾辞付与）.lnk" "C:\codes\vbs\tools\win\file_ope\AddString2FileFolder.vbs" "" ""</v>
       </c>
       <c r="Z138" s="9" t="str">
         <f ca="1">IFERROR(
@@ -40212,7 +41138,7 @@
         <v>200</v>
       </c>
       <c r="AA138" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB138" s="13" t="str">
@@ -40221,7 +41147,7 @@
   shortcut設定!$F$5&amp;"\"&amp;Z138&amp;"_"&amp;A138&amp;"（"&amp;B138&amp;"）"&amp;AA138&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_BackUpMemoFiles.vbs（ファイル一括バックアップ）.lnk</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_AddString2FileFolder.vbs（ファイルフォルダ接尾辞付与）.lnk</v>
       </c>
       <c r="AC138" s="13" t="str">
         <f>IF(
@@ -40265,13 +41191,13 @@
     </row>
     <row r="139" spans="1:32">
       <c r="A139" s="9" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D139" s="15" t="s">
         <v>40</v>
@@ -40310,7 +41236,7 @@
         <v>981</v>
       </c>
       <c r="P139" s="9" t="str">
-        <f t="shared" ref="P139:P170" si="10">IF(
+        <f>IF(
   AND(
     $A139&lt;&gt;"",
     COUNTIF(C:C,$A139)&gt;1
@@ -40321,7 +41247,7 @@
         <v/>
       </c>
       <c r="Q139" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R139" s="13" t="str">
@@ -40425,7 +41351,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CopyRefFile.vbs（参照ファイル複製）.lnk" "C:\codes\vbs\tools\win\file_ope\CopyRefFile.vbs" "" ""</v>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_BackUpFile.vbs（ファイルバックアップ）.lnk" "C:\codes\vbs\tools\win\file_ope\BackUpFile.vbs" "" ""</v>
       </c>
       <c r="Z139" s="9" t="str">
         <f ca="1">IFERROR(
@@ -40444,7 +41370,7 @@
         <v>200</v>
       </c>
       <c r="AA139" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB139" s="13" t="str">
@@ -40453,7 +41379,7 @@
   shortcut設定!$F$5&amp;"\"&amp;Z139&amp;"_"&amp;A139&amp;"（"&amp;B139&amp;"）"&amp;AA139&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CopyRefFile.vbs（参照ファイル複製）.lnk</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_BackUpFile.vbs（ファイルバックアップ）.lnk</v>
       </c>
       <c r="AC139" s="13" t="str">
         <f>IF(
@@ -40497,13 +41423,13 @@
     </row>
     <row r="140" spans="1:32">
       <c r="A140" s="9" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D140" s="15" t="s">
         <v>40</v>
@@ -40542,18 +41468,18 @@
         <v>981</v>
       </c>
       <c r="P140" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(
+  AND(
+    $A140&lt;&gt;"",
+    COUNTIF(C:C,$A140)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q140" s="9" t="str">
-        <f t="shared" ref="Q140:Q170" si="11">IF(
-  OR(
-    $H140="-",
-    COUNTIF(カテゴリ,$H140)&gt;0
-  ),
-  "",
-  "★NG★"
-)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R140" s="13" t="str">
@@ -40657,7 +41583,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CopyRefFileFromWeb.vbs（参照ファイル複製fromWeb）.lnk" "C:\codes\vbs\tools\win\file_ope\CopyRefFileFromWeb.vbs" "" ""</v>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_BackUpMemoFiles.vbs（ファイル一括バックアップ）.lnk" "C:\codes\vbs\tools\win\file_ope\BackUpMemoFiles.vbs" "" ""</v>
       </c>
       <c r="Z140" s="9" t="str">
         <f ca="1">IFERROR(
@@ -40676,7 +41602,7 @@
         <v>200</v>
       </c>
       <c r="AA140" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB140" s="13" t="str">
@@ -40685,7 +41611,7 @@
   shortcut設定!$F$5&amp;"\"&amp;Z140&amp;"_"&amp;A140&amp;"（"&amp;B140&amp;"）"&amp;AA140&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CopyRefFileFromWeb.vbs（参照ファイル複製fromWeb）.lnk</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_BackUpMemoFiles.vbs（ファイル一括バックアップ）.lnk</v>
       </c>
       <c r="AC140" s="13" t="str">
         <f>IF(
@@ -40729,13 +41655,13 @@
     </row>
     <row r="141" spans="1:32">
       <c r="A141" s="9" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D141" s="15" t="s">
         <v>40</v>
@@ -40762,7 +41688,7 @@
         <v>66</v>
       </c>
       <c r="L141" s="97" t="s">
-        <v>66</v>
+        <v>878</v>
       </c>
       <c r="M141" s="98" t="s">
         <v>579</v>
@@ -40774,11 +41700,18 @@
         <v>981</v>
       </c>
       <c r="P141" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(
+  AND(
+    $A141&lt;&gt;"",
+    COUNTIF(C:C,$A141)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q141" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R141" s="13" t="str">
@@ -40871,7 +41804,7 @@
         <v/>
       </c>
       <c r="Y141" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A141&lt;&gt;"",$L141&lt;&gt;"-",$L141&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -40882,7 +41815,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CopyRefFile.vbs（参照ファイル複製）.lnk" "C:\codes\vbs\tools\win\file_ope\CopyRefFile.vbs" "" ""</v>
       </c>
       <c r="Z141" s="9" t="str">
         <f ca="1">IFERROR(
@@ -40901,16 +41834,16 @@
         <v>200</v>
       </c>
       <c r="AA141" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB141" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A141&lt;&gt;"",$L141="○"),
   shortcut設定!$F$5&amp;"\"&amp;Z141&amp;"_"&amp;A141&amp;"（"&amp;B141&amp;"）"&amp;AA141&amp;".lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CopyRefFile.vbs（参照ファイル複製）.lnk</v>
       </c>
       <c r="AC141" s="13" t="str">
         <f>IF(
@@ -40954,13 +41887,13 @@
     </row>
     <row r="142" spans="1:32">
       <c r="A142" s="9" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D142" s="15" t="s">
         <v>40</v>
@@ -40987,7 +41920,7 @@
         <v>66</v>
       </c>
       <c r="L142" s="97" t="s">
-        <v>66</v>
+        <v>878</v>
       </c>
       <c r="M142" s="98" t="s">
         <v>579</v>
@@ -40999,11 +41932,25 @@
         <v>981</v>
       </c>
       <c r="P142" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(
+  AND(
+    $A142&lt;&gt;"",
+    COUNTIF(C:C,$A142)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q142" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="Q142:Q172" si="6">IF(
+  OR(
+    $H142="-",
+    COUNTIF(カテゴリ,$H142)&gt;0
+  ),
+  "",
+  "★NG★"
+)</f>
         <v/>
       </c>
       <c r="R142" s="13" t="str">
@@ -41096,7 +42043,7 @@
         <v/>
       </c>
       <c r="Y142" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A142&lt;&gt;"",$L142&lt;&gt;"-",$L142&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -41107,7 +42054,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CopyRefFileFromWeb.vbs（参照ファイル複製fromWeb）.lnk" "C:\codes\vbs\tools\win\file_ope\CopyRefFileFromWeb.vbs" "" ""</v>
       </c>
       <c r="Z142" s="9" t="str">
         <f ca="1">IFERROR(
@@ -41126,16 +42073,16 @@
         <v>200</v>
       </c>
       <c r="AA142" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB142" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A142&lt;&gt;"",$L142="○"),
   shortcut設定!$F$5&amp;"\"&amp;Z142&amp;"_"&amp;A142&amp;"（"&amp;B142&amp;"）"&amp;AA142&amp;".lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CopyRefFileFromWeb.vbs（参照ファイル複製fromWeb）.lnk</v>
       </c>
       <c r="AC142" s="13" t="str">
         <f>IF(
@@ -41179,13 +42126,13 @@
     </row>
     <row r="143" spans="1:32">
       <c r="A143" s="9" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D143" s="15" t="s">
         <v>40</v>
@@ -41224,11 +42171,18 @@
         <v>981</v>
       </c>
       <c r="P143" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(
+  AND(
+    $A143&lt;&gt;"",
+    COUNTIF(C:C,$A143)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q143" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R143" s="13" t="str">
@@ -41351,7 +42305,7 @@
         <v>200</v>
       </c>
       <c r="AA143" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB143" s="13" t="str">
@@ -41404,13 +42358,13 @@
     </row>
     <row r="144" spans="1:32">
       <c r="A144" s="9" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D144" s="15" t="s">
         <v>40</v>
@@ -41449,18 +42403,18 @@
         <v>981</v>
       </c>
       <c r="P144" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(
+  AND(
+    $A144&lt;&gt;"",
+    COUNTIF(C:C,$A144)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q144" s="9" t="str">
-        <f>IF(
-  OR(
-    $H144="-",
-    COUNTIF(カテゴリ,$H144)&gt;0
-  ),
-  "",
-  "★NG★"
-)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R144" s="13" t="str">
@@ -41583,7 +42537,7 @@
         <v>200</v>
       </c>
       <c r="AA144" s="20" t="str">
-        <f t="shared" ref="AA144:AA164" si="12">IF(AND($M144&lt;&gt;"",$M144&lt;&gt;"-")," (&amp;"&amp;$M144&amp;")","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB144" s="13" t="str">
@@ -41636,13 +42590,13 @@
     </row>
     <row r="145" spans="1:32">
       <c r="A145" s="9" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D145" s="15" t="s">
         <v>40</v>
@@ -41681,18 +42635,18 @@
         <v>981</v>
       </c>
       <c r="P145" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(
+  AND(
+    $A145&lt;&gt;"",
+    COUNTIF(C:C,$A145)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q145" s="9" t="str">
-        <f>IF(
-  OR(
-    $H145="-",
-    COUNTIF(カテゴリ,$H145)&gt;0
-  ),
-  "",
-  "★NG★"
-)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R145" s="13" t="str">
@@ -41815,7 +42769,7 @@
         <v>200</v>
       </c>
       <c r="AA145" s="20" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB145" s="13" t="str">
@@ -41868,13 +42822,13 @@
     </row>
     <row r="146" spans="1:32">
       <c r="A146" s="9" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D146" s="15" t="s">
         <v>40</v>
@@ -41913,7 +42867,14 @@
         <v>981</v>
       </c>
       <c r="P146" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(
+  AND(
+    $A146&lt;&gt;"",
+    COUNTIF(C:C,$A146)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q146" s="9" t="str">
@@ -42047,7 +43008,7 @@
         <v>200</v>
       </c>
       <c r="AA146" s="20" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="AA146:AA166" si="7">IF(AND($M146&lt;&gt;"",$M146&lt;&gt;"-")," (&amp;"&amp;$M146&amp;")","")</f>
         <v/>
       </c>
       <c r="AB146" s="13" t="str">
@@ -42100,13 +43061,13 @@
     </row>
     <row r="147" spans="1:32">
       <c r="A147" s="9" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="D147" s="15" t="s">
         <v>40</v>
@@ -42133,7 +43094,7 @@
         <v>66</v>
       </c>
       <c r="L147" s="97" t="s">
-        <v>878</v>
+        <v>66</v>
       </c>
       <c r="M147" s="98" t="s">
         <v>579</v>
@@ -42145,11 +43106,25 @@
         <v>981</v>
       </c>
       <c r="P147" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(
+  AND(
+    $A147&lt;&gt;"",
+    COUNTIF(C:C,$A147)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q147" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(
+  OR(
+    $H147="-",
+    COUNTIF(カテゴリ,$H147)&gt;0
+  ),
+  "",
+  "★NG★"
+)</f>
         <v/>
       </c>
       <c r="R147" s="13" t="str">
@@ -42242,7 +43217,7 @@
         <v/>
       </c>
       <c r="Y147" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A147&lt;&gt;"",$L147&lt;&gt;"-",$L147&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -42253,7 +43228,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CreateRenameBat.vbs（リネーム用バッチ作成）.lnk" "C:\codes\vbs\tools\win\file_ope\CreateRenameBat.vbs" "" ""</v>
+        <v/>
       </c>
       <c r="Z147" s="9" t="str">
         <f ca="1">IFERROR(
@@ -42272,16 +43247,16 @@
         <v>200</v>
       </c>
       <c r="AA147" s="20" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB147" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A147&lt;&gt;"",$L147="○"),
   shortcut設定!$F$5&amp;"\"&amp;Z147&amp;"_"&amp;A147&amp;"（"&amp;B147&amp;"）"&amp;AA147&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CreateRenameBat.vbs（リネーム用バッチ作成）.lnk</v>
+        <v/>
       </c>
       <c r="AC147" s="13" t="str">
         <f>IF(
@@ -42325,13 +43300,13 @@
     </row>
     <row r="148" spans="1:32">
       <c r="A148" s="9" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="D148" s="15" t="s">
         <v>40</v>
@@ -42358,7 +43333,7 @@
         <v>66</v>
       </c>
       <c r="L148" s="97" t="s">
-        <v>878</v>
+        <v>66</v>
       </c>
       <c r="M148" s="98" t="s">
         <v>579</v>
@@ -42370,11 +43345,25 @@
         <v>981</v>
       </c>
       <c r="P148" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(
+  AND(
+    $A148&lt;&gt;"",
+    COUNTIF(C:C,$A148)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q148" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(
+  OR(
+    $H148="-",
+    COUNTIF(カテゴリ,$H148)&gt;0
+  ),
+  "",
+  "★NG★"
+)</f>
         <v/>
       </c>
       <c r="R148" s="13" t="str">
@@ -42467,7 +43456,7 @@
         <v/>
       </c>
       <c r="Y148" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A148&lt;&gt;"",$L148&lt;&gt;"-",$L148&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -42478,7 +43467,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CreateSymbolicLink.vbs（シンボリックリンク作成）.lnk" "C:\codes\vbs\tools\win\file_ope\CreateSymbolicLink.vbs" "" ""</v>
+        <v/>
       </c>
       <c r="Z148" s="9" t="str">
         <f ca="1">IFERROR(
@@ -42497,16 +43486,16 @@
         <v>200</v>
       </c>
       <c r="AA148" s="20" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB148" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A148&lt;&gt;"",$L148="○"),
   shortcut設定!$F$5&amp;"\"&amp;Z148&amp;"_"&amp;A148&amp;"（"&amp;B148&amp;"）"&amp;AA148&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CreateSymbolicLink.vbs（シンボリックリンク作成）.lnk</v>
+        <v/>
       </c>
       <c r="AC148" s="13" t="str">
         <f>IF(
@@ -42550,13 +43539,13 @@
     </row>
     <row r="149" spans="1:32">
       <c r="A149" s="9" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="D149" s="15" t="s">
         <v>40</v>
@@ -42595,11 +43584,18 @@
         <v>981</v>
       </c>
       <c r="P149" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(
+  AND(
+    $A149&lt;&gt;"",
+    COUNTIF(C:C,$A149)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q149" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R149" s="13" t="str">
@@ -42703,7 +43699,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_ExtractIfdef.vbs（C言語ifdef削除）.lnk" "C:\codes\vbs\tools\win\file_ope\ExtractIfdef.vbs" "" ""</v>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CreateRenameBat.vbs（リネーム用バッチ作成）.lnk" "C:\codes\vbs\tools\win\file_ope\CreateRenameBat.vbs" "" ""</v>
       </c>
       <c r="Z149" s="9" t="str">
         <f ca="1">IFERROR(
@@ -42722,7 +43718,7 @@
         <v>200</v>
       </c>
       <c r="AA149" s="20" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB149" s="13" t="str">
@@ -42731,7 +43727,7 @@
   shortcut設定!$F$5&amp;"\"&amp;Z149&amp;"_"&amp;A149&amp;"（"&amp;B149&amp;"）"&amp;AA149&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_ExtractIfdef.vbs（C言語ifdef削除）.lnk</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CreateRenameBat.vbs（リネーム用バッチ作成）.lnk</v>
       </c>
       <c r="AC149" s="13" t="str">
         <f>IF(
@@ -42774,14 +43770,14 @@
       </c>
     </row>
     <row r="150" spans="1:32">
-      <c r="A150" s="81" t="s">
-        <v>708</v>
-      </c>
-      <c r="B150" s="81" t="s">
-        <v>845</v>
+      <c r="A150" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>843</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="D150" s="15" t="s">
         <v>40</v>
@@ -42808,7 +43804,7 @@
         <v>66</v>
       </c>
       <c r="L150" s="97" t="s">
-        <v>66</v>
+        <v>878</v>
       </c>
       <c r="M150" s="98" t="s">
         <v>579</v>
@@ -42820,11 +43816,18 @@
         <v>981</v>
       </c>
       <c r="P150" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(
+  AND(
+    $A150&lt;&gt;"",
+    COUNTIF(C:C,$A150)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q150" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R150" s="13" t="str">
@@ -42917,7 +43920,7 @@
         <v/>
       </c>
       <c r="Y150" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A150&lt;&gt;"",$L150&lt;&gt;"-",$L150&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -42928,7 +43931,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CreateSymbolicLink.vbs（シンボリックリンク作成）.lnk" "C:\codes\vbs\tools\win\file_ope\CreateSymbolicLink.vbs" "" ""</v>
       </c>
       <c r="Z150" s="9" t="str">
         <f ca="1">IFERROR(
@@ -42947,16 +43950,16 @@
         <v>200</v>
       </c>
       <c r="AA150" s="20" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB150" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A150&lt;&gt;"",$L150="○"),
   shortcut設定!$F$5&amp;"\"&amp;Z150&amp;"_"&amp;A150&amp;"（"&amp;B150&amp;"）"&amp;AA150&amp;".lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CreateSymbolicLink.vbs（シンボリックリンク作成）.lnk</v>
       </c>
       <c r="AC150" s="13" t="str">
         <f>IF(
@@ -43000,13 +44003,13 @@
     </row>
     <row r="151" spans="1:32">
       <c r="A151" s="9" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D151" s="15" t="s">
         <v>40</v>
@@ -43045,18 +44048,18 @@
         <v>981</v>
       </c>
       <c r="P151" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(
+  AND(
+    $A151&lt;&gt;"",
+    COUNTIF(C:C,$A151)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q151" s="9" t="str">
-        <f>IF(
-  OR(
-    $H151="-",
-    COUNTIF(カテゴリ,$H151)&gt;0
-  ),
-  "",
-  "★NG★"
-)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R151" s="13" t="str">
@@ -43160,7 +44163,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CopyToDir.vbs（フォルダファイルコピー）.lnk" "C:\codes\vbs\tools\win\file_ope\CopyToDir.vbs" "" ""</v>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_ExtractIfdef.vbs（C言語ifdef削除）.lnk" "C:\codes\vbs\tools\win\file_ope\ExtractIfdef.vbs" "" ""</v>
       </c>
       <c r="Z151" s="9" t="str">
         <f ca="1">IFERROR(
@@ -43179,7 +44182,7 @@
         <v>200</v>
       </c>
       <c r="AA151" s="20" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB151" s="13" t="str">
@@ -43188,7 +44191,7 @@
   shortcut設定!$F$5&amp;"\"&amp;Z151&amp;"_"&amp;A151&amp;"（"&amp;B151&amp;"）"&amp;AA151&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CopyToDir.vbs（フォルダファイルコピー）.lnk</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_ExtractIfdef.vbs（C言語ifdef削除）.lnk</v>
       </c>
       <c r="AC151" s="13" t="str">
         <f>IF(
@@ -43231,14 +44234,14 @@
       </c>
     </row>
     <row r="152" spans="1:32">
-      <c r="A152" s="9" t="s">
-        <v>710</v>
-      </c>
-      <c r="B152" s="9" t="s">
-        <v>847</v>
+      <c r="A152" s="81" t="s">
+        <v>708</v>
+      </c>
+      <c r="B152" s="81" t="s">
+        <v>845</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D152" s="15" t="s">
         <v>40</v>
@@ -43277,11 +44280,18 @@
         <v>981</v>
       </c>
       <c r="P152" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(
+  AND(
+    $A152&lt;&gt;"",
+    COUNTIF(C:C,$A152)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q152" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R152" s="13" t="str">
@@ -43404,7 +44414,7 @@
         <v>200</v>
       </c>
       <c r="AA152" s="20" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB152" s="13" t="str">
@@ -43457,13 +44467,13 @@
     </row>
     <row r="153" spans="1:32">
       <c r="A153" s="9" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D153" s="15" t="s">
         <v>40</v>
@@ -43472,7 +44482,7 @@
         <v>40</v>
       </c>
       <c r="F153" s="15" t="s">
-        <v>573</v>
+        <v>0</v>
       </c>
       <c r="G153" s="15" t="s">
         <v>0</v>
@@ -43490,7 +44500,7 @@
         <v>66</v>
       </c>
       <c r="L153" s="97" t="s">
-        <v>66</v>
+        <v>878</v>
       </c>
       <c r="M153" s="98" t="s">
         <v>579</v>
@@ -43502,11 +44512,25 @@
         <v>981</v>
       </c>
       <c r="P153" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(
+  AND(
+    $A153&lt;&gt;"",
+    COUNTIF(C:C,$A153)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q153" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(
+  OR(
+    $H153="-",
+    COUNTIF(カテゴリ,$H153)&gt;0
+  ),
+  "",
+  "★NG★"
+)</f>
         <v/>
       </c>
       <c r="R153" s="13" t="str">
@@ -43599,7 +44623,7 @@
         <v/>
       </c>
       <c r="Y153" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A153&lt;&gt;"",$L153&lt;&gt;"-",$L153&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -43610,7 +44634,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CopyToDir.vbs（フォルダファイルコピー）.lnk" "C:\codes\vbs\tools\win\file_ope\CopyToDir.vbs" "" ""</v>
       </c>
       <c r="Z153" s="9" t="str">
         <f ca="1">IFERROR(
@@ -43629,16 +44653,16 @@
         <v>200</v>
       </c>
       <c r="AA153" s="20" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB153" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A153&lt;&gt;"",$L153="○"),
   shortcut設定!$F$5&amp;"\"&amp;Z153&amp;"_"&amp;A153&amp;"（"&amp;B153&amp;"）"&amp;AA153&amp;".lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CopyToDir.vbs（フォルダファイルコピー）.lnk</v>
       </c>
       <c r="AC153" s="13" t="str">
         <f>IF(
@@ -43682,13 +44706,13 @@
     </row>
     <row r="154" spans="1:32">
       <c r="A154" s="9" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D154" s="15" t="s">
         <v>40</v>
@@ -43697,7 +44721,7 @@
         <v>40</v>
       </c>
       <c r="F154" s="15" t="s">
-        <v>573</v>
+        <v>0</v>
       </c>
       <c r="G154" s="15" t="s">
         <v>0</v>
@@ -43727,11 +44751,18 @@
         <v>981</v>
       </c>
       <c r="P154" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(
+  AND(
+    $A154&lt;&gt;"",
+    COUNTIF(C:C,$A154)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q154" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R154" s="13" t="str">
@@ -43854,7 +44885,7 @@
         <v>200</v>
       </c>
       <c r="AA154" s="20" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB154" s="13" t="str">
@@ -43907,13 +44938,13 @@
     </row>
     <row r="155" spans="1:32">
       <c r="A155" s="9" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D155" s="15" t="s">
         <v>40</v>
@@ -43922,7 +44953,7 @@
         <v>40</v>
       </c>
       <c r="F155" s="15" t="s">
-        <v>0</v>
+        <v>573</v>
       </c>
       <c r="G155" s="15" t="s">
         <v>0</v>
@@ -43952,11 +44983,18 @@
         <v>981</v>
       </c>
       <c r="P155" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(
+  AND(
+    $A155&lt;&gt;"",
+    COUNTIF(C:C,$A155)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q155" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R155" s="13" t="str">
@@ -44079,7 +45117,7 @@
         <v>200</v>
       </c>
       <c r="AA155" s="20" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB155" s="13" t="str">
@@ -44132,13 +45170,13 @@
     </row>
     <row r="156" spans="1:32">
       <c r="A156" s="9" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D156" s="15" t="s">
         <v>40</v>
@@ -44147,7 +45185,7 @@
         <v>40</v>
       </c>
       <c r="F156" s="15" t="s">
-        <v>0</v>
+        <v>573</v>
       </c>
       <c r="G156" s="15" t="s">
         <v>0</v>
@@ -44177,18 +45215,18 @@
         <v>981</v>
       </c>
       <c r="P156" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(
+  AND(
+    $A156&lt;&gt;"",
+    COUNTIF(C:C,$A156)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q156" s="9" t="str">
-        <f>IF(
-  OR(
-    $H156="-",
-    COUNTIF(カテゴリ,$H156)&gt;0
-  ),
-  "",
-  "★NG★"
-)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R156" s="13" t="str">
@@ -44311,7 +45349,7 @@
         <v>200</v>
       </c>
       <c r="AA156" s="20" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB156" s="13" t="str">
@@ -44364,13 +45402,13 @@
     </row>
     <row r="157" spans="1:32">
       <c r="A157" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D157" s="15" t="s">
         <v>40</v>
@@ -44409,11 +45447,18 @@
         <v>981</v>
       </c>
       <c r="P157" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(
+  AND(
+    $A157&lt;&gt;"",
+    COUNTIF(C:C,$A157)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q157" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R157" s="13" t="str">
@@ -44536,7 +45581,7 @@
         <v>200</v>
       </c>
       <c r="AA157" s="20" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB157" s="13" t="str">
@@ -44589,13 +45634,13 @@
     </row>
     <row r="158" spans="1:32">
       <c r="A158" s="9" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D158" s="15" t="s">
         <v>40</v>
@@ -44634,11 +45679,25 @@
         <v>981</v>
       </c>
       <c r="P158" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(
+  AND(
+    $A158&lt;&gt;"",
+    COUNTIF(C:C,$A158)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q158" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(
+  OR(
+    $H158="-",
+    COUNTIF(カテゴリ,$H158)&gt;0
+  ),
+  "",
+  "★NG★"
+)</f>
         <v/>
       </c>
       <c r="R158" s="13" t="str">
@@ -44761,7 +45820,7 @@
         <v>200</v>
       </c>
       <c r="AA158" s="20" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB158" s="13" t="str">
@@ -44814,13 +45873,13 @@
     </row>
     <row r="159" spans="1:32">
       <c r="A159" s="9" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D159" s="15" t="s">
         <v>40</v>
@@ -44859,11 +45918,18 @@
         <v>981</v>
       </c>
       <c r="P159" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(
+  AND(
+    $A159&lt;&gt;"",
+    COUNTIF(C:C,$A159)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q159" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R159" s="13" t="str">
@@ -44986,7 +46052,7 @@
         <v>200</v>
       </c>
       <c r="AA159" s="20" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB159" s="13" t="str">
@@ -45039,13 +46105,13 @@
     </row>
     <row r="160" spans="1:32">
       <c r="A160" s="9" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D160" s="15" t="s">
         <v>40</v>
@@ -45072,7 +46138,7 @@
         <v>66</v>
       </c>
       <c r="L160" s="97" t="s">
-        <v>878</v>
+        <v>66</v>
       </c>
       <c r="M160" s="98" t="s">
         <v>579</v>
@@ -45084,11 +46150,18 @@
         <v>981</v>
       </c>
       <c r="P160" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(
+  AND(
+    $A160&lt;&gt;"",
+    COUNTIF(C:C,$A160)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q160" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R160" s="13" t="str">
@@ -45181,7 +46254,7 @@
         <v/>
       </c>
       <c r="Y160" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A160&lt;&gt;"",$L160&lt;&gt;"-",$L160&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -45192,7 +46265,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_OutputFileInfo.vbs（ファイル情報出力）.lnk" "C:\codes\vbs\tools\win\file_info\OutputFileInfo.vbs" "" ""</v>
+        <v/>
       </c>
       <c r="Z160" s="9" t="str">
         <f ca="1">IFERROR(
@@ -45211,16 +46284,16 @@
         <v>200</v>
       </c>
       <c r="AA160" s="20" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB160" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A160&lt;&gt;"",$L160="○"),
   shortcut設定!$F$5&amp;"\"&amp;Z160&amp;"_"&amp;A160&amp;"（"&amp;B160&amp;"）"&amp;AA160&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_OutputFileInfo.vbs（ファイル情報出力）.lnk</v>
+        <v/>
       </c>
       <c r="AC160" s="13" t="str">
         <f>IF(
@@ -45264,13 +46337,13 @@
     </row>
     <row r="161" spans="1:32">
       <c r="A161" s="9" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D161" s="15" t="s">
         <v>40</v>
@@ -45309,11 +46382,18 @@
         <v>981</v>
       </c>
       <c r="P161" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(
+  AND(
+    $A161&lt;&gt;"",
+    COUNTIF(C:C,$A161)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q161" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R161" s="13" t="str">
@@ -45436,7 +46516,7 @@
         <v>200</v>
       </c>
       <c r="AA161" s="20" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB161" s="13" t="str">
@@ -45489,13 +46569,13 @@
     </row>
     <row r="162" spans="1:32">
       <c r="A162" s="9" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D162" s="15" t="s">
         <v>40</v>
@@ -45522,7 +46602,7 @@
         <v>66</v>
       </c>
       <c r="L162" s="97" t="s">
-        <v>66</v>
+        <v>878</v>
       </c>
       <c r="M162" s="98" t="s">
         <v>579</v>
@@ -45534,11 +46614,18 @@
         <v>981</v>
       </c>
       <c r="P162" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(
+  AND(
+    $A162&lt;&gt;"",
+    COUNTIF(C:C,$A162)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q162" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R162" s="13" t="str">
@@ -45631,7 +46718,7 @@
         <v/>
       </c>
       <c r="Y162" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A162&lt;&gt;"",$L162&lt;&gt;"-",$L162&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -45642,7 +46729,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_OutputFileInfo.vbs（ファイル情報出力）.lnk" "C:\codes\vbs\tools\win\file_info\OutputFileInfo.vbs" "" ""</v>
       </c>
       <c r="Z162" s="9" t="str">
         <f ca="1">IFERROR(
@@ -45661,16 +46748,16 @@
         <v>200</v>
       </c>
       <c r="AA162" s="20" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB162" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A162&lt;&gt;"",$L162="○"),
   shortcut設定!$F$5&amp;"\"&amp;Z162&amp;"_"&amp;A162&amp;"（"&amp;B162&amp;"）"&amp;AA162&amp;".lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_OutputFileInfo.vbs（ファイル情報出力）.lnk</v>
       </c>
       <c r="AC162" s="13" t="str">
         <f>IF(
@@ -45714,13 +46801,13 @@
     </row>
     <row r="163" spans="1:32">
       <c r="A163" s="9" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D163" s="15" t="s">
         <v>40</v>
@@ -45759,11 +46846,18 @@
         <v>981</v>
       </c>
       <c r="P163" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(
+  AND(
+    $A163&lt;&gt;"",
+    COUNTIF(C:C,$A163)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q163" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R163" s="13" t="str">
@@ -45886,7 +46980,7 @@
         <v>200</v>
       </c>
       <c r="AA163" s="20" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB163" s="13" t="str">
@@ -45939,13 +47033,13 @@
     </row>
     <row r="164" spans="1:32">
       <c r="A164" s="9" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D164" s="15" t="s">
         <v>40</v>
@@ -45957,7 +47051,7 @@
         <v>0</v>
       </c>
       <c r="G164" s="15" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H164" s="9" t="s">
         <v>551</v>
@@ -45984,11 +47078,18 @@
         <v>981</v>
       </c>
       <c r="P164" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(
+  AND(
+    $A164&lt;&gt;"",
+    COUNTIF(C:C,$A164)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q164" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R164" s="13" t="str">
@@ -46111,7 +47212,7 @@
         <v>200</v>
       </c>
       <c r="AA164" s="20" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB164" s="13" t="str">
@@ -46164,13 +47265,13 @@
     </row>
     <row r="165" spans="1:32">
       <c r="A165" s="9" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D165" s="15" t="s">
         <v>40</v>
@@ -46197,10 +47298,10 @@
         <v>66</v>
       </c>
       <c r="L165" s="97" t="s">
-        <v>878</v>
+        <v>66</v>
       </c>
       <c r="M165" s="98" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N165" s="15" t="s">
         <v>66</v>
@@ -46209,11 +47310,18 @@
         <v>981</v>
       </c>
       <c r="P165" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(
+  AND(
+    $A165&lt;&gt;"",
+    COUNTIF(C:C,$A165)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q165" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R165" s="13" t="str">
@@ -46306,7 +47414,7 @@
         <v/>
       </c>
       <c r="Y165" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A165&lt;&gt;"",$L165&lt;&gt;"-",$L165&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -46317,7 +47425,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CompareWithWinmerge.vbs（ファイル比較＠Winmerge） (&amp;D).lnk" "C:\codes\vbs\tools\wimmerge\CompareWithWinmerge.vbs" "" ""</v>
+        <v/>
       </c>
       <c r="Z165" s="9" t="str">
         <f ca="1">IFERROR(
@@ -46336,16 +47444,16 @@
         <v>200</v>
       </c>
       <c r="AA165" s="20" t="str">
-        <f>IF(AND($M165&lt;&gt;"",$M165&lt;&gt;"-")," (&amp;"&amp;$M165&amp;")","")</f>
-        <v xml:space="preserve"> (&amp;D)</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="AB165" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A165&lt;&gt;"",$L165="○"),
   shortcut設定!$F$5&amp;"\"&amp;Z165&amp;"_"&amp;A165&amp;"（"&amp;B165&amp;"）"&amp;AA165&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CompareWithWinmerge.vbs（ファイル比較＠Winmerge） (&amp;D).lnk</v>
+        <v/>
       </c>
       <c r="AC165" s="13" t="str">
         <f>IF(
@@ -46389,13 +47497,13 @@
     </row>
     <row r="166" spans="1:32">
       <c r="A166" s="9" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D166" s="15" t="s">
         <v>40</v>
@@ -46407,7 +47515,7 @@
         <v>0</v>
       </c>
       <c r="G166" s="15" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H166" s="9" t="s">
         <v>551</v>
@@ -46422,7 +47530,7 @@
         <v>66</v>
       </c>
       <c r="L166" s="97" t="s">
-        <v>878</v>
+        <v>66</v>
       </c>
       <c r="M166" s="98" t="s">
         <v>579</v>
@@ -46434,11 +47542,18 @@
         <v>981</v>
       </c>
       <c r="P166" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(
+  AND(
+    $A166&lt;&gt;"",
+    COUNTIF(C:C,$A166)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q166" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R166" s="13" t="str">
@@ -46531,7 +47646,7 @@
         <v/>
       </c>
       <c r="Y166" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A166&lt;&gt;"",$L166&lt;&gt;"-",$L166&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -46542,7 +47657,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_OpenAllFilesWithVim.vbs（全ファイル開く＠Vim）.lnk" "C:\codes\vbs\tools\vim\OpenAllFilesWithVim.vbs" "" ""</v>
+        <v/>
       </c>
       <c r="Z166" s="9" t="str">
         <f ca="1">IFERROR(
@@ -46561,16 +47676,16 @@
         <v>200</v>
       </c>
       <c r="AA166" s="20" t="str">
-        <f t="shared" ref="AA166:AA189" si="13">IF(AND($M166&lt;&gt;"",$M166&lt;&gt;"-")," (&amp;"&amp;$M166&amp;")","")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB166" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A166&lt;&gt;"",$L166="○"),
   shortcut設定!$F$5&amp;"\"&amp;Z166&amp;"_"&amp;A166&amp;"（"&amp;B166&amp;"）"&amp;AA166&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_OpenAllFilesWithVim.vbs（全ファイル開く＠Vim）.lnk</v>
+        <v/>
       </c>
       <c r="AC166" s="13" t="str">
         <f>IF(
@@ -46614,13 +47729,13 @@
     </row>
     <row r="167" spans="1:32">
       <c r="A167" s="9" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D167" s="15" t="s">
         <v>40</v>
@@ -46647,10 +47762,10 @@
         <v>66</v>
       </c>
       <c r="L167" s="97" t="s">
-        <v>66</v>
+        <v>878</v>
       </c>
       <c r="M167" s="98" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="N167" s="15" t="s">
         <v>66</v>
@@ -46659,11 +47774,18 @@
         <v>981</v>
       </c>
       <c r="P167" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(
+  AND(
+    $A167&lt;&gt;"",
+    COUNTIF(C:C,$A167)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q167" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R167" s="13" t="str">
@@ -46756,7 +47878,7 @@
         <v/>
       </c>
       <c r="Y167" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A167&lt;&gt;"",$L167&lt;&gt;"-",$L167&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -46767,7 +47889,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CompareWithWinmerge.vbs（ファイル比較＠Winmerge） (&amp;D).lnk" "C:\codes\vbs\tools\wimmerge\CompareWithWinmerge.vbs" "" ""</v>
       </c>
       <c r="Z167" s="9" t="str">
         <f ca="1">IFERROR(
@@ -46786,16 +47908,16 @@
         <v>200</v>
       </c>
       <c r="AA167" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v/>
+        <f>IF(AND($M167&lt;&gt;"",$M167&lt;&gt;"-")," (&amp;"&amp;$M167&amp;")","")</f>
+        <v xml:space="preserve"> (&amp;D)</v>
       </c>
       <c r="AB167" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A167&lt;&gt;"",$L167="○"),
   shortcut設定!$F$5&amp;"\"&amp;Z167&amp;"_"&amp;A167&amp;"（"&amp;B167&amp;"）"&amp;AA167&amp;".lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CompareWithWinmerge.vbs（ファイル比較＠Winmerge） (&amp;D).lnk</v>
       </c>
       <c r="AC167" s="13" t="str">
         <f>IF(
@@ -46839,13 +47961,13 @@
     </row>
     <row r="168" spans="1:32">
       <c r="A168" s="9" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D168" s="15" t="s">
         <v>40</v>
@@ -46875,7 +47997,7 @@
         <v>878</v>
       </c>
       <c r="M168" s="98" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="N168" s="15" t="s">
         <v>66</v>
@@ -46884,11 +48006,18 @@
         <v>981</v>
       </c>
       <c r="P168" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(
+  AND(
+    $A168&lt;&gt;"",
+    COUNTIF(C:C,$A168)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q168" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R168" s="13" t="str">
@@ -46992,7 +48121,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_UnzipFile.vbs（Zip解凍） (&amp;U).lnk" "C:\codes\vbs\tools\7zip\UnzipFile.vbs" "" ""</v>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_OpenAllFilesWithVim.vbs（全ファイル開く＠Vim）.lnk" "C:\codes\vbs\tools\vim\OpenAllFilesWithVim.vbs" "" ""</v>
       </c>
       <c r="Z168" s="9" t="str">
         <f ca="1">IFERROR(
@@ -47011,8 +48140,8 @@
         <v>200</v>
       </c>
       <c r="AA168" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> (&amp;U)</v>
+        <f t="shared" ref="AA168:AA189" si="8">IF(AND($M168&lt;&gt;"",$M168&lt;&gt;"-")," (&amp;"&amp;$M168&amp;")","")</f>
+        <v/>
       </c>
       <c r="AB168" s="13" t="str">
         <f ca="1">IF(
@@ -47020,7 +48149,7 @@
   shortcut設定!$F$5&amp;"\"&amp;Z168&amp;"_"&amp;A168&amp;"（"&amp;B168&amp;"）"&amp;AA168&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_UnzipFile.vbs（Zip解凍） (&amp;U).lnk</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_OpenAllFilesWithVim.vbs（全ファイル開く＠Vim）.lnk</v>
       </c>
       <c r="AC168" s="13" t="str">
         <f>IF(
@@ -47064,13 +48193,13 @@
     </row>
     <row r="169" spans="1:32">
       <c r="A169" s="9" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D169" s="15" t="s">
         <v>40</v>
@@ -47097,10 +48226,10 @@
         <v>66</v>
       </c>
       <c r="L169" s="97" t="s">
-        <v>878</v>
+        <v>66</v>
       </c>
       <c r="M169" s="98" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="N169" s="15" t="s">
         <v>66</v>
@@ -47109,11 +48238,18 @@
         <v>981</v>
       </c>
       <c r="P169" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(
+  AND(
+    $A169&lt;&gt;"",
+    COUNTIF(C:C,$A169)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q169" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R169" s="13" t="str">
@@ -47206,7 +48342,7 @@
         <v/>
       </c>
       <c r="Y169" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A169&lt;&gt;"",$L169&lt;&gt;"-",$L169&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -47217,7 +48353,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_ZipFile.vbs（Zip圧縮） (&amp;Z).lnk" "C:\codes\vbs\tools\7zip\ZipFile.vbs" "" ""</v>
+        <v/>
       </c>
       <c r="Z169" s="9" t="str">
         <f ca="1">IFERROR(
@@ -47236,16 +48372,16 @@
         <v>200</v>
       </c>
       <c r="AA169" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> (&amp;Z)</v>
+        <f t="shared" si="8"/>
+        <v/>
       </c>
       <c r="AB169" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A169&lt;&gt;"",$L169="○"),
   shortcut設定!$F$5&amp;"\"&amp;Z169&amp;"_"&amp;A169&amp;"（"&amp;B169&amp;"）"&amp;AA169&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_ZipFile.vbs（Zip圧縮） (&amp;Z).lnk</v>
+        <v/>
       </c>
       <c r="AC169" s="13" t="str">
         <f>IF(
@@ -47289,13 +48425,13 @@
     </row>
     <row r="170" spans="1:32">
       <c r="A170" s="9" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D170" s="15" t="s">
         <v>40</v>
@@ -47325,7 +48461,7 @@
         <v>878</v>
       </c>
       <c r="M170" s="98" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="N170" s="15" t="s">
         <v>66</v>
@@ -47334,11 +48470,18 @@
         <v>981</v>
       </c>
       <c r="P170" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(
+  AND(
+    $A170&lt;&gt;"",
+    COUNTIF(C:C,$A170)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q170" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R170" s="13" t="str">
@@ -47442,7 +48585,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_ZipPasswordFile.vbs（Zipパスワード圧縮）.lnk" "C:\codes\vbs\tools\7zip\ZipPasswordFile.vbs" "" ""</v>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_UnzipFile.vbs（Zip解凍） (&amp;U).lnk" "C:\codes\vbs\tools\7zip\UnzipFile.vbs" "" ""</v>
       </c>
       <c r="Z170" s="9" t="str">
         <f ca="1">IFERROR(
@@ -47461,8 +48604,8 @@
         <v>200</v>
       </c>
       <c r="AA170" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v/>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> (&amp;U)</v>
       </c>
       <c r="AB170" s="13" t="str">
         <f ca="1">IF(
@@ -47470,7 +48613,7 @@
   shortcut設定!$F$5&amp;"\"&amp;Z170&amp;"_"&amp;A170&amp;"（"&amp;B170&amp;"）"&amp;AA170&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_ZipPasswordFile.vbs（Zipパスワード圧縮）.lnk</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_UnzipFile.vbs（Zip解凍） (&amp;U).lnk</v>
       </c>
       <c r="AC170" s="13" t="str">
         <f>IF(
@@ -47514,13 +48657,13 @@
     </row>
     <row r="171" spans="1:32">
       <c r="A171" s="9" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>574</v>
+        <v>127</v>
       </c>
       <c r="D171" s="15" t="s">
         <v>40</v>
@@ -47547,10 +48690,10 @@
         <v>66</v>
       </c>
       <c r="L171" s="97" t="s">
-        <v>66</v>
+        <v>878</v>
       </c>
       <c r="M171" s="98" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="N171" s="15" t="s">
         <v>66</v>
@@ -47559,7 +48702,7 @@
         <v>981</v>
       </c>
       <c r="P171" s="9" t="str">
-        <f t="shared" ref="P171:P189" si="14">IF(
+        <f>IF(
   AND(
     $A171&lt;&gt;"",
     COUNTIF(C:C,$A171)&gt;1
@@ -47570,14 +48713,7 @@
         <v/>
       </c>
       <c r="Q171" s="9" t="str">
-        <f t="shared" ref="Q171:Q189" si="15">IF(
-  OR(
-    $H171="-",
-    COUNTIF(カテゴリ,$H171)&gt;0
-  ),
-  "",
-  "★NG★"
-)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R171" s="13" t="str">
@@ -47670,7 +48806,7 @@
         <v/>
       </c>
       <c r="Y171" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A171&lt;&gt;"",$L171&lt;&gt;"-",$L171&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -47681,7 +48817,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_ZipFile.vbs（Zip圧縮） (&amp;Z).lnk" "C:\codes\vbs\tools\7zip\ZipFile.vbs" "" ""</v>
       </c>
       <c r="Z171" s="9" t="str">
         <f ca="1">IFERROR(
@@ -47700,16 +48836,16 @@
         <v>200</v>
       </c>
       <c r="AA171" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v/>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> (&amp;Z)</v>
       </c>
       <c r="AB171" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A171&lt;&gt;"",$L171="○"),
   shortcut設定!$F$5&amp;"\"&amp;Z171&amp;"_"&amp;A171&amp;"（"&amp;B171&amp;"）"&amp;AA171&amp;".lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_ZipFile.vbs（Zip圧縮） (&amp;Z).lnk</v>
       </c>
       <c r="AC171" s="13" t="str">
         <f>IF(
@@ -47753,13 +48889,13 @@
     </row>
     <row r="172" spans="1:32">
       <c r="A172" s="9" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>557</v>
+        <v>128</v>
       </c>
       <c r="D172" s="15" t="s">
         <v>40</v>
@@ -47768,7 +48904,7 @@
         <v>40</v>
       </c>
       <c r="F172" s="15" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G172" s="15" t="s">
         <v>0</v>
@@ -47786,23 +48922,30 @@
         <v>66</v>
       </c>
       <c r="L172" s="97" t="s">
-        <v>66</v>
+        <v>878</v>
       </c>
       <c r="M172" s="98" t="s">
         <v>579</v>
       </c>
       <c r="N172" s="15" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="O172" s="26" t="s">
         <v>981</v>
       </c>
       <c r="P172" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(
+  AND(
+    $A172&lt;&gt;"",
+    COUNTIF(C:C,$A172)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q172" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R172" s="13" t="str">
@@ -47895,7 +49038,7 @@
         <v/>
       </c>
       <c r="Y172" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A172&lt;&gt;"",$L172&lt;&gt;"-",$L172&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -47906,7 +49049,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_ZipPasswordFile.vbs（Zipパスワード圧縮）.lnk" "C:\codes\vbs\tools\7zip\ZipPasswordFile.vbs" "" ""</v>
       </c>
       <c r="Z172" s="9" t="str">
         <f ca="1">IFERROR(
@@ -47925,16 +49068,16 @@
         <v>200</v>
       </c>
       <c r="AA172" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AB172" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A172&lt;&gt;"",$L172="○"),
   shortcut設定!$F$5&amp;"\"&amp;Z172&amp;"_"&amp;A172&amp;"（"&amp;B172&amp;"）"&amp;AA172&amp;".lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_ZipPasswordFile.vbs（Zipパスワード圧縮）.lnk</v>
       </c>
       <c r="AC172" s="13" t="str">
         <f>IF(
@@ -47978,13 +49121,13 @@
     </row>
     <row r="173" spans="1:32">
       <c r="A173" s="9" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
       <c r="D173" s="15" t="s">
         <v>40</v>
@@ -48005,7 +49148,7 @@
         <v>66</v>
       </c>
       <c r="J173" s="15" t="s">
-        <v>879</v>
+        <v>66</v>
       </c>
       <c r="K173" s="15" t="s">
         <v>66</v>
@@ -48023,11 +49166,25 @@
         <v>981</v>
       </c>
       <c r="P173" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(
+  AND(
+    $A173&lt;&gt;"",
+    COUNTIF(C:C,$A173)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q173" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="Q173:Q189" si="9">IF(
+  OR(
+    $H173="-",
+    COUNTIF(カテゴリ,$H173)&gt;0
+  ),
+  "",
+  "★NG★"
+)</f>
         <v/>
       </c>
       <c r="R173" s="13" t="str">
@@ -48084,7 +49241,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttw（SSH接続toWSL2＠Teraterm）.lnk" "C:\codes\vbs\tools\teraterm\ConnectWSL2withTeraTerm.vbs" "" ""</v>
+        <v/>
       </c>
       <c r="V173" s="14" t="str">
         <f>IF(
@@ -48092,7 +49249,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J173&amp;"（"&amp;$B173&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttw（SSH接続toWSL2＠Teraterm）.lnk</v>
+        <v/>
       </c>
       <c r="W173" s="13" t="str">
         <f>IF(
@@ -48150,7 +49307,7 @@
         <v>200</v>
       </c>
       <c r="AA173" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AB173" s="13" t="str">
@@ -48203,13 +49360,13 @@
     </row>
     <row r="174" spans="1:32">
       <c r="A174" s="9" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>129</v>
+        <v>557</v>
       </c>
       <c r="D174" s="15" t="s">
         <v>40</v>
@@ -48218,7 +49375,7 @@
         <v>40</v>
       </c>
       <c r="F174" s="15" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G174" s="15" t="s">
         <v>0</v>
@@ -48242,17 +49399,24 @@
         <v>579</v>
       </c>
       <c r="N174" s="15" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="O174" s="26" t="s">
         <v>981</v>
       </c>
       <c r="P174" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(
+  AND(
+    $A174&lt;&gt;"",
+    COUNTIF(C:C,$A174)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q174" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R174" s="13" t="str">
@@ -48375,7 +49539,7 @@
         <v>200</v>
       </c>
       <c r="AA174" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AB174" s="13" t="str">
@@ -48428,13 +49592,13 @@
     </row>
     <row r="175" spans="1:32">
       <c r="A175" s="9" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>130</v>
+        <v>558</v>
       </c>
       <c r="D175" s="15" t="s">
         <v>40</v>
@@ -48443,7 +49607,7 @@
         <v>40</v>
       </c>
       <c r="F175" s="15" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G175" s="15" t="s">
         <v>0</v>
@@ -48455,7 +49619,7 @@
         <v>66</v>
       </c>
       <c r="J175" s="15" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="K175" s="15" t="s">
         <v>66</v>
@@ -48473,11 +49637,18 @@
         <v>981</v>
       </c>
       <c r="P175" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(
+  AND(
+    $A175&lt;&gt;"",
+    COUNTIF(C:C,$A175)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q175" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R175" s="13" t="str">
@@ -48534,7 +49705,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttr（SSH接続toMyRaspberryPi＠Teraterm）.lnk" "C:\codes\ttl\login_raspberrypi.ttl" "" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttw（SSH接続toWSL2＠Teraterm）.lnk" "C:\codes\vbs\tools\teraterm\ConnectWSL2withTeraTerm.vbs" "" ""</v>
       </c>
       <c r="V175" s="14" t="str">
         <f>IF(
@@ -48542,7 +49713,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J175&amp;"（"&amp;$B175&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttr（SSH接続toMyRaspberryPi＠Teraterm）.lnk</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttw（SSH接続toWSL2＠Teraterm）.lnk</v>
       </c>
       <c r="W175" s="13" t="str">
         <f>IF(
@@ -48600,7 +49771,7 @@
         <v>200</v>
       </c>
       <c r="AA175" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AB175" s="13" t="str">
@@ -48653,13 +49824,13 @@
     </row>
     <row r="176" spans="1:32">
       <c r="A176" s="9" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>559</v>
+        <v>129</v>
       </c>
       <c r="D176" s="15" t="s">
         <v>40</v>
@@ -48668,7 +49839,7 @@
         <v>40</v>
       </c>
       <c r="F176" s="15" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G176" s="15" t="s">
         <v>0</v>
@@ -48680,7 +49851,7 @@
         <v>66</v>
       </c>
       <c r="J176" s="15" t="s">
-        <v>881</v>
+        <v>66</v>
       </c>
       <c r="K176" s="15" t="s">
         <v>66</v>
@@ -48698,11 +49869,18 @@
         <v>981</v>
       </c>
       <c r="P176" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(
+  AND(
+    $A176&lt;&gt;"",
+    COUNTIF(C:C,$A176)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q176" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R176" s="13" t="str">
@@ -48759,7 +49937,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttm（SSH接続toMyMac＠Teraterm）.lnk" "C:\codes\ttl\login_mac.ttl" "" ""</v>
+        <v/>
       </c>
       <c r="V176" s="14" t="str">
         <f>IF(
@@ -48767,7 +49945,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J176&amp;"（"&amp;$B176&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttm（SSH接続toMyMac＠Teraterm）.lnk</v>
+        <v/>
       </c>
       <c r="W176" s="13" t="str">
         <f>IF(
@@ -48825,7 +50003,7 @@
         <v>200</v>
       </c>
       <c r="AA176" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AB176" s="13" t="str">
@@ -48878,13 +50056,13 @@
     </row>
     <row r="177" spans="1:32">
       <c r="A177" s="9" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>560</v>
+        <v>130</v>
       </c>
       <c r="D177" s="15" t="s">
         <v>40</v>
@@ -48905,7 +50083,7 @@
         <v>66</v>
       </c>
       <c r="J177" s="15" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="K177" s="15" t="s">
         <v>66</v>
@@ -48923,11 +50101,18 @@
         <v>981</v>
       </c>
       <c r="P177" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(
+  AND(
+    $A177&lt;&gt;"",
+    COUNTIF(C:C,$A177)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q177" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R177" s="13" t="str">
@@ -48984,7 +50169,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\wsr（SFTP接続toMyRaspberryPi＠WinSCP）.lnk" "C:\codes\winscp\login_raspberrypi.bat" "" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttr（SSH接続toMyRaspberryPi＠Teraterm）.lnk" "C:\codes\ttl\login_raspberrypi.ttl" "" ""</v>
       </c>
       <c r="V177" s="14" t="str">
         <f>IF(
@@ -48992,7 +50177,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J177&amp;"（"&amp;$B177&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\wsr（SFTP接続toMyRaspberryPi＠WinSCP）.lnk</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttr（SSH接続toMyRaspberryPi＠Teraterm）.lnk</v>
       </c>
       <c r="W177" s="13" t="str">
         <f>IF(
@@ -49050,7 +50235,7 @@
         <v>200</v>
       </c>
       <c r="AA177" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AB177" s="13" t="str">
@@ -49103,13 +50288,13 @@
     </row>
     <row r="178" spans="1:32">
       <c r="A178" s="9" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D178" s="15" t="s">
         <v>40</v>
@@ -49118,10 +50303,10 @@
         <v>40</v>
       </c>
       <c r="F178" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G178" s="15" t="s">
         <v>0</v>
-      </c>
-      <c r="G178" s="15" t="s">
-        <v>28</v>
       </c>
       <c r="H178" s="9" t="s">
         <v>551</v>
@@ -49130,7 +50315,7 @@
         <v>66</v>
       </c>
       <c r="J178" s="15" t="s">
-        <v>66</v>
+        <v>881</v>
       </c>
       <c r="K178" s="15" t="s">
         <v>66</v>
@@ -49148,11 +50333,18 @@
         <v>981</v>
       </c>
       <c r="P178" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(
+  AND(
+    $A178&lt;&gt;"",
+    COUNTIF(C:C,$A178)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q178" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R178" s="13" t="str">
@@ -49209,7 +50401,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttm（SSH接続toMyMac＠Teraterm）.lnk" "C:\codes\ttl\login_mac.ttl" "" ""</v>
       </c>
       <c r="V178" s="14" t="str">
         <f>IF(
@@ -49217,7 +50409,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J178&amp;"（"&amp;$B178&amp;"）.lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttm（SSH接続toMyMac＠Teraterm）.lnk</v>
       </c>
       <c r="W178" s="13" t="str">
         <f>IF(
@@ -49275,7 +50467,7 @@
         <v>200</v>
       </c>
       <c r="AA178" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AB178" s="13" t="str">
@@ -49328,13 +50520,13 @@
     </row>
     <row r="179" spans="1:32">
       <c r="A179" s="9" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D179" s="15" t="s">
         <v>40</v>
@@ -49343,7 +50535,7 @@
         <v>40</v>
       </c>
       <c r="F179" s="15" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G179" s="15" t="s">
         <v>0</v>
@@ -49355,7 +50547,7 @@
         <v>66</v>
       </c>
       <c r="J179" s="15" t="s">
-        <v>66</v>
+        <v>882</v>
       </c>
       <c r="K179" s="15" t="s">
         <v>66</v>
@@ -49367,17 +50559,24 @@
         <v>579</v>
       </c>
       <c r="N179" s="15" t="s">
-        <v>878</v>
+        <v>66</v>
       </c>
       <c r="O179" s="26" t="s">
         <v>981</v>
       </c>
       <c r="P179" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(
+  AND(
+    $A179&lt;&gt;"",
+    COUNTIF(C:C,$A179)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q179" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R179" s="13" t="str">
@@ -49434,7 +50633,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\wsr（SFTP接続toMyRaspberryPi＠WinSCP）.lnk" "C:\codes\winscp\login_raspberrypi.bat" "" ""</v>
       </c>
       <c r="V179" s="14" t="str">
         <f>IF(
@@ -49442,7 +50641,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J179&amp;"（"&amp;$B179&amp;"）.lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\wsr（SFTP接続toMyRaspberryPi＠WinSCP）.lnk</v>
       </c>
       <c r="W179" s="13" t="str">
         <f>IF(
@@ -49500,7 +50699,7 @@
         <v>200</v>
       </c>
       <c r="AA179" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AB179" s="13" t="str">
@@ -49523,7 +50722,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\XF_BackupIniToTabbak.bat（X-Finder.iniタブバックアップ）.lnk" "C:\prg_exe\X-Finder\BackupIniToTabbak.bat" "" ""</v>
+        <v/>
       </c>
       <c r="AD179" s="9" t="str">
         <f>IF(
@@ -49531,7 +50730,7 @@
   shortcut設定!$F$6&amp;"\"&amp;A179&amp;"（"&amp;B179&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\XF_BackupIniToTabbak.bat（X-Finder.iniタブバックアップ）.lnk</v>
+        <v/>
       </c>
       <c r="AE179" s="13" t="str">
         <f>IF(
@@ -49553,13 +50752,13 @@
     </row>
     <row r="180" spans="1:32">
       <c r="A180" s="9" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>832</v>
+        <v>872</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D180" s="15" t="s">
         <v>40</v>
@@ -49592,17 +50791,24 @@
         <v>579</v>
       </c>
       <c r="N180" s="15" t="s">
-        <v>572</v>
+        <v>66</v>
       </c>
       <c r="O180" s="26" t="s">
         <v>981</v>
       </c>
       <c r="P180" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(
+  AND(
+    $A180&lt;&gt;"",
+    COUNTIF(C:C,$A180)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q180" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R180" s="13" t="str">
@@ -49725,7 +50931,7 @@
         <v>200</v>
       </c>
       <c r="AA180" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AB180" s="13" t="str">
@@ -49778,13 +50984,13 @@
     </row>
     <row r="181" spans="1:32">
       <c r="A181" s="9" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D181" s="15" t="s">
         <v>40</v>
@@ -49796,7 +51002,7 @@
         <v>0</v>
       </c>
       <c r="G181" s="15" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H181" s="9" t="s">
         <v>551</v>
@@ -49823,11 +51029,18 @@
         <v>981</v>
       </c>
       <c r="P181" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(
+  AND(
+    $A181&lt;&gt;"",
+    COUNTIF(C:C,$A181)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q181" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R181" s="13" t="str">
@@ -49950,7 +51163,7 @@
         <v>200</v>
       </c>
       <c r="AA181" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AB181" s="13" t="str">
@@ -49973,7 +51186,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\ScheduledBackup.bat（定期ファイルバックアップ）.lnk" "C:\root\30_tool\ScheduledBackup.bat" "" ""</v>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\XF_BackupIniToTabbak.bat（X-Finder.iniタブバックアップ）.lnk" "C:\prg_exe\X-Finder\BackupIniToTabbak.bat" "" ""</v>
       </c>
       <c r="AD181" s="9" t="str">
         <f>IF(
@@ -49981,7 +51194,7 @@
   shortcut設定!$F$6&amp;"\"&amp;A181&amp;"（"&amp;B181&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\ScheduledBackup.bat（定期ファイルバックアップ）.lnk</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\XF_BackupIniToTabbak.bat（X-Finder.iniタブバックアップ）.lnk</v>
       </c>
       <c r="AE181" s="13" t="str">
         <f>IF(
@@ -50003,13 +51216,13 @@
     </row>
     <row r="182" spans="1:32">
       <c r="A182" s="9" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>875</v>
+        <v>832</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D182" s="15" t="s">
         <v>40</v>
@@ -50030,7 +51243,7 @@
         <v>66</v>
       </c>
       <c r="J182" s="15" t="s">
-        <v>883</v>
+        <v>66</v>
       </c>
       <c r="K182" s="15" t="s">
         <v>66</v>
@@ -50042,17 +51255,24 @@
         <v>579</v>
       </c>
       <c r="N182" s="15" t="s">
-        <v>66</v>
+        <v>572</v>
       </c>
       <c r="O182" s="26" t="s">
         <v>981</v>
       </c>
       <c r="P182" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(
+  AND(
+    $A182&lt;&gt;"",
+    COUNTIF(C:C,$A182)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q182" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R182" s="13" t="str">
@@ -50109,7 +51329,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\tvr（VNC接続toRobocipA1＠TurboVNC）.lnk" "C:\root\30_tool\ConnectRobocipA1withSshpfVnc.vbs" "" ""</v>
+        <v/>
       </c>
       <c r="V182" s="14" t="str">
         <f>IF(
@@ -50117,7 +51337,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J182&amp;"（"&amp;$B182&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\tvr（VNC接続toRobocipA1＠TurboVNC）.lnk</v>
+        <v/>
       </c>
       <c r="W182" s="13" t="str">
         <f>IF(
@@ -50175,7 +51395,7 @@
         <v>200</v>
       </c>
       <c r="AA182" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AB182" s="13" t="str">
@@ -50228,13 +51448,13 @@
     </row>
     <row r="183" spans="1:32">
       <c r="A183" s="9" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D183" s="15" t="s">
         <v>40</v>
@@ -50255,7 +51475,7 @@
         <v>66</v>
       </c>
       <c r="J183" s="15" t="s">
-        <v>880</v>
+        <v>66</v>
       </c>
       <c r="K183" s="15" t="s">
         <v>66</v>
@@ -50267,17 +51487,24 @@
         <v>579</v>
       </c>
       <c r="N183" s="15" t="s">
-        <v>66</v>
+        <v>878</v>
       </c>
       <c r="O183" s="26" t="s">
         <v>981</v>
       </c>
       <c r="P183" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(
+  AND(
+    $A183&lt;&gt;"",
+    COUNTIF(C:C,$A183)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q183" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R183" s="13" t="str">
@@ -50334,7 +51561,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttr（SSH接続toRobocipA1＠Teraterm）.lnk" "C:\root\30_tool\ConnectRobocipA1withTeraTerm.ttl" "" ""</v>
+        <v/>
       </c>
       <c r="V183" s="14" t="str">
         <f>IF(
@@ -50342,7 +51569,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J183&amp;"（"&amp;$B183&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttr（SSH接続toRobocipA1＠Teraterm）.lnk</v>
+        <v/>
       </c>
       <c r="W183" s="13" t="str">
         <f>IF(
@@ -50400,7 +51627,7 @@
         <v>200</v>
       </c>
       <c r="AA183" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AB183" s="13" t="str">
@@ -50423,7 +51650,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\ScheduledBackup.bat（定期ファイルバックアップ）.lnk" "C:\root\30_tool\ScheduledBackup.bat" "" ""</v>
       </c>
       <c r="AD183" s="9" t="str">
         <f>IF(
@@ -50431,7 +51658,7 @@
   shortcut設定!$F$6&amp;"\"&amp;A183&amp;"（"&amp;B183&amp;"）.lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\ScheduledBackup.bat（定期ファイルバックアップ）.lnk</v>
       </c>
       <c r="AE183" s="13" t="str">
         <f>IF(
@@ -50453,13 +51680,13 @@
     </row>
     <row r="184" spans="1:32">
       <c r="A184" s="9" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D184" s="15" t="s">
         <v>40</v>
@@ -50480,7 +51707,7 @@
         <v>66</v>
       </c>
       <c r="J184" s="15" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="K184" s="15" t="s">
         <v>66</v>
@@ -50498,11 +51725,18 @@
         <v>981</v>
       </c>
       <c r="P184" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(
+  AND(
+    $A184&lt;&gt;"",
+    COUNTIF(C:C,$A184)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q184" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R184" s="13" t="str">
@@ -50559,7 +51793,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\wsr（SFTP接続toRobocipA1＠WinSCP）.lnk" "C:\root\30_tool\ConnectRobocipA1withWinScp.bat" "" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\tvr（VNC接続toRobocipA1＠TurboVNC）.lnk" "C:\root\30_tool\ConnectRobocipA1withSshpfVnc.vbs" "" ""</v>
       </c>
       <c r="V184" s="14" t="str">
         <f>IF(
@@ -50567,7 +51801,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J184&amp;"（"&amp;$B184&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\wsr（SFTP接続toRobocipA1＠WinSCP）.lnk</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\tvr（VNC接続toRobocipA1＠TurboVNC）.lnk</v>
       </c>
       <c r="W184" s="13" t="str">
         <f>IF(
@@ -50625,7 +51859,7 @@
         <v>200</v>
       </c>
       <c r="AA184" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AB184" s="13" t="str">
@@ -50678,25 +51912,25 @@
     </row>
     <row r="185" spans="1:32">
       <c r="A185" s="9" t="s">
-        <v>987</v>
+        <v>741</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>988</v>
+        <v>876</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>982</v>
+        <v>566</v>
       </c>
       <c r="D185" s="15" t="s">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="E185" s="26" t="s">
         <v>40</v>
       </c>
       <c r="F185" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G185" s="15" t="s">
         <v>28</v>
-      </c>
-      <c r="G185" s="15" t="s">
-        <v>0</v>
       </c>
       <c r="H185" s="9" t="s">
         <v>551</v>
@@ -50705,7 +51939,7 @@
         <v>66</v>
       </c>
       <c r="J185" s="15" t="s">
-        <v>66</v>
+        <v>880</v>
       </c>
       <c r="K185" s="15" t="s">
         <v>66</v>
@@ -50714,20 +51948,27 @@
         <v>66</v>
       </c>
       <c r="M185" s="98" t="s">
-        <v>40</v>
+        <v>579</v>
       </c>
       <c r="N185" s="15" t="s">
-        <v>980</v>
+        <v>66</v>
       </c>
       <c r="O185" s="26" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="P185" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(
+  AND(
+    $A185&lt;&gt;"",
+    COUNTIF(C:C,$A185)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q185" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R185" s="13" t="str">
@@ -50784,7 +52025,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttr（SSH接続toRobocipA1＠Teraterm）.lnk" "C:\root\30_tool\ConnectRobocipA1withTeraTerm.ttl" "" ""</v>
       </c>
       <c r="V185" s="14" t="str">
         <f>IF(
@@ -50792,7 +52033,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J185&amp;"（"&amp;$B185&amp;"）.lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttr（SSH接続toRobocipA1＠Teraterm）.lnk</v>
       </c>
       <c r="W185" s="13" t="str">
         <f>IF(
@@ -50850,7 +52091,7 @@
         <v>200</v>
       </c>
       <c r="AA185" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AB185" s="13" t="str">
@@ -50895,7 +52136,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "C:\_push_all.bat.lnk" "C:\codes\bat\tools\tortoisegit\ShowGitPushWindows.bat" "" ""</v>
+        <v/>
       </c>
       <c r="AF185" s="95" t="s">
         <v>183</v>
@@ -50903,56 +52144,63 @@
     </row>
     <row r="186" spans="1:32">
       <c r="A186" s="9" t="s">
-        <v>1104</v>
+        <v>742</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>1065</v>
+        <v>877</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>1103</v>
+        <v>567</v>
       </c>
       <c r="D186" s="15" t="s">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="E186" s="26" t="s">
         <v>40</v>
       </c>
       <c r="F186" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G186" s="15" t="s">
         <v>28</v>
-      </c>
-      <c r="G186" s="15" t="s">
-        <v>0</v>
       </c>
       <c r="H186" s="9" t="s">
         <v>551</v>
       </c>
       <c r="I186" s="15" t="s">
-        <v>980</v>
+        <v>66</v>
       </c>
       <c r="J186" s="15" t="s">
-        <v>1066</v>
+        <v>882</v>
       </c>
       <c r="K186" s="15" t="s">
-        <v>1066</v>
+        <v>66</v>
       </c>
       <c r="L186" s="97" t="s">
-        <v>1066</v>
+        <v>66</v>
       </c>
       <c r="M186" s="98" t="s">
-        <v>1066</v>
+        <v>579</v>
       </c>
       <c r="N186" s="15" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="O186" s="26" t="s">
-        <v>40</v>
+        <v>981</v>
       </c>
       <c r="P186" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(
+  AND(
+    $A186&lt;&gt;"",
+    COUNTIF(C:C,$A186)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q186" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R186" s="13" t="str">
@@ -51009,7 +52257,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\wsr（SFTP接続toRobocipA1＠WinSCP）.lnk" "C:\root\30_tool\ConnectRobocipA1withWinScp.bat" "" ""</v>
       </c>
       <c r="V186" s="14" t="str">
         <f>IF(
@@ -51017,7 +52265,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J186&amp;"（"&amp;$B186&amp;"）.lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\wsr（SFTP接続toRobocipA1＠WinSCP）.lnk</v>
       </c>
       <c r="W186" s="13" t="str">
         <f>IF(
@@ -51075,7 +52323,7 @@
         <v>200</v>
       </c>
       <c r="AA186" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AB186" s="13" t="str">
@@ -51098,7 +52346,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\CreateProgramList.bat（インストールプログラム一覧作成）.lnk" "C:\codes\bat\tools\other\CreateProgramList.bat" "" ""</v>
+        <v/>
       </c>
       <c r="AD186" s="9" t="str">
         <f>IF(
@@ -51106,7 +52354,7 @@
   shortcut設定!$F$6&amp;"\"&amp;A186&amp;"（"&amp;B186&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\CreateProgramList.bat（インストールプログラム一覧作成）.lnk</v>
+        <v/>
       </c>
       <c r="AE186" s="13" t="str">
         <f>IF(
@@ -51127,29 +52375,64 @@
       </c>
     </row>
     <row r="187" spans="1:32">
-      <c r="A187" s="9"/>
-      <c r="B187" s="9"/>
-      <c r="C187" s="9"/>
-      <c r="D187" s="15"/>
-      <c r="E187" s="26"/>
-      <c r="F187" s="15"/>
-      <c r="G187" s="15"/>
+      <c r="A187" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>988</v>
+      </c>
+      <c r="C187" s="9" t="s">
+        <v>982</v>
+      </c>
+      <c r="D187" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="E187" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F187" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G187" s="15" t="s">
+        <v>0</v>
+      </c>
       <c r="H187" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I187" s="15"/>
-      <c r="J187" s="15"/>
-      <c r="K187" s="15"/>
-      <c r="L187" s="97"/>
-      <c r="M187" s="98"/>
-      <c r="N187" s="15"/>
-      <c r="O187" s="26"/>
+        <v>551</v>
+      </c>
+      <c r="I187" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J187" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K187" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="L187" s="97" t="s">
+        <v>66</v>
+      </c>
+      <c r="M187" s="98" t="s">
+        <v>40</v>
+      </c>
+      <c r="N187" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="O187" s="26" t="s">
+        <v>983</v>
+      </c>
       <c r="P187" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(
+  AND(
+    $A187&lt;&gt;"",
+    COUNTIF(C:C,$A187)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q187" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R187" s="13" t="str">
@@ -51169,7 +52452,7 @@
         <v/>
       </c>
       <c r="S187" s="9" t="str">
-        <f>IFERROR(
+        <f ca="1">IFERROR(
   VLOOKUP(
     $H187,
     shortcut設定!$F:$J,
@@ -51182,7 +52465,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>200</v>
       </c>
       <c r="T187" s="13" t="str">
         <f>IF(
@@ -51256,7 +52539,7 @@
         <v/>
       </c>
       <c r="Z187" s="9" t="str">
-        <f>IFERROR(
+        <f ca="1">IFERROR(
   VLOOKUP(
     $H187,
     shortcut設定!$F:$J,
@@ -51269,10 +52552,10 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>200</v>
       </c>
       <c r="AA187" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AB187" s="13" t="str">
@@ -51317,36 +52600,71 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "C:\_push_all.bat.lnk" "C:\codes\bat\tools\tortoisegit\ShowGitPushWindows.bat" "" ""</v>
       </c>
       <c r="AF187" s="95" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="188" spans="1:32">
-      <c r="A188" s="9"/>
-      <c r="B188" s="9"/>
-      <c r="C188" s="9"/>
-      <c r="D188" s="15"/>
-      <c r="E188" s="26"/>
-      <c r="F188" s="15"/>
-      <c r="G188" s="15"/>
+      <c r="A188" s="9" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C188" s="9" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D188" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="E188" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F188" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G188" s="15" t="s">
+        <v>0</v>
+      </c>
       <c r="H188" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I188" s="15"/>
-      <c r="J188" s="15"/>
-      <c r="K188" s="15"/>
-      <c r="L188" s="97"/>
-      <c r="M188" s="98"/>
-      <c r="N188" s="15"/>
-      <c r="O188" s="26"/>
+        <v>551</v>
+      </c>
+      <c r="I188" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="J188" s="15" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K188" s="15" t="s">
+        <v>1066</v>
+      </c>
+      <c r="L188" s="97" t="s">
+        <v>1066</v>
+      </c>
+      <c r="M188" s="98" t="s">
+        <v>1066</v>
+      </c>
+      <c r="N188" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="O188" s="26" t="s">
+        <v>40</v>
+      </c>
       <c r="P188" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(
+  AND(
+    $A188&lt;&gt;"",
+    COUNTIF(C:C,$A188)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q188" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R188" s="13" t="str">
@@ -51366,7 +52684,7 @@
         <v/>
       </c>
       <c r="S188" s="9" t="str">
-        <f>IFERROR(
+        <f ca="1">IFERROR(
   VLOOKUP(
     $H188,
     shortcut設定!$F:$J,
@@ -51379,7 +52697,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>200</v>
       </c>
       <c r="T188" s="13" t="str">
         <f>IF(
@@ -51453,7 +52771,7 @@
         <v/>
       </c>
       <c r="Z188" s="9" t="str">
-        <f>IFERROR(
+        <f ca="1">IFERROR(
   VLOOKUP(
     $H188,
     shortcut設定!$F:$J,
@@ -51466,10 +52784,10 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>200</v>
       </c>
       <c r="AA188" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AB188" s="13" t="str">
@@ -51492,7 +52810,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\CreateProgramList.bat（インストールプログラム一覧作成）.lnk" "C:\codes\bat\tools\other\CreateProgramList.bat" "" ""</v>
       </c>
       <c r="AD188" s="9" t="str">
         <f>IF(
@@ -51500,7 +52818,7 @@
   shortcut設定!$F$6&amp;"\"&amp;A188&amp;"（"&amp;B188&amp;"）.lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\CreateProgramList.bat（インストールプログラム一覧作成）.lnk</v>
       </c>
       <c r="AE188" s="13" t="str">
         <f>IF(
@@ -51539,11 +52857,18 @@
       <c r="N189" s="15"/>
       <c r="O189" s="26"/>
       <c r="P189" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(
+  AND(
+    $A189&lt;&gt;"",
+    COUNTIF(C:C,$A189)&gt;1
+  ),
+  "★NG★",
+  ""
+)</f>
         <v/>
       </c>
       <c r="Q189" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R189" s="13" t="str">
@@ -51666,7 +52991,7 @@
         <v/>
       </c>
       <c r="AA189" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AB189" s="13" t="str">
@@ -51763,7 +53088,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:G189" xr:uid="{42051BDF-A6DF-499F-A931-4F8859B94E8C}">
       <formula1>"○,×"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11:I189 L11:L189 N11:N189" xr:uid="{CBBC2DB5-1983-4F3D-9D37-F9D3AD0BFD81}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11:I189 N11:N189 L11:L189" xr:uid="{CBBC2DB5-1983-4F3D-9D37-F9D3AD0BFD81}">
       <formula1>"○,-"</formula1>
     </dataValidation>
   </dataValidations>
@@ -51902,7 +53227,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>25</v>
@@ -51963,7 +53288,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1</v>
@@ -52016,7 +53341,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>34</v>
@@ -52069,7 +53394,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>2</v>
@@ -52122,7 +53447,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="6" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>35</v>
@@ -52175,7 +53500,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="6" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>36</v>
@@ -52228,7 +53553,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="6" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>37</v>
@@ -52284,7 +53609,7 @@
         <v>164</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>156</v>
@@ -53034,7 +54359,7 @@
         <v>920</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>0</v>
@@ -53049,10 +54374,10 @@
         <v>0</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="I33" s="1" t="str">
         <f>IF($F33="○","mkdir """&amp;[1]!getdirpath($H33)&amp;"""","")</f>
@@ -53087,7 +54412,7 @@
         <v>920</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>0</v>
@@ -53102,10 +54427,10 @@
         <v>0</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I34" s="1" t="str">
         <f>IF($F34="○","mkdir """&amp;[1]!getdirpath($H34)&amp;"""","")</f>
@@ -53193,7 +54518,7 @@
         <v>920</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>334</v>
@@ -53211,7 +54536,7 @@
         <v>912</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="I36" s="1" t="str">
         <f>IF($F36="○","mkdir """&amp;[1]!getdirpath($H36)&amp;"""","")</f>
@@ -53246,7 +54571,7 @@
         <v>920</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>334</v>
@@ -53264,7 +54589,7 @@
         <v>914</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="I37" s="1" t="str">
         <f>IF($F37="○","mkdir """&amp;[1]!getdirpath($H37)&amp;"""","")</f>
@@ -54019,10 +55344,10 @@
         <v>28</v>
       </c>
       <c r="G51" s="101" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H51" s="101" t="s">
         <v>1238</v>
-      </c>
-      <c r="H51" s="101" t="s">
-        <v>1239</v>
       </c>
       <c r="I51" s="101" t="str">
         <f>IF($F51="○","mkdir """&amp;[1]!getdirpath($H51)&amp;"""","")</f>
@@ -54083,7 +55408,7 @@
         <v>992</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="I52" s="1" t="str">
         <f>IF($F52="○","mkdir """&amp;[1]!getdirpath($H52)&amp;"""","")</f>
@@ -54126,7 +55451,7 @@
         <v>918</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>0</v>
@@ -54141,10 +55466,10 @@
         <v>0</v>
       </c>
       <c r="G53" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>1220</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>1221</v>
       </c>
       <c r="I53" s="1" t="str">
         <f>IF($F53="○","mkdir """&amp;[1]!getdirpath($H53)&amp;"""","")</f>
@@ -54980,7 +56305,7 @@
         <v>310</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C9" s="35" t="s">
         <v>192</v>
@@ -55115,7 +56440,7 @@
       </c>
       <c r="B15" s="44"/>
       <c r="C15" s="49" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D15" s="49" t="s">
         <v>40</v>
@@ -55136,10 +56461,10 @@
         <v>310</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>309</v>
@@ -55161,7 +56486,7 @@
       </c>
       <c r="B17" s="44"/>
       <c r="C17" s="37" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>309</v>
@@ -55183,7 +56508,7 @@
       </c>
       <c r="B18" s="44"/>
       <c r="C18" s="37" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D18" s="37" t="s">
         <v>309</v>
@@ -55205,7 +56530,7 @@
       </c>
       <c r="B19" s="44"/>
       <c r="C19" s="37" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D19" s="37" t="s">
         <v>309</v>
@@ -55227,7 +56552,7 @@
       </c>
       <c r="B20" s="44"/>
       <c r="C20" s="37" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D20" s="37" t="s">
         <v>309</v>
@@ -55249,7 +56574,7 @@
       </c>
       <c r="B21" s="44"/>
       <c r="C21" s="37" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D21" s="37" t="s">
         <v>40</v>
@@ -55271,7 +56596,7 @@
       </c>
       <c r="B22" s="45"/>
       <c r="C22" s="39" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D22" s="39" t="s">
         <v>40</v>
@@ -55435,10 +56760,10 @@
       </c>
       <c r="B29" s="44"/>
       <c r="C29" s="42" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E29" s="38" t="s">
         <v>156</v>
@@ -55457,10 +56782,10 @@
       </c>
       <c r="B30" s="44"/>
       <c r="C30" s="42" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E30" s="38" t="s">
         <v>156</v>
@@ -55479,10 +56804,10 @@
       </c>
       <c r="B31" s="44"/>
       <c r="C31" s="42" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D31" s="42" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E31" s="38" t="s">
         <v>156</v>
@@ -55501,10 +56826,10 @@
       </c>
       <c r="B32" s="45"/>
       <c r="C32" s="43" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D32" s="43" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E32" s="40" t="s">
         <v>156</v>

--- a/PC移行時チェックリスト.xlsx
+++ b/PC移行時チェックリスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D37330-6B90-4030-97AE-F9FB1D484512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F584C06E-3C8A-4329-BC1F-9EC9ED74BE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32400" yWindow="-4095" windowWidth="32415" windowHeight="40725" xr2:uid="{4766EE0F-731E-4860-9E19-7E5345AFF867}"/>
+    <workbookView xWindow="-32400" yWindow="-4080" windowWidth="32415" windowHeight="40725" xr2:uid="{4766EE0F-731E-4860-9E19-7E5345AFF867}"/>
   </bookViews>
   <sheets>
     <sheet name="セットアップ事項" sheetId="21" r:id="rId1"/>
@@ -30,10 +30,10 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">linux環境構築!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">shortcut!$A$9:$AF$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">shortcut!$A$9:$AF$195</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">symlink!$A$11:$L$65</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">セットアップ事項!$A$2:$H$73</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">linux環境構築!$A$6:$G$87</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">linux環境構築!$A$6:$H$90</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">shortcut!$A$8:$AE$195</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">shortcut設定!$A$1:$O$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">symlink!$A$10:$L$65</definedName>
@@ -306,7 +306,21 @@
     <author>Tatsuya Endo</author>
   </authors>
   <commentList>
-    <comment ref="D60" authorId="0" shapeId="0" xr:uid="{68E78246-D12C-4EB5-881E-10BB0ACA579F}">
+    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{90780759-BCA4-4457-9529-429C57946DFA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>インストール済み</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D63" authorId="0" shapeId="0" xr:uid="{68E78246-D12C-4EB5-881E-10BB0ACA579F}">
       <text>
         <r>
           <rPr>
@@ -322,7 +336,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="C70" authorId="0" shapeId="0" xr:uid="{A5A9F337-72E1-41CB-A6FB-B53519F34DDD}">
+    <comment ref="E63" authorId="0" shapeId="0" xr:uid="{269FF417-43E8-4231-AE8A-2A4B3C16584E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>例）
+26 09 * * * /home/endo/_backup_files.sh</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C73" authorId="0" shapeId="0" xr:uid="{A5A9F337-72E1-41CB-A6FB-B53519F34DDD}">
       <text>
         <r>
           <rPr>
@@ -685,7 +715,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4993" uniqueCount="1284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5074" uniqueCount="1305">
   <si>
     <t>○</t>
   </si>
@@ -6692,6 +6722,110 @@
   </si>
   <si>
     <t>○</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Mac</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>brewインストール</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/bin/bash -c "$(curl -fsSL https://raw.githubusercontent.com/Homebrew/install/master/install.sh)"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「brew -v」を実行してバージョンが表示されたら成功</t>
+    <rPh sb="10" eb="12">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>brew install git</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>brew unlink ctags; brew install universal-ctags</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>暗号鍵コピー</t>
+    <rPh sb="0" eb="2">
+      <t>アンゴウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>暗号鍵生成</t>
+    <rPh sb="0" eb="2">
+      <t>アンゴウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>file=.bashrc    &amp;&amp; dir=${HOME}/Documents/codes/linux              &amp;&amp; ln -sf ${dir}/${file} ~/${file}</t>
+  </si>
+  <si>
+    <t>file=.gdbinit   &amp;&amp; dir=${HOME}/Documents/codes/linux              &amp;&amp; ln -sf ${dir}/${file} ~/${file}</t>
+  </si>
+  <si>
+    <t>file=.inputrc   &amp;&amp; dir=${HOME}/Documents/codes/linux              &amp;&amp; ln -sf ${dir}/${file} ~/${file}</t>
+  </si>
+  <si>
+    <t>file=.tigrc     &amp;&amp; dir=${HOME}/Documents/codes/linux              &amp;&amp; ln -sf ${dir}/${file} ~/${file}</t>
+  </si>
+  <si>
+    <t>file=.tmux.conf &amp;&amp; dir=${HOME}/Documents/codes/linux              &amp;&amp; ln -sf ${dir}/${file} ~/${file}</t>
+  </si>
+  <si>
+    <t>file=.vimrc     &amp;&amp; dir=${HOME}/Documents/codes/vim                &amp;&amp; ln -sf ${dir}/${file} ~/${file}</t>
+  </si>
+  <si>
+    <t>file=.gitconfig &amp;&amp; dir=${HOME}/Documents/codes/git/setting_myuser &amp;&amp; ln -sf ${dir}/${file} ~/${file}</t>
+  </si>
+  <si>
+    <t>brew install tmux</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>brew install tig</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>brew install tmux-xpanes</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mac.mdの「ssh サーバー設定」参照</t>
+    <rPh sb="19" eb="21">
+      <t>サンショウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -7259,7 +7393,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7719,6 +7853,36 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
@@ -8073,7 +8237,7 @@
   <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="11.25"/>
@@ -10404,9 +10568,7 @@
   </sheetPr>
   <dimension ref="A2:P37"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="11.25"/>
   <cols>
@@ -53180,7 +53342,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A9:AF190" xr:uid="{734416C5-2068-4066-935A-BD778014C1E0}"/>
+  <autoFilter ref="A9:AF195" xr:uid="{734416C5-2068-4066-935A-BD778014C1E0}"/>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H191:H194 H11:H190" xr:uid="{BC34F2BF-1C76-48EE-A440-60DE28D5BBFA}">
@@ -56320,49 +56482,51 @@
     <tabColor theme="8" tint="0.79998168889431442"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:H87"/>
+  <dimension ref="A2:I90"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="38.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="95.33203125" customWidth="1"/>
-    <col min="5" max="6" width="8.83203125" customWidth="1"/>
-    <col min="7" max="7" width="71.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.83203125" customWidth="1"/>
-    <col min="9" max="16384" width="3.83203125" hidden="1"/>
+    <col min="3" max="5" width="95.33203125" customWidth="1"/>
+    <col min="6" max="7" width="8.83203125" customWidth="1"/>
+    <col min="8" max="8" width="71.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.83203125" customWidth="1"/>
+    <col min="10" max="16384" width="3.83203125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="99" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="99" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="E6" s="5" t="s">
+    <row r="6" spans="1:9">
+      <c r="F6" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="H6" t="s">
+      <c r="G6" s="5"/>
+      <c r="I6" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
@@ -56376,19 +56540,22 @@
         <v>194</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="3" customHeight="1">
+    <row r="8" spans="1:9" ht="3" customHeight="1">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -56396,1017 +56563,1156 @@
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
-      <c r="H8" t="s">
+      <c r="H8" s="16"/>
+      <c r="I8" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="33" t="s">
-        <v>310</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>1232</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>309</v>
-      </c>
-      <c r="E9" s="36" t="s">
+    <row r="9" spans="1:9" ht="22.5">
+      <c r="A9" s="143" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="148" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D9" s="148" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E9" s="148" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F9" s="103" t="s">
         <v>156</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="G9" s="103" t="s">
         <v>156</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" t="s">
+      <c r="H9" s="33" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="140" t="s">
+        <v>315</v>
+      </c>
+      <c r="B10" s="33"/>
+      <c r="C10" s="148" t="s">
+        <v>321</v>
+      </c>
+      <c r="D10" s="148" t="s">
+        <v>321</v>
+      </c>
+      <c r="E10" s="148" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F10" s="103" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" s="103" t="s">
+        <v>156</v>
+      </c>
+      <c r="H10" s="33"/>
+      <c r="I10" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="44" t="s">
-        <v>310</v>
-      </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>309</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="F10" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="G10" s="37"/>
-      <c r="H10" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="44" t="s">
-        <v>310</v>
+    <row r="11" spans="1:9">
+      <c r="A11" s="147" t="s">
+        <v>330</v>
       </c>
       <c r="B11" s="44"/>
-      <c r="C11" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>309</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>156</v>
+      <c r="C11" s="153"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="42" t="s">
+        <v>1288</v>
       </c>
       <c r="F11" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="G11" s="37"/>
-      <c r="H11" t="s">
-        <v>1180</v>
+      <c r="G11" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="H11" s="37"/>
+      <c r="I11" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="44" t="s">
-        <v>310</v>
+    <row r="12" spans="1:9">
+      <c r="A12" s="147" t="s">
+        <v>330</v>
       </c>
       <c r="B12" s="44"/>
-      <c r="C12" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>309</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>156</v>
+      <c r="C12" s="42" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>1300</v>
       </c>
       <c r="F12" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" t="s">
+      <c r="G12" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="H12" s="37"/>
+      <c r="I12" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="44" t="s">
-        <v>310</v>
+    <row r="13" spans="1:9">
+      <c r="A13" s="147" t="s">
+        <v>330</v>
       </c>
       <c r="B13" s="44"/>
-      <c r="C13" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>309</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>156</v>
+      <c r="C13" s="42" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>1301</v>
       </c>
       <c r="F13" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="G13" s="37"/>
-      <c r="H13" t="s">
-        <v>1180</v>
+      <c r="G13" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="H13" s="37"/>
+      <c r="I13" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="44" t="s">
-        <v>310</v>
+    <row r="14" spans="1:9">
+      <c r="A14" s="147" t="s">
+        <v>330</v>
       </c>
       <c r="B14" s="44"/>
-      <c r="C14" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>309</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>156</v>
+      <c r="C14" s="42" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E14" s="154" t="s">
+        <v>1289</v>
       </c>
       <c r="F14" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="G14" s="37"/>
-      <c r="H14" t="s">
+      <c r="G14" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="H14" s="37"/>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="141" t="s">
+        <v>330</v>
+      </c>
+      <c r="B15" s="45"/>
+      <c r="C15" s="43" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="H15" s="39"/>
+      <c r="I15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="H16" s="35"/>
+      <c r="I16" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="44" t="s">
-        <v>310</v>
-      </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="49" t="s">
-        <v>1224</v>
-      </c>
-      <c r="D15" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="F15" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="G15" s="49"/>
-      <c r="H15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="44" t="s">
-        <v>310</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>1233</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>1226</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>309</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="F16" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="G16" s="37"/>
-      <c r="H16" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" s="44" t="s">
         <v>310</v>
       </c>
       <c r="B17" s="44"/>
       <c r="C17" s="37" t="s">
-        <v>1227</v>
+        <v>195</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>309</v>
       </c>
-      <c r="E17" s="38" t="s">
-        <v>156</v>
+      <c r="E17" s="37" t="s">
+        <v>1290</v>
       </c>
       <c r="F17" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="G17" s="37"/>
-      <c r="H17" t="s">
+      <c r="G17" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="H17" s="37"/>
+      <c r="I17" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18" s="44" t="s">
         <v>310</v>
       </c>
       <c r="B18" s="44"/>
       <c r="C18" s="37" t="s">
-        <v>1228</v>
+        <v>196</v>
       </c>
       <c r="D18" s="37" t="s">
         <v>309</v>
       </c>
-      <c r="E18" s="38" t="s">
-        <v>156</v>
+      <c r="E18" s="37" t="s">
+        <v>1290</v>
       </c>
       <c r="F18" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="G18" s="37"/>
-      <c r="H18" t="s">
+      <c r="G18" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="H18" s="37"/>
+      <c r="I18" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19" s="44" t="s">
         <v>310</v>
       </c>
       <c r="B19" s="44"/>
       <c r="C19" s="37" t="s">
-        <v>1229</v>
+        <v>197</v>
       </c>
       <c r="D19" s="37" t="s">
         <v>309</v>
       </c>
-      <c r="E19" s="38" t="s">
-        <v>156</v>
+      <c r="E19" s="37" t="s">
+        <v>1290</v>
       </c>
       <c r="F19" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="G19" s="37"/>
-      <c r="H19" t="s">
+      <c r="G19" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="H19" s="37"/>
+      <c r="I19" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" s="44" t="s">
         <v>310</v>
       </c>
       <c r="B20" s="44"/>
       <c r="C20" s="37" t="s">
-        <v>1230</v>
+        <v>198</v>
       </c>
       <c r="D20" s="37" t="s">
         <v>309</v>
       </c>
-      <c r="E20" s="38" t="s">
-        <v>156</v>
+      <c r="E20" s="37" t="s">
+        <v>1290</v>
       </c>
       <c r="F20" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="G20" s="37"/>
-      <c r="H20" t="s">
+      <c r="G20" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="H20" s="37"/>
+      <c r="I20" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="A21" s="44" t="s">
         <v>310</v>
       </c>
       <c r="B21" s="44"/>
       <c r="C21" s="37" t="s">
-        <v>1231</v>
+        <v>199</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>156</v>
+        <v>309</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>1290</v>
       </c>
       <c r="F21" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="37"/>
-      <c r="H21" t="s">
+      <c r="G21" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="H21" s="37"/>
+      <c r="I21" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="45" t="s">
+    <row r="22" spans="1:9">
+      <c r="A22" s="44" t="s">
         <v>310</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="39" t="s">
-        <v>1225</v>
-      </c>
-      <c r="D22" s="39" t="s">
+      <c r="B22" s="44"/>
+      <c r="C22" s="49" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D22" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="49" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F22" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="F22" s="40" t="s">
+      <c r="G22" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="G22" s="39"/>
-      <c r="H22" t="s">
+      <c r="H22" s="49"/>
+      <c r="I22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="26" t="s">
-        <v>311</v>
-      </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26" t="s">
-        <v>1187</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>544</v>
-      </c>
-      <c r="E23" s="15" t="s">
+    <row r="23" spans="1:9">
+      <c r="A23" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>1293</v>
+      </c>
+      <c r="F23" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="G23" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="G23" s="139" t="s">
-        <v>1189</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="H23" s="37"/>
+      <c r="I23" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="33" t="s">
-        <v>543</v>
-      </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="35" t="s">
-        <v>547</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>544</v>
-      </c>
-      <c r="E24" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24" s="35" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H24" t="s">
+    <row r="24" spans="1:9">
+      <c r="A24" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="B24" s="44"/>
+      <c r="C24" s="37" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>1294</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="H24" s="37"/>
+      <c r="I24" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9">
       <c r="A25" s="44" t="s">
-        <v>543</v>
+        <v>310</v>
       </c>
       <c r="B25" s="44"/>
       <c r="C25" s="37" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="H25" s="37"/>
+      <c r="I25" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="B26" s="44"/>
+      <c r="C26" s="37" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="37"/>
+      <c r="I26" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="B27" s="44"/>
+      <c r="C27" s="37" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="G27" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="H27" s="37"/>
+      <c r="I27" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="B28" s="44"/>
+      <c r="C28" s="37" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="H28" s="37"/>
+      <c r="I28" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="45" t="s">
+        <v>310</v>
+      </c>
+      <c r="B29" s="45"/>
+      <c r="C29" s="39" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F29" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="G29" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="H29" s="39"/>
+      <c r="I29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>544</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="H30" s="139" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="33" t="s">
+        <v>543</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>547</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>544</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="35" t="s">
+        <v>1188</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="44" t="s">
+        <v>543</v>
+      </c>
+      <c r="B32" s="44"/>
+      <c r="C32" s="37" t="s">
         <v>548</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D32" s="37" t="s">
         <v>544</v>
       </c>
-      <c r="E25" s="38" t="s">
+      <c r="E32" s="37" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F32" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="G32" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="G25" s="37" t="s">
+      <c r="H32" s="37" t="s">
         <v>569</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I32" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="44" t="s">
+    <row r="33" spans="1:9">
+      <c r="A33" s="44" t="s">
         <v>543</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="49" t="s">
+      <c r="B33" s="44"/>
+      <c r="C33" s="49" t="s">
         <v>549</v>
       </c>
-      <c r="D26" s="49" t="s">
+      <c r="D33" s="49" t="s">
         <v>544</v>
       </c>
-      <c r="E26" s="50" t="s">
+      <c r="E33" s="49" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F33" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="F26" s="50" t="s">
+      <c r="G33" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="G26" s="49" t="s">
+      <c r="H33" s="49" t="s">
         <v>569</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I33" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="45" t="s">
+    <row r="34" spans="1:9">
+      <c r="A34" s="44" t="s">
         <v>543</v>
       </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="39" t="s">
+      <c r="B34" s="137"/>
+      <c r="C34" s="37" t="s">
         <v>568</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D34" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="E34" s="37" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F34" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="F27" s="40" t="s">
+      <c r="G34" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="G27" s="39" t="s">
+      <c r="H34" s="37" t="s">
         <v>569</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I34" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="140" t="s">
-        <v>315</v>
-      </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="148" t="s">
+    <row r="35" spans="1:9" s="157" customFormat="1">
+      <c r="A35" s="45" t="s">
+        <v>543</v>
+      </c>
+      <c r="B35" s="155" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C35" s="155" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D35" s="158" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E35" s="158" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F35" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="155" t="s">
+        <v>569</v>
+      </c>
+      <c r="I35" s="157" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="140" t="s">
+        <v>545</v>
+      </c>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33" t="s">
+        <v>546</v>
+      </c>
+      <c r="D36" s="33" t="str">
+        <f>C$36</f>
+        <v>vim ~/.ssh/config</v>
+      </c>
+      <c r="E36" s="33" t="str">
+        <f>D$36</f>
+        <v>vim ~/.ssh/config</v>
+      </c>
+      <c r="F36" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="33"/>
+      <c r="I36" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="104" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="102" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D37" s="102" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E37" s="102" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="H37" s="26" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="104" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="102" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="H38" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="142" t="s">
+        <v>317</v>
+      </c>
+      <c r="B39" s="26"/>
+      <c r="C39" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="D39" s="26" t="str">
+        <f>C39</f>
+        <v>省略（~/.tmux.conf参照）</v>
+      </c>
+      <c r="E39" s="26" t="str">
+        <f>D39</f>
+        <v>省略（~/.tmux.conf参照）</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="H39" s="26"/>
+      <c r="I39" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="143" t="s">
+        <v>312</v>
+      </c>
+      <c r="B40" s="34"/>
+      <c r="C40" s="41" t="s">
+        <v>319</v>
+      </c>
+      <c r="D40" s="35" t="str">
+        <f>C40</f>
+        <v>sudo apt install software-properties-common</v>
+      </c>
+      <c r="E40" s="35" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F40" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="G40" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="H40" s="35"/>
+      <c r="I40" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="144" t="s">
+        <v>312</v>
+      </c>
+      <c r="B41" s="46"/>
+      <c r="C41" s="42" t="s">
+        <v>320</v>
+      </c>
+      <c r="D41" s="37" t="str">
+        <f t="shared" ref="D41:E50" si="0">C41</f>
+        <v>sudo add-apt-repository ppa:greymd/tmux-xpanes</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="G41" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="H41" s="37"/>
+      <c r="I41" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="145" t="s">
+        <v>312</v>
+      </c>
+      <c r="B42" s="47"/>
+      <c r="C42" s="42" t="s">
         <v>321</v>
       </c>
-      <c r="D28" s="148" t="s">
-        <v>321</v>
-      </c>
-      <c r="E28" s="103" t="s">
-        <v>156</v>
-      </c>
-      <c r="F28" s="103" t="s">
-        <v>156</v>
-      </c>
-      <c r="G28" s="33"/>
-      <c r="H28" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="147" t="s">
-        <v>330</v>
-      </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="42" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D29" s="42" t="s">
-        <v>1208</v>
-      </c>
-      <c r="E29" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="F29" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="G29" s="37"/>
-      <c r="H29" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="147" t="s">
-        <v>330</v>
-      </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="42" t="s">
-        <v>1211</v>
-      </c>
-      <c r="D30" s="42" t="s">
-        <v>1210</v>
-      </c>
-      <c r="E30" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="F30" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="G30" s="37"/>
-      <c r="H30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="147" t="s">
-        <v>330</v>
-      </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="42" t="s">
-        <v>1215</v>
-      </c>
-      <c r="D31" s="42" t="s">
-        <v>1214</v>
-      </c>
-      <c r="E31" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="F31" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="G31" s="37"/>
-      <c r="H31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="141" t="s">
-        <v>330</v>
-      </c>
-      <c r="B32" s="45"/>
-      <c r="C32" s="43" t="s">
-        <v>1213</v>
-      </c>
-      <c r="D32" s="43" t="s">
-        <v>1212</v>
-      </c>
-      <c r="E32" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="F32" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="G32" s="39"/>
-      <c r="H32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="140" t="s">
-        <v>545</v>
-      </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33" t="s">
-        <v>546</v>
-      </c>
-      <c r="D33" s="33" t="str">
-        <f>C33</f>
-        <v>vim ~/.ssh/config</v>
-      </c>
-      <c r="E33" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="F33" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="G33" s="33"/>
-      <c r="H33" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="104" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="102" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D34" s="102" t="s">
-        <v>1093</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>1091</v>
-      </c>
-      <c r="H34" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="104" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="102" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G35" s="26" t="s">
-        <v>1092</v>
-      </c>
-      <c r="H35" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="142" t="s">
-        <v>317</v>
-      </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="32" t="s">
-        <v>318</v>
-      </c>
-      <c r="D36" s="26" t="str">
-        <f>C36</f>
-        <v>省略（~/.tmux.conf参照）</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G36" s="26"/>
-      <c r="H36" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="143" t="s">
-        <v>312</v>
-      </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="41" t="s">
-        <v>319</v>
-      </c>
-      <c r="D37" s="35" t="str">
-        <f>C37</f>
-        <v>sudo apt install software-properties-common</v>
-      </c>
-      <c r="E37" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="F37" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="G37" s="35"/>
-      <c r="H37" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="144" t="s">
-        <v>312</v>
-      </c>
-      <c r="B38" s="46"/>
-      <c r="C38" s="42" t="s">
-        <v>320</v>
-      </c>
-      <c r="D38" s="37" t="str">
-        <f t="shared" ref="D38:D47" si="0">C38</f>
-        <v>sudo add-apt-repository ppa:greymd/tmux-xpanes</v>
-      </c>
-      <c r="E38" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="F38" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="G38" s="37"/>
-      <c r="H38" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="145" t="s">
-        <v>312</v>
-      </c>
-      <c r="B39" s="47"/>
-      <c r="C39" s="42" t="s">
-        <v>321</v>
-      </c>
-      <c r="D39" s="37" t="str">
+      <c r="D42" s="37" t="str">
         <f t="shared" si="0"/>
         <v>sudo apt update</v>
       </c>
-      <c r="E39" s="38" t="s">
+      <c r="E42" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="F39" s="38" t="s">
+      <c r="G42" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="G39" s="37"/>
-      <c r="H39" t="s">
+      <c r="H42" s="37"/>
+      <c r="I42" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="146" t="s">
+    <row r="43" spans="1:9">
+      <c r="A43" s="146" t="s">
         <v>312</v>
       </c>
-      <c r="B40" s="48"/>
-      <c r="C40" s="43" t="s">
+      <c r="B43" s="48"/>
+      <c r="C43" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="D40" s="39" t="str">
+      <c r="D43" s="39" t="str">
         <f t="shared" si="0"/>
         <v>sudo apt install -y tmux-xpanes</v>
       </c>
-      <c r="E40" s="40" t="s">
+      <c r="E43" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="F40" s="40" t="s">
+      <c r="G43" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="G40" s="39"/>
-      <c r="H40" t="s">
+      <c r="H43" s="39"/>
+      <c r="I43" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="33" t="s">
+    <row r="44" spans="1:9">
+      <c r="A44" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="35" t="s">
+      <c r="B44" s="33"/>
+      <c r="C44" s="35" t="s">
         <v>328</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D44" s="35" t="s">
         <v>328</v>
       </c>
-      <c r="E41" s="36" t="s">
+      <c r="E44" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="F44" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="F41" s="36" t="s">
+      <c r="G44" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="G41" s="35"/>
-      <c r="H41" t="s">
+      <c r="H44" s="35"/>
+      <c r="I44" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="44" t="s">
+    <row r="45" spans="1:9">
+      <c r="A45" s="44" t="s">
         <v>316</v>
       </c>
-      <c r="B42" s="44"/>
-      <c r="C42" s="37" t="s">
+      <c r="B45" s="44"/>
+      <c r="C45" s="37" t="s">
         <v>329</v>
       </c>
-      <c r="D42" s="37" t="s">
+      <c r="D45" s="37" t="s">
         <v>329</v>
       </c>
-      <c r="E42" s="38" t="s">
+      <c r="E45" s="37" t="s">
+        <v>329</v>
+      </c>
+      <c r="F45" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="F42" s="38" t="s">
+      <c r="G45" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="G42" s="37"/>
-      <c r="H42" t="s">
+      <c r="H45" s="37"/>
+      <c r="I45" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="44" t="s">
+    <row r="46" spans="1:9">
+      <c r="A46" s="44" t="s">
         <v>316</v>
       </c>
-      <c r="B43" s="44"/>
-      <c r="C43" s="37" t="s">
+      <c r="B46" s="44"/>
+      <c r="C46" s="37" t="s">
         <v>323</v>
       </c>
-      <c r="D43" s="37" t="str">
+      <c r="D46" s="37" t="str">
         <f t="shared" si="0"/>
         <v>git config --global core.editor vim</v>
       </c>
-      <c r="E43" s="38" t="s">
+      <c r="E46" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>git config --global core.editor vim</v>
+      </c>
+      <c r="F46" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="F43" s="38" t="s">
+      <c r="G46" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="G43" s="37"/>
-      <c r="H43" t="s">
+      <c r="H46" s="37"/>
+      <c r="I46" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="44" t="s">
+    <row r="47" spans="1:9">
+      <c r="A47" s="44" t="s">
         <v>316</v>
       </c>
-      <c r="B44" s="44"/>
-      <c r="C44" s="37" t="s">
+      <c r="B47" s="44"/>
+      <c r="C47" s="37" t="s">
         <v>324</v>
       </c>
-      <c r="D44" s="37" t="str">
+      <c r="D47" s="37" t="str">
         <f t="shared" si="0"/>
         <v>git config --global diff.tool vimdiff</v>
       </c>
-      <c r="E44" s="38" t="s">
+      <c r="E47" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>git config --global diff.tool vimdiff</v>
+      </c>
+      <c r="F47" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="F44" s="38" t="s">
+      <c r="G47" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="G44" s="37"/>
-      <c r="H44" t="s">
+      <c r="H47" s="37"/>
+      <c r="I47" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="44" t="s">
+    <row r="48" spans="1:9">
+      <c r="A48" s="44" t="s">
         <v>316</v>
       </c>
-      <c r="B45" s="44"/>
-      <c r="C45" s="37" t="s">
+      <c r="B48" s="44"/>
+      <c r="C48" s="37" t="s">
         <v>325</v>
       </c>
-      <c r="D45" s="37" t="str">
+      <c r="D48" s="37" t="str">
         <f t="shared" si="0"/>
         <v>git config --global difftool.prompt false</v>
       </c>
-      <c r="E45" s="38" t="s">
+      <c r="E48" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>git config --global difftool.prompt false</v>
+      </c>
+      <c r="F48" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="F45" s="38" t="s">
+      <c r="G48" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="G45" s="37"/>
-      <c r="H45" t="s">
+      <c r="H48" s="37"/>
+      <c r="I48" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="44" t="s">
+    <row r="49" spans="1:9">
+      <c r="A49" s="44" t="s">
         <v>316</v>
       </c>
-      <c r="B46" s="44"/>
-      <c r="C46" s="37" t="s">
+      <c r="B49" s="44"/>
+      <c r="C49" s="37" t="s">
         <v>326</v>
       </c>
-      <c r="D46" s="37" t="str">
+      <c r="D49" s="37" t="str">
         <f t="shared" si="0"/>
         <v>git config --global merge.tool vimdiff</v>
       </c>
-      <c r="E46" s="38" t="s">
+      <c r="E49" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>git config --global merge.tool vimdiff</v>
+      </c>
+      <c r="F49" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="F46" s="38" t="s">
+      <c r="G49" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="G46" s="37"/>
-      <c r="H46" t="s">
+      <c r="H49" s="37"/>
+      <c r="I49" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="44" t="s">
+    <row r="50" spans="1:9">
+      <c r="A50" s="44" t="s">
         <v>316</v>
       </c>
-      <c r="B47" s="44"/>
-      <c r="C47" s="49" t="s">
+      <c r="B50" s="44"/>
+      <c r="C50" s="49" t="s">
         <v>327</v>
       </c>
-      <c r="D47" s="49" t="str">
+      <c r="D50" s="49" t="str">
         <f t="shared" si="0"/>
         <v>git config --global mergetool.prompt false</v>
       </c>
-      <c r="E47" s="50" t="s">
+      <c r="E50" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>git config --global mergetool.prompt false</v>
+      </c>
+      <c r="F50" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="F47" s="50" t="s">
+      <c r="G50" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="G47" s="49"/>
-      <c r="H47" t="s">
+      <c r="H50" s="49"/>
+      <c r="I50" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="45" t="s">
+    <row r="51" spans="1:9">
+      <c r="A51" s="45" t="s">
         <v>316</v>
       </c>
-      <c r="B48" s="45"/>
-      <c r="C48" s="39" t="s">
+      <c r="B51" s="45"/>
+      <c r="C51" s="39" t="s">
         <v>331</v>
       </c>
-      <c r="D48" s="39" t="str">
-        <f t="shared" ref="D48" si="1">C48</f>
+      <c r="D51" s="39" t="str">
+        <f t="shared" ref="D51:E51" si="1">C51</f>
         <v>git config --global credential.helper store</v>
       </c>
-      <c r="E48" s="40" t="s">
+      <c r="E51" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>git config --global credential.helper store</v>
+      </c>
+      <c r="F51" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="F48" s="40" t="s">
+      <c r="G51" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G48" s="39"/>
-      <c r="H48" t="s">
+      <c r="H51" s="39"/>
+      <c r="I51" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="33" t="s">
+    <row r="52" spans="1:9">
+      <c r="A52" s="33" t="s">
         <v>1167</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B52" s="33" t="s">
         <v>1168</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C52" s="35" t="s">
         <v>1166</v>
       </c>
-      <c r="D49" s="35" t="s">
+      <c r="D52" s="35" t="s">
         <v>1154</v>
       </c>
-      <c r="E49" s="36" t="s">
+      <c r="E52" s="35" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F52" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F49" s="36" t="s">
+      <c r="G52" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="G49" s="35"/>
-      <c r="H49" t="s">
+      <c r="H52" s="35"/>
+      <c r="I52" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="44" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B50" s="44" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C50" s="37" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D50" s="37" t="s">
-        <v>1155</v>
-      </c>
-      <c r="E50" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="F50" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="G50" s="37"/>
-      <c r="H50" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="44" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B51" s="44" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C51" s="37" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D51" s="138" t="s">
-        <v>1156</v>
-      </c>
-      <c r="E51" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="F51" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="G51" s="37"/>
-      <c r="H51" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="44" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B52" s="44" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C52" s="37" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D52" s="37" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E52" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="F52" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="G52" s="37"/>
-      <c r="H52" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:9">
       <c r="A53" s="44" t="s">
         <v>1167</v>
       </c>
@@ -57417,20 +57723,23 @@
         <v>1166</v>
       </c>
       <c r="D53" s="37" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E53" s="38" t="s">
-        <v>0</v>
+        <v>1155</v>
+      </c>
+      <c r="E53" s="37" t="s">
+        <v>1290</v>
       </c>
       <c r="F53" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="G53" s="37"/>
-      <c r="H53" t="s">
+      <c r="G53" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H53" s="37"/>
+      <c r="I53" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:9">
       <c r="A54" s="44" t="s">
         <v>1167</v>
       </c>
@@ -57440,21 +57749,24 @@
       <c r="C54" s="37" t="s">
         <v>1166</v>
       </c>
-      <c r="D54" s="37" t="s">
-        <v>1159</v>
-      </c>
-      <c r="E54" s="38" t="s">
-        <v>0</v>
+      <c r="D54" s="138" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E54" s="37" t="s">
+        <v>1290</v>
       </c>
       <c r="F54" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="G54" s="37"/>
-      <c r="H54" t="s">
+      <c r="G54" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H54" s="37"/>
+      <c r="I54" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:9">
       <c r="A55" s="44" t="s">
         <v>1167</v>
       </c>
@@ -57465,20 +57777,23 @@
         <v>1166</v>
       </c>
       <c r="D55" s="37" t="s">
-        <v>1160</v>
-      </c>
-      <c r="E55" s="38" t="s">
-        <v>0</v>
+        <v>1157</v>
+      </c>
+      <c r="E55" s="37" t="s">
+        <v>1290</v>
       </c>
       <c r="F55" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="G55" s="37"/>
-      <c r="H55" t="s">
+      <c r="G55" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H55" s="37"/>
+      <c r="I55" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:9">
       <c r="A56" s="44" t="s">
         <v>1167</v>
       </c>
@@ -57489,583 +57804,735 @@
         <v>1166</v>
       </c>
       <c r="D56" s="37" t="s">
-        <v>1161</v>
-      </c>
-      <c r="E56" s="38" t="s">
-        <v>0</v>
+        <v>1158</v>
+      </c>
+      <c r="E56" s="37" t="s">
+        <v>1290</v>
       </c>
       <c r="F56" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="G56" s="37"/>
-      <c r="H56" t="s">
+      <c r="G56" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H56" s="37"/>
+      <c r="I56" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:9">
       <c r="A57" s="44" t="s">
         <v>1167</v>
       </c>
-      <c r="B57" s="137" t="s">
+      <c r="B57" s="44" t="s">
         <v>1168</v>
       </c>
       <c r="C57" s="37" t="s">
         <v>1166</v>
       </c>
       <c r="D57" s="37" t="s">
-        <v>1162</v>
-      </c>
-      <c r="E57" s="38" t="s">
-        <v>0</v>
+        <v>1159</v>
+      </c>
+      <c r="E57" s="37" t="s">
+        <v>1290</v>
       </c>
       <c r="F57" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="G57" s="37"/>
-      <c r="H57" t="s">
+      <c r="G57" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H57" s="37"/>
+      <c r="I57" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:9">
       <c r="A58" s="44" t="s">
         <v>1167</v>
       </c>
-      <c r="B58" s="49" t="s">
-        <v>1165</v>
+      <c r="B58" s="44" t="s">
+        <v>1168</v>
       </c>
       <c r="C58" s="37" t="s">
         <v>1166</v>
       </c>
       <c r="D58" s="37" t="s">
-        <v>1163</v>
-      </c>
-      <c r="E58" s="38" t="s">
-        <v>0</v>
+        <v>1160</v>
+      </c>
+      <c r="E58" s="37" t="s">
+        <v>1290</v>
       </c>
       <c r="F58" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="G58" s="37"/>
-      <c r="H58" t="s">
+      <c r="G58" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H58" s="37"/>
+      <c r="I58" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:9">
       <c r="A59" s="44" t="s">
         <v>1167</v>
       </c>
-      <c r="B59" s="137" t="s">
-        <v>1165</v>
+      <c r="B59" s="44" t="s">
+        <v>1168</v>
       </c>
       <c r="C59" s="37" t="s">
         <v>1166</v>
       </c>
       <c r="D59" s="37" t="s">
-        <v>1164</v>
-      </c>
-      <c r="E59" s="38" t="s">
-        <v>0</v>
+        <v>1161</v>
+      </c>
+      <c r="E59" s="37" t="s">
+        <v>1290</v>
       </c>
       <c r="F59" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="G59" s="37"/>
-      <c r="H59" t="s">
+      <c r="G59" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H59" s="37"/>
+      <c r="I59" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="45" t="s">
+    <row r="60" spans="1:9">
+      <c r="A60" s="44" t="s">
         <v>1167</v>
       </c>
-      <c r="B60" s="39" t="s">
+      <c r="B60" s="137" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C60" s="37" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D60" s="37" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E60" s="37" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F60" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="G60" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H60" s="37"/>
+      <c r="I60" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="44" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B61" s="49" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C61" s="37" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D61" s="37" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E61" s="37" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F61" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="G61" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H61" s="37"/>
+      <c r="I61" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="44" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B62" s="137" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C62" s="37" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D62" s="37" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E62" s="37" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F62" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="G62" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H62" s="37"/>
+      <c r="I62" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="45" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B63" s="39" t="s">
         <v>1170</v>
       </c>
-      <c r="C60" s="39" t="s">
+      <c r="C63" s="39" t="s">
         <v>1166</v>
       </c>
-      <c r="D60" s="39" t="s">
+      <c r="D63" s="39" t="s">
         <v>1169</v>
       </c>
-      <c r="E60" s="40" t="s">
+      <c r="E63" s="39" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F63" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="F60" s="40" t="s">
+      <c r="G63" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G60" s="39"/>
-      <c r="H60" t="s">
+      <c r="H63" s="39"/>
+      <c r="I63" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="34" t="s">
+    <row r="64" spans="1:9">
+      <c r="A64" s="34" t="s">
         <v>1272</v>
       </c>
-      <c r="B61" s="33"/>
-      <c r="C61" s="35" t="s">
+      <c r="B64" s="33"/>
+      <c r="C64" s="35" t="s">
         <v>1273</v>
       </c>
-      <c r="D61" s="35" t="str">
-        <f>C61</f>
+      <c r="D64" s="35" t="str">
+        <f>C64</f>
         <v>sudo apt-get update</v>
       </c>
-      <c r="E61" s="36" t="s">
+      <c r="E64" s="159" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F64" s="36" t="s">
         <v>1283</v>
       </c>
-      <c r="F61" s="36" t="s">
+      <c r="G64" s="36" t="s">
         <v>1283</v>
       </c>
-      <c r="G61" s="35"/>
-      <c r="H61" t="s">
+      <c r="H64" s="35"/>
+      <c r="I64" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="151"/>
-      <c r="B62" s="151"/>
-      <c r="C62" s="37" t="s">
-        <v>1274</v>
-      </c>
-      <c r="D62" s="37" t="str">
-        <f t="shared" ref="D62:D70" si="2">C62</f>
-        <v>sudo apt-get install -y ca-certificates curl gnupg lsb-release</v>
-      </c>
-      <c r="E62" s="38" t="s">
-        <v>1283</v>
-      </c>
-      <c r="F62" s="38" t="s">
-        <v>1283</v>
-      </c>
-      <c r="G62" s="37"/>
-      <c r="H62" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="151"/>
-      <c r="B63" s="151"/>
-      <c r="C63" s="37" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D63" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v>sudo mkdir -p /etc/apt/keyrings</v>
-      </c>
-      <c r="E63" s="38" t="s">
-        <v>1283</v>
-      </c>
-      <c r="F63" s="38" t="s">
-        <v>1283</v>
-      </c>
-      <c r="G63" s="37"/>
-      <c r="H63" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="151"/>
-      <c r="B64" s="151"/>
-      <c r="C64" s="37" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D64" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v>curl -fsSL https://download.docker.com/linux/ubuntu/gpg | sudo gpg --dearmor -o /etc/apt/keyrings/docker.gpg</v>
-      </c>
-      <c r="E64" s="38" t="s">
-        <v>1283</v>
-      </c>
-      <c r="F64" s="38" t="s">
-        <v>1283</v>
-      </c>
-      <c r="G64" s="37"/>
-      <c r="H64" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:9">
       <c r="A65" s="151"/>
       <c r="B65" s="151"/>
       <c r="C65" s="37" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="D65" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v>echo "deb [arch=$(dpkg --print-architecture) signed-by=/etc/apt/keyrings/docker.gpg] https://download.docker.com/linux/ubuntu $(lsb_release -cs) stable" | sudo tee /etc/apt/sources.list.d/docker.list &gt; /dev/null</v>
-      </c>
-      <c r="E65" s="38" t="s">
-        <v>1283</v>
+        <f t="shared" ref="D65:D73" si="2">C65</f>
+        <v>sudo apt-get install -y ca-certificates curl gnupg lsb-release</v>
+      </c>
+      <c r="E65" s="160" t="s">
+        <v>1290</v>
       </c>
       <c r="F65" s="38" t="s">
         <v>1283</v>
       </c>
-      <c r="G65" s="37"/>
-      <c r="H65" t="s">
-        <v>29</v>
+      <c r="G65" s="38" t="s">
+        <v>1283</v>
+      </c>
+      <c r="H65" s="37"/>
+      <c r="I65" t="s">
+        <v>1180</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:9">
       <c r="A66" s="151"/>
       <c r="B66" s="151"/>
       <c r="C66" s="37" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="D66" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>sudo apt-get update</v>
-      </c>
-      <c r="E66" s="38" t="s">
-        <v>1283</v>
+        <v>sudo mkdir -p /etc/apt/keyrings</v>
+      </c>
+      <c r="E66" s="160" t="s">
+        <v>1290</v>
       </c>
       <c r="F66" s="38" t="s">
         <v>1283</v>
       </c>
-      <c r="G66" s="37"/>
-      <c r="H66" t="s">
-        <v>29</v>
+      <c r="G66" s="38" t="s">
+        <v>1283</v>
+      </c>
+      <c r="H66" s="37"/>
+      <c r="I66" t="s">
+        <v>1180</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:9">
       <c r="A67" s="151"/>
       <c r="B67" s="151"/>
       <c r="C67" s="37" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="D67" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>sudo apt-get install -y docker-ce docker-ce-cli containerd.io docker-compose-plugin</v>
-      </c>
-      <c r="E67" s="38" t="s">
-        <v>1283</v>
+        <v>curl -fsSL https://download.docker.com/linux/ubuntu/gpg | sudo gpg --dearmor -o /etc/apt/keyrings/docker.gpg</v>
+      </c>
+      <c r="E67" s="160" t="s">
+        <v>1290</v>
       </c>
       <c r="F67" s="38" t="s">
         <v>1283</v>
       </c>
-      <c r="G67" s="37"/>
-      <c r="H67" t="s">
+      <c r="G67" s="38" t="s">
+        <v>1283</v>
+      </c>
+      <c r="H67" s="37"/>
+      <c r="I67" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:9">
       <c r="A68" s="151"/>
       <c r="B68" s="151"/>
       <c r="C68" s="37" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="D68" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>sudo groupadd docker</v>
-      </c>
-      <c r="E68" s="38" t="s">
-        <v>1283</v>
+        <v>echo "deb [arch=$(dpkg --print-architecture) signed-by=/etc/apt/keyrings/docker.gpg] https://download.docker.com/linux/ubuntu $(lsb_release -cs) stable" | sudo tee /etc/apt/sources.list.d/docker.list &gt; /dev/null</v>
+      </c>
+      <c r="E68" s="160" t="s">
+        <v>1290</v>
       </c>
       <c r="F68" s="38" t="s">
         <v>1283</v>
       </c>
-      <c r="G68" s="37"/>
-      <c r="H68" t="s">
+      <c r="G68" s="38" t="s">
+        <v>1283</v>
+      </c>
+      <c r="H68" s="37"/>
+      <c r="I68" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:9">
       <c r="A69" s="151"/>
       <c r="B69" s="151"/>
       <c r="C69" s="37" t="s">
-        <v>1280</v>
+        <v>1273</v>
       </c>
       <c r="D69" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>sudo usermod -aG docker $USER</v>
-      </c>
-      <c r="E69" s="38" t="s">
-        <v>1283</v>
+        <v>sudo apt-get update</v>
+      </c>
+      <c r="E69" s="160" t="s">
+        <v>1290</v>
       </c>
       <c r="F69" s="38" t="s">
         <v>1283</v>
       </c>
-      <c r="G69" s="37"/>
-      <c r="H69" t="s">
+      <c r="G69" s="38" t="s">
+        <v>1283</v>
+      </c>
+      <c r="H69" s="37"/>
+      <c r="I69" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="152"/>
-      <c r="B70" s="152"/>
-      <c r="C70" s="39" t="s">
+    <row r="70" spans="1:9">
+      <c r="A70" s="151"/>
+      <c r="B70" s="151"/>
+      <c r="C70" s="37" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D70" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>sudo apt-get install -y docker-ce docker-ce-cli containerd.io docker-compose-plugin</v>
+      </c>
+      <c r="E70" s="160" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F70" s="38" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G70" s="38" t="s">
+        <v>1283</v>
+      </c>
+      <c r="H70" s="37"/>
+      <c r="I70" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="151"/>
+      <c r="B71" s="151"/>
+      <c r="C71" s="37" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D71" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>sudo groupadd docker</v>
+      </c>
+      <c r="E71" s="160" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F71" s="38" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G71" s="38" t="s">
+        <v>1283</v>
+      </c>
+      <c r="H71" s="37"/>
+      <c r="I71" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="151"/>
+      <c r="B72" s="151"/>
+      <c r="C72" s="37" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D72" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>sudo usermod -aG docker $USER</v>
+      </c>
+      <c r="E72" s="160" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F72" s="38" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G72" s="38" t="s">
+        <v>1283</v>
+      </c>
+      <c r="H72" s="37"/>
+      <c r="I72" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="152"/>
+      <c r="B73" s="152"/>
+      <c r="C73" s="39" t="s">
         <v>1281</v>
       </c>
-      <c r="D70" s="39" t="str">
+      <c r="D73" s="39" t="str">
         <f t="shared" si="2"/>
         <v>vim ~/.profile</v>
       </c>
-      <c r="E70" s="40" t="s">
+      <c r="E73" s="161" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F73" s="40" t="s">
         <v>1283</v>
       </c>
-      <c r="F70" s="40" t="s">
+      <c r="G73" s="40" t="s">
         <v>1283</v>
       </c>
-      <c r="G70" s="39" t="s">
+      <c r="H73" s="39" t="s">
         <v>1282</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I73" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="33" t="s">
+    <row r="74" spans="1:9">
+      <c r="A74" s="33" t="s">
         <v>1173</v>
       </c>
-      <c r="B71" s="33" t="s">
+      <c r="B74" s="33" t="s">
         <v>1171</v>
       </c>
-      <c r="C71" s="35" t="s">
+      <c r="C74" s="35" t="s">
         <v>1174</v>
       </c>
-      <c r="D71" s="35" t="s">
+      <c r="D74" s="35" t="s">
         <v>1172</v>
       </c>
-      <c r="E71" s="36" t="s">
+      <c r="E74" s="159" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F74" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F71" s="36" t="s">
+      <c r="G74" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="G71" s="35"/>
-      <c r="H71" t="s">
+      <c r="H74" s="35"/>
+      <c r="I74" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="44" t="s">
+    <row r="75" spans="1:9">
+      <c r="A75" s="44" t="s">
         <v>1173</v>
       </c>
-      <c r="B72" s="45" t="s">
+      <c r="B75" s="45" t="s">
         <v>1171</v>
       </c>
-      <c r="C72" s="39" t="s">
+      <c r="C75" s="39" t="s">
         <v>1175</v>
       </c>
-      <c r="D72" s="39" t="s">
+      <c r="D75" s="39" t="s">
         <v>1176</v>
       </c>
-      <c r="E72" s="40" t="s">
+      <c r="E75" s="161" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F75" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="F72" s="40" t="s">
+      <c r="G75" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G72" s="39"/>
-      <c r="H72" t="s">
+      <c r="H75" s="39"/>
+      <c r="I75" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="45" t="s">
+    <row r="76" spans="1:9">
+      <c r="A76" s="45" t="s">
         <v>1173</v>
       </c>
-      <c r="B73" s="26" t="s">
+      <c r="B76" s="26" t="s">
         <v>1254</v>
       </c>
-      <c r="C73" s="26" t="s">
+      <c r="C76" s="26" t="s">
         <v>1253</v>
       </c>
-      <c r="D73" s="26" t="s">
+      <c r="D76" s="26" t="s">
         <v>1253</v>
       </c>
-      <c r="E73" s="40" t="s">
+      <c r="E76" s="162" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F76" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="F73" s="40" t="s">
+      <c r="G76" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G73" s="26" t="s">
+      <c r="H76" s="26" t="s">
         <v>1255</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I76" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="26"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="26"/>
-      <c r="H74" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="26"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="26"/>
-      <c r="H75" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="26"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="26"/>
-      <c r="H76" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:9">
       <c r="A77" s="26"/>
       <c r="B77" s="26"/>
       <c r="C77" s="26"/>
       <c r="D77" s="26"/>
-      <c r="E77" s="15"/>
+      <c r="E77" s="26"/>
       <c r="F77" s="15"/>
-      <c r="G77" s="26"/>
-      <c r="H77" t="s">
+      <c r="G77" s="15"/>
+      <c r="H77" s="26"/>
+      <c r="I77" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:9">
       <c r="A78" s="26"/>
       <c r="B78" s="26"/>
       <c r="C78" s="26"/>
       <c r="D78" s="26"/>
-      <c r="E78" s="15"/>
+      <c r="E78" s="26"/>
       <c r="F78" s="15"/>
-      <c r="G78" s="26"/>
-      <c r="H78" t="s">
-        <v>1180</v>
+      <c r="G78" s="15"/>
+      <c r="H78" s="26"/>
+      <c r="I78" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:9">
       <c r="A79" s="26"/>
       <c r="B79" s="26"/>
       <c r="C79" s="26"/>
       <c r="D79" s="26"/>
-      <c r="E79" s="15"/>
+      <c r="E79" s="26"/>
       <c r="F79" s="15"/>
-      <c r="G79" s="26"/>
-      <c r="H79" t="s">
-        <v>1180</v>
+      <c r="G79" s="15"/>
+      <c r="H79" s="26"/>
+      <c r="I79" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:9">
       <c r="A80" s="26"/>
       <c r="B80" s="26"/>
       <c r="C80" s="26"/>
       <c r="D80" s="26"/>
-      <c r="E80" s="15"/>
+      <c r="E80" s="26"/>
       <c r="F80" s="15"/>
-      <c r="G80" s="26"/>
-      <c r="H80" t="s">
-        <v>1180</v>
+      <c r="G80" s="15"/>
+      <c r="H80" s="26"/>
+      <c r="I80" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:9">
       <c r="A81" s="26"/>
       <c r="B81" s="26"/>
       <c r="C81" s="26"/>
       <c r="D81" s="26"/>
-      <c r="E81" s="15"/>
+      <c r="E81" s="26"/>
       <c r="F81" s="15"/>
-      <c r="G81" s="26"/>
-      <c r="H81" t="s">
+      <c r="G81" s="15"/>
+      <c r="H81" s="26"/>
+      <c r="I81" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:9">
       <c r="A82" s="26"/>
       <c r="B82" s="26"/>
       <c r="C82" s="26"/>
       <c r="D82" s="26"/>
-      <c r="E82" s="15"/>
+      <c r="E82" s="26"/>
       <c r="F82" s="15"/>
-      <c r="G82" s="26"/>
-      <c r="H82" t="s">
+      <c r="G82" s="15"/>
+      <c r="H82" s="26"/>
+      <c r="I82" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:9">
       <c r="A83" s="26"/>
       <c r="B83" s="26"/>
       <c r="C83" s="26"/>
       <c r="D83" s="26"/>
-      <c r="E83" s="15"/>
+      <c r="E83" s="26"/>
       <c r="F83" s="15"/>
-      <c r="G83" s="26"/>
-      <c r="H83" t="s">
+      <c r="G83" s="15"/>
+      <c r="H83" s="26"/>
+      <c r="I83" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:9">
       <c r="A84" s="26"/>
       <c r="B84" s="26"/>
       <c r="C84" s="26"/>
       <c r="D84" s="26"/>
-      <c r="E84" s="15"/>
+      <c r="E84" s="26"/>
       <c r="F84" s="15"/>
-      <c r="G84" s="26"/>
-      <c r="H84" t="s">
+      <c r="G84" s="15"/>
+      <c r="H84" s="26"/>
+      <c r="I84" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:9">
       <c r="A85" s="26"/>
       <c r="B85" s="26"/>
       <c r="C85" s="26"/>
       <c r="D85" s="26"/>
-      <c r="E85" s="15"/>
+      <c r="E85" s="26"/>
       <c r="F85" s="15"/>
-      <c r="G85" s="26"/>
-      <c r="H85" t="s">
+      <c r="G85" s="15"/>
+      <c r="H85" s="26"/>
+      <c r="I85" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:9">
       <c r="A86" s="26"/>
       <c r="B86" s="26"/>
       <c r="C86" s="26"/>
       <c r="D86" s="26"/>
-      <c r="E86" s="15"/>
+      <c r="E86" s="26"/>
       <c r="F86" s="15"/>
-      <c r="G86" s="26"/>
-      <c r="H86" t="s">
+      <c r="G86" s="15"/>
+      <c r="H86" s="26"/>
+      <c r="I86" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:9">
       <c r="A87" s="26"/>
       <c r="B87" s="26"/>
       <c r="C87" s="26"/>
       <c r="D87" s="26"/>
-      <c r="E87" s="15"/>
+      <c r="E87" s="26"/>
       <c r="F87" s="15"/>
-      <c r="G87" s="26"/>
-      <c r="H87" t="s">
+      <c r="G87" s="15"/>
+      <c r="H87" s="26"/>
+      <c r="I87" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="26"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="26"/>
+      <c r="I88" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="26"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="26"/>
+      <c r="I89" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="26"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="26"/>
+      <c r="I90" t="s">
         <v>1180</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="A37" r:id="rId1" xr:uid="{6EEC3229-0B8C-4AB3-89F7-7EFBF167C9C5}"/>
-    <hyperlink ref="C35" r:id="rId2" xr:uid="{7635C521-28C2-43E4-A5E7-615300630D2F}"/>
-    <hyperlink ref="C34" r:id="rId3" xr:uid="{052F1D69-3A21-4195-803A-970A653CB7B2}"/>
-    <hyperlink ref="D34" r:id="rId4" xr:uid="{99ADF0A5-7F93-4849-B4D0-7B7C6B54E9B3}"/>
-    <hyperlink ref="A61" r:id="rId5" xr:uid="{AC983437-6890-4EFE-B564-0B27339742FD}"/>
+    <hyperlink ref="A40" r:id="rId1" xr:uid="{6EEC3229-0B8C-4AB3-89F7-7EFBF167C9C5}"/>
+    <hyperlink ref="C38" r:id="rId2" xr:uid="{7635C521-28C2-43E4-A5E7-615300630D2F}"/>
+    <hyperlink ref="C37" r:id="rId3" xr:uid="{052F1D69-3A21-4195-803A-970A653CB7B2}"/>
+    <hyperlink ref="D37" r:id="rId4" xr:uid="{99ADF0A5-7F93-4849-B4D0-7B7C6B54E9B3}"/>
+    <hyperlink ref="A64" r:id="rId5" xr:uid="{AC983437-6890-4EFE-B564-0B27339742FD}"/>
+    <hyperlink ref="A9" r:id="rId6" xr:uid="{434080DB-D5A1-49DB-951D-B78BEBC4312A}"/>
+    <hyperlink ref="E14" r:id="rId7" xr:uid="{E88B0130-85C2-4B3B-9371-D915BFE4E2FE}"/>
+    <hyperlink ref="E37" r:id="rId8" xr:uid="{E8BD7507-15D4-47D3-B603-D2D028F5E2D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="31" orientation="portrait" horizontalDpi="4294967293" r:id="rId6"/>
-  <legacyDrawing r:id="rId7"/>
+  <pageSetup paperSize="9" scale="24" orientation="portrait" horizontalDpi="4294967293" r:id="rId9"/>
+  <legacyDrawing r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/PC移行時チェックリスト.xlsx
+++ b/PC移行時チェックリスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9446E1F5-4F5D-4BBB-8EC6-85DD69AE40E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CEED67-8F9C-4168-9E4C-0B24440C17C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32400" yWindow="-4095" windowWidth="32415" windowHeight="40725" activeTab="2" xr2:uid="{4766EE0F-731E-4860-9E19-7E5345AFF867}"/>
+    <workbookView xWindow="-32400" yWindow="-4080" windowWidth="32415" windowHeight="40725" activeTab="4" xr2:uid="{4766EE0F-731E-4860-9E19-7E5345AFF867}"/>
   </bookViews>
   <sheets>
     <sheet name="セットアップ事項" sheetId="21" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">shortcut!$A$9:$AJ$203</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">symlink!$A$11:$L$65</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">セットアップ事項!$A$2:$H$73</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">linux環境構築!$A$6:$H$95</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">linux環境構築!$A$6:$H$96</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">shortcut!$A$8:$AI$203</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">shortcut設定!$A$1:$O$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">symlink!$A$10:$L$65</definedName>
@@ -715,7 +715,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5561" uniqueCount="1329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5567" uniqueCount="1334">
   <si>
     <t>○</t>
   </si>
@@ -6508,16 +6508,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>コンテナ名設定</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>bashのプロンプトにコンテナ名を表示するために、コンテナ名が書かれた.dockercontainerを作成する。</t>
     <rPh sb="15" eb="16">
       <t>メイ</t>
@@ -6652,10 +6642,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Docker インストール</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>sudo apt-get update</t>
   </si>
   <si>
@@ -6941,6 +6927,43 @@
       <t>ヒッス</t>
     </rPh>
     <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Dockerコンテナ⇔ホスト間 設定共有 ハードリンク作成</t>
+    <rPh sb="27" eb="29">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Dockerコンテナ⇔ホスト間 設定共有 コンテナ名設定</t>
+    <rPh sb="25" eb="26">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>設定ファイル作成</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インストール</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Docker</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>echo -e "{\n    \"detachKeys\": \"ctrl-\\\\\\\\,ctrl-\\\\\\\\\"\n}" &gt; ${HOME}/.docker/config.json</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -7507,7 +7530,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8009,6 +8032,9 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
@@ -11665,11 +11691,11 @@
   </sheetPr>
   <dimension ref="A1:AN203"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="10" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="11.25" outlineLevelCol="1"/>
@@ -11792,7 +11818,7 @@
         <v>181</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="3" t="s">
@@ -11828,7 +11854,7 @@
       </c>
       <c r="AF8" s="11"/>
       <c r="AG8" s="166" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="AH8" s="11"/>
       <c r="AI8" s="11" t="s">
@@ -11882,10 +11908,10 @@
         <v>983</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="P9" s="163" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="Q9" s="5" t="s">
         <v>984</v>
@@ -11936,10 +11962,10 @@
         <v>64</v>
       </c>
       <c r="AG9" s="12" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AH9" s="12" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="AI9" s="12" t="s">
         <v>63</v>
@@ -12032,10 +12058,10 @@
         <v>66</v>
       </c>
       <c r="O11" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P11" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q11" s="26" t="s">
         <v>980</v>
@@ -12298,10 +12324,10 @@
         <v>66</v>
       </c>
       <c r="O12" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P12" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q12" s="26" t="s">
         <v>980</v>
@@ -12537,10 +12563,10 @@
         <v>66</v>
       </c>
       <c r="O13" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P13" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q13" s="26" t="s">
         <v>980</v>
@@ -12776,10 +12802,10 @@
         <v>66</v>
       </c>
       <c r="O14" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P14" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q14" s="26" t="s">
         <v>980</v>
@@ -13015,10 +13041,10 @@
         <v>66</v>
       </c>
       <c r="O15" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P15" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q15" s="26" t="s">
         <v>980</v>
@@ -13255,10 +13281,10 @@
         <v>66</v>
       </c>
       <c r="O16" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P16" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q16" s="26" t="s">
         <v>980</v>
@@ -13494,10 +13520,10 @@
         <v>66</v>
       </c>
       <c r="O17" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P17" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q17" s="26" t="s">
         <v>980</v>
@@ -13733,10 +13759,10 @@
         <v>66</v>
       </c>
       <c r="O18" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P18" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q18" s="26" t="s">
         <v>980</v>
@@ -13972,10 +13998,10 @@
         <v>66</v>
       </c>
       <c r="O19" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P19" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q19" s="26" t="s">
         <v>980</v>
@@ -14211,10 +14237,10 @@
         <v>66</v>
       </c>
       <c r="O20" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P20" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q20" s="26" t="s">
         <v>980</v>
@@ -14450,10 +14476,10 @@
         <v>66</v>
       </c>
       <c r="O21" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P21" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q21" s="26" t="s">
         <v>980</v>
@@ -14689,10 +14715,10 @@
         <v>877</v>
       </c>
       <c r="O22" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P22" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q22" s="26" t="s">
         <v>980</v>
@@ -14928,10 +14954,10 @@
         <v>66</v>
       </c>
       <c r="O23" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P23" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q23" s="26" t="s">
         <v>980</v>
@@ -15167,10 +15193,10 @@
         <v>66</v>
       </c>
       <c r="O24" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P24" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q24" s="26" t="s">
         <v>980</v>
@@ -15406,10 +15432,10 @@
         <v>66</v>
       </c>
       <c r="O25" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P25" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q25" s="26" t="s">
         <v>980</v>
@@ -15645,10 +15671,10 @@
         <v>66</v>
       </c>
       <c r="O26" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P26" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q26" s="26" t="s">
         <v>980</v>
@@ -15884,10 +15910,10 @@
         <v>66</v>
       </c>
       <c r="O27" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P27" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q27" s="26" t="s">
         <v>980</v>
@@ -16123,10 +16149,10 @@
         <v>66</v>
       </c>
       <c r="O28" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P28" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q28" s="26" t="s">
         <v>980</v>
@@ -16362,10 +16388,10 @@
         <v>66</v>
       </c>
       <c r="O29" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P29" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q29" s="26" t="s">
         <v>980</v>
@@ -16601,10 +16627,10 @@
         <v>66</v>
       </c>
       <c r="O30" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P30" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q30" s="26" t="s">
         <v>980</v>
@@ -16840,10 +16866,10 @@
         <v>66</v>
       </c>
       <c r="O31" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P31" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q31" s="26" t="s">
         <v>980</v>
@@ -17079,10 +17105,10 @@
         <v>66</v>
       </c>
       <c r="O32" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P32" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q32" s="26" t="s">
         <v>980</v>
@@ -17318,10 +17344,10 @@
         <v>66</v>
       </c>
       <c r="O33" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P33" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q33" s="26" t="s">
         <v>980</v>
@@ -17557,10 +17583,10 @@
         <v>66</v>
       </c>
       <c r="O34" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P34" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q34" s="26" t="s">
         <v>980</v>
@@ -17796,10 +17822,10 @@
         <v>66</v>
       </c>
       <c r="O35" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P35" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q35" s="26" t="s">
         <v>980</v>
@@ -18035,10 +18061,10 @@
         <v>66</v>
       </c>
       <c r="O36" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P36" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q36" s="26" t="s">
         <v>980</v>
@@ -18274,10 +18300,10 @@
         <v>877</v>
       </c>
       <c r="O37" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P37" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q37" s="26" t="s">
         <v>980</v>
@@ -18513,10 +18539,10 @@
         <v>66</v>
       </c>
       <c r="O38" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P38" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q38" s="26" t="s">
         <v>980</v>
@@ -18752,10 +18778,10 @@
         <v>66</v>
       </c>
       <c r="O39" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P39" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q39" s="26" t="s">
         <v>980</v>
@@ -18991,10 +19017,10 @@
         <v>66</v>
       </c>
       <c r="O40" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P40" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q40" s="26" t="s">
         <v>980</v>
@@ -19230,10 +19256,10 @@
         <v>66</v>
       </c>
       <c r="O41" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P41" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q41" s="26" t="s">
         <v>980</v>
@@ -19469,10 +19495,10 @@
         <v>66</v>
       </c>
       <c r="O42" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P42" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q42" s="26" t="s">
         <v>980</v>
@@ -19708,10 +19734,10 @@
         <v>66</v>
       </c>
       <c r="O43" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P43" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q43" s="26" t="s">
         <v>980</v>
@@ -19962,10 +19988,10 @@
         <v>66</v>
       </c>
       <c r="O44" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P44" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q44" s="26" t="s">
         <v>980</v>
@@ -20201,10 +20227,10 @@
         <v>66</v>
       </c>
       <c r="O45" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P45" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q45" s="26" t="s">
         <v>980</v>
@@ -20440,10 +20466,10 @@
         <v>66</v>
       </c>
       <c r="O46" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P46" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q46" s="26" t="s">
         <v>980</v>
@@ -20679,10 +20705,10 @@
         <v>66</v>
       </c>
       <c r="O47" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P47" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q47" s="26" t="s">
         <v>980</v>
@@ -20918,10 +20944,10 @@
         <v>66</v>
       </c>
       <c r="O48" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P48" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q48" s="26" t="s">
         <v>980</v>
@@ -21157,10 +21183,10 @@
         <v>66</v>
       </c>
       <c r="O49" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P49" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q49" s="26" t="s">
         <v>980</v>
@@ -21396,10 +21422,10 @@
         <v>66</v>
       </c>
       <c r="O50" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P50" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q50" s="26" t="s">
         <v>980</v>
@@ -21635,10 +21661,10 @@
         <v>66</v>
       </c>
       <c r="O51" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P51" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q51" s="26" t="s">
         <v>980</v>
@@ -21874,10 +21900,10 @@
         <v>66</v>
       </c>
       <c r="O52" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P52" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q52" s="26" t="s">
         <v>980</v>
@@ -22113,10 +22139,10 @@
         <v>66</v>
       </c>
       <c r="O53" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P53" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q53" s="26" t="s">
         <v>980</v>
@@ -22352,10 +22378,10 @@
         <v>66</v>
       </c>
       <c r="O54" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P54" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q54" s="26" t="s">
         <v>980</v>
@@ -22591,10 +22617,10 @@
         <v>66</v>
       </c>
       <c r="O55" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P55" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q55" s="26" t="s">
         <v>980</v>
@@ -22830,10 +22856,10 @@
         <v>66</v>
       </c>
       <c r="O56" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P56" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q56" s="26" t="s">
         <v>980</v>
@@ -23069,10 +23095,10 @@
         <v>66</v>
       </c>
       <c r="O57" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P57" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q57" s="26" t="s">
         <v>980</v>
@@ -23308,10 +23334,10 @@
         <v>66</v>
       </c>
       <c r="O58" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P58" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q58" s="26" t="s">
         <v>980</v>
@@ -23547,10 +23573,10 @@
         <v>66</v>
       </c>
       <c r="O59" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P59" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q59" s="26" t="s">
         <v>980</v>
@@ -23786,10 +23812,10 @@
         <v>66</v>
       </c>
       <c r="O60" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P60" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q60" s="26" t="s">
         <v>980</v>
@@ -24025,10 +24051,10 @@
         <v>66</v>
       </c>
       <c r="O61" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P61" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q61" s="26" t="s">
         <v>980</v>
@@ -24264,10 +24290,10 @@
         <v>66</v>
       </c>
       <c r="O62" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P62" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q62" s="26" t="s">
         <v>980</v>
@@ -24503,10 +24529,10 @@
         <v>66</v>
       </c>
       <c r="O63" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P63" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q63" s="26" t="s">
         <v>980</v>
@@ -24742,10 +24768,10 @@
         <v>877</v>
       </c>
       <c r="O64" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P64" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q64" s="26" t="s">
         <v>980</v>
@@ -24981,10 +25007,10 @@
         <v>66</v>
       </c>
       <c r="O65" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P65" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q65" s="26" t="s">
         <v>980</v>
@@ -25220,10 +25246,10 @@
         <v>66</v>
       </c>
       <c r="O66" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P66" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q66" s="26" t="s">
         <v>980</v>
@@ -25459,10 +25485,10 @@
         <v>66</v>
       </c>
       <c r="O67" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P67" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q67" s="26" t="s">
         <v>980</v>
@@ -25698,10 +25724,10 @@
         <v>66</v>
       </c>
       <c r="O68" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P68" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q68" s="26" t="s">
         <v>980</v>
@@ -25937,10 +25963,10 @@
         <v>66</v>
       </c>
       <c r="O69" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P69" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q69" s="26" t="s">
         <v>980</v>
@@ -26176,10 +26202,10 @@
         <v>66</v>
       </c>
       <c r="O70" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P70" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q70" s="26" t="s">
         <v>980</v>
@@ -26415,10 +26441,10 @@
         <v>66</v>
       </c>
       <c r="O71" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P71" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q71" s="26" t="s">
         <v>980</v>
@@ -26654,10 +26680,10 @@
         <v>66</v>
       </c>
       <c r="O72" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P72" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q72" s="26" t="s">
         <v>980</v>
@@ -26893,10 +26919,10 @@
         <v>66</v>
       </c>
       <c r="O73" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P73" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q73" s="26" t="s">
         <v>980</v>
@@ -27132,10 +27158,10 @@
         <v>66</v>
       </c>
       <c r="O74" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P74" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q74" s="26" t="s">
         <v>980</v>
@@ -27371,10 +27397,10 @@
         <v>66</v>
       </c>
       <c r="O75" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P75" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q75" s="26" t="s">
         <v>980</v>
@@ -27637,10 +27663,10 @@
         <v>66</v>
       </c>
       <c r="O76" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P76" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q76" s="26" t="s">
         <v>980</v>
@@ -27876,10 +27902,10 @@
         <v>66</v>
       </c>
       <c r="O77" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P77" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q77" s="26" t="s">
         <v>980</v>
@@ -28115,10 +28141,10 @@
         <v>66</v>
       </c>
       <c r="O78" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P78" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q78" s="26" t="s">
         <v>980</v>
@@ -28354,10 +28380,10 @@
         <v>66</v>
       </c>
       <c r="O79" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P79" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q79" s="26" t="s">
         <v>980</v>
@@ -28593,10 +28619,10 @@
         <v>66</v>
       </c>
       <c r="O80" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P80" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q80" s="26" t="s">
         <v>980</v>
@@ -28832,10 +28858,10 @@
         <v>66</v>
       </c>
       <c r="O81" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P81" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q81" s="26" t="s">
         <v>980</v>
@@ -29071,10 +29097,10 @@
         <v>66</v>
       </c>
       <c r="O82" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P82" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q82" s="26" t="s">
         <v>980</v>
@@ -29310,10 +29336,10 @@
         <v>66</v>
       </c>
       <c r="O83" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P83" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q83" s="26" t="s">
         <v>980</v>
@@ -29549,10 +29575,10 @@
         <v>66</v>
       </c>
       <c r="O84" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P84" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q84" s="26" t="s">
         <v>980</v>
@@ -29789,10 +29815,10 @@
         <v>66</v>
       </c>
       <c r="O85" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P85" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q85" s="26" t="s">
         <v>980</v>
@@ -30028,10 +30054,10 @@
         <v>66</v>
       </c>
       <c r="O86" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P86" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q86" s="26" t="s">
         <v>980</v>
@@ -30267,10 +30293,10 @@
         <v>66</v>
       </c>
       <c r="O87" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P87" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q87" s="26" t="s">
         <v>980</v>
@@ -30506,10 +30532,10 @@
         <v>66</v>
       </c>
       <c r="O88" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P88" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q88" s="26" t="s">
         <v>980</v>
@@ -30745,10 +30771,10 @@
         <v>66</v>
       </c>
       <c r="O89" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P89" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q89" s="26" t="s">
         <v>980</v>
@@ -30984,10 +31010,10 @@
         <v>66</v>
       </c>
       <c r="O90" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P90" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q90" s="26" t="s">
         <v>980</v>
@@ -31223,10 +31249,10 @@
         <v>66</v>
       </c>
       <c r="O91" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P91" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q91" s="26" t="s">
         <v>980</v>
@@ -31462,10 +31488,10 @@
         <v>66</v>
       </c>
       <c r="O92" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P92" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q92" s="26" t="s">
         <v>980</v>
@@ -31701,10 +31727,10 @@
         <v>66</v>
       </c>
       <c r="O93" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P93" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q93" s="26" t="s">
         <v>980</v>
@@ -31940,10 +31966,10 @@
         <v>66</v>
       </c>
       <c r="O94" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P94" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q94" s="26" t="s">
         <v>980</v>
@@ -32179,10 +32205,10 @@
         <v>66</v>
       </c>
       <c r="O95" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P95" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q95" s="26" t="s">
         <v>980</v>
@@ -32418,10 +32444,10 @@
         <v>66</v>
       </c>
       <c r="O96" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P96" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q96" s="26" t="s">
         <v>980</v>
@@ -32657,10 +32683,10 @@
         <v>66</v>
       </c>
       <c r="O97" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P97" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q97" s="26" t="s">
         <v>980</v>
@@ -32896,10 +32922,10 @@
         <v>66</v>
       </c>
       <c r="O98" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P98" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q98" s="26" t="s">
         <v>980</v>
@@ -33135,10 +33161,10 @@
         <v>66</v>
       </c>
       <c r="O99" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P99" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q99" s="26" t="s">
         <v>980</v>
@@ -33374,10 +33400,10 @@
         <v>66</v>
       </c>
       <c r="O100" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P100" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q100" s="26" t="s">
         <v>980</v>
@@ -33613,10 +33639,10 @@
         <v>66</v>
       </c>
       <c r="O101" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P101" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q101" s="26" t="s">
         <v>980</v>
@@ -33852,10 +33878,10 @@
         <v>66</v>
       </c>
       <c r="O102" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P102" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q102" s="26" t="s">
         <v>980</v>
@@ -34091,10 +34117,10 @@
         <v>66</v>
       </c>
       <c r="O103" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P103" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q103" s="26" t="s">
         <v>980</v>
@@ -34330,10 +34356,10 @@
         <v>66</v>
       </c>
       <c r="O104" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P104" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q104" s="26" t="s">
         <v>980</v>
@@ -34569,10 +34595,10 @@
         <v>66</v>
       </c>
       <c r="O105" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P105" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q105" s="26" t="s">
         <v>980</v>
@@ -34808,10 +34834,10 @@
         <v>66</v>
       </c>
       <c r="O106" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P106" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q106" s="26" t="s">
         <v>980</v>
@@ -35047,10 +35073,10 @@
         <v>66</v>
       </c>
       <c r="O107" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P107" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q107" s="26" t="s">
         <v>980</v>
@@ -35301,10 +35327,10 @@
         <v>66</v>
       </c>
       <c r="O108" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P108" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q108" s="26" t="s">
         <v>980</v>
@@ -35540,10 +35566,10 @@
         <v>66</v>
       </c>
       <c r="O109" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P109" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q109" s="26" t="s">
         <v>980</v>
@@ -35779,10 +35805,10 @@
         <v>66</v>
       </c>
       <c r="O110" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P110" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q110" s="26" t="s">
         <v>980</v>
@@ -36018,10 +36044,10 @@
         <v>66</v>
       </c>
       <c r="O111" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P111" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q111" s="26" t="s">
         <v>980</v>
@@ -36257,10 +36283,10 @@
         <v>66</v>
       </c>
       <c r="O112" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P112" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q112" s="26" t="s">
         <v>980</v>
@@ -36496,10 +36522,10 @@
         <v>66</v>
       </c>
       <c r="O113" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P113" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q113" s="26" t="s">
         <v>980</v>
@@ -36735,10 +36761,10 @@
         <v>66</v>
       </c>
       <c r="O114" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P114" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q114" s="26" t="s">
         <v>980</v>
@@ -36974,10 +37000,10 @@
         <v>1183</v>
       </c>
       <c r="O115" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P115" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q115" s="26" t="s">
         <v>1183</v>
@@ -37213,10 +37239,10 @@
         <v>0</v>
       </c>
       <c r="O116" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P116" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q116" s="26" t="s">
         <v>1244</v>
@@ -37410,19 +37436,19 @@
     </row>
     <row r="117" spans="1:36">
       <c r="A117" s="9" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B117" s="9" t="s">
         <v>1261</v>
       </c>
-      <c r="B117" s="9" t="s">
-        <v>1262</v>
-      </c>
       <c r="C117" s="9" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D117" s="15" t="s">
         <v>979</v>
       </c>
       <c r="E117" s="26" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="F117" s="15" t="s">
         <v>0</v>
@@ -37452,10 +37478,10 @@
         <v>979</v>
       </c>
       <c r="O117" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P117" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q117" s="26" t="s">
         <v>979</v>
@@ -37691,10 +37717,10 @@
         <v>66</v>
       </c>
       <c r="O118" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P118" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q118" s="26" t="s">
         <v>980</v>
@@ -37930,10 +37956,10 @@
         <v>66</v>
       </c>
       <c r="O119" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P119" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q119" s="26" t="s">
         <v>980</v>
@@ -38169,10 +38195,10 @@
         <v>66</v>
       </c>
       <c r="O120" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P120" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q120" s="26" t="s">
         <v>980</v>
@@ -38408,10 +38434,10 @@
         <v>66</v>
       </c>
       <c r="O121" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P121" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q121" s="26" t="s">
         <v>980</v>
@@ -38647,10 +38673,10 @@
         <v>66</v>
       </c>
       <c r="O122" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P122" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q122" s="26" t="s">
         <v>980</v>
@@ -38886,10 +38912,10 @@
         <v>66</v>
       </c>
       <c r="O123" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P123" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q123" s="26" t="s">
         <v>980</v>
@@ -39125,10 +39151,10 @@
         <v>66</v>
       </c>
       <c r="O124" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P124" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q124" s="26" t="s">
         <v>980</v>
@@ -39364,10 +39390,10 @@
         <v>66</v>
       </c>
       <c r="O125" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P125" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q125" s="26" t="s">
         <v>980</v>
@@ -39603,10 +39629,10 @@
         <v>66</v>
       </c>
       <c r="O126" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P126" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q126" s="26" t="s">
         <v>980</v>
@@ -39842,10 +39868,10 @@
         <v>979</v>
       </c>
       <c r="O127" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P127" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q127" s="26" t="s">
         <v>40</v>
@@ -40081,10 +40107,10 @@
         <v>877</v>
       </c>
       <c r="O128" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P128" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q128" s="26" t="s">
         <v>980</v>
@@ -40320,10 +40346,10 @@
         <v>66</v>
       </c>
       <c r="O129" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P129" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q129" s="26" t="s">
         <v>980</v>
@@ -40559,10 +40585,10 @@
         <v>66</v>
       </c>
       <c r="O130" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P130" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q130" s="26" t="s">
         <v>980</v>
@@ -40798,10 +40824,10 @@
         <v>66</v>
       </c>
       <c r="O131" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P131" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q131" s="26" t="s">
         <v>980</v>
@@ -41037,10 +41063,10 @@
         <v>66</v>
       </c>
       <c r="O132" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P132" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q132" s="26" t="s">
         <v>980</v>
@@ -41276,10 +41302,10 @@
         <v>66</v>
       </c>
       <c r="O133" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P133" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q133" s="26" t="s">
         <v>980</v>
@@ -41515,10 +41541,10 @@
         <v>582</v>
       </c>
       <c r="O134" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P134" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q134" s="26" t="s">
         <v>980</v>
@@ -41754,10 +41780,10 @@
         <v>582</v>
       </c>
       <c r="O135" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P135" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q135" s="26" t="s">
         <v>980</v>
@@ -41993,10 +42019,10 @@
         <v>582</v>
       </c>
       <c r="O136" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P136" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q136" s="26" t="s">
         <v>980</v>
@@ -42232,10 +42258,10 @@
         <v>40</v>
       </c>
       <c r="O137" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P137" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q137" s="26" t="s">
         <v>40</v>
@@ -42471,10 +42497,10 @@
         <v>40</v>
       </c>
       <c r="O138" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P138" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q138" s="26" t="s">
         <v>40</v>
@@ -42710,10 +42736,10 @@
         <v>877</v>
       </c>
       <c r="O139" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P139" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q139" s="26" t="s">
         <v>980</v>
@@ -42976,10 +43002,10 @@
         <v>66</v>
       </c>
       <c r="O140" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P140" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q140" s="26" t="s">
         <v>980</v>
@@ -43215,10 +43241,10 @@
         <v>66</v>
       </c>
       <c r="O141" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P141" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q141" s="26" t="s">
         <v>980</v>
@@ -43454,10 +43480,10 @@
         <v>66</v>
       </c>
       <c r="O142" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P142" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q142" s="26" t="s">
         <v>980</v>
@@ -43693,10 +43719,10 @@
         <v>66</v>
       </c>
       <c r="O143" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P143" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q143" s="26" t="s">
         <v>980</v>
@@ -43932,10 +43958,10 @@
         <v>66</v>
       </c>
       <c r="O144" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P144" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q144" s="26" t="s">
         <v>980</v>
@@ -44171,10 +44197,10 @@
         <v>66</v>
       </c>
       <c r="O145" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P145" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q145" s="26" t="s">
         <v>980</v>
@@ -44410,10 +44436,10 @@
         <v>66</v>
       </c>
       <c r="O146" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P146" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q146" s="26" t="s">
         <v>980</v>
@@ -44649,10 +44675,10 @@
         <v>66</v>
       </c>
       <c r="O147" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P147" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q147" s="26" t="s">
         <v>980</v>
@@ -44888,10 +44914,10 @@
         <v>66</v>
       </c>
       <c r="O148" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P148" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q148" s="26" t="s">
         <v>980</v>
@@ -45127,10 +45153,10 @@
         <v>66</v>
       </c>
       <c r="O149" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P149" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q149" s="26" t="s">
         <v>980</v>
@@ -45366,10 +45392,10 @@
         <v>66</v>
       </c>
       <c r="O150" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P150" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q150" s="26" t="s">
         <v>980</v>
@@ -45605,10 +45631,10 @@
         <v>66</v>
       </c>
       <c r="O151" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P151" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q151" s="26" t="s">
         <v>980</v>
@@ -45844,10 +45870,10 @@
         <v>66</v>
       </c>
       <c r="O152" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P152" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q152" s="26" t="s">
         <v>980</v>
@@ -46083,10 +46109,10 @@
         <v>66</v>
       </c>
       <c r="O153" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P153" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q153" s="26" t="s">
         <v>980</v>
@@ -46322,10 +46348,10 @@
         <v>66</v>
       </c>
       <c r="O154" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P154" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q154" s="26" t="s">
         <v>980</v>
@@ -46561,10 +46587,10 @@
         <v>66</v>
       </c>
       <c r="O155" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P155" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q155" s="26" t="s">
         <v>980</v>
@@ -46800,10 +46826,10 @@
         <v>66</v>
       </c>
       <c r="O156" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P156" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q156" s="26" t="s">
         <v>980</v>
@@ -47039,10 +47065,10 @@
         <v>66</v>
       </c>
       <c r="O157" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P157" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q157" s="26" t="s">
         <v>980</v>
@@ -47278,10 +47304,10 @@
         <v>66</v>
       </c>
       <c r="O158" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P158" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q158" s="26" t="s">
         <v>980</v>
@@ -47517,10 +47543,10 @@
         <v>66</v>
       </c>
       <c r="O159" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P159" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q159" s="26" t="s">
         <v>980</v>
@@ -47756,10 +47782,10 @@
         <v>66</v>
       </c>
       <c r="O160" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P160" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q160" s="26" t="s">
         <v>980</v>
@@ -47995,10 +48021,10 @@
         <v>66</v>
       </c>
       <c r="O161" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P161" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q161" s="26" t="s">
         <v>980</v>
@@ -48234,10 +48260,10 @@
         <v>66</v>
       </c>
       <c r="O162" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P162" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q162" s="26" t="s">
         <v>980</v>
@@ -48473,10 +48499,10 @@
         <v>66</v>
       </c>
       <c r="O163" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P163" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q163" s="26" t="s">
         <v>980</v>
@@ -48712,10 +48738,10 @@
         <v>66</v>
       </c>
       <c r="O164" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P164" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q164" s="26" t="s">
         <v>980</v>
@@ -48951,10 +48977,10 @@
         <v>66</v>
       </c>
       <c r="O165" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P165" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q165" s="26" t="s">
         <v>980</v>
@@ -49190,10 +49216,10 @@
         <v>66</v>
       </c>
       <c r="O166" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P166" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q166" s="26" t="s">
         <v>980</v>
@@ -49429,10 +49455,10 @@
         <v>66</v>
       </c>
       <c r="O167" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P167" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q167" s="26" t="s">
         <v>980</v>
@@ -49668,10 +49694,10 @@
         <v>66</v>
       </c>
       <c r="O168" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P168" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q168" s="26" t="s">
         <v>980</v>
@@ -49907,10 +49933,10 @@
         <v>66</v>
       </c>
       <c r="O169" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P169" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q169" s="26" t="s">
         <v>980</v>
@@ -50146,10 +50172,10 @@
         <v>66</v>
       </c>
       <c r="O170" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P170" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q170" s="26" t="s">
         <v>980</v>
@@ -50385,10 +50411,10 @@
         <v>66</v>
       </c>
       <c r="O171" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P171" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q171" s="26" t="s">
         <v>980</v>
@@ -50639,10 +50665,10 @@
         <v>66</v>
       </c>
       <c r="O172" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P172" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q172" s="26" t="s">
         <v>980</v>
@@ -50878,10 +50904,10 @@
         <v>66</v>
       </c>
       <c r="O173" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P173" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q173" s="26" t="s">
         <v>980</v>
@@ -51117,10 +51143,10 @@
         <v>66</v>
       </c>
       <c r="O174" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P174" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q174" s="26" t="s">
         <v>980</v>
@@ -51356,10 +51382,10 @@
         <v>66</v>
       </c>
       <c r="O175" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P175" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q175" s="26" t="s">
         <v>980</v>
@@ -51595,10 +51621,10 @@
         <v>40</v>
       </c>
       <c r="O176" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P176" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q176" s="26" t="s">
         <v>980</v>
@@ -51834,10 +51860,10 @@
         <v>66</v>
       </c>
       <c r="O177" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P177" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q177" s="26" t="s">
         <v>980</v>
@@ -52073,10 +52099,10 @@
         <v>66</v>
       </c>
       <c r="O178" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P178" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q178" s="26" t="s">
         <v>980</v>
@@ -52312,10 +52338,10 @@
         <v>66</v>
       </c>
       <c r="O179" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P179" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q179" s="26" t="s">
         <v>980</v>
@@ -52551,10 +52577,10 @@
         <v>66</v>
       </c>
       <c r="O180" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P180" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q180" s="26" t="s">
         <v>980</v>
@@ -52790,10 +52816,10 @@
         <v>66</v>
       </c>
       <c r="O181" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P181" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q181" s="26" t="s">
         <v>980</v>
@@ -53029,10 +53055,10 @@
         <v>66</v>
       </c>
       <c r="O182" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P182" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q182" s="26" t="s">
         <v>980</v>
@@ -53268,10 +53294,10 @@
         <v>877</v>
       </c>
       <c r="O183" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P183" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q183" s="26" t="s">
         <v>980</v>
@@ -53507,10 +53533,10 @@
         <v>571</v>
       </c>
       <c r="O184" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P184" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q184" s="26" t="s">
         <v>980</v>
@@ -53746,10 +53772,10 @@
         <v>877</v>
       </c>
       <c r="O185" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P185" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q185" s="26" t="s">
         <v>980</v>
@@ -53985,10 +54011,10 @@
         <v>66</v>
       </c>
       <c r="O186" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P186" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q186" s="26" t="s">
         <v>980</v>
@@ -54224,10 +54250,10 @@
         <v>66</v>
       </c>
       <c r="O187" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P187" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q187" s="26" t="s">
         <v>980</v>
@@ -54463,10 +54489,10 @@
         <v>66</v>
       </c>
       <c r="O188" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P188" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q188" s="26" t="s">
         <v>980</v>
@@ -54702,10 +54728,10 @@
         <v>979</v>
       </c>
       <c r="O189" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P189" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q189" s="26" t="s">
         <v>982</v>
@@ -54941,10 +54967,10 @@
         <v>0</v>
       </c>
       <c r="O190" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P190" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q190" s="26" t="s">
         <v>40</v>
@@ -55138,13 +55164,13 @@
     </row>
     <row r="191" spans="1:36">
       <c r="A191" s="9" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="D191" s="15" t="s">
         <v>979</v>
@@ -55180,10 +55206,10 @@
         <v>979</v>
       </c>
       <c r="O191" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P191" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q191" s="26" t="s">
         <v>40</v>
@@ -55384,10 +55410,10 @@
     </row>
     <row r="192" spans="1:36">
       <c r="A192" s="9" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="C192" s="9" t="s">
         <v>1101</v>
@@ -55408,7 +55434,7 @@
         <v>550</v>
       </c>
       <c r="I192" s="15" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="J192" s="15" t="s">
         <v>979</v>
@@ -55426,10 +55452,10 @@
         <v>979</v>
       </c>
       <c r="O192" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P192" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q192" s="26" t="s">
         <v>40</v>
@@ -55623,10 +55649,10 @@
     </row>
     <row r="193" spans="1:36">
       <c r="A193" s="9" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="C193" s="9" t="s">
         <v>1106</v>
@@ -55647,7 +55673,7 @@
         <v>550</v>
       </c>
       <c r="I193" s="15" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="J193" s="15" t="s">
         <v>979</v>
@@ -55665,10 +55691,10 @@
         <v>979</v>
       </c>
       <c r="O193" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P193" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q193" s="26" t="s">
         <v>40</v>
@@ -55862,10 +55888,10 @@
     </row>
     <row r="194" spans="1:36">
       <c r="A194" s="9" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="C194" s="9" t="s">
         <v>1107</v>
@@ -55886,7 +55912,7 @@
         <v>550</v>
       </c>
       <c r="I194" s="15" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="J194" s="15" t="s">
         <v>979</v>
@@ -55904,10 +55930,10 @@
         <v>979</v>
       </c>
       <c r="O194" s="26" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P194" s="164" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q194" s="26" t="s">
         <v>40</v>
@@ -56101,13 +56127,13 @@
     </row>
     <row r="195" spans="1:36">
       <c r="A195" s="9" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="D195" s="15" t="s">
         <v>979</v>
@@ -56125,7 +56151,7 @@
         <v>550</v>
       </c>
       <c r="I195" s="15" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="J195" s="15" t="s">
         <v>979</v>
@@ -56143,10 +56169,10 @@
         <v>979</v>
       </c>
       <c r="O195" s="26" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="P195" s="164" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="Q195" s="26" t="s">
         <v>40</v>
@@ -61006,20 +61032,22 @@
     <tabColor theme="8" tint="0.79998168889431442"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:I95"/>
+  <dimension ref="A2:I96"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D82" sqref="D82"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="95.33203125" customWidth="1"/>
+    <col min="1" max="1" width="33.5" customWidth="1"/>
+    <col min="2" max="2" width="53.1640625" customWidth="1"/>
+    <col min="3" max="3" width="83" customWidth="1"/>
+    <col min="4" max="4" width="86.6640625" customWidth="1"/>
+    <col min="5" max="5" width="93.6640625" customWidth="1"/>
     <col min="6" max="7" width="8.83203125" customWidth="1"/>
     <col min="8" max="8" width="71.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.83203125" customWidth="1"/>
@@ -61064,7 +61092,7 @@
         <v>194</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>172</v>
@@ -61094,17 +61122,17 @@
     </row>
     <row r="9" spans="1:9" ht="22.5">
       <c r="A9" s="143" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="148" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="D9" s="148" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="E9" s="148" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="F9" s="103" t="s">
         <v>156</v>
@@ -61113,7 +61141,7 @@
         <v>156</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="I9" t="s">
         <v>29</v>
@@ -61131,7 +61159,7 @@
         <v>321</v>
       </c>
       <c r="E10" s="148" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F10" s="103" t="s">
         <v>156</v>
@@ -61150,13 +61178,13 @@
       </c>
       <c r="B11" s="44"/>
       <c r="C11" s="42" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="F11" s="38" t="s">
         <v>156</v>
@@ -61175,10 +61203,10 @@
       </c>
       <c r="B12" s="44"/>
       <c r="C12" s="42" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="E12" s="153"/>
       <c r="F12" s="38" t="s">
@@ -61198,10 +61226,10 @@
       </c>
       <c r="B13" s="44"/>
       <c r="C13" s="42" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="E13" s="153"/>
       <c r="F13" s="38" t="s">
@@ -61221,10 +61249,10 @@
       </c>
       <c r="B14" s="44"/>
       <c r="C14" s="42" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="E14" s="153"/>
       <c r="F14" s="38" t="s">
@@ -61244,10 +61272,10 @@
       </c>
       <c r="B15" s="44"/>
       <c r="C15" s="42" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="E15" s="153"/>
       <c r="F15" s="38" t="s">
@@ -61267,10 +61295,10 @@
       </c>
       <c r="B16" s="44"/>
       <c r="C16" s="42" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="E16" s="153"/>
       <c r="F16" s="38" t="s">
@@ -61290,13 +61318,13 @@
       </c>
       <c r="B17" s="44"/>
       <c r="C17" s="42" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="F17" s="38" t="s">
         <v>156</v>
@@ -61315,13 +61343,13 @@
       </c>
       <c r="B18" s="44"/>
       <c r="C18" s="42" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="F18" s="38" t="s">
         <v>156</v>
@@ -61340,13 +61368,13 @@
       </c>
       <c r="B19" s="44"/>
       <c r="C19" s="42" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="E19" s="154" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="F19" s="38" t="s">
         <v>156</v>
@@ -61365,13 +61393,13 @@
       </c>
       <c r="B20" s="45"/>
       <c r="C20" s="43" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F20" s="40" t="s">
         <v>156</v>
@@ -61398,7 +61426,7 @@
         <v>309</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F21" s="36" t="s">
         <v>156</v>
@@ -61423,7 +61451,7 @@
         <v>309</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F22" s="38" t="s">
         <v>156</v>
@@ -61448,7 +61476,7 @@
         <v>309</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F23" s="38" t="s">
         <v>156</v>
@@ -61473,7 +61501,7 @@
         <v>309</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F24" s="38" t="s">
         <v>156</v>
@@ -61498,7 +61526,7 @@
         <v>309</v>
       </c>
       <c r="E25" s="37" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F25" s="38" t="s">
         <v>156</v>
@@ -61523,7 +61551,7 @@
         <v>309</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F26" s="38" t="s">
         <v>156</v>
@@ -61548,7 +61576,7 @@
         <v>40</v>
       </c>
       <c r="E27" s="49" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F27" s="50" t="s">
         <v>156</v>
@@ -61575,7 +61603,7 @@
         <v>309</v>
       </c>
       <c r="E28" s="37" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="F28" s="38" t="s">
         <v>156</v>
@@ -61600,7 +61628,7 @@
         <v>309</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="F29" s="38" t="s">
         <v>156</v>
@@ -61625,7 +61653,7 @@
         <v>309</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F30" s="38" t="s">
         <v>156</v>
@@ -61650,7 +61678,7 @@
         <v>309</v>
       </c>
       <c r="E31" s="37" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="F31" s="38" t="s">
         <v>156</v>
@@ -61675,7 +61703,7 @@
         <v>309</v>
       </c>
       <c r="E32" s="37" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="F32" s="38" t="s">
         <v>156</v>
@@ -61700,7 +61728,7 @@
         <v>40</v>
       </c>
       <c r="E33" s="37" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F33" s="38" t="s">
         <v>156</v>
@@ -61725,7 +61753,7 @@
         <v>40</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="F34" s="40" t="s">
         <v>156</v>
@@ -61750,7 +61778,7 @@
         <v>544</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F35" s="15" t="s">
         <v>156</v>
@@ -61770,7 +61798,7 @@
         <v>543</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="C36" s="35" t="s">
         <v>547</v>
@@ -61779,7 +61807,7 @@
         <v>544</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F36" s="36" t="s">
         <v>0</v>
@@ -61806,7 +61834,7 @@
         <v>544</v>
       </c>
       <c r="E37" s="37" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F37" s="38" t="s">
         <v>0</v>
@@ -61833,7 +61861,7 @@
         <v>544</v>
       </c>
       <c r="E38" s="49" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F38" s="50" t="s">
         <v>0</v>
@@ -61860,7 +61888,7 @@
         <v>40</v>
       </c>
       <c r="E39" s="37" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F39" s="38" t="s">
         <v>0</v>
@@ -61880,16 +61908,16 @@
         <v>543</v>
       </c>
       <c r="B40" s="155" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C40" s="155" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="D40" s="158" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="E40" s="158" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="F40" s="156" t="s">
         <v>0</v>
@@ -61943,7 +61971,7 @@
         <v>1093</v>
       </c>
       <c r="E42" s="102" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="F42" s="15" t="s">
         <v>156</v>
@@ -61970,7 +61998,7 @@
         <v>40</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F43" s="15" t="s">
         <v>156</v>
@@ -62025,7 +62053,7 @@
         <v>sudo apt install software-properties-common</v>
       </c>
       <c r="E45" s="35" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="F45" s="36" t="s">
         <v>156</v>
@@ -62342,7 +62370,7 @@
         <v>1154</v>
       </c>
       <c r="E57" s="35" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F57" s="36" t="s">
         <v>0</v>
@@ -62369,7 +62397,7 @@
         <v>1155</v>
       </c>
       <c r="E58" s="37" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F58" s="38" t="s">
         <v>0</v>
@@ -62396,7 +62424,7 @@
         <v>1156</v>
       </c>
       <c r="E59" s="37" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F59" s="38" t="s">
         <v>0</v>
@@ -62423,7 +62451,7 @@
         <v>1157</v>
       </c>
       <c r="E60" s="37" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F60" s="38" t="s">
         <v>0</v>
@@ -62450,7 +62478,7 @@
         <v>1158</v>
       </c>
       <c r="E61" s="37" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F61" s="38" t="s">
         <v>0</v>
@@ -62477,7 +62505,7 @@
         <v>1159</v>
       </c>
       <c r="E62" s="37" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F62" s="38" t="s">
         <v>0</v>
@@ -62504,7 +62532,7 @@
         <v>1160</v>
       </c>
       <c r="E63" s="37" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F63" s="38" t="s">
         <v>0</v>
@@ -62531,7 +62559,7 @@
         <v>1161</v>
       </c>
       <c r="E64" s="37" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F64" s="38" t="s">
         <v>0</v>
@@ -62558,7 +62586,7 @@
         <v>1162</v>
       </c>
       <c r="E65" s="37" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F65" s="38" t="s">
         <v>0</v>
@@ -62585,7 +62613,7 @@
         <v>1163</v>
       </c>
       <c r="E66" s="37" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F66" s="38" t="s">
         <v>0</v>
@@ -62612,7 +62640,7 @@
         <v>1164</v>
       </c>
       <c r="E67" s="37" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F67" s="38" t="s">
         <v>0</v>
@@ -62639,7 +62667,7 @@
         <v>1169</v>
       </c>
       <c r="E68" s="39" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F68" s="40" t="s">
         <v>0</v>
@@ -62653,25 +62681,27 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="34" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B69" s="33"/>
+      <c r="A69" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B69" s="34" t="s">
+        <v>1330</v>
+      </c>
       <c r="C69" s="35" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="D69" s="35" t="str">
         <f>C69</f>
         <v>sudo apt-get update</v>
       </c>
       <c r="E69" s="159" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F69" s="36" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="G69" s="36" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="H69" s="35"/>
       <c r="I69" t="s">
@@ -62682,20 +62712,20 @@
       <c r="A70" s="151"/>
       <c r="B70" s="151"/>
       <c r="C70" s="37" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="D70" s="37" t="str">
-        <f t="shared" ref="D70:D78" si="2">C70</f>
+        <f t="shared" ref="D70:D77" si="2">C70</f>
         <v>sudo apt-get install -y ca-certificates curl gnupg lsb-release</v>
       </c>
       <c r="E70" s="160" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F70" s="38" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="G70" s="38" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="H70" s="37"/>
       <c r="I70" t="s">
@@ -62706,20 +62736,20 @@
       <c r="A71" s="151"/>
       <c r="B71" s="151"/>
       <c r="C71" s="37" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="D71" s="37" t="str">
         <f t="shared" si="2"/>
         <v>sudo mkdir -p /etc/apt/keyrings</v>
       </c>
       <c r="E71" s="160" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F71" s="38" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="G71" s="38" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="H71" s="37"/>
       <c r="I71" t="s">
@@ -62730,20 +62760,20 @@
       <c r="A72" s="151"/>
       <c r="B72" s="151"/>
       <c r="C72" s="37" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="D72" s="37" t="str">
         <f t="shared" si="2"/>
         <v>curl -fsSL https://download.docker.com/linux/ubuntu/gpg | sudo gpg --dearmor -o /etc/apt/keyrings/docker.gpg</v>
       </c>
       <c r="E72" s="160" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F72" s="38" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="G72" s="38" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="H72" s="37"/>
       <c r="I72" t="s">
@@ -62754,20 +62784,20 @@
       <c r="A73" s="151"/>
       <c r="B73" s="151"/>
       <c r="C73" s="37" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="D73" s="37" t="str">
         <f t="shared" si="2"/>
         <v>echo "deb [arch=$(dpkg --print-architecture) signed-by=/etc/apt/keyrings/docker.gpg] https://download.docker.com/linux/ubuntu $(lsb_release -cs) stable" | sudo tee /etc/apt/sources.list.d/docker.list &gt; /dev/null</v>
       </c>
       <c r="E73" s="160" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F73" s="38" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="G73" s="38" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="H73" s="37"/>
       <c r="I73" t="s">
@@ -62778,20 +62808,20 @@
       <c r="A74" s="151"/>
       <c r="B74" s="151"/>
       <c r="C74" s="37" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="D74" s="37" t="str">
         <f t="shared" si="2"/>
         <v>sudo apt-get update</v>
       </c>
       <c r="E74" s="160" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F74" s="38" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="G74" s="38" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="H74" s="37"/>
       <c r="I74" t="s">
@@ -62802,20 +62832,20 @@
       <c r="A75" s="151"/>
       <c r="B75" s="151"/>
       <c r="C75" s="37" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="D75" s="37" t="str">
         <f t="shared" si="2"/>
         <v>sudo apt-get install -y docker-ce docker-ce-cli containerd.io docker-compose-plugin</v>
       </c>
       <c r="E75" s="160" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F75" s="38" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="G75" s="38" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="H75" s="37"/>
       <c r="I75" t="s">
@@ -62826,20 +62856,20 @@
       <c r="A76" s="151"/>
       <c r="B76" s="151"/>
       <c r="C76" s="37" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="D76" s="37" t="str">
         <f t="shared" si="2"/>
         <v>sudo groupadd docker</v>
       </c>
       <c r="E76" s="160" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F76" s="38" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="G76" s="38" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="H76" s="37"/>
       <c r="I76" t="s">
@@ -62850,20 +62880,20 @@
       <c r="A77" s="151"/>
       <c r="B77" s="151"/>
       <c r="C77" s="37" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="D77" s="37" t="str">
         <f t="shared" si="2"/>
         <v>sudo usermod -aG docker $USER</v>
       </c>
       <c r="E77" s="160" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F77" s="38" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="G77" s="38" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="H77" s="37"/>
       <c r="I77" t="s">
@@ -62871,100 +62901,93 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="152"/>
+      <c r="A78" s="151"/>
       <c r="B78" s="152"/>
       <c r="C78" s="39" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D78" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E78" s="161" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F78" s="40" t="s">
         <v>1273</v>
       </c>
-      <c r="D78" s="39" t="str">
-        <f t="shared" si="2"/>
-        <v>vim ~/.profile</v>
-      </c>
-      <c r="E78" s="161" t="s">
-        <v>1282</v>
-      </c>
-      <c r="F78" s="40" t="s">
-        <v>1275</v>
-      </c>
       <c r="G78" s="40" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="H78" s="39" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="I78" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="33" t="s">
-        <v>1173</v>
-      </c>
-      <c r="B79" s="33" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C79" s="35" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D79" s="35" t="s">
-        <v>1172</v>
-      </c>
-      <c r="E79" s="159" t="s">
-        <v>1282</v>
-      </c>
-      <c r="F79" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="G79" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="H79" s="35"/>
-      <c r="I79" t="s">
-        <v>1180</v>
-      </c>
+      <c r="A79" s="151"/>
+      <c r="B79" s="151" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C79" s="151" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D79" s="151" t="str">
+        <f>$C79</f>
+        <v>echo -e "{\n    \"detachKeys\": \"ctrl-\\\\\\\\,ctrl-\\\\\\\\\"\n}" &gt; ${HOME}/.docker/config.json</v>
+      </c>
+      <c r="E79" s="167" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F79" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="G79" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="H79" s="151"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="44" t="s">
-        <v>1173</v>
-      </c>
-      <c r="B80" s="45" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C80" s="39" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D80" s="39" t="s">
-        <v>1176</v>
-      </c>
-      <c r="E80" s="161" t="s">
-        <v>1282</v>
-      </c>
-      <c r="F80" s="40" t="s">
+      <c r="A80" s="151"/>
+      <c r="B80" s="33" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C80" s="35" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D80" s="35" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E80" s="159" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F80" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="G80" s="40" t="s">
+      <c r="G80" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="H80" s="39"/>
+      <c r="H80" s="35"/>
       <c r="I80" t="s">
         <v>1180</v>
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="45" t="s">
+      <c r="A81" s="44" t="s">
         <v>1173</v>
       </c>
-      <c r="B81" s="26" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C81" s="26" t="s">
-        <v>1245</v>
-      </c>
-      <c r="D81" s="26" t="s">
-        <v>1245</v>
-      </c>
-      <c r="E81" s="162" t="s">
-        <v>1282</v>
+      <c r="B81" s="45" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C81" s="39" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D81" s="39" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E81" s="161" t="s">
+        <v>1280</v>
       </c>
       <c r="F81" s="40" t="s">
         <v>0</v>
@@ -62972,24 +62995,38 @@
       <c r="G81" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="H81" s="26" t="s">
-        <v>1247</v>
-      </c>
+      <c r="H81" s="39"/>
       <c r="I81" t="s">
         <v>1180</v>
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="26"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="26"/>
+      <c r="A82" s="45" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C82" s="26" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D82" s="26" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E82" s="162" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F82" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G82" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="H82" s="26" t="s">
+        <v>1246</v>
+      </c>
       <c r="I82" t="s">
-        <v>29</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -63041,7 +63078,7 @@
       <c r="G86" s="15"/>
       <c r="H86" s="26"/>
       <c r="I86" t="s">
-        <v>1180</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -63161,6 +63198,19 @@
         <v>1180</v>
       </c>
     </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="26"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="26"/>
+      <c r="I96" t="s">
+        <v>1180</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -63168,10 +63218,10 @@
     <hyperlink ref="C43" r:id="rId2" xr:uid="{7635C521-28C2-43E4-A5E7-615300630D2F}"/>
     <hyperlink ref="C42" r:id="rId3" xr:uid="{052F1D69-3A21-4195-803A-970A653CB7B2}"/>
     <hyperlink ref="D42" r:id="rId4" xr:uid="{99ADF0A5-7F93-4849-B4D0-7B7C6B54E9B3}"/>
-    <hyperlink ref="A69" r:id="rId5" xr:uid="{AC983437-6890-4EFE-B564-0B27339742FD}"/>
-    <hyperlink ref="A9" r:id="rId6" xr:uid="{434080DB-D5A1-49DB-951D-B78BEBC4312A}"/>
-    <hyperlink ref="E19" r:id="rId7" xr:uid="{E88B0130-85C2-4B3B-9371-D915BFE4E2FE}"/>
-    <hyperlink ref="E42" r:id="rId8" xr:uid="{E8BD7507-15D4-47D3-B603-D2D028F5E2D9}"/>
+    <hyperlink ref="A9" r:id="rId5" xr:uid="{434080DB-D5A1-49DB-951D-B78BEBC4312A}"/>
+    <hyperlink ref="E19" r:id="rId6" xr:uid="{E88B0130-85C2-4B3B-9371-D915BFE4E2FE}"/>
+    <hyperlink ref="E42" r:id="rId7" xr:uid="{E8BD7507-15D4-47D3-B603-D2D028F5E2D9}"/>
+    <hyperlink ref="B69" r:id="rId8" display="Docker インストール" xr:uid="{7D195A26-0A79-47D4-9F5C-99A58DF07973}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="24" orientation="portrait" horizontalDpi="4294967293" r:id="rId9"/>
@@ -64734,7 +64784,7 @@
       <c r="R42" s="61"/>
       <c r="S42" s="61"/>
       <c r="T42" s="66" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="43" spans="3:20">
@@ -64776,24 +64826,24 @@
       <c r="R43" s="61"/>
       <c r="S43" s="61"/>
       <c r="T43" s="66" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="44" spans="3:20">
       <c r="C44" s="60" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D44" s="66" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E44" s="61" t="s">
         <v>1251</v>
       </c>
-      <c r="D44" s="66" t="s">
-        <v>1250</v>
-      </c>
-      <c r="E44" s="61" t="s">
-        <v>1252</v>
-      </c>
       <c r="F44" s="61" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="G44" s="61" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="H44" s="65" t="s">
         <v>411</v>
@@ -64802,17 +64852,17 @@
         <v>411</v>
       </c>
       <c r="J44" s="61" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="K44" s="65" t="s">
         <v>411</v>
       </c>
       <c r="L44" s="61" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="M44" s="61"/>
       <c r="N44" s="61" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="O44" s="61"/>
       <c r="P44" s="60"/>
@@ -64820,7 +64870,7 @@
       <c r="R44" s="61"/>
       <c r="S44" s="60"/>
       <c r="T44" s="60" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="45" spans="3:20">
@@ -65127,18 +65177,18 @@
     </row>
     <row r="76" spans="3:16">
       <c r="C76" s="7" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E76" s="56" t="s">
         <v>1255</v>
-      </c>
-      <c r="E76" s="56" t="s">
-        <v>1256</v>
       </c>
     </row>
     <row r="77" spans="3:16">
       <c r="C77" s="7" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E77" s="7" t="s">
         <v>1257</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>1258</v>
       </c>
     </row>
   </sheetData>

--- a/PC移行時チェックリスト.xlsx
+++ b/PC移行時チェックリスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C96514-99F1-4E11-BE11-67AD42185C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA551F86-E92C-416F-85FE-DBF624B7DCF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32400" yWindow="-4080" windowWidth="32415" windowHeight="40725" activeTab="3" xr2:uid="{4766EE0F-731E-4860-9E19-7E5345AFF867}"/>
+    <workbookView xWindow="-32400" yWindow="-4080" windowWidth="32415" windowHeight="40725" xr2:uid="{4766EE0F-731E-4860-9E19-7E5345AFF867}"/>
   </bookViews>
   <sheets>
     <sheet name="セットアップ事項" sheetId="21" r:id="rId1"/>
@@ -246,7 +246,9 @@
           </rPr>
           <t>シンボリックリンクでは利用できないため、
 C:\codes\vba\word\AddIns\_update.vbs
-を使って都度指示先パスのアドインから更新する。</t>
+を使って都度指示先パスのアドインから更新する。
+また、以下のプログラムを使用して、定期的に指示先パスにバックアップする。
+  C:\codes\bat\tools\other\BackupOtherPrgSettings.bat</t>
         </r>
       </text>
     </comment>
@@ -263,7 +265,8 @@
           <t>設定ファイル格納先ディレクトリをシンボリックリンクにすると、設定保存に失敗する。
 ファイルのシンボリック化も同様。
 別ボリュームなので、ハードリンクの設定もできない。
-そのため、都度Gドライブから設定をコピーする。</t>
+そのため、以下のプログラムを使用して、定期的に指示先パスにバックアップする。
+  C:\codes\bat\tools\other\BackupOtherPrgSettings.bat</t>
         </r>
       </text>
     </comment>
@@ -279,7 +282,8 @@
           </rPr>
           <t>設定ファイル格納先ディレクトリをシンボリックリンクにすると、設定保存に失敗する。
 別ボリュームなので、ハードリンクの設定もできない。
-そのため、都度Gドライブから設定をコピーする。</t>
+そのため、以下のプログラムを使用して、定期的に指示先パスにバックアップする。
+  C:\codes\bat\tools\other\BackupOtherPrgSettings.bat</t>
         </r>
       </text>
     </comment>
@@ -295,7 +299,8 @@
           </rPr>
           <t>設定ファイル自体をシンボリックリンクにすると、設定保存に失敗する。
 別ボリュームなので、ハードリンクの設定もできない。
-そのため、都度Gドライブから設定をコピーする</t>
+そのため、以下のプログラムを使用して、定期的に指示先パスにバックアップする。
+  C:\codes\bat\tools\other\BackupOtherPrgSettings.bat</t>
         </r>
       </text>
     </comment>
@@ -732,7 +737,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5584" uniqueCount="1338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5607" uniqueCount="1344">
   <si>
     <t>○</t>
   </si>
@@ -5809,17 +5814,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>外部HDDにバックアップ＋GoogleDriveアップロード</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>外部HDDにバックアップ＋GoogleDriveアップロード</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>格納先（M:メインデータ、S:サブバックアップデータ）</t>
     <rPh sb="0" eb="2">
       <t>カクノウ</t>
@@ -7003,6 +6997,49 @@
   <si>
     <t>G:\マイドライブ\100_programs\120_setting\TVClock\Team Hasebe\TVClock</t>
     <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>C:\codes\bat\tools\other\BackupOtherPrgSettings.bat</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BackupOtherPrgSettings.bat</t>
+  </si>
+  <si>
+    <t>各種プログラム設定バックアップ</t>
+    <rPh sb="0" eb="2">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(*1) シンボリックリンクを貼れないプログラムの設定は、C:\codes\bat\tools\other\BackupOtherPrgSettings.batで都度バックアップする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>外部HDDにバックアップ＋GoogleDriveアップロード(*1)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TVClock用フォントインストール</t>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「C:\prg_exe\TVClock\_font」配下のフォントをダブルクリックでインストールする</t>
+    <rPh sb="26" eb="28">
+      <t>ハイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -8427,8 +8464,8 @@
   </sheetPr>
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="11.25"/>
@@ -9665,45 +9702,47 @@
         <v>156</v>
       </c>
       <c r="D47" s="120" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E47" s="149"/>
       <c r="F47" s="150"/>
       <c r="G47" s="121" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="H47" s="121" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="I47" s="108" t="s">
         <v>29</v>
       </c>
       <c r="L47" s="108"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" s="108" customFormat="1">
       <c r="A48" s="117" t="s">
-        <v>976</v>
+        <v>1044</v>
       </c>
       <c r="B48" s="118" t="s">
-        <v>156</v>
+        <v>28</v>
       </c>
       <c r="C48" s="119" t="s">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="D48" s="120" t="s">
-        <v>1032</v>
-      </c>
-      <c r="E48" s="149" t="s">
-        <v>977</v>
-      </c>
+        <v>1342</v>
+      </c>
+      <c r="E48" s="149"/>
       <c r="F48" s="150"/>
       <c r="G48" s="121"/>
       <c r="H48" s="121" t="s">
-        <v>994</v>
+        <v>1343</v>
       </c>
       <c r="I48" s="108" t="s">
         <v>29</v>
       </c>
+      <c r="J48" s="107"/>
+      <c r="K48" s="107"/>
+      <c r="L48" s="107"/>
+      <c r="M48" s="107"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="117" t="s">
@@ -9716,7 +9755,7 @@
         <v>156</v>
       </c>
       <c r="D49" s="120" t="s">
-        <v>1023</v>
+        <v>1032</v>
       </c>
       <c r="E49" s="149" t="s">
         <v>977</v>
@@ -9724,7 +9763,7 @@
       <c r="F49" s="150"/>
       <c r="G49" s="121"/>
       <c r="H49" s="121" t="s">
-        <v>912</v>
+        <v>994</v>
       </c>
       <c r="I49" s="108" t="s">
         <v>29</v>
@@ -9732,50 +9771,48 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="117" t="s">
-        <v>153</v>
+        <v>976</v>
       </c>
       <c r="B50" s="118" t="s">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="C50" s="119" t="s">
         <v>156</v>
       </c>
       <c r="D50" s="120" t="s">
-        <v>47</v>
+        <v>1023</v>
       </c>
       <c r="E50" s="149" t="s">
         <v>977</v>
       </c>
       <c r="F50" s="150"/>
       <c r="G50" s="121"/>
-      <c r="H50" s="121"/>
-      <c r="I50" s="107" t="s">
+      <c r="H50" s="121" t="s">
+        <v>912</v>
+      </c>
+      <c r="I50" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="J50" s="108"/>
-      <c r="M50" s="108"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="117" t="s">
         <v>153</v>
       </c>
       <c r="B51" s="118" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C51" s="119" t="s">
         <v>156</v>
       </c>
-      <c r="D51" s="127" t="s">
-        <v>1066</v>
+      <c r="D51" s="120" t="s">
+        <v>47</v>
       </c>
       <c r="E51" s="149" t="s">
         <v>977</v>
       </c>
       <c r="F51" s="150"/>
       <c r="G51" s="121"/>
-      <c r="H51" s="128" t="s">
-        <v>1067</v>
-      </c>
+      <c r="H51" s="121"/>
       <c r="I51" s="107" t="s">
         <v>29</v>
       </c>
@@ -9793,15 +9830,15 @@
         <v>156</v>
       </c>
       <c r="D52" s="127" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="E52" s="149" t="s">
         <v>977</v>
       </c>
       <c r="F52" s="150"/>
       <c r="G52" s="121"/>
-      <c r="H52" s="121" t="s">
-        <v>1064</v>
+      <c r="H52" s="128" t="s">
+        <v>1067</v>
       </c>
       <c r="I52" s="107" t="s">
         <v>29</v>
@@ -9814,20 +9851,22 @@
         <v>153</v>
       </c>
       <c r="B53" s="118" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C53" s="119" t="s">
         <v>156</v>
       </c>
-      <c r="D53" s="120" t="s">
-        <v>1031</v>
+      <c r="D53" s="127" t="s">
+        <v>1065</v>
       </c>
       <c r="E53" s="149" t="s">
         <v>977</v>
       </c>
       <c r="F53" s="150"/>
-      <c r="G53" s="129"/>
-      <c r="H53" s="121"/>
+      <c r="G53" s="121"/>
+      <c r="H53" s="121" t="s">
+        <v>1064</v>
+      </c>
       <c r="I53" s="107" t="s">
         <v>29</v>
       </c>
@@ -9845,7 +9884,7 @@
         <v>156</v>
       </c>
       <c r="D54" s="120" t="s">
-        <v>48</v>
+        <v>1031</v>
       </c>
       <c r="E54" s="149" t="s">
         <v>977</v>
@@ -9870,7 +9909,7 @@
         <v>156</v>
       </c>
       <c r="D55" s="120" t="s">
-        <v>1024</v>
+        <v>48</v>
       </c>
       <c r="E55" s="149" t="s">
         <v>977</v>
@@ -9895,7 +9934,7 @@
         <v>156</v>
       </c>
       <c r="D56" s="120" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E56" s="149" t="s">
         <v>977</v>
@@ -9920,14 +9959,14 @@
         <v>156</v>
       </c>
       <c r="D57" s="120" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E57" s="149"/>
+        <v>1025</v>
+      </c>
+      <c r="E57" s="149" t="s">
+        <v>977</v>
+      </c>
       <c r="F57" s="150"/>
-      <c r="G57" s="121"/>
-      <c r="H57" s="121" t="s">
-        <v>1117</v>
-      </c>
+      <c r="G57" s="129"/>
+      <c r="H57" s="121"/>
       <c r="I57" s="107" t="s">
         <v>29</v>
       </c>
@@ -9944,19 +9983,20 @@
       <c r="C58" s="119" t="s">
         <v>156</v>
       </c>
-      <c r="D58" s="127" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E58" s="149" t="s">
-        <v>977</v>
-      </c>
+      <c r="D58" s="120" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E58" s="149"/>
       <c r="F58" s="150"/>
       <c r="G58" s="121"/>
-      <c r="H58" s="121"/>
-      <c r="I58" s="108" t="s">
+      <c r="H58" s="121" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I58" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="L58" s="108"/>
+      <c r="J58" s="108"/>
+      <c r="M58" s="108"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="117" t="s">
@@ -9969,16 +10009,14 @@
         <v>156</v>
       </c>
       <c r="D59" s="127" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="E59" s="149" t="s">
         <v>977</v>
       </c>
       <c r="F59" s="150"/>
       <c r="G59" s="121"/>
-      <c r="H59" s="121" t="s">
-        <v>1070</v>
-      </c>
+      <c r="H59" s="121"/>
       <c r="I59" s="108" t="s">
         <v>29</v>
       </c>
@@ -9995,14 +10033,16 @@
         <v>156</v>
       </c>
       <c r="D60" s="127" t="s">
-        <v>49</v>
+        <v>1069</v>
       </c>
       <c r="E60" s="149" t="s">
         <v>977</v>
       </c>
       <c r="F60" s="150"/>
       <c r="G60" s="121"/>
-      <c r="H60" s="130"/>
+      <c r="H60" s="121" t="s">
+        <v>1070</v>
+      </c>
       <c r="I60" s="108" t="s">
         <v>29</v>
       </c>
@@ -10013,13 +10053,13 @@
         <v>153</v>
       </c>
       <c r="B61" s="118" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C61" s="119" t="s">
         <v>156</v>
       </c>
       <c r="D61" s="127" t="s">
-        <v>1093</v>
+        <v>49</v>
       </c>
       <c r="E61" s="149" t="s">
         <v>977</v>
@@ -10043,7 +10083,7 @@
         <v>156</v>
       </c>
       <c r="D62" s="127" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E62" s="149" t="s">
         <v>977</v>
@@ -10061,13 +10101,13 @@
         <v>153</v>
       </c>
       <c r="B63" s="118" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C63" s="119" t="s">
         <v>156</v>
       </c>
       <c r="D63" s="127" t="s">
-        <v>1068</v>
+        <v>1094</v>
       </c>
       <c r="E63" s="149" t="s">
         <v>977</v>
@@ -10090,82 +10130,89 @@
       <c r="C64" s="119" t="s">
         <v>156</v>
       </c>
-      <c r="D64" s="120" t="s">
-        <v>1028</v>
+      <c r="D64" s="127" t="s">
+        <v>1068</v>
       </c>
       <c r="E64" s="149" t="s">
         <v>977</v>
       </c>
       <c r="F64" s="150"/>
       <c r="G64" s="121"/>
-      <c r="H64" s="121" t="s">
-        <v>1033</v>
-      </c>
+      <c r="H64" s="130"/>
       <c r="I64" s="108" t="s">
         <v>29</v>
       </c>
+      <c r="L64" s="108"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="117" t="s">
         <v>153</v>
       </c>
       <c r="B65" s="118" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C65" s="119" t="s">
         <v>156</v>
       </c>
-      <c r="D65" s="131" t="s">
-        <v>158</v>
+      <c r="D65" s="120" t="s">
+        <v>1028</v>
       </c>
       <c r="E65" s="149" t="s">
         <v>977</v>
       </c>
       <c r="F65" s="150"/>
       <c r="G65" s="121"/>
-      <c r="H65" s="121"/>
+      <c r="H65" s="121" t="s">
+        <v>1033</v>
+      </c>
       <c r="I65" s="108" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:13" s="108" customFormat="1">
+    <row r="66" spans="1:13">
       <c r="A66" s="117" t="s">
-        <v>1047</v>
+        <v>153</v>
       </c>
       <c r="B66" s="118" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="119" t="s">
         <v>156</v>
       </c>
-      <c r="C66" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="D66" s="120" t="s">
-        <v>1004</v>
+      <c r="D66" s="131" t="s">
+        <v>158</v>
       </c>
       <c r="E66" s="149" t="s">
-        <v>40</v>
+        <v>977</v>
       </c>
       <c r="F66" s="150"/>
       <c r="G66" s="121"/>
-      <c r="H66" s="121" t="s">
-        <v>1018</v>
-      </c>
+      <c r="H66" s="121"/>
       <c r="I66" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="J66" s="107"/>
-      <c r="K66" s="107"/>
-      <c r="L66" s="107"/>
-      <c r="M66" s="107"/>
     </row>
     <row r="67" spans="1:13" s="108" customFormat="1">
-      <c r="A67" s="117"/>
-      <c r="B67" s="118"/>
-      <c r="C67" s="119"/>
-      <c r="D67" s="120"/>
-      <c r="E67" s="149"/>
+      <c r="A67" s="117" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B67" s="118" t="s">
+        <v>156</v>
+      </c>
+      <c r="C67" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" s="120" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E67" s="149" t="s">
+        <v>40</v>
+      </c>
       <c r="F67" s="150"/>
       <c r="G67" s="121"/>
-      <c r="H67" s="121"/>
+      <c r="H67" s="121" t="s">
+        <v>1018</v>
+      </c>
       <c r="I67" s="108" t="s">
         <v>29</v>
       </c>
@@ -10311,30 +10358,30 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E30:F73 E4:F29" xr:uid="{5DBEFEC1-5F51-42F3-95A2-1D333EC55104}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:F73" xr:uid="{5DBEFEC1-5F51-42F3-95A2-1D333EC55104}">
       <formula1>"★,○,-"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30:C73 B4:C29" xr:uid="{C6263EA6-EB41-4BB0-BF50-A7FFAECF6AC5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C73" xr:uid="{C6263EA6-EB41-4BB0-BF50-A7FFAECF6AC5}">
       <formula1>"○,×"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D65" r:id="rId1" xr:uid="{D540C089-E647-40CA-B819-90C724B69251}"/>
+    <hyperlink ref="D66" r:id="rId1" xr:uid="{D540C089-E647-40CA-B819-90C724B69251}"/>
     <hyperlink ref="H38" r:id="rId2" xr:uid="{D2A604DE-C48B-4ED5-B7CD-D57EAAB6AC30}"/>
     <hyperlink ref="G7" r:id="rId3" xr:uid="{69181FB1-9DA0-4B08-BF47-DC8DF7259CDA}"/>
     <hyperlink ref="G6" r:id="rId4" xr:uid="{9EC6BE86-09AD-44B5-8E18-5C809AB30F11}"/>
     <hyperlink ref="G5" r:id="rId5" xr:uid="{89F69BEC-A891-44F2-B440-7459581325EB}"/>
     <hyperlink ref="H44" r:id="rId6" xr:uid="{F29144B1-54E4-4FDF-8434-581A6F010E4C}"/>
     <hyperlink ref="H45" r:id="rId7" xr:uid="{E9E699BF-4AE9-40EC-B45F-B80A2385410E}"/>
-    <hyperlink ref="D52" r:id="rId8" xr:uid="{22668462-DB82-4A3B-B2BE-C474CDEFB5C6}"/>
-    <hyperlink ref="H51" r:id="rId9" display="★目的は？" xr:uid="{3E36FB00-39EA-43BF-B366-D60775D11904}"/>
-    <hyperlink ref="D51" r:id="rId10" xr:uid="{6783CF10-A48F-4D14-93B3-4FC8A2CA382F}"/>
-    <hyperlink ref="D61" r:id="rId11" display="SD Zドライブ化" xr:uid="{37FEF0FF-A0DF-4A02-9A09-6B4E0A98B031}"/>
-    <hyperlink ref="D63" r:id="rId12" xr:uid="{7E21653E-589F-480B-848E-A0E171649144}"/>
-    <hyperlink ref="D60" r:id="rId13" xr:uid="{0452F271-80B9-46BA-884E-65E6DA75D481}"/>
-    <hyperlink ref="D59" r:id="rId14" xr:uid="{02ED04ED-C471-4EDA-839F-E5DA7F33AF88}"/>
-    <hyperlink ref="D58" r:id="rId15" xr:uid="{662D4537-75BA-49F5-89D9-A61D25DBB472}"/>
-    <hyperlink ref="D62" r:id="rId16" display="SD Zドライブ化" xr:uid="{0AEE731D-FCF6-46C5-A37D-DC2542E2133D}"/>
+    <hyperlink ref="D53" r:id="rId8" xr:uid="{22668462-DB82-4A3B-B2BE-C474CDEFB5C6}"/>
+    <hyperlink ref="H52" r:id="rId9" display="★目的は？" xr:uid="{3E36FB00-39EA-43BF-B366-D60775D11904}"/>
+    <hyperlink ref="D52" r:id="rId10" xr:uid="{6783CF10-A48F-4D14-93B3-4FC8A2CA382F}"/>
+    <hyperlink ref="D62" r:id="rId11" display="SD Zドライブ化" xr:uid="{37FEF0FF-A0DF-4A02-9A09-6B4E0A98B031}"/>
+    <hyperlink ref="D64" r:id="rId12" xr:uid="{7E21653E-589F-480B-848E-A0E171649144}"/>
+    <hyperlink ref="D61" r:id="rId13" xr:uid="{0452F271-80B9-46BA-884E-65E6DA75D481}"/>
+    <hyperlink ref="D60" r:id="rId14" xr:uid="{02ED04ED-C471-4EDA-839F-E5DA7F33AF88}"/>
+    <hyperlink ref="D59" r:id="rId15" xr:uid="{662D4537-75BA-49F5-89D9-A61D25DBB472}"/>
+    <hyperlink ref="D63" r:id="rId16" display="SD Zドライブ化" xr:uid="{0AEE731D-FCF6-46C5-A37D-DC2542E2133D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="35" orientation="portrait" r:id="rId17"/>
@@ -11734,7 +11781,7 @@
       <pane xSplit="2" ySplit="10" topLeftCell="P47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="W95" sqref="W95"/>
+      <selection pane="bottomRight" activeCell="T102" sqref="T102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="11.25" outlineLevelCol="1"/>
@@ -11817,7 +11864,7 @@
     </row>
     <row r="6" spans="1:36" customFormat="1">
       <c r="A6" s="99" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -11832,7 +11879,7 @@
     </row>
     <row r="8" spans="1:36" ht="22.5">
       <c r="D8" s="5" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
@@ -11857,7 +11904,7 @@
         <v>181</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="3" t="s">
@@ -11893,7 +11940,7 @@
       </c>
       <c r="AF8" s="11"/>
       <c r="AG8" s="166" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="AH8" s="11"/>
       <c r="AI8" s="11" t="s">
@@ -11917,7 +11964,7 @@
         <v>898</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>172</v>
@@ -11947,10 +11994,10 @@
         <v>981</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="P9" s="163" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="Q9" s="5" t="s">
         <v>982</v>
@@ -12001,10 +12048,10 @@
         <v>64</v>
       </c>
       <c r="AG9" s="12" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="AH9" s="12" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="AI9" s="12" t="s">
         <v>63</v>
@@ -12097,10 +12144,10 @@
         <v>66</v>
       </c>
       <c r="O11" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P11" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q11" s="26" t="s">
         <v>978</v>
@@ -12363,10 +12410,10 @@
         <v>66</v>
       </c>
       <c r="O12" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P12" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q12" s="26" t="s">
         <v>978</v>
@@ -12602,10 +12649,10 @@
         <v>66</v>
       </c>
       <c r="O13" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P13" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q13" s="26" t="s">
         <v>978</v>
@@ -12841,10 +12888,10 @@
         <v>66</v>
       </c>
       <c r="O14" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P14" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q14" s="26" t="s">
         <v>978</v>
@@ -13080,10 +13127,10 @@
         <v>66</v>
       </c>
       <c r="O15" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P15" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q15" s="26" t="s">
         <v>978</v>
@@ -13320,10 +13367,10 @@
         <v>66</v>
       </c>
       <c r="O16" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P16" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q16" s="26" t="s">
         <v>978</v>
@@ -13559,10 +13606,10 @@
         <v>66</v>
       </c>
       <c r="O17" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P17" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q17" s="26" t="s">
         <v>978</v>
@@ -13798,10 +13845,10 @@
         <v>66</v>
       </c>
       <c r="O18" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P18" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q18" s="26" t="s">
         <v>978</v>
@@ -14037,10 +14084,10 @@
         <v>66</v>
       </c>
       <c r="O19" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P19" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q19" s="26" t="s">
         <v>978</v>
@@ -14276,10 +14323,10 @@
         <v>66</v>
       </c>
       <c r="O20" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P20" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q20" s="26" t="s">
         <v>978</v>
@@ -14515,10 +14562,10 @@
         <v>66</v>
       </c>
       <c r="O21" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P21" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q21" s="26" t="s">
         <v>978</v>
@@ -14754,10 +14801,10 @@
         <v>877</v>
       </c>
       <c r="O22" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P22" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q22" s="26" t="s">
         <v>978</v>
@@ -14993,10 +15040,10 @@
         <v>66</v>
       </c>
       <c r="O23" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P23" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q23" s="26" t="s">
         <v>978</v>
@@ -15232,10 +15279,10 @@
         <v>66</v>
       </c>
       <c r="O24" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P24" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q24" s="26" t="s">
         <v>978</v>
@@ -15471,10 +15518,10 @@
         <v>66</v>
       </c>
       <c r="O25" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P25" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q25" s="26" t="s">
         <v>978</v>
@@ -15710,10 +15757,10 @@
         <v>66</v>
       </c>
       <c r="O26" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P26" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q26" s="26" t="s">
         <v>978</v>
@@ -15949,10 +15996,10 @@
         <v>66</v>
       </c>
       <c r="O27" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P27" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q27" s="26" t="s">
         <v>978</v>
@@ -16188,10 +16235,10 @@
         <v>66</v>
       </c>
       <c r="O28" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P28" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q28" s="26" t="s">
         <v>978</v>
@@ -16427,10 +16474,10 @@
         <v>66</v>
       </c>
       <c r="O29" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P29" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q29" s="26" t="s">
         <v>978</v>
@@ -16666,10 +16713,10 @@
         <v>66</v>
       </c>
       <c r="O30" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P30" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q30" s="26" t="s">
         <v>978</v>
@@ -16905,10 +16952,10 @@
         <v>66</v>
       </c>
       <c r="O31" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P31" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q31" s="26" t="s">
         <v>978</v>
@@ -17144,10 +17191,10 @@
         <v>66</v>
       </c>
       <c r="O32" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P32" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q32" s="26" t="s">
         <v>978</v>
@@ -17383,10 +17430,10 @@
         <v>66</v>
       </c>
       <c r="O33" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P33" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q33" s="26" t="s">
         <v>978</v>
@@ -17622,10 +17669,10 @@
         <v>66</v>
       </c>
       <c r="O34" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P34" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q34" s="26" t="s">
         <v>978</v>
@@ -17861,10 +17908,10 @@
         <v>66</v>
       </c>
       <c r="O35" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P35" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q35" s="26" t="s">
         <v>978</v>
@@ -18100,10 +18147,10 @@
         <v>66</v>
       </c>
       <c r="O36" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P36" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q36" s="26" t="s">
         <v>978</v>
@@ -18339,10 +18386,10 @@
         <v>877</v>
       </c>
       <c r="O37" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P37" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q37" s="26" t="s">
         <v>978</v>
@@ -18578,10 +18625,10 @@
         <v>66</v>
       </c>
       <c r="O38" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P38" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q38" s="26" t="s">
         <v>978</v>
@@ -18817,10 +18864,10 @@
         <v>66</v>
       </c>
       <c r="O39" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P39" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q39" s="26" t="s">
         <v>978</v>
@@ -19056,10 +19103,10 @@
         <v>66</v>
       </c>
       <c r="O40" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P40" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q40" s="26" t="s">
         <v>978</v>
@@ -19295,10 +19342,10 @@
         <v>66</v>
       </c>
       <c r="O41" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P41" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q41" s="26" t="s">
         <v>978</v>
@@ -19534,10 +19581,10 @@
         <v>66</v>
       </c>
       <c r="O42" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P42" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q42" s="26" t="s">
         <v>978</v>
@@ -19773,10 +19820,10 @@
         <v>66</v>
       </c>
       <c r="O43" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P43" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q43" s="26" t="s">
         <v>978</v>
@@ -20027,10 +20074,10 @@
         <v>66</v>
       </c>
       <c r="O44" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P44" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q44" s="26" t="s">
         <v>978</v>
@@ -20266,10 +20313,10 @@
         <v>66</v>
       </c>
       <c r="O45" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P45" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q45" s="26" t="s">
         <v>978</v>
@@ -20505,10 +20552,10 @@
         <v>66</v>
       </c>
       <c r="O46" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P46" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q46" s="26" t="s">
         <v>978</v>
@@ -20744,10 +20791,10 @@
         <v>66</v>
       </c>
       <c r="O47" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P47" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q47" s="26" t="s">
         <v>978</v>
@@ -20983,10 +21030,10 @@
         <v>66</v>
       </c>
       <c r="O48" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P48" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q48" s="26" t="s">
         <v>978</v>
@@ -21222,10 +21269,10 @@
         <v>66</v>
       </c>
       <c r="O49" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P49" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q49" s="26" t="s">
         <v>978</v>
@@ -21461,10 +21508,10 @@
         <v>66</v>
       </c>
       <c r="O50" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P50" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q50" s="26" t="s">
         <v>978</v>
@@ -21700,10 +21747,10 @@
         <v>66</v>
       </c>
       <c r="O51" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P51" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q51" s="26" t="s">
         <v>978</v>
@@ -21939,10 +21986,10 @@
         <v>66</v>
       </c>
       <c r="O52" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P52" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q52" s="26" t="s">
         <v>978</v>
@@ -22178,10 +22225,10 @@
         <v>66</v>
       </c>
       <c r="O53" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P53" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q53" s="26" t="s">
         <v>978</v>
@@ -22417,10 +22464,10 @@
         <v>66</v>
       </c>
       <c r="O54" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P54" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q54" s="26" t="s">
         <v>978</v>
@@ -22656,10 +22703,10 @@
         <v>66</v>
       </c>
       <c r="O55" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P55" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q55" s="26" t="s">
         <v>978</v>
@@ -22895,10 +22942,10 @@
         <v>66</v>
       </c>
       <c r="O56" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P56" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q56" s="26" t="s">
         <v>978</v>
@@ -23134,10 +23181,10 @@
         <v>66</v>
       </c>
       <c r="O57" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P57" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q57" s="26" t="s">
         <v>978</v>
@@ -23373,10 +23420,10 @@
         <v>66</v>
       </c>
       <c r="O58" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P58" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q58" s="26" t="s">
         <v>978</v>
@@ -23612,10 +23659,10 @@
         <v>66</v>
       </c>
       <c r="O59" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P59" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q59" s="26" t="s">
         <v>978</v>
@@ -23851,10 +23898,10 @@
         <v>66</v>
       </c>
       <c r="O60" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P60" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q60" s="26" t="s">
         <v>978</v>
@@ -24090,10 +24137,10 @@
         <v>66</v>
       </c>
       <c r="O61" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P61" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q61" s="26" t="s">
         <v>978</v>
@@ -24329,10 +24376,10 @@
         <v>66</v>
       </c>
       <c r="O62" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P62" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q62" s="26" t="s">
         <v>978</v>
@@ -24568,10 +24615,10 @@
         <v>66</v>
       </c>
       <c r="O63" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P63" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q63" s="26" t="s">
         <v>978</v>
@@ -24807,10 +24854,10 @@
         <v>877</v>
       </c>
       <c r="O64" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P64" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q64" s="26" t="s">
         <v>978</v>
@@ -25046,10 +25093,10 @@
         <v>66</v>
       </c>
       <c r="O65" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P65" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q65" s="26" t="s">
         <v>978</v>
@@ -25285,10 +25332,10 @@
         <v>66</v>
       </c>
       <c r="O66" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P66" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q66" s="26" t="s">
         <v>978</v>
@@ -25524,10 +25571,10 @@
         <v>66</v>
       </c>
       <c r="O67" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P67" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q67" s="26" t="s">
         <v>978</v>
@@ -25763,10 +25810,10 @@
         <v>66</v>
       </c>
       <c r="O68" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P68" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q68" s="26" t="s">
         <v>978</v>
@@ -26002,10 +26049,10 @@
         <v>66</v>
       </c>
       <c r="O69" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P69" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q69" s="26" t="s">
         <v>978</v>
@@ -26241,10 +26288,10 @@
         <v>66</v>
       </c>
       <c r="O70" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P70" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q70" s="26" t="s">
         <v>978</v>
@@ -26480,10 +26527,10 @@
         <v>66</v>
       </c>
       <c r="O71" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P71" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q71" s="26" t="s">
         <v>978</v>
@@ -26719,10 +26766,10 @@
         <v>66</v>
       </c>
       <c r="O72" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P72" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q72" s="26" t="s">
         <v>978</v>
@@ -26958,10 +27005,10 @@
         <v>66</v>
       </c>
       <c r="O73" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P73" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q73" s="26" t="s">
         <v>978</v>
@@ -27197,10 +27244,10 @@
         <v>66</v>
       </c>
       <c r="O74" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P74" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q74" s="26" t="s">
         <v>978</v>
@@ -27436,10 +27483,10 @@
         <v>66</v>
       </c>
       <c r="O75" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P75" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q75" s="26" t="s">
         <v>978</v>
@@ -27702,10 +27749,10 @@
         <v>66</v>
       </c>
       <c r="O76" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P76" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q76" s="26" t="s">
         <v>978</v>
@@ -27941,10 +27988,10 @@
         <v>66</v>
       </c>
       <c r="O77" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P77" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q77" s="26" t="s">
         <v>978</v>
@@ -28180,10 +28227,10 @@
         <v>66</v>
       </c>
       <c r="O78" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P78" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q78" s="26" t="s">
         <v>978</v>
@@ -28419,10 +28466,10 @@
         <v>66</v>
       </c>
       <c r="O79" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P79" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q79" s="26" t="s">
         <v>978</v>
@@ -28658,10 +28705,10 @@
         <v>66</v>
       </c>
       <c r="O80" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P80" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q80" s="26" t="s">
         <v>978</v>
@@ -28897,10 +28944,10 @@
         <v>66</v>
       </c>
       <c r="O81" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P81" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q81" s="26" t="s">
         <v>978</v>
@@ -29136,10 +29183,10 @@
         <v>66</v>
       </c>
       <c r="O82" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P82" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q82" s="26" t="s">
         <v>978</v>
@@ -29375,10 +29422,10 @@
         <v>66</v>
       </c>
       <c r="O83" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P83" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q83" s="26" t="s">
         <v>978</v>
@@ -29614,10 +29661,10 @@
         <v>66</v>
       </c>
       <c r="O84" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P84" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q84" s="26" t="s">
         <v>978</v>
@@ -29854,10 +29901,10 @@
         <v>66</v>
       </c>
       <c r="O85" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P85" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q85" s="26" t="s">
         <v>978</v>
@@ -30093,10 +30140,10 @@
         <v>66</v>
       </c>
       <c r="O86" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P86" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q86" s="26" t="s">
         <v>978</v>
@@ -30332,10 +30379,10 @@
         <v>66</v>
       </c>
       <c r="O87" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P87" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q87" s="26" t="s">
         <v>978</v>
@@ -30571,10 +30618,10 @@
         <v>66</v>
       </c>
       <c r="O88" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P88" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q88" s="26" t="s">
         <v>978</v>
@@ -30810,10 +30857,10 @@
         <v>66</v>
       </c>
       <c r="O89" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P89" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q89" s="26" t="s">
         <v>978</v>
@@ -31049,10 +31096,10 @@
         <v>66</v>
       </c>
       <c r="O90" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P90" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q90" s="26" t="s">
         <v>978</v>
@@ -31288,10 +31335,10 @@
         <v>66</v>
       </c>
       <c r="O91" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P91" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q91" s="26" t="s">
         <v>978</v>
@@ -31527,10 +31574,10 @@
         <v>66</v>
       </c>
       <c r="O92" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P92" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q92" s="26" t="s">
         <v>978</v>
@@ -31766,10 +31813,10 @@
         <v>66</v>
       </c>
       <c r="O93" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P93" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q93" s="26" t="s">
         <v>978</v>
@@ -32005,10 +32052,10 @@
         <v>66</v>
       </c>
       <c r="O94" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P94" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q94" s="26" t="s">
         <v>978</v>
@@ -32244,10 +32291,10 @@
         <v>66</v>
       </c>
       <c r="O95" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P95" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q95" s="26" t="s">
         <v>978</v>
@@ -32483,10 +32530,10 @@
         <v>66</v>
       </c>
       <c r="O96" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P96" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q96" s="26" t="s">
         <v>978</v>
@@ -32722,10 +32769,10 @@
         <v>66</v>
       </c>
       <c r="O97" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P97" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q97" s="26" t="s">
         <v>978</v>
@@ -32961,10 +33008,10 @@
         <v>66</v>
       </c>
       <c r="O98" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P98" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q98" s="26" t="s">
         <v>978</v>
@@ -33200,10 +33247,10 @@
         <v>66</v>
       </c>
       <c r="O99" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P99" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q99" s="26" t="s">
         <v>978</v>
@@ -33439,10 +33486,10 @@
         <v>0</v>
       </c>
       <c r="O100" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P100" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q100" s="26" t="s">
         <v>978</v>
@@ -33678,10 +33725,10 @@
         <v>66</v>
       </c>
       <c r="O101" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P101" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q101" s="26" t="s">
         <v>978</v>
@@ -33917,10 +33964,10 @@
         <v>66</v>
       </c>
       <c r="O102" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P102" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q102" s="26" t="s">
         <v>978</v>
@@ -34156,10 +34203,10 @@
         <v>66</v>
       </c>
       <c r="O103" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P103" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q103" s="26" t="s">
         <v>978</v>
@@ -34389,16 +34436,16 @@
         <v>0</v>
       </c>
       <c r="M104" s="98" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="N104" s="15" t="s">
         <v>66</v>
       </c>
       <c r="O104" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P104" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q104" s="26" t="s">
         <v>978</v>
@@ -34628,16 +34675,16 @@
         <v>0</v>
       </c>
       <c r="M105" s="98" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="N105" s="15" t="s">
         <v>66</v>
       </c>
       <c r="O105" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P105" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q105" s="26" t="s">
         <v>978</v>
@@ -34873,10 +34920,10 @@
         <v>66</v>
       </c>
       <c r="O106" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P106" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q106" s="26" t="s">
         <v>978</v>
@@ -35112,10 +35159,10 @@
         <v>66</v>
       </c>
       <c r="O107" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P107" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q107" s="26" t="s">
         <v>978</v>
@@ -35366,10 +35413,10 @@
         <v>66</v>
       </c>
       <c r="O108" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P108" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q108" s="26" t="s">
         <v>978</v>
@@ -35605,10 +35652,10 @@
         <v>66</v>
       </c>
       <c r="O109" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P109" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q109" s="26" t="s">
         <v>978</v>
@@ -35844,10 +35891,10 @@
         <v>66</v>
       </c>
       <c r="O110" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P110" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q110" s="26" t="s">
         <v>978</v>
@@ -36083,10 +36130,10 @@
         <v>66</v>
       </c>
       <c r="O111" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P111" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q111" s="26" t="s">
         <v>978</v>
@@ -36322,10 +36369,10 @@
         <v>66</v>
       </c>
       <c r="O112" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P112" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q112" s="26" t="s">
         <v>978</v>
@@ -36561,10 +36608,10 @@
         <v>66</v>
       </c>
       <c r="O113" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P113" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q113" s="26" t="s">
         <v>978</v>
@@ -36800,10 +36847,10 @@
         <v>66</v>
       </c>
       <c r="O114" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P114" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q114" s="26" t="s">
         <v>978</v>
@@ -36997,13 +37044,13 @@
     </row>
     <row r="115" spans="1:36">
       <c r="A115" s="9" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="D115" s="15" t="s">
         <v>977</v>
@@ -37024,28 +37071,28 @@
         <v>0</v>
       </c>
       <c r="J115" s="15" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="K115" s="15" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="L115" s="97" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="M115" s="98" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="N115" s="15" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="O115" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P115" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q115" s="26" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="R115" s="9" t="str">
         <f t="shared" si="12"/>
@@ -37236,19 +37283,19 @@
     </row>
     <row r="116" spans="1:36">
       <c r="A116" s="9" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D116" s="15" t="s">
         <v>1239</v>
       </c>
-      <c r="B116" s="9" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>1238</v>
-      </c>
-      <c r="D116" s="15" t="s">
-        <v>1241</v>
-      </c>
       <c r="E116" s="26" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="F116" s="15" t="s">
         <v>0</v>
@@ -37278,13 +37325,13 @@
         <v>0</v>
       </c>
       <c r="O116" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P116" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q116" s="26" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="R116" s="9" t="str">
         <f t="shared" si="12"/>
@@ -37475,19 +37522,19 @@
     </row>
     <row r="117" spans="1:36">
       <c r="A117" s="9" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="D117" s="15" t="s">
         <v>977</v>
       </c>
       <c r="E117" s="26" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="F117" s="15" t="s">
         <v>0</v>
@@ -37517,10 +37564,10 @@
         <v>977</v>
       </c>
       <c r="O117" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P117" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q117" s="26" t="s">
         <v>977</v>
@@ -37714,19 +37761,19 @@
     </row>
     <row r="118" spans="1:36">
       <c r="A118" s="9" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D118" s="15" t="s">
         <v>1332</v>
       </c>
-      <c r="B118" s="9" t="s">
-        <v>1333</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>1331</v>
-      </c>
-      <c r="D118" s="15" t="s">
-        <v>1334</v>
-      </c>
       <c r="E118" s="26" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="F118" s="15" t="s">
         <v>28</v>
@@ -37741,28 +37788,28 @@
         <v>0</v>
       </c>
       <c r="J118" s="15" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="K118" s="15" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="L118" s="97" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="M118" s="98" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="N118" s="15" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="O118" s="26" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="P118" s="164" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="Q118" s="26" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="R118" s="9" t="str">
         <f t="shared" si="12"/>
@@ -38015,10 +38062,10 @@
         <v>66</v>
       </c>
       <c r="O119" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P119" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q119" s="26" t="s">
         <v>978</v>
@@ -38254,10 +38301,10 @@
         <v>66</v>
       </c>
       <c r="O120" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P120" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q120" s="26" t="s">
         <v>978</v>
@@ -38493,10 +38540,10 @@
         <v>66</v>
       </c>
       <c r="O121" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P121" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q121" s="26" t="s">
         <v>978</v>
@@ -38732,10 +38779,10 @@
         <v>66</v>
       </c>
       <c r="O122" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P122" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q122" s="26" t="s">
         <v>978</v>
@@ -38971,10 +39018,10 @@
         <v>66</v>
       </c>
       <c r="O123" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P123" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q123" s="26" t="s">
         <v>978</v>
@@ -39210,10 +39257,10 @@
         <v>66</v>
       </c>
       <c r="O124" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P124" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q124" s="26" t="s">
         <v>978</v>
@@ -39449,10 +39496,10 @@
         <v>66</v>
       </c>
       <c r="O125" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P125" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q125" s="26" t="s">
         <v>978</v>
@@ -39688,10 +39735,10 @@
         <v>66</v>
       </c>
       <c r="O126" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P126" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q126" s="26" t="s">
         <v>978</v>
@@ -39927,10 +39974,10 @@
         <v>66</v>
       </c>
       <c r="O127" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P127" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q127" s="26" t="s">
         <v>978</v>
@@ -40124,13 +40171,13 @@
     </row>
     <row r="128" spans="1:36">
       <c r="A128" s="9" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="D128" s="15" t="s">
         <v>977</v>
@@ -40166,10 +40213,10 @@
         <v>977</v>
       </c>
       <c r="O128" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P128" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q128" s="26" t="s">
         <v>40</v>
@@ -40405,10 +40452,10 @@
         <v>877</v>
       </c>
       <c r="O129" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P129" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q129" s="26" t="s">
         <v>978</v>
@@ -40644,10 +40691,10 @@
         <v>66</v>
       </c>
       <c r="O130" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P130" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q130" s="26" t="s">
         <v>978</v>
@@ -40883,10 +40930,10 @@
         <v>66</v>
       </c>
       <c r="O131" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P131" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q131" s="26" t="s">
         <v>978</v>
@@ -41122,10 +41169,10 @@
         <v>66</v>
       </c>
       <c r="O132" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P132" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q132" s="26" t="s">
         <v>978</v>
@@ -41361,10 +41408,10 @@
         <v>66</v>
       </c>
       <c r="O133" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P133" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q133" s="26" t="s">
         <v>978</v>
@@ -41600,10 +41647,10 @@
         <v>66</v>
       </c>
       <c r="O134" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P134" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q134" s="26" t="s">
         <v>978</v>
@@ -41839,10 +41886,10 @@
         <v>582</v>
       </c>
       <c r="O135" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P135" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q135" s="26" t="s">
         <v>978</v>
@@ -42078,10 +42125,10 @@
         <v>582</v>
       </c>
       <c r="O136" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P136" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q136" s="26" t="s">
         <v>978</v>
@@ -42317,10 +42364,10 @@
         <v>582</v>
       </c>
       <c r="O137" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P137" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q137" s="26" t="s">
         <v>978</v>
@@ -42514,19 +42561,19 @@
     </row>
     <row r="138" spans="1:36">
       <c r="A138" s="9" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B138" s="9" t="s">
         <v>1193</v>
       </c>
-      <c r="B138" s="9" t="s">
-        <v>1195</v>
-      </c>
       <c r="C138" s="9" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D138" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E138" s="26" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F138" s="15" t="s">
         <v>0</v>
@@ -42541,7 +42588,7 @@
         <v>0</v>
       </c>
       <c r="J138" s="15" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="K138" s="15" t="s">
         <v>40</v>
@@ -42556,10 +42603,10 @@
         <v>40</v>
       </c>
       <c r="O138" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P138" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q138" s="26" t="s">
         <v>40</v>
@@ -42753,16 +42800,16 @@
     </row>
     <row r="139" spans="1:36">
       <c r="A139" s="9" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="C139" s="9" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D139" s="15" t="s">
         <v>1235</v>
-      </c>
-      <c r="D139" s="15" t="s">
-        <v>1237</v>
       </c>
       <c r="E139" s="26" t="s">
         <v>40</v>
@@ -42780,7 +42827,7 @@
         <v>0</v>
       </c>
       <c r="J139" s="15" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="K139" s="15" t="s">
         <v>40</v>
@@ -42795,10 +42842,10 @@
         <v>40</v>
       </c>
       <c r="O139" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P139" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q139" s="26" t="s">
         <v>40</v>
@@ -43041,10 +43088,10 @@
         <v>877</v>
       </c>
       <c r="O140" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P140" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q140" s="26" t="s">
         <v>978</v>
@@ -43300,10 +43347,10 @@
         <v>66</v>
       </c>
       <c r="O141" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P141" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q141" s="26" t="s">
         <v>978</v>
@@ -43539,10 +43586,10 @@
         <v>66</v>
       </c>
       <c r="O142" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P142" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q142" s="26" t="s">
         <v>978</v>
@@ -43778,10 +43825,10 @@
         <v>66</v>
       </c>
       <c r="O143" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P143" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q143" s="26" t="s">
         <v>978</v>
@@ -44017,10 +44064,10 @@
         <v>66</v>
       </c>
       <c r="O144" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P144" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q144" s="26" t="s">
         <v>978</v>
@@ -44256,10 +44303,10 @@
         <v>66</v>
       </c>
       <c r="O145" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P145" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q145" s="26" t="s">
         <v>978</v>
@@ -44495,10 +44542,10 @@
         <v>66</v>
       </c>
       <c r="O146" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P146" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q146" s="26" t="s">
         <v>978</v>
@@ -44734,10 +44781,10 @@
         <v>66</v>
       </c>
       <c r="O147" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P147" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q147" s="26" t="s">
         <v>978</v>
@@ -44973,10 +45020,10 @@
         <v>66</v>
       </c>
       <c r="O148" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P148" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q148" s="26" t="s">
         <v>978</v>
@@ -45212,10 +45259,10 @@
         <v>66</v>
       </c>
       <c r="O149" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P149" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q149" s="26" t="s">
         <v>978</v>
@@ -45451,10 +45498,10 @@
         <v>66</v>
       </c>
       <c r="O150" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P150" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q150" s="26" t="s">
         <v>978</v>
@@ -45690,10 +45737,10 @@
         <v>66</v>
       </c>
       <c r="O151" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P151" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q151" s="26" t="s">
         <v>978</v>
@@ -45929,10 +45976,10 @@
         <v>66</v>
       </c>
       <c r="O152" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P152" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q152" s="26" t="s">
         <v>978</v>
@@ -46168,10 +46215,10 @@
         <v>66</v>
       </c>
       <c r="O153" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P153" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q153" s="26" t="s">
         <v>978</v>
@@ -46407,10 +46454,10 @@
         <v>66</v>
       </c>
       <c r="O154" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P154" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q154" s="26" t="s">
         <v>978</v>
@@ -46646,10 +46693,10 @@
         <v>66</v>
       </c>
       <c r="O155" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P155" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q155" s="26" t="s">
         <v>978</v>
@@ -46885,10 +46932,10 @@
         <v>66</v>
       </c>
       <c r="O156" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P156" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q156" s="26" t="s">
         <v>978</v>
@@ -47124,10 +47171,10 @@
         <v>66</v>
       </c>
       <c r="O157" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P157" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q157" s="26" t="s">
         <v>978</v>
@@ -47363,10 +47410,10 @@
         <v>66</v>
       </c>
       <c r="O158" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P158" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q158" s="26" t="s">
         <v>978</v>
@@ -47602,10 +47649,10 @@
         <v>66</v>
       </c>
       <c r="O159" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P159" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q159" s="26" t="s">
         <v>978</v>
@@ -47841,10 +47888,10 @@
         <v>66</v>
       </c>
       <c r="O160" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P160" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q160" s="26" t="s">
         <v>978</v>
@@ -48080,10 +48127,10 @@
         <v>66</v>
       </c>
       <c r="O161" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P161" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q161" s="26" t="s">
         <v>978</v>
@@ -48319,10 +48366,10 @@
         <v>66</v>
       </c>
       <c r="O162" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P162" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q162" s="26" t="s">
         <v>978</v>
@@ -48558,10 +48605,10 @@
         <v>66</v>
       </c>
       <c r="O163" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P163" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q163" s="26" t="s">
         <v>978</v>
@@ -48797,10 +48844,10 @@
         <v>66</v>
       </c>
       <c r="O164" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P164" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q164" s="26" t="s">
         <v>978</v>
@@ -49036,10 +49083,10 @@
         <v>66</v>
       </c>
       <c r="O165" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P165" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q165" s="26" t="s">
         <v>978</v>
@@ -49275,10 +49322,10 @@
         <v>66</v>
       </c>
       <c r="O166" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P166" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q166" s="26" t="s">
         <v>978</v>
@@ -49514,10 +49561,10 @@
         <v>66</v>
       </c>
       <c r="O167" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P167" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q167" s="26" t="s">
         <v>978</v>
@@ -49753,10 +49800,10 @@
         <v>66</v>
       </c>
       <c r="O168" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P168" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q168" s="26" t="s">
         <v>978</v>
@@ -49992,10 +50039,10 @@
         <v>66</v>
       </c>
       <c r="O169" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P169" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q169" s="26" t="s">
         <v>978</v>
@@ -50231,10 +50278,10 @@
         <v>66</v>
       </c>
       <c r="O170" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P170" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q170" s="26" t="s">
         <v>978</v>
@@ -50470,10 +50517,10 @@
         <v>66</v>
       </c>
       <c r="O171" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P171" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q171" s="26" t="s">
         <v>978</v>
@@ -50716,10 +50763,10 @@
         <v>66</v>
       </c>
       <c r="O172" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P172" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q172" s="26" t="s">
         <v>978</v>
@@ -50963,10 +51010,10 @@
         <v>66</v>
       </c>
       <c r="O173" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P173" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q173" s="26" t="s">
         <v>978</v>
@@ -51202,10 +51249,10 @@
         <v>66</v>
       </c>
       <c r="O174" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P174" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q174" s="26" t="s">
         <v>978</v>
@@ -51441,10 +51488,10 @@
         <v>66</v>
       </c>
       <c r="O175" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P175" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q175" s="26" t="s">
         <v>978</v>
@@ -51680,10 +51727,10 @@
         <v>66</v>
       </c>
       <c r="O176" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P176" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q176" s="26" t="s">
         <v>978</v>
@@ -51919,10 +51966,10 @@
         <v>40</v>
       </c>
       <c r="O177" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P177" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q177" s="26" t="s">
         <v>978</v>
@@ -52158,10 +52205,10 @@
         <v>66</v>
       </c>
       <c r="O178" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P178" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q178" s="26" t="s">
         <v>978</v>
@@ -52397,10 +52444,10 @@
         <v>66</v>
       </c>
       <c r="O179" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P179" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q179" s="26" t="s">
         <v>978</v>
@@ -52636,10 +52683,10 @@
         <v>66</v>
       </c>
       <c r="O180" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P180" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q180" s="26" t="s">
         <v>978</v>
@@ -52875,10 +52922,10 @@
         <v>66</v>
       </c>
       <c r="O181" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P181" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q181" s="26" t="s">
         <v>978</v>
@@ -53114,10 +53161,10 @@
         <v>66</v>
       </c>
       <c r="O182" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P182" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q182" s="26" t="s">
         <v>978</v>
@@ -53353,10 +53400,10 @@
         <v>66</v>
       </c>
       <c r="O183" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P183" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q183" s="26" t="s">
         <v>978</v>
@@ -53592,10 +53639,10 @@
         <v>877</v>
       </c>
       <c r="O184" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P184" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q184" s="26" t="s">
         <v>978</v>
@@ -53831,10 +53878,10 @@
         <v>571</v>
       </c>
       <c r="O185" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P185" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q185" s="26" t="s">
         <v>978</v>
@@ -54070,10 +54117,10 @@
         <v>877</v>
       </c>
       <c r="O186" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P186" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q186" s="26" t="s">
         <v>978</v>
@@ -54309,10 +54356,10 @@
         <v>66</v>
       </c>
       <c r="O187" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P187" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q187" s="26" t="s">
         <v>978</v>
@@ -54548,10 +54595,10 @@
         <v>66</v>
       </c>
       <c r="O188" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P188" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q188" s="26" t="s">
         <v>978</v>
@@ -54787,10 +54834,10 @@
         <v>66</v>
       </c>
       <c r="O189" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P189" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q189" s="26" t="s">
         <v>978</v>
@@ -55026,10 +55073,10 @@
         <v>977</v>
       </c>
       <c r="O190" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P190" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q190" s="26" t="s">
         <v>980</v>
@@ -55265,10 +55312,10 @@
         <v>0</v>
       </c>
       <c r="O191" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P191" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q191" s="26" t="s">
         <v>40</v>
@@ -55462,13 +55509,13 @@
     </row>
     <row r="192" spans="1:36">
       <c r="A192" s="9" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="D192" s="15" t="s">
         <v>977</v>
@@ -55504,10 +55551,10 @@
         <v>977</v>
       </c>
       <c r="O192" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P192" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q192" s="26" t="s">
         <v>40</v>
@@ -55701,10 +55748,10 @@
     </row>
     <row r="193" spans="1:36">
       <c r="A193" s="9" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="C193" s="9" t="s">
         <v>1099</v>
@@ -55725,7 +55772,7 @@
         <v>550</v>
       </c>
       <c r="I193" s="15" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="J193" s="15" t="s">
         <v>977</v>
@@ -55743,10 +55790,10 @@
         <v>977</v>
       </c>
       <c r="O193" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P193" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q193" s="26" t="s">
         <v>40</v>
@@ -55940,10 +55987,10 @@
     </row>
     <row r="194" spans="1:36">
       <c r="A194" s="9" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="C194" s="9" t="s">
         <v>1104</v>
@@ -55964,7 +56011,7 @@
         <v>550</v>
       </c>
       <c r="I194" s="15" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="J194" s="15" t="s">
         <v>977</v>
@@ -55982,10 +56029,10 @@
         <v>977</v>
       </c>
       <c r="O194" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P194" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q194" s="26" t="s">
         <v>40</v>
@@ -56179,10 +56226,10 @@
     </row>
     <row r="195" spans="1:36">
       <c r="A195" s="9" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="C195" s="9" t="s">
         <v>1105</v>
@@ -56203,7 +56250,7 @@
         <v>550</v>
       </c>
       <c r="I195" s="15" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="J195" s="15" t="s">
         <v>977</v>
@@ -56221,10 +56268,10 @@
         <v>977</v>
       </c>
       <c r="O195" s="26" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P195" s="164" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q195" s="26" t="s">
         <v>40</v>
@@ -56418,13 +56465,13 @@
     </row>
     <row r="196" spans="1:36">
       <c r="A196" s="9" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="C196" s="9" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="D196" s="15" t="s">
         <v>977</v>
@@ -56442,7 +56489,7 @@
         <v>550</v>
       </c>
       <c r="I196" s="15" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="J196" s="15" t="s">
         <v>977</v>
@@ -56460,10 +56507,10 @@
         <v>977</v>
       </c>
       <c r="O196" s="26" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="P196" s="164" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="Q196" s="26" t="s">
         <v>40</v>
@@ -56668,23 +56715,57 @@
       </c>
     </row>
     <row r="197" spans="1:36">
-      <c r="A197" s="9"/>
-      <c r="B197" s="9"/>
-      <c r="C197" s="9"/>
-      <c r="D197" s="15"/>
-      <c r="E197" s="26"/>
-      <c r="F197" s="15"/>
-      <c r="G197" s="15"/>
-      <c r="H197" s="9"/>
-      <c r="I197" s="15"/>
-      <c r="J197" s="15"/>
-      <c r="K197" s="15"/>
-      <c r="L197" s="97"/>
-      <c r="M197" s="98"/>
-      <c r="N197" s="15"/>
-      <c r="O197" s="26"/>
-      <c r="P197" s="164"/>
-      <c r="Q197" s="26"/>
+      <c r="A197" s="9" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C197" s="9" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D197" s="15" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E197" s="26" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F197" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G197" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H197" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="I197" s="15" t="s">
+        <v>1339</v>
+      </c>
+      <c r="J197" s="15" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K197" s="15" t="s">
+        <v>1339</v>
+      </c>
+      <c r="L197" s="97" t="s">
+        <v>1339</v>
+      </c>
+      <c r="M197" s="98" t="s">
+        <v>1339</v>
+      </c>
+      <c r="N197" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="O197" s="26" t="s">
+        <v>1339</v>
+      </c>
+      <c r="P197" s="164" t="s">
+        <v>1339</v>
+      </c>
+      <c r="Q197" s="26" t="s">
+        <v>1339</v>
+      </c>
       <c r="R197" s="9" t="str">
         <f t="shared" si="19"/>
         <v/>
@@ -56710,7 +56791,7 @@
         <v/>
       </c>
       <c r="U197" s="9" t="str">
-        <f>IFERROR(
+        <f ca="1">IFERROR(
   VLOOKUP(
     $H197,
     shortcut設定!$F:$J,
@@ -56723,7 +56804,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>200</v>
       </c>
       <c r="V197" s="13" t="str">
         <f>IF(
@@ -56797,7 +56878,7 @@
         <v/>
       </c>
       <c r="AB197" s="9" t="str">
-        <f>IFERROR(
+        <f ca="1">IFERROR(
   VLOOKUP(
     $H197,
     shortcut設定!$F:$J,
@@ -56810,7 +56891,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>200</v>
       </c>
       <c r="AC197" s="20" t="str">
         <f t="shared" si="20"/>
@@ -56836,7 +56917,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\BackupOtherPrgSettings.bat（各種プログラム設定バックアップ）.lnk" "C:\codes\bat\tools\other\BackupOtherPrgSettings.bat" "" ""</v>
       </c>
       <c r="AF197" s="9" t="str">
         <f>IF(
@@ -56844,7 +56925,7 @@
   shortcut設定!$F$6&amp;"\"&amp;A197&amp;"（"&amp;B197&amp;"）.lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\BackupOtherPrgSettings.bat（各種プログラム設定バックアップ）.lnk</v>
       </c>
       <c r="AG197" s="13" t="str">
         <f t="shared" ref="AG197:AG202" si="22">IF(
@@ -57980,12 +58061,12 @@
   </sheetPr>
   <dimension ref="A2:M84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="11" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G17" sqref="G17"/>
       <selection pane="topRight" activeCell="G17" sqref="G17"/>
       <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
-      <selection pane="bottomRight" activeCell="A67" sqref="A67"/>
+      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="11.25"/>
@@ -58081,10 +58162,10 @@
         <v>45</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>189</v>
@@ -58098,7 +58179,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>25</v>
@@ -58159,7 +58240,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1</v>
@@ -58212,7 +58293,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>34</v>
@@ -58265,7 +58346,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>2</v>
@@ -58318,7 +58399,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="6" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>35</v>
@@ -58371,7 +58452,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="6" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>36</v>
@@ -58424,7 +58505,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="6" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>37</v>
@@ -58480,7 +58561,7 @@
         <v>164</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>156</v>
@@ -59169,7 +59250,7 @@
         <v>917</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>156</v>
@@ -59184,10 +59265,10 @@
         <v>0</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="I32" s="1" t="str">
         <f>IF($F32="○","mkdir """&amp;[1]!getdirpath($H32)&amp;"""","")</f>
@@ -59230,7 +59311,7 @@
         <v>917</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>0</v>
@@ -59245,10 +59326,10 @@
         <v>0</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="I33" s="1" t="str">
         <f>IF($F33="○","mkdir """&amp;[1]!getdirpath($H33)&amp;"""","")</f>
@@ -59283,7 +59364,7 @@
         <v>917</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>0</v>
@@ -59298,10 +59379,10 @@
         <v>0</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="I34" s="1" t="str">
         <f>IF($F34="○","mkdir """&amp;[1]!getdirpath($H34)&amp;"""","")</f>
@@ -59351,7 +59432,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>154</v>
@@ -59389,7 +59470,7 @@
         <v>917</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>334</v>
@@ -59407,7 +59488,7 @@
         <v>909</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="I36" s="1" t="str">
         <f>IF($F36="○","mkdir """&amp;[1]!getdirpath($H36)&amp;"""","")</f>
@@ -59442,7 +59523,7 @@
         <v>917</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>334</v>
@@ -59460,7 +59541,7 @@
         <v>911</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="I37" s="1" t="str">
         <f>IF($F37="○","mkdir """&amp;[1]!getdirpath($H37)&amp;"""","")</f>
@@ -59722,7 +59803,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>1122</v>
@@ -59775,10 +59856,10 @@
         <v>28</v>
       </c>
       <c r="G43" s="101" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="H43" s="101" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="I43" s="101" t="str">
         <f>IF($F43="○","mkdir """&amp;[1]!getdirpath($H43)&amp;"""","")</f>
@@ -60215,10 +60296,10 @@
         <v>28</v>
       </c>
       <c r="G51" s="101" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="H51" s="101" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="I51" s="101" t="str">
         <f>IF($F51="○","mkdir """&amp;[1]!getdirpath($H51)&amp;"""","")</f>
@@ -60279,7 +60360,7 @@
         <v>989</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="I52" s="1" t="str">
         <f>IF($F52="○","mkdir """&amp;[1]!getdirpath($H52)&amp;"""","")</f>
@@ -60322,7 +60403,7 @@
         <v>915</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>0</v>
@@ -60337,10 +60418,10 @@
         <v>0</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="I53" s="1" t="str">
         <f>IF($F53="○","mkdir """&amp;[1]!getdirpath($H53)&amp;"""","")</f>
@@ -61056,12 +61137,12 @@
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
   </sheetData>
@@ -61114,17 +61195,17 @@
   <sheetData>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="99" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="99" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -61133,7 +61214,7 @@
       </c>
       <c r="G6" s="5"/>
       <c r="I6" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -61141,7 +61222,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>193</v>
@@ -61150,7 +61231,7 @@
         <v>194</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>172</v>
@@ -61162,7 +61243,7 @@
         <v>200</v>
       </c>
       <c r="I7" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="3" customHeight="1">
@@ -61175,22 +61256,22 @@
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="22.5">
       <c r="A9" s="143" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="148" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="D9" s="148" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="E9" s="148" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="F9" s="103" t="s">
         <v>156</v>
@@ -61199,7 +61280,7 @@
         <v>156</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="I9" t="s">
         <v>29</v>
@@ -61217,7 +61298,7 @@
         <v>321</v>
       </c>
       <c r="E10" s="148" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F10" s="103" t="s">
         <v>156</v>
@@ -61227,7 +61308,7 @@
       </c>
       <c r="H10" s="33"/>
       <c r="I10" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -61236,13 +61317,13 @@
       </c>
       <c r="B11" s="44"/>
       <c r="C11" s="42" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="F11" s="38" t="s">
         <v>156</v>
@@ -61261,10 +61342,10 @@
       </c>
       <c r="B12" s="44"/>
       <c r="C12" s="42" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="E12" s="153"/>
       <c r="F12" s="38" t="s">
@@ -61284,10 +61365,10 @@
       </c>
       <c r="B13" s="44"/>
       <c r="C13" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E13" s="153"/>
       <c r="F13" s="38" t="s">
@@ -61307,10 +61388,10 @@
       </c>
       <c r="B14" s="44"/>
       <c r="C14" s="42" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="E14" s="153"/>
       <c r="F14" s="38" t="s">
@@ -61330,10 +61411,10 @@
       </c>
       <c r="B15" s="44"/>
       <c r="C15" s="42" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="E15" s="153"/>
       <c r="F15" s="38" t="s">
@@ -61353,10 +61434,10 @@
       </c>
       <c r="B16" s="44"/>
       <c r="C16" s="42" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="E16" s="153"/>
       <c r="F16" s="38" t="s">
@@ -61376,13 +61457,13 @@
       </c>
       <c r="B17" s="44"/>
       <c r="C17" s="42" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F17" s="38" t="s">
         <v>156</v>
@@ -61392,7 +61473,7 @@
       </c>
       <c r="H17" s="37"/>
       <c r="I17" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -61401,13 +61482,13 @@
       </c>
       <c r="B18" s="44"/>
       <c r="C18" s="42" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="F18" s="38" t="s">
         <v>156</v>
@@ -61426,13 +61507,13 @@
       </c>
       <c r="B19" s="44"/>
       <c r="C19" s="42" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="E19" s="154" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="F19" s="38" t="s">
         <v>156</v>
@@ -61451,13 +61532,13 @@
       </c>
       <c r="B20" s="45"/>
       <c r="C20" s="43" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F20" s="40" t="s">
         <v>156</v>
@@ -61475,7 +61556,7 @@
         <v>310</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C21" s="35" t="s">
         <v>192</v>
@@ -61484,7 +61565,7 @@
         <v>309</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F21" s="36" t="s">
         <v>156</v>
@@ -61494,7 +61575,7 @@
       </c>
       <c r="H21" s="35"/>
       <c r="I21" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -61509,7 +61590,7 @@
         <v>309</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F22" s="38" t="s">
         <v>156</v>
@@ -61519,7 +61600,7 @@
       </c>
       <c r="H22" s="37"/>
       <c r="I22" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -61534,7 +61615,7 @@
         <v>309</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F23" s="38" t="s">
         <v>156</v>
@@ -61544,7 +61625,7 @@
       </c>
       <c r="H23" s="37"/>
       <c r="I23" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -61559,7 +61640,7 @@
         <v>309</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F24" s="38" t="s">
         <v>156</v>
@@ -61569,7 +61650,7 @@
       </c>
       <c r="H24" s="37"/>
       <c r="I24" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -61584,7 +61665,7 @@
         <v>309</v>
       </c>
       <c r="E25" s="37" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F25" s="38" t="s">
         <v>156</v>
@@ -61594,7 +61675,7 @@
       </c>
       <c r="H25" s="37"/>
       <c r="I25" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -61609,7 +61690,7 @@
         <v>309</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F26" s="38" t="s">
         <v>156</v>
@@ -61619,7 +61700,7 @@
       </c>
       <c r="H26" s="37"/>
       <c r="I26" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -61628,13 +61709,13 @@
       </c>
       <c r="B27" s="44"/>
       <c r="C27" s="49" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="D27" s="49" t="s">
         <v>40</v>
       </c>
       <c r="E27" s="49" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F27" s="50" t="s">
         <v>156</v>
@@ -61652,16 +61733,16 @@
         <v>310</v>
       </c>
       <c r="B28" s="49" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="D28" s="37" t="s">
         <v>309</v>
       </c>
       <c r="E28" s="37" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="F28" s="38" t="s">
         <v>156</v>
@@ -61671,7 +61752,7 @@
       </c>
       <c r="H28" s="37"/>
       <c r="I28" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -61680,13 +61761,13 @@
       </c>
       <c r="B29" s="44"/>
       <c r="C29" s="37" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="D29" s="37" t="s">
         <v>309</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="F29" s="38" t="s">
         <v>156</v>
@@ -61696,7 +61777,7 @@
       </c>
       <c r="H29" s="37"/>
       <c r="I29" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -61705,13 +61786,13 @@
       </c>
       <c r="B30" s="44"/>
       <c r="C30" s="37" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="D30" s="37" t="s">
         <v>309</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F30" s="38" t="s">
         <v>156</v>
@@ -61721,7 +61802,7 @@
       </c>
       <c r="H30" s="37"/>
       <c r="I30" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -61730,13 +61811,13 @@
       </c>
       <c r="B31" s="44"/>
       <c r="C31" s="37" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="D31" s="37" t="s">
         <v>309</v>
       </c>
       <c r="E31" s="37" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="F31" s="38" t="s">
         <v>156</v>
@@ -61746,7 +61827,7 @@
       </c>
       <c r="H31" s="37"/>
       <c r="I31" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -61755,13 +61836,13 @@
       </c>
       <c r="B32" s="44"/>
       <c r="C32" s="37" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="D32" s="37" t="s">
         <v>309</v>
       </c>
       <c r="E32" s="37" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="F32" s="38" t="s">
         <v>156</v>
@@ -61771,7 +61852,7 @@
       </c>
       <c r="H32" s="37"/>
       <c r="I32" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -61780,13 +61861,13 @@
       </c>
       <c r="B33" s="44"/>
       <c r="C33" s="37" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="D33" s="37" t="s">
         <v>40</v>
       </c>
       <c r="E33" s="37" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="F33" s="38" t="s">
         <v>156</v>
@@ -61796,7 +61877,7 @@
       </c>
       <c r="H33" s="37"/>
       <c r="I33" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -61805,13 +61886,13 @@
       </c>
       <c r="B34" s="45"/>
       <c r="C34" s="39" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="D34" s="39" t="s">
         <v>40</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="F34" s="40" t="s">
         <v>156</v>
@@ -61830,13 +61911,13 @@
       </c>
       <c r="B35" s="26"/>
       <c r="C35" s="26" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="D35" s="26" t="s">
         <v>544</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F35" s="15" t="s">
         <v>156</v>
@@ -61845,10 +61926,10 @@
         <v>156</v>
       </c>
       <c r="H35" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="I35" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -61856,7 +61937,7 @@
         <v>543</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="C36" s="35" t="s">
         <v>547</v>
@@ -61865,7 +61946,7 @@
         <v>544</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F36" s="36" t="s">
         <v>0</v>
@@ -61874,10 +61955,10 @@
         <v>0</v>
       </c>
       <c r="H36" s="35" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="I36" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -61892,7 +61973,7 @@
         <v>544</v>
       </c>
       <c r="E37" s="37" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F37" s="38" t="s">
         <v>0</v>
@@ -61904,7 +61985,7 @@
         <v>569</v>
       </c>
       <c r="I37" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -61919,7 +62000,7 @@
         <v>544</v>
       </c>
       <c r="E38" s="49" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F38" s="50" t="s">
         <v>0</v>
@@ -61931,7 +62012,7 @@
         <v>569</v>
       </c>
       <c r="I38" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -61946,7 +62027,7 @@
         <v>40</v>
       </c>
       <c r="E39" s="37" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F39" s="38" t="s">
         <v>0</v>
@@ -61958,7 +62039,7 @@
         <v>569</v>
       </c>
       <c r="I39" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="157" customFormat="1">
@@ -61966,16 +62047,16 @@
         <v>543</v>
       </c>
       <c r="B40" s="155" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="C40" s="155" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="D40" s="158" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="E40" s="158" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="F40" s="156" t="s">
         <v>0</v>
@@ -62014,7 +62095,7 @@
       </c>
       <c r="H41" s="33"/>
       <c r="I41" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -62029,7 +62110,7 @@
         <v>1091</v>
       </c>
       <c r="E42" s="102" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="F42" s="15" t="s">
         <v>156</v>
@@ -62041,7 +62122,7 @@
         <v>1089</v>
       </c>
       <c r="I42" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -62056,7 +62137,7 @@
         <v>40</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F43" s="15" t="s">
         <v>156</v>
@@ -62068,7 +62149,7 @@
         <v>1090</v>
       </c>
       <c r="I43" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -62095,7 +62176,7 @@
       </c>
       <c r="H44" s="26"/>
       <c r="I44" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -62111,7 +62192,7 @@
         <v>sudo apt install software-properties-common</v>
       </c>
       <c r="E45" s="35" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F45" s="36" t="s">
         <v>156</v>
@@ -62121,7 +62202,7 @@
       </c>
       <c r="H45" s="35"/>
       <c r="I45" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -62147,7 +62228,7 @@
       </c>
       <c r="H46" s="37"/>
       <c r="I46" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -62173,7 +62254,7 @@
       </c>
       <c r="H47" s="37"/>
       <c r="I47" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -62199,7 +62280,7 @@
       </c>
       <c r="H48" s="39"/>
       <c r="I48" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -62224,7 +62305,7 @@
       </c>
       <c r="H49" s="35"/>
       <c r="I49" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -62249,7 +62330,7 @@
       </c>
       <c r="H50" s="37"/>
       <c r="I50" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -62276,7 +62357,7 @@
       </c>
       <c r="H51" s="37"/>
       <c r="I51" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -62303,7 +62384,7 @@
       </c>
       <c r="H52" s="37"/>
       <c r="I52" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -62330,7 +62411,7 @@
       </c>
       <c r="H53" s="37"/>
       <c r="I53" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -62357,7 +62438,7 @@
       </c>
       <c r="H54" s="37"/>
       <c r="I54" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -62384,7 +62465,7 @@
       </c>
       <c r="H55" s="49"/>
       <c r="I55" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -62411,24 +62492,24 @@
       </c>
       <c r="H56" s="39"/>
       <c r="I56" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="33" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="C57" s="35" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E57" s="35" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F57" s="36" t="s">
         <v>0</v>
@@ -62438,24 +62519,24 @@
       </c>
       <c r="H57" s="35"/>
       <c r="I57" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="44" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B58" s="44" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="D58" s="37" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E58" s="37" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F58" s="38" t="s">
         <v>0</v>
@@ -62465,24 +62546,24 @@
       </c>
       <c r="H58" s="37"/>
       <c r="I58" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="44" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B59" s="44" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="C59" s="37" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="D59" s="138" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="E59" s="37" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F59" s="38" t="s">
         <v>0</v>
@@ -62492,24 +62573,24 @@
       </c>
       <c r="H59" s="37"/>
       <c r="I59" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="44" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B60" s="44" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="C60" s="37" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="D60" s="37" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="E60" s="37" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F60" s="38" t="s">
         <v>0</v>
@@ -62519,24 +62600,24 @@
       </c>
       <c r="H60" s="37"/>
       <c r="I60" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="44" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B61" s="44" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="C61" s="37" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="D61" s="37" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E61" s="37" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F61" s="38" t="s">
         <v>0</v>
@@ -62546,24 +62627,24 @@
       </c>
       <c r="H61" s="37"/>
       <c r="I61" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="44" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B62" s="44" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="C62" s="37" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="D62" s="37" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="E62" s="37" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F62" s="38" t="s">
         <v>0</v>
@@ -62573,24 +62654,24 @@
       </c>
       <c r="H62" s="37"/>
       <c r="I62" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="44" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B63" s="44" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="C63" s="37" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="D63" s="37" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="E63" s="37" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F63" s="38" t="s">
         <v>0</v>
@@ -62600,24 +62681,24 @@
       </c>
       <c r="H63" s="37"/>
       <c r="I63" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="44" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B64" s="44" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="C64" s="37" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="D64" s="37" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="E64" s="37" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F64" s="38" t="s">
         <v>0</v>
@@ -62627,24 +62708,24 @@
       </c>
       <c r="H64" s="37"/>
       <c r="I64" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="44" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B65" s="137" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="C65" s="37" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="D65" s="37" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="E65" s="37" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F65" s="38" t="s">
         <v>0</v>
@@ -62654,24 +62735,24 @@
       </c>
       <c r="H65" s="37"/>
       <c r="I65" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="44" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B66" s="49" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="C66" s="37" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="D66" s="37" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="E66" s="37" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F66" s="38" t="s">
         <v>0</v>
@@ -62681,24 +62762,24 @@
       </c>
       <c r="H66" s="37"/>
       <c r="I66" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="44" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B67" s="137" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="D67" s="37" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E67" s="37" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F67" s="38" t="s">
         <v>0</v>
@@ -62708,24 +62789,24 @@
       </c>
       <c r="H67" s="37"/>
       <c r="I67" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="45" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B68" s="39" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C68" s="39" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D68" s="39" t="s">
         <v>1164</v>
       </c>
-      <c r="B68" s="39" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C68" s="39" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D68" s="39" t="s">
-        <v>1166</v>
-      </c>
       <c r="E68" s="39" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F68" s="40" t="s">
         <v>0</v>
@@ -62735,103 +62816,103 @@
       </c>
       <c r="H68" s="39"/>
       <c r="I68" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="B69" s="34" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C69" s="35" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="D69" s="35" t="str">
         <f>C69</f>
         <v>sudo apt-get update</v>
       </c>
       <c r="E69" s="159" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F69" s="36" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="G69" s="36" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="H69" s="35"/>
       <c r="I69" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="151"/>
       <c r="B70" s="151"/>
       <c r="C70" s="37" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="D70" s="37" t="str">
         <f t="shared" ref="D70:D77" si="2">C70</f>
         <v>sudo apt-get install -y ca-certificates curl gnupg lsb-release</v>
       </c>
       <c r="E70" s="160" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F70" s="38" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="G70" s="38" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="H70" s="37"/>
       <c r="I70" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="151"/>
       <c r="B71" s="151"/>
       <c r="C71" s="37" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="D71" s="37" t="str">
         <f t="shared" si="2"/>
         <v>sudo mkdir -p /etc/apt/keyrings</v>
       </c>
       <c r="E71" s="160" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F71" s="38" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="G71" s="38" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="H71" s="37"/>
       <c r="I71" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="151"/>
       <c r="B72" s="151"/>
       <c r="C72" s="37" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="D72" s="37" t="str">
         <f t="shared" si="2"/>
         <v>curl -fsSL https://download.docker.com/linux/ubuntu/gpg | sudo gpg --dearmor -o /etc/apt/keyrings/docker.gpg</v>
       </c>
       <c r="E72" s="160" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F72" s="38" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="G72" s="38" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="H72" s="37"/>
       <c r="I72" t="s">
@@ -62842,20 +62923,20 @@
       <c r="A73" s="151"/>
       <c r="B73" s="151"/>
       <c r="C73" s="37" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="D73" s="37" t="str">
         <f t="shared" si="2"/>
         <v>echo "deb [arch=$(dpkg --print-architecture) signed-by=/etc/apt/keyrings/docker.gpg] https://download.docker.com/linux/ubuntu $(lsb_release -cs) stable" | sudo tee /etc/apt/sources.list.d/docker.list &gt; /dev/null</v>
       </c>
       <c r="E73" s="160" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F73" s="38" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="G73" s="38" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="H73" s="37"/>
       <c r="I73" t="s">
@@ -62866,20 +62947,20 @@
       <c r="A74" s="151"/>
       <c r="B74" s="151"/>
       <c r="C74" s="37" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="D74" s="37" t="str">
         <f t="shared" si="2"/>
         <v>sudo apt-get update</v>
       </c>
       <c r="E74" s="160" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F74" s="38" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="G74" s="38" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="H74" s="37"/>
       <c r="I74" t="s">
@@ -62890,20 +62971,20 @@
       <c r="A75" s="151"/>
       <c r="B75" s="151"/>
       <c r="C75" s="37" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="D75" s="37" t="str">
         <f t="shared" si="2"/>
         <v>sudo apt-get install -y docker-ce docker-ce-cli containerd.io docker-compose-plugin</v>
       </c>
       <c r="E75" s="160" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F75" s="38" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="G75" s="38" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="H75" s="37"/>
       <c r="I75" t="s">
@@ -62914,20 +62995,20 @@
       <c r="A76" s="151"/>
       <c r="B76" s="151"/>
       <c r="C76" s="37" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="D76" s="37" t="str">
         <f t="shared" si="2"/>
         <v>sudo groupadd docker</v>
       </c>
       <c r="E76" s="160" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F76" s="38" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="G76" s="38" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="H76" s="37"/>
       <c r="I76" t="s">
@@ -62938,20 +63019,20 @@
       <c r="A77" s="151"/>
       <c r="B77" s="151"/>
       <c r="C77" s="37" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="D77" s="37" t="str">
         <f t="shared" si="2"/>
         <v>sudo usermod -aG docker $USER</v>
       </c>
       <c r="E77" s="160" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F77" s="38" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="G77" s="38" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="H77" s="37"/>
       <c r="I77" t="s">
@@ -62962,22 +63043,22 @@
       <c r="A78" s="151"/>
       <c r="B78" s="152"/>
       <c r="C78" s="39" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="D78" s="39" t="s">
         <v>40</v>
       </c>
       <c r="E78" s="161" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F78" s="40" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="G78" s="40" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="H78" s="39" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="I78" t="s">
         <v>29</v>
@@ -62986,17 +63067,17 @@
     <row r="79" spans="1:9">
       <c r="A79" s="151"/>
       <c r="B79" s="151" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="C79" s="151" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="D79" s="151" t="str">
         <f>$C79</f>
         <v>echo -e "{\n    \"detachKeys\": \"ctrl-\\\\\\\\,ctrl-\\\\\\\\\"\n}" &gt; ${HOME}/.docker/config.json</v>
       </c>
       <c r="E79" s="167" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="F79" s="40" t="s">
         <v>156</v>
@@ -63009,16 +63090,16 @@
     <row r="80" spans="1:9">
       <c r="A80" s="151"/>
       <c r="B80" s="33" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="C80" s="35" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="D80" s="35" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="E80" s="159" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F80" s="36" t="s">
         <v>0</v>
@@ -63028,24 +63109,24 @@
       </c>
       <c r="H80" s="35"/>
       <c r="I80" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="44" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B81" s="45" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C81" s="39" t="s">
         <v>1170</v>
       </c>
-      <c r="B81" s="45" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C81" s="39" t="s">
-        <v>1172</v>
-      </c>
       <c r="D81" s="39" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="E81" s="161" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F81" s="40" t="s">
         <v>0</v>
@@ -63055,24 +63136,24 @@
       </c>
       <c r="H81" s="39"/>
       <c r="I81" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="45" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="B82" s="26" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="C82" s="26" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="D82" s="26" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="E82" s="162" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F82" s="40" t="s">
         <v>0</v>
@@ -63081,10 +63162,10 @@
         <v>0</v>
       </c>
       <c r="H82" s="26" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="I82" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -63149,7 +63230,7 @@
       <c r="G87" s="15"/>
       <c r="H87" s="26"/>
       <c r="I87" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -63162,7 +63243,7 @@
       <c r="G88" s="15"/>
       <c r="H88" s="26"/>
       <c r="I88" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -63175,7 +63256,7 @@
       <c r="G89" s="15"/>
       <c r="H89" s="26"/>
       <c r="I89" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -63188,7 +63269,7 @@
       <c r="G90" s="15"/>
       <c r="H90" s="26"/>
       <c r="I90" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -63201,7 +63282,7 @@
       <c r="G91" s="15"/>
       <c r="H91" s="26"/>
       <c r="I91" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -63214,7 +63295,7 @@
       <c r="G92" s="15"/>
       <c r="H92" s="26"/>
       <c r="I92" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -63227,7 +63308,7 @@
       <c r="G93" s="15"/>
       <c r="H93" s="26"/>
       <c r="I93" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -63240,7 +63321,7 @@
       <c r="G94" s="15"/>
       <c r="H94" s="26"/>
       <c r="I94" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -63253,7 +63334,7 @@
       <c r="G95" s="15"/>
       <c r="H95" s="26"/>
       <c r="I95" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -63266,7 +63347,7 @@
       <c r="G96" s="15"/>
       <c r="H96" s="26"/>
       <c r="I96" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
   </sheetData>
@@ -63309,14 +63390,14 @@
     <tabColor theme="7" tint="0.79998168889431442"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:T77"/>
+  <dimension ref="B2:T78"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="13" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="A5" sqref="A5"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A44" sqref="A44"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="11.25" outlineLevelRow="1"/>
@@ -63337,7 +63418,7 @@
   <sheetData>
     <row r="2" spans="2:20" s="27" customFormat="1">
       <c r="B2" s="27" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="L2" s="55"/>
       <c r="M2" s="55"/>
@@ -63502,7 +63583,7 @@
       <c r="J11" s="57"/>
       <c r="K11" s="57"/>
       <c r="L11" s="57" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="M11" s="57"/>
       <c r="N11" s="57"/>
@@ -64395,7 +64476,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="33" spans="3:20">
+    <row r="33" spans="2:20">
       <c r="C33" s="60" t="s">
         <v>446</v>
       </c>
@@ -64439,7 +64520,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="34" spans="3:20">
+    <row r="34" spans="2:20">
       <c r="C34" s="60" t="s">
         <v>448</v>
       </c>
@@ -64483,7 +64564,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="35" spans="3:20">
+    <row r="35" spans="2:20">
       <c r="C35" s="60" t="s">
         <v>449</v>
       </c>
@@ -64529,7 +64610,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="36" spans="3:20">
+    <row r="36" spans="2:20">
       <c r="C36" s="60" t="s">
         <v>451</v>
       </c>
@@ -64573,7 +64654,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="37" spans="3:20">
+    <row r="37" spans="2:20">
       <c r="C37" s="60" t="s">
         <v>453</v>
       </c>
@@ -64616,10 +64697,10 @@
       </c>
       <c r="S37" s="60"/>
       <c r="T37" s="60" t="s">
-        <v>1143</v>
+        <v>1341</v>
       </c>
     </row>
-    <row r="38" spans="3:20">
+    <row r="38" spans="2:20">
       <c r="C38" s="60" t="s">
         <v>454</v>
       </c>
@@ -64662,10 +64743,10 @@
       </c>
       <c r="S38" s="61"/>
       <c r="T38" s="60" t="s">
-        <v>1144</v>
+        <v>1341</v>
       </c>
     </row>
-    <row r="39" spans="3:20">
+    <row r="39" spans="2:20">
       <c r="C39" s="60" t="s">
         <v>455</v>
       </c>
@@ -64711,7 +64792,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="40" spans="3:20">
+    <row r="40" spans="2:20">
       <c r="C40" s="60" t="s">
         <v>457</v>
       </c>
@@ -64757,7 +64838,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="41" spans="3:20">
+    <row r="41" spans="2:20">
       <c r="C41" s="60" t="s">
         <v>458</v>
       </c>
@@ -64803,7 +64884,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="42" spans="3:20" ht="22.5">
+    <row r="42" spans="2:20" ht="22.5">
       <c r="C42" s="60" t="s">
         <v>459</v>
       </c>
@@ -64842,10 +64923,10 @@
       <c r="R42" s="61"/>
       <c r="S42" s="61"/>
       <c r="T42" s="66" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
-    <row r="43" spans="3:20">
+    <row r="43" spans="2:20">
       <c r="C43" s="60" t="s">
         <v>461</v>
       </c>
@@ -64884,24 +64965,24 @@
       <c r="R43" s="61"/>
       <c r="S43" s="61"/>
       <c r="T43" s="66" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
-    <row r="44" spans="3:20">
+    <row r="44" spans="2:20">
       <c r="C44" s="60" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="D44" s="66" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E44" s="61" t="s">
         <v>1246</v>
       </c>
-      <c r="E44" s="61" t="s">
-        <v>1248</v>
-      </c>
       <c r="F44" s="61" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="G44" s="61" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="H44" s="65" t="s">
         <v>411</v>
@@ -64910,17 +64991,17 @@
         <v>411</v>
       </c>
       <c r="J44" s="61" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="K44" s="65" t="s">
         <v>411</v>
       </c>
       <c r="L44" s="61" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="M44" s="61"/>
       <c r="N44" s="61" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="O44" s="61"/>
       <c r="P44" s="60"/>
@@ -64928,39 +65009,86 @@
       <c r="R44" s="61"/>
       <c r="S44" s="60"/>
       <c r="T44" s="60" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
-    <row r="45" spans="3:20">
+    <row r="45" spans="2:20">
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
       <c r="R45" s="8"/>
       <c r="S45" s="8"/>
     </row>
-    <row r="46" spans="3:20">
-      <c r="C46" s="7" t="s">
-        <v>469</v>
+    <row r="46" spans="2:20">
+      <c r="C46" s="67" t="s">
+        <v>1340</v>
       </c>
     </row>
-    <row r="47" spans="3:20">
-      <c r="C47" s="67" t="s">
-        <v>470</v>
+    <row r="48" spans="2:20">
+      <c r="B48" s="27" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="D49" s="60" t="s">
+        <v>472</v>
+      </c>
+      <c r="E49" s="61" t="s">
+        <v>352</v>
+      </c>
+      <c r="F49" s="61" t="s">
+        <v>352</v>
+      </c>
+      <c r="G49" s="61" t="s">
+        <v>411</v>
+      </c>
+      <c r="H49" s="61" t="s">
+        <v>411</v>
+      </c>
+      <c r="I49" s="61" t="s">
+        <v>411</v>
+      </c>
+      <c r="J49" s="61" t="s">
+        <v>411</v>
+      </c>
+      <c r="K49" s="61" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="50" spans="2:11">
-      <c r="B50" s="27" t="s">
-        <v>471</v>
+      <c r="D50" s="60" t="s">
+        <v>395</v>
+      </c>
+      <c r="E50" s="61" t="s">
+        <v>352</v>
+      </c>
+      <c r="F50" s="61" t="s">
+        <v>352</v>
+      </c>
+      <c r="G50" s="61" t="s">
+        <v>411</v>
+      </c>
+      <c r="H50" s="61" t="s">
+        <v>411</v>
+      </c>
+      <c r="I50" s="61" t="s">
+        <v>411</v>
+      </c>
+      <c r="J50" s="61" t="s">
+        <v>411</v>
+      </c>
+      <c r="K50" s="61" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="51" spans="2:11">
       <c r="D51" s="60" t="s">
-        <v>472</v>
+        <v>52</v>
       </c>
       <c r="E51" s="61" t="s">
-        <v>352</v>
+        <v>411</v>
       </c>
       <c r="F51" s="61" t="s">
-        <v>352</v>
+        <v>411</v>
       </c>
       <c r="G51" s="61" t="s">
         <v>411</v>
@@ -64975,18 +65103,18 @@
         <v>411</v>
       </c>
       <c r="K51" s="61" t="s">
-        <v>352</v>
+        <v>403</v>
       </c>
     </row>
     <row r="52" spans="2:11">
       <c r="D52" s="60" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="E52" s="61" t="s">
-        <v>352</v>
+        <v>411</v>
       </c>
       <c r="F52" s="61" t="s">
-        <v>352</v>
+        <v>411</v>
       </c>
       <c r="G52" s="61" t="s">
         <v>411</v>
@@ -65001,12 +65129,12 @@
         <v>411</v>
       </c>
       <c r="K52" s="61" t="s">
-        <v>352</v>
+        <v>403</v>
       </c>
     </row>
     <row r="53" spans="2:11">
       <c r="D53" s="60" t="s">
-        <v>52</v>
+        <v>473</v>
       </c>
       <c r="E53" s="61" t="s">
         <v>411</v>
@@ -65032,7 +65160,7 @@
     </row>
     <row r="54" spans="2:11">
       <c r="D54" s="60" t="s">
-        <v>355</v>
+        <v>474</v>
       </c>
       <c r="E54" s="61" t="s">
         <v>411</v>
@@ -65053,200 +65181,158 @@
         <v>411</v>
       </c>
       <c r="K54" s="61" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="55" spans="2:11">
       <c r="D55" s="60" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E55" s="61" t="s">
-        <v>411</v>
+        <v>352</v>
       </c>
       <c r="F55" s="61" t="s">
-        <v>411</v>
+        <v>352</v>
       </c>
       <c r="G55" s="61" t="s">
-        <v>411</v>
+        <v>352</v>
       </c>
       <c r="H55" s="61" t="s">
-        <v>411</v>
+        <v>352</v>
       </c>
       <c r="I55" s="61" t="s">
         <v>411</v>
       </c>
       <c r="J55" s="61" t="s">
-        <v>411</v>
+        <v>352</v>
       </c>
       <c r="K55" s="61" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11">
-      <c r="D56" s="60" t="s">
-        <v>474</v>
-      </c>
-      <c r="E56" s="61" t="s">
-        <v>411</v>
-      </c>
-      <c r="F56" s="61" t="s">
-        <v>411</v>
-      </c>
-      <c r="G56" s="61" t="s">
-        <v>411</v>
-      </c>
-      <c r="H56" s="61" t="s">
-        <v>411</v>
-      </c>
-      <c r="I56" s="61" t="s">
-        <v>411</v>
-      </c>
-      <c r="J56" s="61" t="s">
-        <v>411</v>
-      </c>
-      <c r="K56" s="61" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="57" spans="2:11">
-      <c r="D57" s="60" t="s">
-        <v>475</v>
-      </c>
-      <c r="E57" s="61" t="s">
-        <v>352</v>
-      </c>
-      <c r="F57" s="61" t="s">
-        <v>352</v>
-      </c>
-      <c r="G57" s="61" t="s">
-        <v>352</v>
-      </c>
-      <c r="H57" s="61" t="s">
-        <v>352</v>
-      </c>
-      <c r="I57" s="61" t="s">
-        <v>411</v>
-      </c>
-      <c r="J57" s="61" t="s">
-        <v>352</v>
-      </c>
-      <c r="K57" s="61" t="s">
-        <v>411</v>
+      <c r="C57" s="7" t="s">
+        <v>469</v>
       </c>
     </row>
-    <row r="59" spans="2:11">
-      <c r="B59" s="27" t="s">
-        <v>476</v>
+    <row r="58" spans="2:11">
+      <c r="C58" s="67" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="60" spans="2:11">
-      <c r="C60" s="7" t="s">
+      <c r="B60" s="27" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="C61" s="7" t="s">
         <v>477</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" outlineLevel="1">
-      <c r="C61" s="68" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="62" spans="2:11" outlineLevel="1">
-      <c r="C62" s="136" t="s">
+      <c r="C62" s="68" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" outlineLevel="1">
+      <c r="C63" s="136" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="63" spans="2:11">
-      <c r="C63" s="7" t="s">
+    <row r="64" spans="2:11">
+      <c r="C64" s="7" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="64" spans="2:11" outlineLevel="1">
-      <c r="C64" s="67" t="s">
+    <row r="65" spans="3:16" outlineLevel="1">
+      <c r="C65" s="67" t="s">
         <v>481</v>
-      </c>
-    </row>
-    <row r="65" spans="3:16">
-      <c r="C65" s="7" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="66" spans="3:16">
       <c r="C66" s="7" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="67" spans="3:16">
+      <c r="C67" s="7" t="s">
         <v>963</v>
-      </c>
-    </row>
-    <row r="67" spans="3:16" outlineLevel="1">
-      <c r="C67" s="69" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="68" spans="3:16" outlineLevel="1">
-      <c r="C68" s="67" t="s">
-        <v>1140</v>
+      <c r="C68" s="69" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="69" spans="3:16" outlineLevel="1">
-      <c r="C69" s="70" t="s">
-        <v>484</v>
+      <c r="C69" s="67" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="70" spans="3:16" outlineLevel="1">
-      <c r="C70" s="67" t="s">
+      <c r="C70" s="70" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="71" spans="3:16" outlineLevel="1">
+      <c r="C71" s="67" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="71" spans="3:16" outlineLevel="1"/>
-    <row r="72" spans="3:16">
-      <c r="C72" s="7" t="s">
-        <v>1092</v>
-      </c>
-    </row>
+    <row r="72" spans="3:16" outlineLevel="1"/>
     <row r="73" spans="3:16">
       <c r="C73" s="7" t="s">
-        <v>1106</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>1096</v>
-      </c>
-      <c r="P73" s="7" t="s">
-        <v>1104</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="74" spans="3:16">
       <c r="C74" s="7" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="75" spans="3:16">
-      <c r="C75" s="56" t="s">
-        <v>1108</v>
+      <c r="C75" s="7" t="s">
+        <v>1107</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>1099</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="76" spans="3:16">
-      <c r="C76" s="7" t="s">
-        <v>1251</v>
-      </c>
-      <c r="E76" s="56" t="s">
-        <v>1252</v>
+      <c r="C76" s="56" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>1098</v>
+      </c>
+      <c r="P76" s="7" t="s">
+        <v>1099</v>
       </c>
     </row>
     <row r="77" spans="3:16">
       <c r="C77" s="7" t="s">
-        <v>1253</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>1254</v>
+        <v>1249</v>
+      </c>
+      <c r="E77" s="56" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="78" spans="3:16">
+      <c r="C78" s="7" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>1252</v>
       </c>
     </row>
   </sheetData>

--- a/PC移行時チェックリスト.xlsx
+++ b/PC移行時チェックリスト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA551F86-E92C-416F-85FE-DBF624B7DCF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80A9FF1-6714-4C5B-9D9D-30EC766D55A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32400" yWindow="-4080" windowWidth="32415" windowHeight="40725" xr2:uid="{4766EE0F-731E-4860-9E19-7E5345AFF867}"/>
+    <workbookView xWindow="-32400" yWindow="-4080" windowWidth="32415" windowHeight="40725" activeTab="2" xr2:uid="{4766EE0F-731E-4860-9E19-7E5345AFF867}"/>
   </bookViews>
   <sheets>
     <sheet name="セットアップ事項" sheetId="21" r:id="rId1"/>
@@ -8464,7 +8464,7 @@
   </sheetPr>
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
@@ -11777,11 +11777,11 @@
   </sheetPr>
   <dimension ref="A1:AN203"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="10" topLeftCell="P47" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="10" topLeftCell="J47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T102" sqref="T102"/>
+      <selection pane="bottomRight" activeCell="L130" sqref="L130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="11.25" outlineLevelCol="1"/>
@@ -40682,7 +40682,7 @@
         <v>66</v>
       </c>
       <c r="L130" s="97" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="M130" s="98" t="s">
         <v>578</v>
@@ -40797,7 +40797,7 @@
         <v/>
       </c>
       <c r="AA130" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A130&lt;&gt;"",$L130&lt;&gt;"-",$L130&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -40808,7 +40808,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\123_MicrosoftExcel（ドキュメント編集）.lnk" "C:\Program Files (x86)\Microsoft Office\root\Office16\EXCEL.EXE" "/x" ""</v>
       </c>
       <c r="AB130" s="9" t="str">
         <f ca="1">IFERROR(
@@ -40831,12 +40831,12 @@
         <v/>
       </c>
       <c r="AD130" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A130&lt;&gt;"",$L130="○"),
   shortcut設定!$F$5&amp;"\"&amp;AB130&amp;"_"&amp;A130&amp;"（"&amp;B130&amp;"）"&amp;AC130&amp;".lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\123_MicrosoftExcel（ドキュメント編集）.lnk</v>
       </c>
       <c r="AE130" s="13" t="str">
         <f>IF(

--- a/PC移行時チェックリスト.xlsx
+++ b/PC移行時チェックリスト.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9A4483-9EAA-4035-9245-31F8F782D792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0550238-45FA-4627-8F91-FB28BA4A5B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32400" yWindow="615" windowWidth="32415" windowHeight="40725" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,7 +171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E140" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+    <comment ref="E141" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -185,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D141" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+    <comment ref="D142" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -199,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J179" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
+    <comment ref="J180" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -213,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J181" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
+    <comment ref="J182" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -740,7 +740,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6050" uniqueCount="1455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6067" uniqueCount="1460">
   <si>
     <t>○</t>
   </si>
@@ -7606,9 +7606,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>C:\prg\cursor\Cursor.exe</t>
-  </si>
-  <si>
     <t>テキストエディタ</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -7640,6 +7637,30 @@
   </si>
   <si>
     <t>bua</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C:\prg\Obsidian\Obsidian.exe</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Obsidian</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストエディタ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C:\prg\cursor\Cursor.exe</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ffr</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -12980,11 +13001,11 @@
   </sheetPr>
   <dimension ref="A1:AN216"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="10" topLeftCell="C109" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="10" topLeftCell="P82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C202" sqref="C202"/>
+      <selection pane="bottomRight" activeCell="W194" sqref="W194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="11.25" outlineLevelCol="1"/>
@@ -36394,7 +36415,7 @@
         <v/>
       </c>
       <c r="S107" s="9" t="str">
-        <f t="shared" ref="S107:S138" si="16">IF(
+        <f t="shared" ref="S107:S139" si="16">IF(
   OR(
     $H107="",
     $H107="-",
@@ -36525,7 +36546,7 @@
         <v>113</v>
       </c>
       <c r="AC107" s="20" t="str">
-        <f t="shared" ref="AC107:AC138" si="17">IF(AND($M107&lt;&gt;"",$M107&lt;&gt;"-")," (&amp;"&amp;$M107&amp;")","")</f>
+        <f t="shared" ref="AC107:AC139" si="17">IF(AND($M107&lt;&gt;"",$M107&lt;&gt;"-")," (&amp;"&amp;$M107&amp;")","")</f>
         <v/>
       </c>
       <c r="AD107" s="13" t="str">
@@ -36559,7 +36580,7 @@
         <v/>
       </c>
       <c r="AG107" s="13" t="str">
-        <f t="shared" ref="AG107:AG138" si="18">IF(
+        <f t="shared" ref="AG107:AG139" si="18">IF(
   AND($A107&lt;&gt;"",$O107&lt;&gt;"-",$O107&lt;&gt;""),
   (
     "schtasks /create /tn """&amp;$O107&amp;""" /tr """&amp;$C107&amp;""" /sc daily /st "&amp;$P107&amp;" /rl highest"
@@ -36569,7 +36590,7 @@
         <v/>
       </c>
       <c r="AH107" s="13" t="str">
-        <f t="shared" ref="AH107:AH138" si="19">IF(
+        <f t="shared" ref="AH107:AH139" si="19">IF(
   AND($A107&lt;&gt;"",$O107&lt;&gt;"-",$O107&lt;&gt;""),
   (
     "schtasks /delete /tn """&amp;$O107&amp;""""
@@ -41856,13 +41877,13 @@
     </row>
     <row r="130" spans="1:36">
       <c r="A130" s="9" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>1446</v>
+        <v>1458</v>
       </c>
       <c r="D130" s="15" t="s">
         <v>1444</v>
@@ -42095,62 +42116,70 @@
     </row>
     <row r="131" spans="1:36">
       <c r="A131" s="9" t="s">
-        <v>672</v>
+        <v>1455</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>736</v>
+        <v>1456</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>89</v>
+        <v>1454</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>40</v>
+        <v>1457</v>
       </c>
       <c r="E131" s="26" t="s">
-        <v>40</v>
+        <v>1457</v>
       </c>
       <c r="F131" s="15" t="s">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="G131" s="15" t="s">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="H131" s="9" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I131" s="15" t="s">
-        <v>863</v>
+        <v>0</v>
       </c>
       <c r="J131" s="15" t="s">
-        <v>66</v>
+        <v>1457</v>
       </c>
       <c r="K131" s="15" t="s">
-        <v>66</v>
+        <v>1457</v>
       </c>
       <c r="L131" s="93" t="s">
-        <v>66</v>
+        <v>1457</v>
       </c>
       <c r="M131" s="94" t="s">
-        <v>564</v>
+        <v>1457</v>
       </c>
       <c r="N131" s="15" t="s">
-        <v>863</v>
+        <v>1457</v>
       </c>
       <c r="O131" s="26" t="s">
-        <v>1292</v>
+        <v>1457</v>
       </c>
       <c r="P131" s="157" t="s">
-        <v>1292</v>
+        <v>1457</v>
       </c>
       <c r="Q131" s="26" t="s">
-        <v>964</v>
+        <v>1457</v>
       </c>
       <c r="R131" s="9" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="S131" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f>IF(
+  OR(
+    $H131="",
+    $H131="-",
+    COUNTIF(カテゴリ,$H131)&gt;0
+  ),
+  "",
+  "★NG★"
+)</f>
         <v/>
       </c>
       <c r="T131" s="13" t="str">
@@ -42167,7 +42196,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global\MicrosoftEdge（ブラウザ）.lnk" "C:\Program Files (x86)\Microsoft\Edge\Application\msedge.exe" "" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit\Obsidian（テキストエディタ）.lnk" "C:\prg\Obsidian\Obsidian.exe" "" ""</v>
       </c>
       <c r="U131" s="9" t="str">
         <f ca="1">IFERROR(
@@ -42183,7 +42212,7 @@
   ),
   ""
 )</f>
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="V131" s="13" t="str">
         <f ca="1">IF(
@@ -42191,7 +42220,7 @@
   shortcut設定!$F$4&amp;"\"&amp;U131&amp;"_"&amp;H131,
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit</v>
       </c>
       <c r="W131" s="13" t="str">
         <f>IF(
@@ -42270,10 +42299,10 @@
   ),
   ""
 )</f>
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="AC131" s="20" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(AND($M131&lt;&gt;"",$M131&lt;&gt;"-")," (&amp;"&amp;$M131&amp;")","")</f>
         <v/>
       </c>
       <c r="AD131" s="13" t="str">
@@ -42296,7 +42325,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\MicrosoftEdge（ブラウザ）.lnk" "C:\Program Files (x86)\Microsoft\Edge\Application\msedge.exe" "" ""</v>
+        <v/>
       </c>
       <c r="AF131" s="9" t="str">
         <f>IF(
@@ -42304,14 +42333,26 @@
   shortcut設定!$F$6&amp;"\"&amp;A131&amp;"（"&amp;B131&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\MicrosoftEdge（ブラウザ）.lnk</v>
+        <v/>
       </c>
       <c r="AG131" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(
+  AND($A131&lt;&gt;"",$O131&lt;&gt;"-",$O131&lt;&gt;""),
+  (
+    "schtasks /create /tn """&amp;$O131&amp;""" /tr """&amp;$C131&amp;""" /sc daily /st "&amp;$P131&amp;" /rl highest"
+  ),
+  ""
+)</f>
         <v/>
       </c>
       <c r="AH131" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(
+  AND($A131&lt;&gt;"",$O131&lt;&gt;"-",$O131&lt;&gt;""),
+  (
+    "schtasks /delete /tn """&amp;$O131&amp;""""
+  ),
+  ""
+)</f>
         <v/>
       </c>
       <c r="AI131" s="13" t="str">
@@ -42334,16 +42375,16 @@
     </row>
     <row r="132" spans="1:36">
       <c r="A132" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>812</v>
-      </c>
-      <c r="C132" s="77" t="s">
-        <v>91</v>
+        <v>736</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>885</v>
+        <v>40</v>
       </c>
       <c r="E132" s="26" t="s">
         <v>40</v>
@@ -42355,7 +42396,7 @@
         <v>156</v>
       </c>
       <c r="H132" s="9" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I132" s="15" t="s">
         <v>863</v>
@@ -42367,13 +42408,13 @@
         <v>66</v>
       </c>
       <c r="L132" s="93" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="M132" s="94" t="s">
         <v>564</v>
       </c>
       <c r="N132" s="15" t="s">
-        <v>66</v>
+        <v>863</v>
       </c>
       <c r="O132" s="26" t="s">
         <v>1292</v>
@@ -42406,7 +42447,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit\MicrosoftExcel（ドキュメント編集）.lnk" "C:\Program Files (x86)\Microsoft Office\root\Office16\EXCEL.EXE" "/x" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global\MicrosoftEdge（ブラウザ）.lnk" "C:\Program Files (x86)\Microsoft\Edge\Application\msedge.exe" "" ""</v>
       </c>
       <c r="U132" s="9" t="str">
         <f ca="1">IFERROR(
@@ -42422,7 +42463,7 @@
   ),
   ""
 )</f>
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="V132" s="13" t="str">
         <f ca="1">IF(
@@ -42430,7 +42471,7 @@
   shortcut設定!$F$4&amp;"\"&amp;U132&amp;"_"&amp;H132,
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global</v>
       </c>
       <c r="W132" s="13" t="str">
         <f>IF(
@@ -42482,7 +42523,7 @@
         <v/>
       </c>
       <c r="AA132" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A132&lt;&gt;"",$L132&lt;&gt;"-",$L132&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -42493,7 +42534,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\123_MicrosoftExcel（ドキュメント編集）.lnk" "C:\Program Files (x86)\Microsoft Office\root\Office16\EXCEL.EXE" "/x" ""</v>
+        <v/>
       </c>
       <c r="AB132" s="9" t="str">
         <f ca="1">IFERROR(
@@ -42509,19 +42550,19 @@
   ),
   ""
 )</f>
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="AC132" s="20" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AD132" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A132&lt;&gt;"",$L132="○"),
   shortcut設定!$F$5&amp;"\"&amp;AB132&amp;"_"&amp;A132&amp;"（"&amp;B132&amp;"）"&amp;AC132&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\123_MicrosoftExcel（ドキュメント編集）.lnk</v>
+        <v/>
       </c>
       <c r="AE132" s="13" t="str">
         <f>IF(
@@ -42535,7 +42576,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\MicrosoftEdge（ブラウザ）.lnk" "C:\Program Files (x86)\Microsoft\Edge\Application\msedge.exe" "" ""</v>
       </c>
       <c r="AF132" s="9" t="str">
         <f>IF(
@@ -42543,7 +42584,7 @@
   shortcut設定!$F$6&amp;"\"&amp;A132&amp;"（"&amp;B132&amp;"）.lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\MicrosoftEdge（ブラウザ）.lnk</v>
       </c>
       <c r="AG132" s="13" t="str">
         <f t="shared" si="18"/>
@@ -42573,16 +42614,16 @@
     </row>
     <row r="133" spans="1:36">
       <c r="A133" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B133" s="9" t="s">
         <v>812</v>
       </c>
-      <c r="C133" s="9" t="s">
-        <v>92</v>
+      <c r="C133" s="77" t="s">
+        <v>91</v>
       </c>
       <c r="D133" s="15" t="s">
-        <v>40</v>
+        <v>885</v>
       </c>
       <c r="E133" s="26" t="s">
         <v>40</v>
@@ -42606,7 +42647,7 @@
         <v>66</v>
       </c>
       <c r="L133" s="93" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="M133" s="94" t="s">
         <v>564</v>
@@ -42645,7 +42686,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit\MicrosoftVisio（ドキュメント編集）.lnk" "C:\Program Files (x86)\Microsoft Office\root\Office16\VISIO.EXE" "" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit\MicrosoftExcel（ドキュメント編集）.lnk" "C:\Program Files (x86)\Microsoft Office\root\Office16\EXCEL.EXE" "/x" ""</v>
       </c>
       <c r="U133" s="9" t="str">
         <f ca="1">IFERROR(
@@ -42721,7 +42762,7 @@
         <v/>
       </c>
       <c r="AA133" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A133&lt;&gt;"",$L133&lt;&gt;"-",$L133&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -42732,7 +42773,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\123_MicrosoftExcel（ドキュメント編集）.lnk" "C:\Program Files (x86)\Microsoft Office\root\Office16\EXCEL.EXE" "/x" ""</v>
       </c>
       <c r="AB133" s="9" t="str">
         <f ca="1">IFERROR(
@@ -42755,12 +42796,12 @@
         <v/>
       </c>
       <c r="AD133" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A133&lt;&gt;"",$L133="○"),
   shortcut設定!$F$5&amp;"\"&amp;AB133&amp;"_"&amp;A133&amp;"（"&amp;B133&amp;"）"&amp;AC133&amp;".lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\123_MicrosoftExcel（ドキュメント編集）.lnk</v>
       </c>
       <c r="AE133" s="13" t="str">
         <f>IF(
@@ -42812,13 +42853,13 @@
     </row>
     <row r="134" spans="1:36">
       <c r="A134" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B134" s="9" t="s">
         <v>812</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D134" s="15" t="s">
         <v>40</v>
@@ -42884,7 +42925,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit\MicrosoftWord（ドキュメント編集）.lnk" "C:\Program Files (x86)\Microsoft Office\root\Office16\WINWORD.EXE" "" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit\MicrosoftVisio（ドキュメント編集）.lnk" "C:\Program Files (x86)\Microsoft Office\root\Office16\VISIO.EXE" "" ""</v>
       </c>
       <c r="U134" s="9" t="str">
         <f ca="1">IFERROR(
@@ -43051,13 +43092,13 @@
     </row>
     <row r="135" spans="1:36">
       <c r="A135" s="9" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D135" s="15" t="s">
         <v>40</v>
@@ -43072,7 +43113,7 @@
         <v>156</v>
       </c>
       <c r="H135" s="9" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I135" s="15" t="s">
         <v>863</v>
@@ -43123,7 +43164,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global\MicrosoftOutlook（メーラー）.lnk" "C:\Program Files (x86)\Microsoft Office\root\Office16\OUTLOOK.EXE" "" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit\MicrosoftWord（ドキュメント編集）.lnk" "C:\Program Files (x86)\Microsoft Office\root\Office16\WINWORD.EXE" "" ""</v>
       </c>
       <c r="U135" s="9" t="str">
         <f ca="1">IFERROR(
@@ -43139,7 +43180,7 @@
   ),
   ""
 )</f>
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="V135" s="13" t="str">
         <f ca="1">IF(
@@ -43147,7 +43188,7 @@
   shortcut設定!$F$4&amp;"\"&amp;U135&amp;"_"&amp;H135,
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit</v>
       </c>
       <c r="W135" s="13" t="str">
         <f>IF(
@@ -43226,7 +43267,7 @@
   ),
   ""
 )</f>
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="AC135" s="20" t="str">
         <f t="shared" si="17"/>
@@ -43290,13 +43331,13 @@
     </row>
     <row r="136" spans="1:36">
       <c r="A136" s="9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>874</v>
+        <v>94</v>
       </c>
       <c r="D136" s="15" t="s">
         <v>40</v>
@@ -43305,13 +43346,13 @@
         <v>40</v>
       </c>
       <c r="F136" s="15" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="G136" s="15" t="s">
         <v>156</v>
       </c>
       <c r="H136" s="9" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="I136" s="15" t="s">
         <v>863</v>
@@ -43362,7 +43403,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\153_Picture_Edit" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\153_Picture_Edit\CopyTransPhoto（iPhone写真移動）.lnk" "%USERPROFILE%\AppData\Roaming\WindSolutions\CopyTransControlCenter\Applications\CopyTransControlCenter.exe" "" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global\MicrosoftOutlook（メーラー）.lnk" "C:\Program Files (x86)\Microsoft Office\root\Office16\OUTLOOK.EXE" "" ""</v>
       </c>
       <c r="U136" s="9" t="str">
         <f ca="1">IFERROR(
@@ -43378,7 +43419,7 @@
   ),
   ""
 )</f>
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="V136" s="13" t="str">
         <f ca="1">IF(
@@ -43386,7 +43427,7 @@
   shortcut設定!$F$4&amp;"\"&amp;U136&amp;"_"&amp;H136,
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\153_Picture_Edit</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global</v>
       </c>
       <c r="W136" s="13" t="str">
         <f>IF(
@@ -43465,7 +43506,7 @@
   ),
   ""
 )</f>
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="AC136" s="20" t="str">
         <f t="shared" si="17"/>
@@ -43529,13 +43570,13 @@
     </row>
     <row r="137" spans="1:36">
       <c r="A137" s="9" t="s">
-        <v>872</v>
+        <v>677</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>873</v>
+        <v>814</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D137" s="15" t="s">
         <v>40</v>
@@ -43544,31 +43585,31 @@
         <v>40</v>
       </c>
       <c r="F137" s="15" t="s">
-        <v>28</v>
+        <v>173</v>
       </c>
       <c r="G137" s="15" t="s">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="H137" s="9" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="I137" s="15" t="s">
-        <v>0</v>
+        <v>863</v>
       </c>
       <c r="J137" s="15" t="s">
-        <v>568</v>
+        <v>66</v>
       </c>
       <c r="K137" s="15" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="L137" s="93" t="s">
-        <v>568</v>
+        <v>66</v>
       </c>
       <c r="M137" s="94" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="N137" s="15" t="s">
-        <v>568</v>
+        <v>66</v>
       </c>
       <c r="O137" s="26" t="s">
         <v>1292</v>
@@ -43601,7 +43642,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\122_Doc_View" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\122_Doc_View\Kindle（電子書籍）.lnk" "%USERPROFILE%\AppData\Local\Amazon\Kindle\application\Kindle.exe" "" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\153_Picture_Edit" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\153_Picture_Edit\CopyTransPhoto（iPhone写真移動）.lnk" "%USERPROFILE%\AppData\Roaming\WindSolutions\CopyTransControlCenter\Applications\CopyTransControlCenter.exe" "" ""</v>
       </c>
       <c r="U137" s="9" t="str">
         <f ca="1">IFERROR(
@@ -43617,7 +43658,7 @@
   ),
   ""
 )</f>
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="V137" s="13" t="str">
         <f ca="1">IF(
@@ -43625,7 +43666,7 @@
   shortcut設定!$F$4&amp;"\"&amp;U137&amp;"_"&amp;H137,
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\122_Doc_View</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\153_Picture_Edit</v>
       </c>
       <c r="W137" s="13" t="str">
         <f>IF(
@@ -43704,7 +43745,7 @@
   ),
   ""
 )</f>
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="AC137" s="20" t="str">
         <f t="shared" si="17"/>
@@ -43768,13 +43809,13 @@
     </row>
     <row r="138" spans="1:36">
       <c r="A138" s="9" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D138" s="15" t="s">
         <v>40</v>
@@ -43789,7 +43830,7 @@
         <v>0</v>
       </c>
       <c r="H138" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I138" s="15" t="s">
         <v>0</v>
@@ -43840,7 +43881,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global\LINE（コミュニケーション）.lnk" "%USERPROFILE%\AppData\Local\LINE\bin\LineLauncher.exe" "" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\122_Doc_View" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\122_Doc_View\Kindle（電子書籍）.lnk" "%USERPROFILE%\AppData\Local\Amazon\Kindle\application\Kindle.exe" "" ""</v>
       </c>
       <c r="U138" s="9" t="str">
         <f ca="1">IFERROR(
@@ -43856,7 +43897,7 @@
   ),
   ""
 )</f>
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="V138" s="13" t="str">
         <f ca="1">IF(
@@ -43864,7 +43905,7 @@
   shortcut設定!$F$4&amp;"\"&amp;U138&amp;"_"&amp;H138,
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\122_Doc_View</v>
       </c>
       <c r="W138" s="13" t="str">
         <f>IF(
@@ -43943,7 +43984,7 @@
   ),
   ""
 )</f>
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="AC138" s="20" t="str">
         <f t="shared" si="17"/>
@@ -44007,13 +44048,13 @@
     </row>
     <row r="139" spans="1:36">
       <c r="A139" s="9" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B139" s="9" t="s">
         <v>880</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D139" s="15" t="s">
         <v>40</v>
@@ -44022,10 +44063,10 @@
         <v>40</v>
       </c>
       <c r="F139" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G139" s="15" t="s">
         <v>0</v>
-      </c>
-      <c r="G139" s="15" t="s">
-        <v>28</v>
       </c>
       <c r="H139" s="9" t="s">
         <v>71</v>
@@ -44069,15 +44110,7 @@
         <v/>
       </c>
       <c r="S139" s="9" t="str">
-        <f t="shared" ref="S139:S170" si="21">IF(
-  OR(
-    $H139="",
-    $H139="-",
-    COUNTIF(カテゴリ,$H139)&gt;0
-  ),
-  "",
-  "★NG★"
-)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="T139" s="13" t="str">
@@ -44094,7 +44127,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global\MicrosoftTeams（コミュニケーション）.lnk" "C:\Users\draem\AppData\Local\Microsoft\Teams\Update.exe --processStart "Teams.exe"" "" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global\LINE（コミュニケーション）.lnk" "%USERPROFILE%\AppData\Local\LINE\bin\LineLauncher.exe" "" ""</v>
       </c>
       <c r="U139" s="9" t="str">
         <f ca="1">IFERROR(
@@ -44200,7 +44233,7 @@
         <v>161</v>
       </c>
       <c r="AC139" s="20" t="str">
-        <f t="shared" ref="AC139:AC170" si="22">IF(AND($M139&lt;&gt;"",$M139&lt;&gt;"-")," (&amp;"&amp;$M139&amp;")","")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AD139" s="13" t="str">
@@ -44234,23 +44267,11 @@
         <v/>
       </c>
       <c r="AG139" s="13" t="str">
-        <f t="shared" ref="AG139:AG170" si="23">IF(
-  AND($A139&lt;&gt;"",$O139&lt;&gt;"-",$O139&lt;&gt;""),
-  (
-    "schtasks /create /tn """&amp;$O139&amp;""" /tr """&amp;$C139&amp;""" /sc daily /st "&amp;$P139&amp;" /rl highest"
-  ),
-  ""
-)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AH139" s="13" t="str">
-        <f t="shared" ref="AH139:AH170" si="24">IF(
-  AND($A139&lt;&gt;"",$O139&lt;&gt;"-",$O139&lt;&gt;""),
-  (
-    "schtasks /delete /tn """&amp;$O139&amp;""""
-  ),
-  ""
-)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AI139" s="13" t="str">
@@ -44273,46 +44294,46 @@
     </row>
     <row r="140" spans="1:36">
       <c r="A140" s="9" t="s">
-        <v>1169</v>
+        <v>879</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>1171</v>
+        <v>880</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>1168</v>
+        <v>878</v>
       </c>
       <c r="D140" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E140" s="26" t="s">
-        <v>1210</v>
+        <v>40</v>
       </c>
       <c r="F140" s="15" t="s">
         <v>0</v>
       </c>
       <c r="G140" s="15" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H140" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I140" s="15" t="s">
         <v>0</v>
       </c>
       <c r="J140" s="15" t="s">
-        <v>1170</v>
+        <v>568</v>
       </c>
       <c r="K140" s="15" t="s">
         <v>40</v>
       </c>
       <c r="L140" s="93" t="s">
-        <v>40</v>
+        <v>568</v>
       </c>
       <c r="M140" s="94" t="s">
-        <v>40</v>
+        <v>568</v>
       </c>
       <c r="N140" s="15" t="s">
-        <v>40</v>
+        <v>568</v>
       </c>
       <c r="O140" s="26" t="s">
         <v>1292</v>
@@ -44321,14 +44342,22 @@
         <v>1292</v>
       </c>
       <c r="Q140" s="26" t="s">
-        <v>40</v>
+        <v>964</v>
       </c>
       <c r="R140" s="9" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="S140" s="9" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="S140:S171" si="21">IF(
+  OR(
+    $H140="",
+    $H140="-",
+    COUNTIF(カテゴリ,$H140)&gt;0
+  ),
+  "",
+  "★NG★"
+)</f>
         <v/>
       </c>
       <c r="T140" s="13" t="str">
@@ -44345,7 +44374,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\172_Utility_Other" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\172_Utility_Other\コマンドプロンプト（コマンドプロンプト起動）.lnk" "%windir%\system32\cmd.exe" "" "%MYDIRPATH_DESKTOP%"</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global\MicrosoftTeams（コミュニケーション）.lnk" "C:\Users\draem\AppData\Local\Microsoft\Teams\Update.exe --processStart "Teams.exe"" "" ""</v>
       </c>
       <c r="U140" s="9" t="str">
         <f ca="1">IFERROR(
@@ -44361,7 +44390,7 @@
   ),
   ""
 )</f>
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="V140" s="13" t="str">
         <f ca="1">IF(
@@ -44369,7 +44398,7 @@
   shortcut設定!$F$4&amp;"\"&amp;U140&amp;"_"&amp;H140,
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\172_Utility_Other</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global</v>
       </c>
       <c r="W140" s="13" t="str">
         <f>IF(
@@ -44385,7 +44414,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\cmd（コマンドプロンプト起動）.lnk" "%windir%\system32\cmd.exe" "" "%MYDIRPATH_DESKTOP%"</v>
+        <v/>
       </c>
       <c r="X140" s="14" t="str">
         <f>IF(
@@ -44393,7 +44422,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J140&amp;"（"&amp;$B140&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\cmd（コマンドプロンプト起動）.lnk</v>
+        <v/>
       </c>
       <c r="Y140" s="13" t="str">
         <f>IF(
@@ -44448,10 +44477,10 @@
   ),
   ""
 )</f>
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="AC140" s="20" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="AC140:AC171" si="22">IF(AND($M140&lt;&gt;"",$M140&lt;&gt;"-")," (&amp;"&amp;$M140&amp;")","")</f>
         <v/>
       </c>
       <c r="AD140" s="13" t="str">
@@ -44485,11 +44514,23 @@
         <v/>
       </c>
       <c r="AG140" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="AG140:AG171" si="23">IF(
+  AND($A140&lt;&gt;"",$O140&lt;&gt;"-",$O140&lt;&gt;""),
+  (
+    "schtasks /create /tn """&amp;$O140&amp;""" /tr """&amp;$C140&amp;""" /sc daily /st "&amp;$P140&amp;" /rl highest"
+  ),
+  ""
+)</f>
         <v/>
       </c>
       <c r="AH140" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="AH140:AH171" si="24">IF(
+  AND($A140&lt;&gt;"",$O140&lt;&gt;"-",$O140&lt;&gt;""),
+  (
+    "schtasks /delete /tn """&amp;$O140&amp;""""
+  ),
+  ""
+)</f>
         <v/>
       </c>
       <c r="AI140" s="13" t="str">
@@ -44515,16 +44556,16 @@
         <v>1169</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>1212</v>
+        <v>1171</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>1211</v>
+        <v>1168</v>
       </c>
       <c r="D141" s="15" t="s">
-        <v>1213</v>
+        <v>40</v>
       </c>
       <c r="E141" s="26" t="s">
-        <v>40</v>
+        <v>1210</v>
       </c>
       <c r="F141" s="15" t="s">
         <v>0</v>
@@ -44584,7 +44625,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\172_Utility_Other" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\172_Utility_Other\コマンドプロンプト（コマンドプロンプト起動_管理者権限）.lnk" "C:\codes\bat\tools\win\OpenCmdPromptAsRunas.bat" "%MYDIRPATH_DESKTOP%" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\172_Utility_Other" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\172_Utility_Other\コマンドプロンプト（コマンドプロンプト起動）.lnk" "%windir%\system32\cmd.exe" "" "%MYDIRPATH_DESKTOP%"</v>
       </c>
       <c r="U141" s="9" t="str">
         <f ca="1">IFERROR(
@@ -44624,7 +44665,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\cmd（コマンドプロンプト起動_管理者権限）.lnk" "C:\codes\bat\tools\win\OpenCmdPromptAsRunas.bat" "%MYDIRPATH_DESKTOP%" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\cmd（コマンドプロンプト起動）.lnk" "%windir%\system32\cmd.exe" "" "%MYDIRPATH_DESKTOP%"</v>
       </c>
       <c r="X141" s="14" t="str">
         <f>IF(
@@ -44632,7 +44673,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J141&amp;"（"&amp;$B141&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\cmd（コマンドプロンプト起動_管理者権限）.lnk</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\cmd（コマンドプロンプト起動）.lnk</v>
       </c>
       <c r="Y141" s="13" t="str">
         <f>IF(
@@ -44751,16 +44792,16 @@
     </row>
     <row r="142" spans="1:36">
       <c r="A142" s="9" t="s">
-        <v>678</v>
+        <v>1169</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>815</v>
+        <v>1212</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>96</v>
+        <v>1211</v>
       </c>
       <c r="D142" s="15" t="s">
-        <v>40</v>
+        <v>1213</v>
       </c>
       <c r="E142" s="26" t="s">
         <v>40</v>
@@ -44772,25 +44813,25 @@
         <v>0</v>
       </c>
       <c r="H142" s="9" t="s">
-        <v>538</v>
+        <v>70</v>
       </c>
       <c r="I142" s="15" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="J142" s="15" t="s">
-        <v>66</v>
+        <v>1170</v>
       </c>
       <c r="K142" s="15" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="L142" s="93" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="M142" s="94" t="s">
-        <v>564</v>
+        <v>40</v>
       </c>
       <c r="N142" s="15" t="s">
-        <v>863</v>
+        <v>40</v>
       </c>
       <c r="O142" s="26" t="s">
         <v>1292</v>
@@ -44799,7 +44840,7 @@
         <v>1292</v>
       </c>
       <c r="Q142" s="26" t="s">
-        <v>964</v>
+        <v>40</v>
       </c>
       <c r="R142" s="9" t="str">
         <f t="shared" si="20"/>
@@ -44810,7 +44851,7 @@
         <v/>
       </c>
       <c r="T142" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A142&lt;&gt;"",$I142="○"),
   (
     "mkdir """&amp;V142&amp;""" &amp; "
@@ -44823,7 +44864,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\172_Utility_Other" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\172_Utility_Other\コマンドプロンプト（コマンドプロンプト起動_管理者権限）.lnk" "C:\codes\bat\tools\win\OpenCmdPromptAsRunas.bat" "%MYDIRPATH_DESKTOP%" ""</v>
       </c>
       <c r="U142" s="9" t="str">
         <f ca="1">IFERROR(
@@ -44839,15 +44880,15 @@
   ),
   ""
 )</f>
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="V142" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A142&lt;&gt;"",$I142="○"),
   shortcut設定!$F$4&amp;"\"&amp;U142&amp;"_"&amp;H142,
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\172_Utility_Other</v>
       </c>
       <c r="W142" s="13" t="str">
         <f>IF(
@@ -44863,7 +44904,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\cmd（コマンドプロンプト起動_管理者権限）.lnk" "C:\codes\bat\tools\win\OpenCmdPromptAsRunas.bat" "%MYDIRPATH_DESKTOP%" ""</v>
       </c>
       <c r="X142" s="14" t="str">
         <f>IF(
@@ -44871,7 +44912,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J142&amp;"（"&amp;$B142&amp;"）.lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\cmd（コマンドプロンプト起動_管理者権限）.lnk</v>
       </c>
       <c r="Y142" s="13" t="str">
         <f>IF(
@@ -44926,7 +44967,7 @@
   ),
   ""
 )</f>
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="AC142" s="20" t="str">
         <f t="shared" si="22"/>
@@ -44952,7 +44993,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\UserDefHotKey2.ahk（ホットキー）.lnk" "C:\codes\ahk\UserDefHotKey2.ahk" "" ""</v>
+        <v/>
       </c>
       <c r="AF142" s="9" t="str">
         <f>IF(
@@ -44960,7 +45001,7 @@
   shortcut設定!$F$6&amp;"\"&amp;A142&amp;"（"&amp;B142&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\UserDefHotKey2.ahk（ホットキー）.lnk</v>
+        <v/>
       </c>
       <c r="AG142" s="13" t="str">
         <f t="shared" si="23"/>
@@ -44990,13 +45031,13 @@
     </row>
     <row r="143" spans="1:36">
       <c r="A143" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>561</v>
+        <v>96</v>
       </c>
       <c r="D143" s="15" t="s">
         <v>40</v>
@@ -45023,13 +45064,13 @@
         <v>66</v>
       </c>
       <c r="L143" s="93" t="s">
-        <v>863</v>
+        <v>66</v>
       </c>
       <c r="M143" s="94" t="s">
         <v>564</v>
       </c>
       <c r="N143" s="15" t="s">
-        <v>66</v>
+        <v>863</v>
       </c>
       <c r="O143" s="26" t="s">
         <v>1292</v>
@@ -45138,7 +45179,7 @@
         <v/>
       </c>
       <c r="AA143" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A143&lt;&gt;"",$L143&lt;&gt;"-",$L143&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -45149,7 +45190,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_AddString2FileFolder.vbs（ファイルフォルダ接尾辞付与）.lnk" "C:\codes\vbs\tools\win\file_ope\AddString2FileFolder.vbs" "" ""</v>
+        <v/>
       </c>
       <c r="AB143" s="9" t="str">
         <f ca="1">IFERROR(
@@ -45172,12 +45213,12 @@
         <v/>
       </c>
       <c r="AD143" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A143&lt;&gt;"",$L143="○"),
   shortcut設定!$F$5&amp;"\"&amp;AB143&amp;"_"&amp;A143&amp;"（"&amp;B143&amp;"）"&amp;AC143&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_AddString2FileFolder.vbs（ファイルフォルダ接尾辞付与）.lnk</v>
+        <v/>
       </c>
       <c r="AE143" s="13" t="str">
         <f>IF(
@@ -45191,7 +45232,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\UserDefHotKey2.ahk（ホットキー）.lnk" "C:\codes\ahk\UserDefHotKey2.ahk" "" ""</v>
       </c>
       <c r="AF143" s="9" t="str">
         <f>IF(
@@ -45199,7 +45240,7 @@
   shortcut設定!$F$6&amp;"\"&amp;A143&amp;"（"&amp;B143&amp;"）.lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\UserDefHotKey2.ahk（ホットキー）.lnk</v>
       </c>
       <c r="AG143" s="13" t="str">
         <f t="shared" si="23"/>
@@ -45229,13 +45270,13 @@
     </row>
     <row r="144" spans="1:36">
       <c r="A144" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>97</v>
+        <v>561</v>
       </c>
       <c r="D144" s="15" t="s">
         <v>40</v>
@@ -45388,7 +45429,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_BackUpFile.vbs（ファイルバックアップ）.lnk" "C:\codes\vbs\tools\win\file_ope\BackUpFile.vbs" "" ""</v>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_AddString2FileFolder.vbs（ファイルフォルダ接尾辞付与）.lnk" "C:\codes\vbs\tools\win\file_ope\AddString2FileFolder.vbs" "" ""</v>
       </c>
       <c r="AB144" s="9" t="str">
         <f ca="1">IFERROR(
@@ -45416,7 +45457,7 @@
   shortcut設定!$F$5&amp;"\"&amp;AB144&amp;"_"&amp;A144&amp;"（"&amp;B144&amp;"）"&amp;AC144&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_BackUpFile.vbs（ファイルバックアップ）.lnk</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_AddString2FileFolder.vbs（ファイルフォルダ接尾辞付与）.lnk</v>
       </c>
       <c r="AE144" s="13" t="str">
         <f>IF(
@@ -45468,13 +45509,13 @@
     </row>
     <row r="145" spans="1:36">
       <c r="A145" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D145" s="15" t="s">
         <v>40</v>
@@ -45627,7 +45668,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_BackUpMemoFiles.vbs（ファイル一括バックアップ）.lnk" "C:\codes\vbs\tools\win\file_ope\BackUpMemoFiles.vbs" "" ""</v>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_BackUpFile.vbs（ファイルバックアップ）.lnk" "C:\codes\vbs\tools\win\file_ope\BackUpFile.vbs" "" ""</v>
       </c>
       <c r="AB145" s="9" t="str">
         <f ca="1">IFERROR(
@@ -45655,7 +45696,7 @@
   shortcut設定!$F$5&amp;"\"&amp;AB145&amp;"_"&amp;A145&amp;"（"&amp;B145&amp;"）"&amp;AC145&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_BackUpMemoFiles.vbs（ファイル一括バックアップ）.lnk</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_BackUpFile.vbs（ファイルバックアップ）.lnk</v>
       </c>
       <c r="AE145" s="13" t="str">
         <f>IF(
@@ -45707,13 +45748,13 @@
     </row>
     <row r="146" spans="1:36">
       <c r="A146" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D146" s="15" t="s">
         <v>40</v>
@@ -45866,7 +45907,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CopyRefFile.vbs（参照ファイル複製）.lnk" "C:\codes\vbs\tools\win\file_ope\CopyRefFile.vbs" "" ""</v>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_BackUpMemoFiles.vbs（ファイル一括バックアップ）.lnk" "C:\codes\vbs\tools\win\file_ope\BackUpMemoFiles.vbs" "" ""</v>
       </c>
       <c r="AB146" s="9" t="str">
         <f ca="1">IFERROR(
@@ -45894,7 +45935,7 @@
   shortcut設定!$F$5&amp;"\"&amp;AB146&amp;"_"&amp;A146&amp;"（"&amp;B146&amp;"）"&amp;AC146&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CopyRefFile.vbs（参照ファイル複製）.lnk</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_BackUpMemoFiles.vbs（ファイル一括バックアップ）.lnk</v>
       </c>
       <c r="AE146" s="13" t="str">
         <f>IF(
@@ -45946,13 +45987,13 @@
     </row>
     <row r="147" spans="1:36">
       <c r="A147" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D147" s="15" t="s">
         <v>40</v>
@@ -46105,7 +46146,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CopyRefFileFromWeb.vbs（参照ファイル複製fromWeb）.lnk" "C:\codes\vbs\tools\win\file_ope\CopyRefFileFromWeb.vbs" "" ""</v>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CopyRefFile.vbs（参照ファイル複製）.lnk" "C:\codes\vbs\tools\win\file_ope\CopyRefFile.vbs" "" ""</v>
       </c>
       <c r="AB147" s="9" t="str">
         <f ca="1">IFERROR(
@@ -46133,7 +46174,7 @@
   shortcut設定!$F$5&amp;"\"&amp;AB147&amp;"_"&amp;A147&amp;"（"&amp;B147&amp;"）"&amp;AC147&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CopyRefFileFromWeb.vbs（参照ファイル複製fromWeb）.lnk</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CopyRefFile.vbs（参照ファイル複製）.lnk</v>
       </c>
       <c r="AE147" s="13" t="str">
         <f>IF(
@@ -46185,13 +46226,13 @@
     </row>
     <row r="148" spans="1:36">
       <c r="A148" s="9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D148" s="15" t="s">
         <v>40</v>
@@ -46218,7 +46259,7 @@
         <v>66</v>
       </c>
       <c r="L148" s="93" t="s">
-        <v>66</v>
+        <v>863</v>
       </c>
       <c r="M148" s="94" t="s">
         <v>564</v>
@@ -46333,7 +46374,7 @@
         <v/>
       </c>
       <c r="AA148" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A148&lt;&gt;"",$L148&lt;&gt;"-",$L148&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -46344,7 +46385,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CopyRefFileFromWeb.vbs（参照ファイル複製fromWeb）.lnk" "C:\codes\vbs\tools\win\file_ope\CopyRefFileFromWeb.vbs" "" ""</v>
       </c>
       <c r="AB148" s="9" t="str">
         <f ca="1">IFERROR(
@@ -46367,12 +46408,12 @@
         <v/>
       </c>
       <c r="AD148" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A148&lt;&gt;"",$L148="○"),
   shortcut設定!$F$5&amp;"\"&amp;AB148&amp;"_"&amp;A148&amp;"（"&amp;B148&amp;"）"&amp;AC148&amp;".lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CopyRefFileFromWeb.vbs（参照ファイル複製fromWeb）.lnk</v>
       </c>
       <c r="AE148" s="13" t="str">
         <f>IF(
@@ -46424,13 +46465,13 @@
     </row>
     <row r="149" spans="1:36">
       <c r="A149" s="9" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D149" s="15" t="s">
         <v>40</v>
@@ -46663,13 +46704,13 @@
     </row>
     <row r="150" spans="1:36">
       <c r="A150" s="9" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D150" s="15" t="s">
         <v>40</v>
@@ -46902,13 +46943,13 @@
     </row>
     <row r="151" spans="1:36">
       <c r="A151" s="9" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D151" s="15" t="s">
         <v>40</v>
@@ -47141,13 +47182,13 @@
     </row>
     <row r="152" spans="1:36">
       <c r="A152" s="9" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D152" s="15" t="s">
         <v>40</v>
@@ -47380,13 +47421,13 @@
     </row>
     <row r="153" spans="1:36">
       <c r="A153" s="9" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D153" s="15" t="s">
         <v>40</v>
@@ -47619,13 +47660,13 @@
     </row>
     <row r="154" spans="1:36">
       <c r="A154" s="9" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="D154" s="15" t="s">
         <v>40</v>
@@ -47652,7 +47693,7 @@
         <v>66</v>
       </c>
       <c r="L154" s="93" t="s">
-        <v>863</v>
+        <v>66</v>
       </c>
       <c r="M154" s="94" t="s">
         <v>564</v>
@@ -47767,7 +47808,7 @@
         <v/>
       </c>
       <c r="AA154" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A154&lt;&gt;"",$L154&lt;&gt;"-",$L154&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -47778,7 +47819,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CreateRenameBat.vbs（リネーム用バッチ作成）.lnk" "C:\codes\vbs\tools\win\file_ope\CreateRenameBat.vbs" "" ""</v>
+        <v/>
       </c>
       <c r="AB154" s="9" t="str">
         <f ca="1">IFERROR(
@@ -47801,12 +47842,12 @@
         <v/>
       </c>
       <c r="AD154" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A154&lt;&gt;"",$L154="○"),
   shortcut設定!$F$5&amp;"\"&amp;AB154&amp;"_"&amp;A154&amp;"（"&amp;B154&amp;"）"&amp;AC154&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CreateRenameBat.vbs（リネーム用バッチ作成）.lnk</v>
+        <v/>
       </c>
       <c r="AE154" s="13" t="str">
         <f>IF(
@@ -47858,13 +47899,13 @@
     </row>
     <row r="155" spans="1:36">
       <c r="A155" s="9" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D155" s="15" t="s">
         <v>40</v>
@@ -48017,7 +48058,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CreateSymbolicLink.vbs（シンボリックリンク作成）.lnk" "C:\codes\vbs\tools\win\file_ope\CreateSymbolicLink.vbs" "" ""</v>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CreateRenameBat.vbs（リネーム用バッチ作成）.lnk" "C:\codes\vbs\tools\win\file_ope\CreateRenameBat.vbs" "" ""</v>
       </c>
       <c r="AB155" s="9" t="str">
         <f ca="1">IFERROR(
@@ -48045,7 +48086,7 @@
   shortcut設定!$F$5&amp;"\"&amp;AB155&amp;"_"&amp;A155&amp;"（"&amp;B155&amp;"）"&amp;AC155&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CreateSymbolicLink.vbs（シンボリックリンク作成）.lnk</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CreateRenameBat.vbs（リネーム用バッチ作成）.lnk</v>
       </c>
       <c r="AE155" s="13" t="str">
         <f>IF(
@@ -48097,13 +48138,13 @@
     </row>
     <row r="156" spans="1:36">
       <c r="A156" s="9" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="D156" s="15" t="s">
         <v>40</v>
@@ -48256,7 +48297,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_ExtractIfdef.vbs（C言語ifdef削除）.lnk" "C:\codes\vbs\tools\win\file_ope\ExtractIfdef.vbs" "" ""</v>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CreateSymbolicLink.vbs（シンボリックリンク作成）.lnk" "C:\codes\vbs\tools\win\file_ope\CreateSymbolicLink.vbs" "" ""</v>
       </c>
       <c r="AB156" s="9" t="str">
         <f ca="1">IFERROR(
@@ -48284,7 +48325,7 @@
   shortcut設定!$F$5&amp;"\"&amp;AB156&amp;"_"&amp;A156&amp;"（"&amp;B156&amp;"）"&amp;AC156&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_ExtractIfdef.vbs（C言語ifdef削除）.lnk</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CreateSymbolicLink.vbs（シンボリックリンク作成）.lnk</v>
       </c>
       <c r="AE156" s="13" t="str">
         <f>IF(
@@ -48335,14 +48376,14 @@
       </c>
     </row>
     <row r="157" spans="1:36">
-      <c r="A157" s="77" t="s">
-        <v>693</v>
-      </c>
-      <c r="B157" s="77" t="s">
-        <v>830</v>
+      <c r="A157" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>829</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D157" s="15" t="s">
         <v>40</v>
@@ -48369,7 +48410,7 @@
         <v>66</v>
       </c>
       <c r="L157" s="93" t="s">
-        <v>66</v>
+        <v>863</v>
       </c>
       <c r="M157" s="94" t="s">
         <v>564</v>
@@ -48484,7 +48525,7 @@
         <v/>
       </c>
       <c r="AA157" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A157&lt;&gt;"",$L157&lt;&gt;"-",$L157&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -48495,7 +48536,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_ExtractIfdef.vbs（C言語ifdef削除）.lnk" "C:\codes\vbs\tools\win\file_ope\ExtractIfdef.vbs" "" ""</v>
       </c>
       <c r="AB157" s="9" t="str">
         <f ca="1">IFERROR(
@@ -48518,12 +48559,12 @@
         <v/>
       </c>
       <c r="AD157" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A157&lt;&gt;"",$L157="○"),
   shortcut設定!$F$5&amp;"\"&amp;AB157&amp;"_"&amp;A157&amp;"（"&amp;B157&amp;"）"&amp;AC157&amp;".lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_ExtractIfdef.vbs（C言語ifdef削除）.lnk</v>
       </c>
       <c r="AE157" s="13" t="str">
         <f>IF(
@@ -48574,14 +48615,14 @@
       </c>
     </row>
     <row r="158" spans="1:36">
-      <c r="A158" s="9" t="s">
-        <v>694</v>
-      </c>
-      <c r="B158" s="9" t="s">
-        <v>831</v>
+      <c r="A158" s="77" t="s">
+        <v>693</v>
+      </c>
+      <c r="B158" s="77" t="s">
+        <v>830</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D158" s="15" t="s">
         <v>40</v>
@@ -48608,7 +48649,7 @@
         <v>66</v>
       </c>
       <c r="L158" s="93" t="s">
-        <v>863</v>
+        <v>66</v>
       </c>
       <c r="M158" s="94" t="s">
         <v>564</v>
@@ -48723,7 +48764,7 @@
         <v/>
       </c>
       <c r="AA158" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A158&lt;&gt;"",$L158&lt;&gt;"-",$L158&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -48734,7 +48775,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CopyToDir.vbs（フォルダファイルコピー）.lnk" "C:\codes\vbs\tools\win\file_ope\CopyToDir.vbs" "" ""</v>
+        <v/>
       </c>
       <c r="AB158" s="9" t="str">
         <f ca="1">IFERROR(
@@ -48757,12 +48798,12 @@
         <v/>
       </c>
       <c r="AD158" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A158&lt;&gt;"",$L158="○"),
   shortcut設定!$F$5&amp;"\"&amp;AB158&amp;"_"&amp;A158&amp;"（"&amp;B158&amp;"）"&amp;AC158&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CopyToDir.vbs（フォルダファイルコピー）.lnk</v>
+        <v/>
       </c>
       <c r="AE158" s="13" t="str">
         <f>IF(
@@ -48814,13 +48855,13 @@
     </row>
     <row r="159" spans="1:36">
       <c r="A159" s="9" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D159" s="15" t="s">
         <v>40</v>
@@ -48847,7 +48888,7 @@
         <v>66</v>
       </c>
       <c r="L159" s="93" t="s">
-        <v>66</v>
+        <v>863</v>
       </c>
       <c r="M159" s="94" t="s">
         <v>564</v>
@@ -48962,7 +49003,7 @@
         <v/>
       </c>
       <c r="AA159" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A159&lt;&gt;"",$L159&lt;&gt;"-",$L159&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -48973,7 +49014,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CopyToDir.vbs（フォルダファイルコピー）.lnk" "C:\codes\vbs\tools\win\file_ope\CopyToDir.vbs" "" ""</v>
       </c>
       <c r="AB159" s="9" t="str">
         <f ca="1">IFERROR(
@@ -48996,12 +49037,12 @@
         <v/>
       </c>
       <c r="AD159" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A159&lt;&gt;"",$L159="○"),
   shortcut設定!$F$5&amp;"\"&amp;AB159&amp;"_"&amp;A159&amp;"（"&amp;B159&amp;"）"&amp;AC159&amp;".lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CopyToDir.vbs（フォルダファイルコピー）.lnk</v>
       </c>
       <c r="AE159" s="13" t="str">
         <f>IF(
@@ -49053,13 +49094,13 @@
     </row>
     <row r="160" spans="1:36">
       <c r="A160" s="9" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D160" s="15" t="s">
         <v>40</v>
@@ -49068,7 +49109,7 @@
         <v>40</v>
       </c>
       <c r="F160" s="15" t="s">
-        <v>559</v>
+        <v>0</v>
       </c>
       <c r="G160" s="15" t="s">
         <v>0</v>
@@ -49292,13 +49333,13 @@
     </row>
     <row r="161" spans="1:36">
       <c r="A161" s="9" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D161" s="15" t="s">
         <v>40</v>
@@ -49531,13 +49572,13 @@
     </row>
     <row r="162" spans="1:36">
       <c r="A162" s="9" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D162" s="15" t="s">
         <v>40</v>
@@ -49546,7 +49587,7 @@
         <v>40</v>
       </c>
       <c r="F162" s="15" t="s">
-        <v>0</v>
+        <v>559</v>
       </c>
       <c r="G162" s="15" t="s">
         <v>0</v>
@@ -49770,13 +49811,13 @@
     </row>
     <row r="163" spans="1:36">
       <c r="A163" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D163" s="15" t="s">
         <v>40</v>
@@ -50009,13 +50050,13 @@
     </row>
     <row r="164" spans="1:36">
       <c r="A164" s="9" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D164" s="15" t="s">
         <v>40</v>
@@ -50248,13 +50289,13 @@
     </row>
     <row r="165" spans="1:36">
       <c r="A165" s="9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D165" s="15" t="s">
         <v>40</v>
@@ -50487,13 +50528,13 @@
     </row>
     <row r="166" spans="1:36">
       <c r="A166" s="9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D166" s="15" t="s">
         <v>40</v>
@@ -50726,13 +50767,13 @@
     </row>
     <row r="167" spans="1:36">
       <c r="A167" s="9" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D167" s="15" t="s">
         <v>40</v>
@@ -50759,7 +50800,7 @@
         <v>66</v>
       </c>
       <c r="L167" s="93" t="s">
-        <v>863</v>
+        <v>66</v>
       </c>
       <c r="M167" s="94" t="s">
         <v>564</v>
@@ -50874,7 +50915,7 @@
         <v/>
       </c>
       <c r="AA167" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A167&lt;&gt;"",$L167&lt;&gt;"-",$L167&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -50885,7 +50926,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_OutputFileInfo.vbs（ファイル情報出力）.lnk" "C:\codes\vbs\tools\win\file_info\OutputFileInfo.vbs" "" ""</v>
+        <v/>
       </c>
       <c r="AB167" s="9" t="str">
         <f ca="1">IFERROR(
@@ -50908,12 +50949,12 @@
         <v/>
       </c>
       <c r="AD167" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A167&lt;&gt;"",$L167="○"),
   shortcut設定!$F$5&amp;"\"&amp;AB167&amp;"_"&amp;A167&amp;"（"&amp;B167&amp;"）"&amp;AC167&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_OutputFileInfo.vbs（ファイル情報出力）.lnk</v>
+        <v/>
       </c>
       <c r="AE167" s="13" t="str">
         <f>IF(
@@ -50965,13 +51006,13 @@
     </row>
     <row r="168" spans="1:36">
       <c r="A168" s="9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D168" s="15" t="s">
         <v>40</v>
@@ -50998,7 +51039,7 @@
         <v>66</v>
       </c>
       <c r="L168" s="93" t="s">
-        <v>66</v>
+        <v>863</v>
       </c>
       <c r="M168" s="94" t="s">
         <v>564</v>
@@ -51113,7 +51154,7 @@
         <v/>
       </c>
       <c r="AA168" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A168&lt;&gt;"",$L168&lt;&gt;"-",$L168&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -51124,7 +51165,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_OutputFileInfo.vbs（ファイル情報出力）.lnk" "C:\codes\vbs\tools\win\file_info\OutputFileInfo.vbs" "" ""</v>
       </c>
       <c r="AB168" s="9" t="str">
         <f ca="1">IFERROR(
@@ -51147,12 +51188,12 @@
         <v/>
       </c>
       <c r="AD168" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A168&lt;&gt;"",$L168="○"),
   shortcut設定!$F$5&amp;"\"&amp;AB168&amp;"_"&amp;A168&amp;"（"&amp;B168&amp;"）"&amp;AC168&amp;".lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_OutputFileInfo.vbs（ファイル情報出力）.lnk</v>
       </c>
       <c r="AE168" s="13" t="str">
         <f>IF(
@@ -51204,13 +51245,13 @@
     </row>
     <row r="169" spans="1:36">
       <c r="A169" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D169" s="15" t="s">
         <v>40</v>
@@ -51443,13 +51484,13 @@
     </row>
     <row r="170" spans="1:36">
       <c r="A170" s="9" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D170" s="15" t="s">
         <v>40</v>
@@ -51682,13 +51723,13 @@
     </row>
     <row r="171" spans="1:36">
       <c r="A171" s="9" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D171" s="15" t="s">
         <v>40</v>
@@ -51700,7 +51741,7 @@
         <v>0</v>
       </c>
       <c r="G171" s="15" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H171" s="9" t="s">
         <v>538</v>
@@ -51744,15 +51785,7 @@
         <v/>
       </c>
       <c r="S171" s="9" t="str">
-        <f t="shared" ref="S171:S202" si="26">IF(
-  OR(
-    $H171="",
-    $H171="-",
-    COUNTIF(カテゴリ,$H171)&gt;0
-  ),
-  "",
-  "★NG★"
-)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="T171" s="13" t="str">
@@ -51875,7 +51908,7 @@
         <v>200</v>
       </c>
       <c r="AC171" s="20" t="str">
-        <f t="shared" ref="AC171:AC202" si="27">IF(AND($M171&lt;&gt;"",$M171&lt;&gt;"-")," (&amp;"&amp;$M171&amp;")","")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AD171" s="13" t="str">
@@ -51909,23 +51942,11 @@
         <v/>
       </c>
       <c r="AG171" s="13" t="str">
-        <f t="shared" ref="AG171:AG202" si="28">IF(
-  AND($A171&lt;&gt;"",$O171&lt;&gt;"-",$O171&lt;&gt;""),
-  (
-    "schtasks /create /tn """&amp;$O171&amp;""" /tr """&amp;$C171&amp;""" /sc daily /st "&amp;$P171&amp;" /rl highest"
-  ),
-  ""
-)</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AH171" s="13" t="str">
-        <f t="shared" ref="AH171:AH202" si="29">IF(
-  AND($A171&lt;&gt;"",$O171&lt;&gt;"-",$O171&lt;&gt;""),
-  (
-    "schtasks /delete /tn """&amp;$O171&amp;""""
-  ),
-  ""
-)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AI171" s="13" t="str">
@@ -51948,13 +51969,13 @@
     </row>
     <row r="172" spans="1:36">
       <c r="A172" s="9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D172" s="15" t="s">
         <v>40</v>
@@ -51966,7 +51987,7 @@
         <v>0</v>
       </c>
       <c r="G172" s="15" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H172" s="9" t="s">
         <v>538</v>
@@ -51981,10 +52002,10 @@
         <v>66</v>
       </c>
       <c r="L172" s="93" t="s">
-        <v>863</v>
+        <v>66</v>
       </c>
       <c r="M172" s="94" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="N172" s="15" t="s">
         <v>66</v>
@@ -52003,7 +52024,15 @@
         <v/>
       </c>
       <c r="S172" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="S172:S203" si="26">IF(
+  OR(
+    $H172="",
+    $H172="-",
+    COUNTIF(カテゴリ,$H172)&gt;0
+  ),
+  "",
+  "★NG★"
+)</f>
         <v/>
       </c>
       <c r="T172" s="13" t="str">
@@ -52096,7 +52125,7 @@
         <v/>
       </c>
       <c r="AA172" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A172&lt;&gt;"",$L172&lt;&gt;"-",$L172&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -52107,7 +52136,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CompareWithWinmerge.vbs（ファイル比較＠Winmerge） (&amp;D).lnk" "C:\codes\vbs\tools\wimmerge\CompareWithWinmerge.vbs" "" ""</v>
+        <v/>
       </c>
       <c r="AB172" s="9" t="str">
         <f ca="1">IFERROR(
@@ -52126,16 +52155,16 @@
         <v>200</v>
       </c>
       <c r="AC172" s="20" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve"> (&amp;D)</v>
+        <f t="shared" ref="AC172:AC203" si="27">IF(AND($M172&lt;&gt;"",$M172&lt;&gt;"-")," (&amp;"&amp;$M172&amp;")","")</f>
+        <v/>
       </c>
       <c r="AD172" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A172&lt;&gt;"",$L172="○"),
   shortcut設定!$F$5&amp;"\"&amp;AB172&amp;"_"&amp;A172&amp;"（"&amp;B172&amp;"）"&amp;AC172&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CompareWithWinmerge.vbs（ファイル比較＠Winmerge） (&amp;D).lnk</v>
+        <v/>
       </c>
       <c r="AE172" s="13" t="str">
         <f>IF(
@@ -52160,11 +52189,23 @@
         <v/>
       </c>
       <c r="AG172" s="13" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="AG172:AG203" si="28">IF(
+  AND($A172&lt;&gt;"",$O172&lt;&gt;"-",$O172&lt;&gt;""),
+  (
+    "schtasks /create /tn """&amp;$O172&amp;""" /tr """&amp;$C172&amp;""" /sc daily /st "&amp;$P172&amp;" /rl highest"
+  ),
+  ""
+)</f>
         <v/>
       </c>
       <c r="AH172" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="AH172:AH203" si="29">IF(
+  AND($A172&lt;&gt;"",$O172&lt;&gt;"-",$O172&lt;&gt;""),
+  (
+    "schtasks /delete /tn """&amp;$O172&amp;""""
+  ),
+  ""
+)</f>
         <v/>
       </c>
       <c r="AI172" s="13" t="str">
@@ -52187,13 +52228,13 @@
     </row>
     <row r="173" spans="1:36">
       <c r="A173" s="9" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D173" s="15" t="s">
         <v>40</v>
@@ -52223,7 +52264,7 @@
         <v>863</v>
       </c>
       <c r="M173" s="94" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N173" s="15" t="s">
         <v>66</v>
@@ -52346,7 +52387,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_OpenAllFilesWithVim.vbs（全ファイル開く＠Vim）.lnk" "C:\codes\vbs\tools\vim\OpenAllFilesWithVim.vbs" "" ""</v>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CompareWithWinmerge.vbs（ファイル比較＠Winmerge） (&amp;D).lnk" "C:\codes\vbs\tools\wimmerge\CompareWithWinmerge.vbs" "" ""</v>
       </c>
       <c r="AB173" s="9" t="str">
         <f ca="1">IFERROR(
@@ -52366,7 +52407,7 @@
       </c>
       <c r="AC173" s="20" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v xml:space="preserve"> (&amp;D)</v>
       </c>
       <c r="AD173" s="13" t="str">
         <f ca="1">IF(
@@ -52374,7 +52415,7 @@
   shortcut設定!$F$5&amp;"\"&amp;AB173&amp;"_"&amp;A173&amp;"（"&amp;B173&amp;"）"&amp;AC173&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_OpenAllFilesWithVim.vbs（全ファイル開く＠Vim）.lnk</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CompareWithWinmerge.vbs（ファイル比較＠Winmerge） (&amp;D).lnk</v>
       </c>
       <c r="AE173" s="13" t="str">
         <f>IF(
@@ -52426,13 +52467,13 @@
     </row>
     <row r="174" spans="1:36">
       <c r="A174" s="9" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D174" s="15" t="s">
         <v>40</v>
@@ -52459,7 +52500,7 @@
         <v>66</v>
       </c>
       <c r="L174" s="93" t="s">
-        <v>66</v>
+        <v>863</v>
       </c>
       <c r="M174" s="94" t="s">
         <v>564</v>
@@ -52574,7 +52615,7 @@
         <v/>
       </c>
       <c r="AA174" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A174&lt;&gt;"",$L174&lt;&gt;"-",$L174&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -52585,7 +52626,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_OpenAllFilesWithVim.vbs（全ファイル開く＠Vim）.lnk" "C:\codes\vbs\tools\vim\OpenAllFilesWithVim.vbs" "" ""</v>
       </c>
       <c r="AB174" s="9" t="str">
         <f ca="1">IFERROR(
@@ -52608,12 +52649,12 @@
         <v/>
       </c>
       <c r="AD174" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A174&lt;&gt;"",$L174="○"),
   shortcut設定!$F$5&amp;"\"&amp;AB174&amp;"_"&amp;A174&amp;"（"&amp;B174&amp;"）"&amp;AC174&amp;".lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_OpenAllFilesWithVim.vbs（全ファイル開く＠Vim）.lnk</v>
       </c>
       <c r="AE174" s="13" t="str">
         <f>IF(
@@ -52665,13 +52706,13 @@
     </row>
     <row r="175" spans="1:36">
       <c r="A175" s="9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D175" s="15" t="s">
         <v>40</v>
@@ -52698,10 +52739,10 @@
         <v>66</v>
       </c>
       <c r="L175" s="93" t="s">
-        <v>863</v>
+        <v>66</v>
       </c>
       <c r="M175" s="94" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="N175" s="15" t="s">
         <v>66</v>
@@ -52813,7 +52854,7 @@
         <v/>
       </c>
       <c r="AA175" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A175&lt;&gt;"",$L175&lt;&gt;"-",$L175&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -52824,7 +52865,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_UnzipFile.vbs（Zip解凍） (&amp;U).lnk" "C:\codes\vbs\tools\7zip\UnzipFile.vbs" "" ""</v>
+        <v/>
       </c>
       <c r="AB175" s="9" t="str">
         <f ca="1">IFERROR(
@@ -52844,15 +52885,15 @@
       </c>
       <c r="AC175" s="20" t="str">
         <f t="shared" si="27"/>
-        <v xml:space="preserve"> (&amp;U)</v>
+        <v/>
       </c>
       <c r="AD175" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A175&lt;&gt;"",$L175="○"),
   shortcut設定!$F$5&amp;"\"&amp;AB175&amp;"_"&amp;A175&amp;"（"&amp;B175&amp;"）"&amp;AC175&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_UnzipFile.vbs（Zip解凍） (&amp;U).lnk</v>
+        <v/>
       </c>
       <c r="AE175" s="13" t="str">
         <f>IF(
@@ -52904,13 +52945,13 @@
     </row>
     <row r="176" spans="1:36">
       <c r="A176" s="9" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D176" s="15" t="s">
         <v>40</v>
@@ -52940,7 +52981,7 @@
         <v>863</v>
       </c>
       <c r="M176" s="94" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N176" s="15" t="s">
         <v>66</v>
@@ -53063,7 +53104,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_ZipFile.vbs（Zip圧縮） (&amp;Z).lnk" "C:\codes\vbs\tools\7zip\ZipFile.vbs" "" ""</v>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_UnzipFile.vbs（Zip解凍） (&amp;U).lnk" "C:\codes\vbs\tools\7zip\UnzipFile.vbs" "" ""</v>
       </c>
       <c r="AB176" s="9" t="str">
         <f ca="1">IFERROR(
@@ -53083,7 +53124,7 @@
       </c>
       <c r="AC176" s="20" t="str">
         <f t="shared" si="27"/>
-        <v xml:space="preserve"> (&amp;Z)</v>
+        <v xml:space="preserve"> (&amp;U)</v>
       </c>
       <c r="AD176" s="13" t="str">
         <f ca="1">IF(
@@ -53091,7 +53132,7 @@
   shortcut設定!$F$5&amp;"\"&amp;AB176&amp;"_"&amp;A176&amp;"（"&amp;B176&amp;"）"&amp;AC176&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_ZipFile.vbs（Zip圧縮） (&amp;Z).lnk</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_UnzipFile.vbs（Zip解凍） (&amp;U).lnk</v>
       </c>
       <c r="AE176" s="13" t="str">
         <f>IF(
@@ -53143,13 +53184,13 @@
     </row>
     <row r="177" spans="1:36">
       <c r="A177" s="9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D177" s="15" t="s">
         <v>40</v>
@@ -53179,7 +53220,7 @@
         <v>863</v>
       </c>
       <c r="M177" s="94" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="N177" s="15" t="s">
         <v>66</v>
@@ -53302,7 +53343,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_ZipPasswordFile.vbs（Zipパスワード圧縮）.lnk" "C:\codes\vbs\tools\7zip\ZipPasswordFile.vbs" "" ""</v>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_ZipFile.vbs（Zip圧縮） (&amp;Z).lnk" "C:\codes\vbs\tools\7zip\ZipFile.vbs" "" ""</v>
       </c>
       <c r="AB177" s="9" t="str">
         <f ca="1">IFERROR(
@@ -53322,7 +53363,7 @@
       </c>
       <c r="AC177" s="20" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v xml:space="preserve"> (&amp;Z)</v>
       </c>
       <c r="AD177" s="13" t="str">
         <f ca="1">IF(
@@ -53330,7 +53371,7 @@
   shortcut設定!$F$5&amp;"\"&amp;AB177&amp;"_"&amp;A177&amp;"（"&amp;B177&amp;"）"&amp;AC177&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_ZipPasswordFile.vbs（Zipパスワード圧縮）.lnk</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_ZipFile.vbs（Zip圧縮） (&amp;Z).lnk</v>
       </c>
       <c r="AE177" s="13" t="str">
         <f>IF(
@@ -53382,13 +53423,13 @@
     </row>
     <row r="178" spans="1:36">
       <c r="A178" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>560</v>
+        <v>128</v>
       </c>
       <c r="D178" s="15" t="s">
         <v>40</v>
@@ -53415,7 +53456,7 @@
         <v>66</v>
       </c>
       <c r="L178" s="93" t="s">
-        <v>66</v>
+        <v>863</v>
       </c>
       <c r="M178" s="94" t="s">
         <v>564</v>
@@ -53530,7 +53571,7 @@
         <v/>
       </c>
       <c r="AA178" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A178&lt;&gt;"",$L178&lt;&gt;"-",$L178&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -53541,7 +53582,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_ZipPasswordFile.vbs（Zipパスワード圧縮）.lnk" "C:\codes\vbs\tools\7zip\ZipPasswordFile.vbs" "" ""</v>
       </c>
       <c r="AB178" s="9" t="str">
         <f ca="1">IFERROR(
@@ -53564,12 +53605,12 @@
         <v/>
       </c>
       <c r="AD178" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A178&lt;&gt;"",$L178="○"),
   shortcut設定!$F$5&amp;"\"&amp;AB178&amp;"_"&amp;A178&amp;"（"&amp;B178&amp;"）"&amp;AC178&amp;".lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_ZipPasswordFile.vbs（Zipパスワード圧縮）.lnk</v>
       </c>
       <c r="AE178" s="13" t="str">
         <f>IF(
@@ -53621,13 +53662,13 @@
     </row>
     <row r="179" spans="1:36">
       <c r="A179" s="9" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>544</v>
+        <v>560</v>
       </c>
       <c r="D179" s="15" t="s">
         <v>40</v>
@@ -53636,7 +53677,7 @@
         <v>40</v>
       </c>
       <c r="F179" s="15" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G179" s="15" t="s">
         <v>0</v>
@@ -53660,7 +53701,7 @@
         <v>564</v>
       </c>
       <c r="N179" s="15" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="O179" s="26" t="s">
         <v>1292</v>
@@ -53860,13 +53901,13 @@
     </row>
     <row r="180" spans="1:36">
       <c r="A180" s="9" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D180" s="15" t="s">
         <v>40</v>
@@ -53875,7 +53916,7 @@
         <v>40</v>
       </c>
       <c r="F180" s="15" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G180" s="15" t="s">
         <v>0</v>
@@ -53887,7 +53928,7 @@
         <v>66</v>
       </c>
       <c r="J180" s="15" t="s">
-        <v>864</v>
+        <v>66</v>
       </c>
       <c r="K180" s="15" t="s">
         <v>66</v>
@@ -53899,7 +53940,7 @@
         <v>564</v>
       </c>
       <c r="N180" s="15" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="O180" s="26" t="s">
         <v>1292</v>
@@ -53972,7 +54013,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttw（SSH接続toWSL2＠Teraterm）.lnk" "C:\codes\vbs\tools\teraterm\ConnectWSL2withTeraTerm.vbs" "" ""</v>
+        <v/>
       </c>
       <c r="X180" s="14" t="str">
         <f>IF(
@@ -53980,7 +54021,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J180&amp;"（"&amp;$B180&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttw（SSH接続toWSL2＠Teraterm）.lnk</v>
+        <v/>
       </c>
       <c r="Y180" s="13" t="str">
         <f>IF(
@@ -54099,13 +54140,13 @@
     </row>
     <row r="181" spans="1:36">
       <c r="A181" s="9" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B181" s="9" t="s">
         <v>853</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>129</v>
+        <v>545</v>
       </c>
       <c r="D181" s="15" t="s">
         <v>40</v>
@@ -54126,7 +54167,7 @@
         <v>66</v>
       </c>
       <c r="J181" s="15" t="s">
-        <v>66</v>
+        <v>864</v>
       </c>
       <c r="K181" s="15" t="s">
         <v>66</v>
@@ -54211,7 +54252,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttw（SSH接続toWSL2＠Teraterm）.lnk" "C:\codes\vbs\tools\teraterm\ConnectWSL2withTeraTerm.vbs" "" ""</v>
       </c>
       <c r="X181" s="14" t="str">
         <f>IF(
@@ -54219,7 +54260,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J181&amp;"（"&amp;$B181&amp;"）.lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttw（SSH接続toWSL2＠Teraterm）.lnk</v>
       </c>
       <c r="Y181" s="13" t="str">
         <f>IF(
@@ -54338,13 +54379,13 @@
     </row>
     <row r="182" spans="1:36">
       <c r="A182" s="9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D182" s="15" t="s">
         <v>40</v>
@@ -54353,7 +54394,7 @@
         <v>40</v>
       </c>
       <c r="F182" s="15" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G182" s="15" t="s">
         <v>0</v>
@@ -54365,7 +54406,7 @@
         <v>66</v>
       </c>
       <c r="J182" s="15" t="s">
-        <v>865</v>
+        <v>66</v>
       </c>
       <c r="K182" s="15" t="s">
         <v>66</v>
@@ -54450,7 +54491,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttr（SSH接続toMyRaspberryPi＠Teraterm）.lnk" "C:\codes\ttl\login_raspberrypi.ttl" "" ""</v>
+        <v/>
       </c>
       <c r="X182" s="14" t="str">
         <f>IF(
@@ -54458,7 +54499,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J182&amp;"（"&amp;$B182&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttr（SSH接続toMyRaspberryPi＠Teraterm）.lnk</v>
+        <v/>
       </c>
       <c r="Y182" s="13" t="str">
         <f>IF(
@@ -54577,13 +54618,13 @@
     </row>
     <row r="183" spans="1:36">
       <c r="A183" s="9" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>546</v>
+        <v>130</v>
       </c>
       <c r="D183" s="15" t="s">
         <v>40</v>
@@ -54604,7 +54645,7 @@
         <v>66</v>
       </c>
       <c r="J183" s="15" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="K183" s="15" t="s">
         <v>66</v>
@@ -54689,7 +54730,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttm（SSH接続toMyMac＠Teraterm）.lnk" "C:\codes\ttl\login_mac.ttl" "" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttr（SSH接続toMyRaspberryPi＠Teraterm）.lnk" "C:\codes\ttl\login_raspberrypi.ttl" "" ""</v>
       </c>
       <c r="X183" s="14" t="str">
         <f>IF(
@@ -54697,7 +54738,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J183&amp;"（"&amp;$B183&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttm（SSH接続toMyMac＠Teraterm）.lnk</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttr（SSH接続toMyRaspberryPi＠Teraterm）.lnk</v>
       </c>
       <c r="Y183" s="13" t="str">
         <f>IF(
@@ -54816,13 +54857,13 @@
     </row>
     <row r="184" spans="1:36">
       <c r="A184" s="9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D184" s="15" t="s">
         <v>40</v>
@@ -54843,7 +54884,7 @@
         <v>66</v>
       </c>
       <c r="J184" s="15" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="K184" s="15" t="s">
         <v>66</v>
@@ -54928,7 +54969,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\wsr（SFTP接続toMyRaspberryPi＠WinSCP）.lnk" "C:\codes\winscp\login_raspberrypi.bat" "" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttm（SSH接続toMyMac＠Teraterm）.lnk" "C:\codes\ttl\login_mac.ttl" "" ""</v>
       </c>
       <c r="X184" s="14" t="str">
         <f>IF(
@@ -54936,7 +54977,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J184&amp;"（"&amp;$B184&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\wsr（SFTP接続toMyRaspberryPi＠WinSCP）.lnk</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttm（SSH接続toMyMac＠Teraterm）.lnk</v>
       </c>
       <c r="Y184" s="13" t="str">
         <f>IF(
@@ -55055,13 +55096,13 @@
     </row>
     <row r="185" spans="1:36">
       <c r="A185" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D185" s="15" t="s">
         <v>40</v>
@@ -55070,10 +55111,10 @@
         <v>40</v>
       </c>
       <c r="F185" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G185" s="15" t="s">
         <v>0</v>
-      </c>
-      <c r="G185" s="15" t="s">
-        <v>28</v>
       </c>
       <c r="H185" s="9" t="s">
         <v>538</v>
@@ -55082,7 +55123,7 @@
         <v>66</v>
       </c>
       <c r="J185" s="15" t="s">
-        <v>66</v>
+        <v>867</v>
       </c>
       <c r="K185" s="15" t="s">
         <v>66</v>
@@ -55167,7 +55208,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\wsr（SFTP接続toMyRaspberryPi＠WinSCP）.lnk" "C:\codes\winscp\login_raspberrypi.bat" "" ""</v>
       </c>
       <c r="X185" s="14" t="str">
         <f>IF(
@@ -55175,7 +55216,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J185&amp;"（"&amp;$B185&amp;"）.lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\wsr（SFTP接続toMyRaspberryPi＠WinSCP）.lnk</v>
       </c>
       <c r="Y185" s="13" t="str">
         <f>IF(
@@ -55294,13 +55335,13 @@
     </row>
     <row r="186" spans="1:36">
       <c r="A186" s="9" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D186" s="15" t="s">
         <v>40</v>
@@ -55312,7 +55353,7 @@
         <v>0</v>
       </c>
       <c r="G186" s="15" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H186" s="9" t="s">
         <v>538</v>
@@ -55333,7 +55374,7 @@
         <v>564</v>
       </c>
       <c r="N186" s="15" t="s">
-        <v>863</v>
+        <v>66</v>
       </c>
       <c r="O186" s="26" t="s">
         <v>1292</v>
@@ -55495,7 +55536,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\XF_BackupIniToTabbak.bat（X-Finder.iniタブバックアップ）.lnk" "C:\prg_exe\X-Finder\BackupIniToTabbak.bat" "" ""</v>
+        <v/>
       </c>
       <c r="AF186" s="9" t="str">
         <f>IF(
@@ -55503,7 +55544,7 @@
   shortcut設定!$F$6&amp;"\"&amp;A186&amp;"（"&amp;B186&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\XF_BackupIniToTabbak.bat（X-Finder.iniタブバックアップ）.lnk</v>
+        <v/>
       </c>
       <c r="AG186" s="13" t="str">
         <f t="shared" si="28"/>
@@ -55533,13 +55574,13 @@
     </row>
     <row r="187" spans="1:36">
       <c r="A187" s="9" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>817</v>
+        <v>858</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D187" s="15" t="s">
         <v>40</v>
@@ -55551,7 +55592,7 @@
         <v>0</v>
       </c>
       <c r="G187" s="15" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H187" s="9" t="s">
         <v>538</v>
@@ -55572,7 +55613,7 @@
         <v>564</v>
       </c>
       <c r="N187" s="15" t="s">
-        <v>558</v>
+        <v>863</v>
       </c>
       <c r="O187" s="26" t="s">
         <v>1292</v>
@@ -55734,7 +55775,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\XF_BackupIniToTabbak.bat（X-Finder.iniタブバックアップ）.lnk" "C:\prg_exe\X-Finder\BackupIniToTabbak.bat" "" ""</v>
       </c>
       <c r="AF187" s="9" t="str">
         <f>IF(
@@ -55742,7 +55783,7 @@
   shortcut設定!$F$6&amp;"\"&amp;A187&amp;"（"&amp;B187&amp;"）.lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\XF_BackupIniToTabbak.bat（X-Finder.iniタブバックアップ）.lnk</v>
       </c>
       <c r="AG187" s="13" t="str">
         <f t="shared" si="28"/>
@@ -55772,13 +55813,13 @@
     </row>
     <row r="188" spans="1:36">
       <c r="A188" s="9" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>859</v>
+        <v>817</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D188" s="15" t="s">
         <v>40</v>
@@ -55811,7 +55852,7 @@
         <v>564</v>
       </c>
       <c r="N188" s="15" t="s">
-        <v>863</v>
+        <v>558</v>
       </c>
       <c r="O188" s="26" t="s">
         <v>1292</v>
@@ -55973,7 +56014,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\ScheduledBackup.bat（定期ファイルバックアップ）.lnk" "C:\root\30_tool\ScheduledBackup.bat" "" ""</v>
+        <v/>
       </c>
       <c r="AF188" s="9" t="str">
         <f>IF(
@@ -55981,7 +56022,7 @@
   shortcut設定!$F$6&amp;"\"&amp;A188&amp;"（"&amp;B188&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\ScheduledBackup.bat（定期ファイルバックアップ）.lnk</v>
+        <v/>
       </c>
       <c r="AG188" s="13" t="str">
         <f t="shared" si="28"/>
@@ -56011,13 +56052,13 @@
     </row>
     <row r="189" spans="1:36">
       <c r="A189" s="9" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D189" s="15" t="s">
         <v>40</v>
@@ -56038,7 +56079,7 @@
         <v>66</v>
       </c>
       <c r="J189" s="15" t="s">
-        <v>868</v>
+        <v>66</v>
       </c>
       <c r="K189" s="15" t="s">
         <v>66</v>
@@ -56050,7 +56091,7 @@
         <v>564</v>
       </c>
       <c r="N189" s="15" t="s">
-        <v>66</v>
+        <v>863</v>
       </c>
       <c r="O189" s="26" t="s">
         <v>1292</v>
@@ -56123,7 +56164,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\tvr（VNC接続toRobocipA1＠TurboVNC）.lnk" "C:\root\30_tool\ConnectRobocipA1withSshpfVnc.vbs" "" ""</v>
+        <v/>
       </c>
       <c r="X189" s="14" t="str">
         <f>IF(
@@ -56131,7 +56172,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J189&amp;"（"&amp;$B189&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\tvr（VNC接続toRobocipA1＠TurboVNC）.lnk</v>
+        <v/>
       </c>
       <c r="Y189" s="13" t="str">
         <f>IF(
@@ -56212,7 +56253,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\ScheduledBackup.bat（定期ファイルバックアップ）.lnk" "C:\root\30_tool\ScheduledBackup.bat" "" ""</v>
       </c>
       <c r="AF189" s="9" t="str">
         <f>IF(
@@ -56220,7 +56261,7 @@
   shortcut設定!$F$6&amp;"\"&amp;A189&amp;"（"&amp;B189&amp;"）.lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\ScheduledBackup.bat（定期ファイルバックアップ）.lnk</v>
       </c>
       <c r="AG189" s="13" t="str">
         <f t="shared" si="28"/>
@@ -56250,13 +56291,13 @@
     </row>
     <row r="190" spans="1:36">
       <c r="A190" s="9" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D190" s="15" t="s">
         <v>40</v>
@@ -56277,7 +56318,7 @@
         <v>66</v>
       </c>
       <c r="J190" s="15" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="K190" s="15" t="s">
         <v>66</v>
@@ -56362,7 +56403,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttr（SSH接続toRobocipA1＠Teraterm）.lnk" "C:\root\30_tool\ConnectRobocipA1withTeraTerm.ttl" "" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\tvr（VNC接続toRobocipA1＠TurboVNC）.lnk" "C:\root\30_tool\ConnectRobocipA1withSshpfVnc.vbs" "" ""</v>
       </c>
       <c r="X190" s="14" t="str">
         <f>IF(
@@ -56370,7 +56411,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J190&amp;"（"&amp;$B190&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttr（SSH接続toRobocipA1＠Teraterm）.lnk</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\tvr（VNC接続toRobocipA1＠TurboVNC）.lnk</v>
       </c>
       <c r="Y190" s="13" t="str">
         <f>IF(
@@ -56489,13 +56530,13 @@
     </row>
     <row r="191" spans="1:36">
       <c r="A191" s="9" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>1423</v>
+        <v>553</v>
       </c>
       <c r="D191" s="15" t="s">
         <v>40</v>
@@ -56516,7 +56557,7 @@
         <v>66</v>
       </c>
       <c r="J191" s="15" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="K191" s="15" t="s">
         <v>66</v>
@@ -56601,7 +56642,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\wsr（SFTP接続toRobocipA1＠WinSCP）.lnk" "C:\root\30_tool\ConnectRobocipA1withWinScp.bat" "" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttr（SSH接続toRobocipA1＠Teraterm）.lnk" "C:\root\30_tool\ConnectRobocipA1withTeraTerm.ttl" "" ""</v>
       </c>
       <c r="X191" s="14" t="str">
         <f>IF(
@@ -56609,7 +56650,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J191&amp;"（"&amp;$B191&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\wsr（SFTP接続toRobocipA1＠WinSCP）.lnk</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttr（SSH接続toRobocipA1＠Teraterm）.lnk</v>
       </c>
       <c r="Y191" s="13" t="str">
         <f>IF(
@@ -56728,13 +56769,13 @@
     </row>
     <row r="192" spans="1:36">
       <c r="A192" s="9" t="s">
-        <v>1422</v>
+        <v>727</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>1425</v>
+        <v>862</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D192" s="15" t="s">
         <v>40</v>
@@ -56746,37 +56787,37 @@
         <v>0</v>
       </c>
       <c r="G192" s="15" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H192" s="9" t="s">
         <v>538</v>
       </c>
       <c r="I192" s="15" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="J192" s="15" t="s">
-        <v>40</v>
+        <v>867</v>
       </c>
       <c r="K192" s="15" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="L192" s="93" t="s">
-        <v>156</v>
+        <v>66</v>
       </c>
       <c r="M192" s="94" t="s">
-        <v>1426</v>
+        <v>564</v>
       </c>
       <c r="N192" s="15" t="s">
-        <v>963</v>
+        <v>66</v>
       </c>
       <c r="O192" s="26" t="s">
-        <v>963</v>
+        <v>1292</v>
       </c>
       <c r="P192" s="157" t="s">
-        <v>963</v>
+        <v>1292</v>
       </c>
       <c r="Q192" s="26" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="R192" s="9" t="str">
         <f t="shared" si="25"/>
@@ -56840,7 +56881,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\wsr（SFTP接続toRobocipA1＠WinSCP）.lnk" "C:\root\30_tool\ConnectRobocipA1withWinScp.bat" "" ""</v>
       </c>
       <c r="X192" s="14" t="str">
         <f>IF(
@@ -56848,7 +56889,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J192&amp;"（"&amp;$B192&amp;"）.lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\wsr（SFTP接続toRobocipA1＠WinSCP）.lnk</v>
       </c>
       <c r="Y192" s="13" t="str">
         <f>IF(
@@ -56876,7 +56917,7 @@
         <v/>
       </c>
       <c r="AA192" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A192&lt;&gt;"",$L192&lt;&gt;"-",$L192&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -56887,7 +56928,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_ScpPostToRemote.bat（SCP送信toリモート） (&amp;R).lnk" "C:\root\30_tool\ScpPostToRemote.bat" "" ""</v>
+        <v/>
       </c>
       <c r="AB192" s="9" t="str">
         <f ca="1">IFERROR(
@@ -56907,15 +56948,15 @@
       </c>
       <c r="AC192" s="20" t="str">
         <f t="shared" si="27"/>
-        <v xml:space="preserve"> (&amp;R)</v>
+        <v/>
       </c>
       <c r="AD192" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A192&lt;&gt;"",$L192="○"),
   shortcut設定!$F$5&amp;"\"&amp;AB192&amp;"_"&amp;A192&amp;"（"&amp;B192&amp;"）"&amp;AC192&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_ScpPostToRemote.bat（SCP送信toリモート） (&amp;R).lnk</v>
+        <v/>
       </c>
       <c r="AE192" s="13" t="str">
         <f>IF(
@@ -56967,13 +57008,13 @@
     </row>
     <row r="193" spans="1:36">
       <c r="A193" s="9" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="D193" s="15" t="s">
         <v>40</v>
@@ -56982,7 +57023,7 @@
         <v>40</v>
       </c>
       <c r="F193" s="15" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G193" s="15" t="s">
         <v>0</v>
@@ -57000,10 +57041,10 @@
         <v>40</v>
       </c>
       <c r="L193" s="93" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="M193" s="94" t="s">
-        <v>40</v>
+        <v>1426</v>
       </c>
       <c r="N193" s="15" t="s">
         <v>963</v>
@@ -57115,7 +57156,7 @@
         <v/>
       </c>
       <c r="AA193" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A193&lt;&gt;"",$L193&lt;&gt;"-",$L193&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -57126,7 +57167,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_ScpPostToRemote.bat（SCP送信toリモート） (&amp;R).lnk" "C:\root\30_tool\ScpPostToRemote.bat" "" ""</v>
       </c>
       <c r="AB193" s="9" t="str">
         <f ca="1">IFERROR(
@@ -57146,15 +57187,15 @@
       </c>
       <c r="AC193" s="20" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v xml:space="preserve"> (&amp;R)</v>
       </c>
       <c r="AD193" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A193&lt;&gt;"",$L193="○"),
   shortcut設定!$F$5&amp;"\"&amp;AB193&amp;"_"&amp;A193&amp;"（"&amp;B193&amp;"）"&amp;AC193&amp;".lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_ScpPostToRemote.bat（SCP送信toリモート） (&amp;R).lnk</v>
       </c>
       <c r="AE193" s="13" t="str">
         <f>IF(
@@ -57206,16 +57247,16 @@
     </row>
     <row r="194" spans="1:36">
       <c r="A194" s="9" t="s">
-        <v>970</v>
+        <v>1428</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>971</v>
+        <v>1429</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>965</v>
+        <v>1427</v>
       </c>
       <c r="D194" s="15" t="s">
-        <v>963</v>
+        <v>40</v>
       </c>
       <c r="E194" s="26" t="s">
         <v>40</v>
@@ -57230,13 +57271,13 @@
         <v>538</v>
       </c>
       <c r="I194" s="15" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="J194" s="15" t="s">
-        <v>66</v>
+        <v>1459</v>
       </c>
       <c r="K194" s="15" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="L194" s="93" t="s">
         <v>66</v>
@@ -57248,13 +57289,13 @@
         <v>963</v>
       </c>
       <c r="O194" s="26" t="s">
-        <v>1292</v>
+        <v>963</v>
       </c>
       <c r="P194" s="157" t="s">
-        <v>1292</v>
+        <v>963</v>
       </c>
       <c r="Q194" s="26" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="R194" s="9" t="str">
         <f t="shared" si="25"/>
@@ -57318,7 +57359,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ffr（SCP受信fromリモート）.lnk" "C:\root\30_tool\ScpFetchFromRemote.bat" "" ""</v>
       </c>
       <c r="X194" s="14" t="str">
         <f>IF(
@@ -57326,7 +57367,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J194&amp;"（"&amp;$B194&amp;"）.lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ffr（SCP受信fromリモート）.lnk</v>
       </c>
       <c r="Y194" s="13" t="str">
         <f>IF(
@@ -57437,7 +57478,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "C:\_push_all.bat.lnk" "C:\codes\bat\tools\tortoisegit\ShowGitPushWindows.bat" "" ""</v>
+        <v/>
       </c>
       <c r="AJ194" s="91" t="s">
         <v>181</v>
@@ -57445,13 +57486,13 @@
     </row>
     <row r="195" spans="1:36">
       <c r="A195" s="9" t="s">
-        <v>1082</v>
+        <v>970</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>1044</v>
+        <v>971</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>1081</v>
+        <v>965</v>
       </c>
       <c r="D195" s="15" t="s">
         <v>963</v>
@@ -57469,22 +57510,22 @@
         <v>538</v>
       </c>
       <c r="I195" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J195" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K195" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="L195" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="M195" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="N195" s="15" t="s">
         <v>963</v>
-      </c>
-      <c r="J195" s="15" t="s">
-        <v>1045</v>
-      </c>
-      <c r="K195" s="15" t="s">
-        <v>1045</v>
-      </c>
-      <c r="L195" s="93" t="s">
-        <v>1045</v>
-      </c>
-      <c r="M195" s="94" t="s">
-        <v>1045</v>
-      </c>
-      <c r="N195" s="15" t="s">
-        <v>0</v>
       </c>
       <c r="O195" s="26" t="s">
         <v>1292</v>
@@ -57493,7 +57534,7 @@
         <v>1292</v>
       </c>
       <c r="Q195" s="26" t="s">
-        <v>40</v>
+        <v>966</v>
       </c>
       <c r="R195" s="9" t="str">
         <f t="shared" si="25"/>
@@ -57646,7 +57687,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\CreateProgramList.bat（インストールプログラム一覧作成）.lnk" "C:\codes\bat\tools\other\CreateProgramList.bat" "" ""</v>
+        <v/>
       </c>
       <c r="AF195" s="9" t="str">
         <f>IF(
@@ -57654,7 +57695,7 @@
   shortcut設定!$F$6&amp;"\"&amp;A195&amp;"（"&amp;B195&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\CreateProgramList.bat（インストールプログラム一覧作成）.lnk</v>
+        <v/>
       </c>
       <c r="AG195" s="13" t="str">
         <f t="shared" si="28"/>
@@ -57676,7 +57717,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "C:\_push_all.bat.lnk" "C:\codes\bat\tools\tortoisegit\ShowGitPushWindows.bat" "" ""</v>
       </c>
       <c r="AJ195" s="91" t="s">
         <v>181</v>
@@ -57684,13 +57725,13 @@
     </row>
     <row r="196" spans="1:36">
       <c r="A196" s="9" t="s">
-        <v>1269</v>
+        <v>1082</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>1274</v>
+        <v>1044</v>
       </c>
       <c r="C196" s="9" t="s">
-        <v>1267</v>
+        <v>1081</v>
       </c>
       <c r="D196" s="15" t="s">
         <v>963</v>
@@ -57708,22 +57749,22 @@
         <v>538</v>
       </c>
       <c r="I196" s="15" t="s">
+        <v>963</v>
+      </c>
+      <c r="J196" s="15" t="s">
+        <v>1045</v>
+      </c>
+      <c r="K196" s="15" t="s">
+        <v>1045</v>
+      </c>
+      <c r="L196" s="93" t="s">
+        <v>1045</v>
+      </c>
+      <c r="M196" s="94" t="s">
+        <v>1045</v>
+      </c>
+      <c r="N196" s="15" t="s">
         <v>0</v>
-      </c>
-      <c r="J196" s="15" t="s">
-        <v>1454</v>
-      </c>
-      <c r="K196" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L196" s="93" t="s">
-        <v>40</v>
-      </c>
-      <c r="M196" s="94" t="s">
-        <v>40</v>
-      </c>
-      <c r="N196" s="15" t="s">
-        <v>963</v>
       </c>
       <c r="O196" s="26" t="s">
         <v>1292</v>
@@ -57743,7 +57784,7 @@
         <v/>
       </c>
       <c r="T196" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A196&lt;&gt;"",$I196="○"),
   (
     "mkdir """&amp;V196&amp;""" &amp; "
@@ -57756,7 +57797,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\200_Codes" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\200_Codes\BackupAll.bat（HDDバックアップ（全て））.lnk" "C:\codes\bat\tools\other\BackupAll.bat" "" ""</v>
+        <v/>
       </c>
       <c r="U196" s="9" t="str">
         <f ca="1">IFERROR(
@@ -57775,12 +57816,12 @@
         <v>200</v>
       </c>
       <c r="V196" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A196&lt;&gt;"",$I196="○"),
   shortcut設定!$F$4&amp;"\"&amp;U196&amp;"_"&amp;H196,
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\200_Codes</v>
+        <v/>
       </c>
       <c r="W196" s="13" t="str">
         <f>IF(
@@ -57796,7 +57837,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\bua（HDDバックアップ（全て））.lnk" "C:\codes\bat\tools\other\BackupAll.bat" "" ""</v>
+        <v/>
       </c>
       <c r="X196" s="14" t="str">
         <f>IF(
@@ -57804,7 +57845,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J196&amp;"（"&amp;$B196&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\bua（HDDバックアップ（全て））.lnk</v>
+        <v/>
       </c>
       <c r="Y196" s="13" t="str">
         <f>IF(
@@ -57885,7 +57926,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\CreateProgramList.bat（インストールプログラム一覧作成）.lnk" "C:\codes\bat\tools\other\CreateProgramList.bat" "" ""</v>
       </c>
       <c r="AF196" s="9" t="str">
         <f>IF(
@@ -57893,7 +57934,7 @@
   shortcut設定!$F$6&amp;"\"&amp;A196&amp;"（"&amp;B196&amp;"）.lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\CreateProgramList.bat（インストールプログラム一覧作成）.lnk</v>
       </c>
       <c r="AG196" s="13" t="str">
         <f t="shared" si="28"/>
@@ -57923,13 +57964,13 @@
     </row>
     <row r="197" spans="1:36">
       <c r="A197" s="9" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>1080</v>
+        <v>1267</v>
       </c>
       <c r="D197" s="15" t="s">
         <v>963</v>
@@ -57947,10 +57988,10 @@
         <v>538</v>
       </c>
       <c r="I197" s="15" t="s">
-        <v>1279</v>
+        <v>0</v>
       </c>
       <c r="J197" s="15" t="s">
-        <v>963</v>
+        <v>1453</v>
       </c>
       <c r="K197" s="15" t="s">
         <v>40</v>
@@ -57982,7 +58023,7 @@
         <v/>
       </c>
       <c r="T197" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A197&lt;&gt;"",$I197="○"),
   (
     "mkdir """&amp;V197&amp;""" &amp; "
@@ -57995,7 +58036,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\200_Codes" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\200_Codes\BackupAll.bat（HDDバックアップ（全て））.lnk" "C:\codes\bat\tools\other\BackupAll.bat" "" ""</v>
       </c>
       <c r="U197" s="9" t="str">
         <f ca="1">IFERROR(
@@ -58014,12 +58055,12 @@
         <v>200</v>
       </c>
       <c r="V197" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A197&lt;&gt;"",$I197="○"),
   shortcut設定!$F$4&amp;"\"&amp;U197&amp;"_"&amp;H197,
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\200_Codes</v>
       </c>
       <c r="W197" s="13" t="str">
         <f>IF(
@@ -58035,7 +58076,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\bua（HDDバックアップ（全て））.lnk" "C:\codes\bat\tools\other\BackupAll.bat" "" ""</v>
       </c>
       <c r="X197" s="14" t="str">
         <f>IF(
@@ -58043,7 +58084,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J197&amp;"（"&amp;$B197&amp;"）.lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\bua（HDDバックアップ（全て））.lnk</v>
       </c>
       <c r="Y197" s="13" t="str">
         <f>IF(
@@ -58162,13 +58203,13 @@
     </row>
     <row r="198" spans="1:36">
       <c r="A198" s="9" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C198" s="9" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="D198" s="15" t="s">
         <v>963</v>
@@ -58401,13 +58442,13 @@
     </row>
     <row r="199" spans="1:36">
       <c r="A199" s="9" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D199" s="15" t="s">
         <v>963</v>
@@ -58416,7 +58457,7 @@
         <v>40</v>
       </c>
       <c r="F199" s="15" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G199" s="15" t="s">
         <v>0</v>
@@ -58640,13 +58681,13 @@
     </row>
     <row r="200" spans="1:36">
       <c r="A200" s="9" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C200" s="9" t="s">
-        <v>1268</v>
+        <v>1086</v>
       </c>
       <c r="D200" s="15" t="s">
         <v>963</v>
@@ -58658,7 +58699,7 @@
         <v>0</v>
       </c>
       <c r="G200" s="15" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H200" s="9" t="s">
         <v>538</v>
@@ -58682,10 +58723,10 @@
         <v>963</v>
       </c>
       <c r="O200" s="26" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="P200" s="157" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="Q200" s="26" t="s">
         <v>40</v>
@@ -58853,11 +58894,11 @@
       </c>
       <c r="AG200" s="13" t="str">
         <f t="shared" si="28"/>
-        <v>schtasks /create /tn "_scheduled_backup_root" /tr "C:\codes\bat\tools\other\BackupRoot.bat" /sc daily /st 17:56 /rl highest</v>
+        <v/>
       </c>
       <c r="AH200" s="13" t="str">
         <f t="shared" si="29"/>
-        <v>schtasks /delete /tn "_scheduled_backup_root"</v>
+        <v/>
       </c>
       <c r="AI200" s="13" t="str">
         <f>IF(
@@ -58879,55 +58920,55 @@
     </row>
     <row r="201" spans="1:36">
       <c r="A201" s="9" t="s">
-        <v>1313</v>
+        <v>1273</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>1314</v>
+        <v>1278</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>1312</v>
+        <v>1268</v>
       </c>
       <c r="D201" s="15" t="s">
-        <v>1315</v>
+        <v>963</v>
       </c>
       <c r="E201" s="26" t="s">
-        <v>1315</v>
+        <v>40</v>
       </c>
       <c r="F201" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G201" s="15" t="s">
         <v>28</v>
-      </c>
-      <c r="G201" s="15" t="s">
-        <v>0</v>
       </c>
       <c r="H201" s="9" t="s">
         <v>538</v>
       </c>
       <c r="I201" s="15" t="s">
-        <v>1315</v>
+        <v>1279</v>
       </c>
       <c r="J201" s="15" t="s">
-        <v>1315</v>
+        <v>963</v>
       </c>
       <c r="K201" s="15" t="s">
-        <v>1315</v>
+        <v>40</v>
       </c>
       <c r="L201" s="93" t="s">
-        <v>1315</v>
+        <v>40</v>
       </c>
       <c r="M201" s="94" t="s">
-        <v>1315</v>
+        <v>40</v>
       </c>
       <c r="N201" s="15" t="s">
-        <v>0</v>
+        <v>963</v>
       </c>
       <c r="O201" s="26" t="s">
-        <v>1315</v>
+        <v>1293</v>
       </c>
       <c r="P201" s="157" t="s">
-        <v>1315</v>
+        <v>1296</v>
       </c>
       <c r="Q201" s="26" t="s">
-        <v>1315</v>
+        <v>40</v>
       </c>
       <c r="R201" s="9" t="str">
         <f t="shared" si="25"/>
@@ -59080,7 +59121,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\BackupOtherPrgSettings.bat（各種プログラム設定バックアップ）.lnk" "C:\codes\bat\tools\other\BackupOtherPrgSettings.bat" "" ""</v>
+        <v/>
       </c>
       <c r="AF201" s="9" t="str">
         <f>IF(
@@ -59088,15 +59129,15 @@
   shortcut設定!$F$6&amp;"\"&amp;A201&amp;"（"&amp;B201&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\BackupOtherPrgSettings.bat（各種プログラム設定バックアップ）.lnk</v>
+        <v/>
       </c>
       <c r="AG201" s="13" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>schtasks /create /tn "_scheduled_backup_root" /tr "C:\codes\bat\tools\other\BackupRoot.bat" /sc daily /st 17:56 /rl highest</v>
       </c>
       <c r="AH201" s="13" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>schtasks /delete /tn "_scheduled_backup_root"</v>
       </c>
       <c r="AI201" s="13" t="str">
         <f>IF(
@@ -59118,22 +59159,22 @@
     </row>
     <row r="202" spans="1:36">
       <c r="A202" s="9" t="s">
-        <v>1450</v>
+        <v>1313</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>1451</v>
+        <v>1314</v>
       </c>
       <c r="C202" s="9" t="s">
-        <v>1449</v>
+        <v>1312</v>
       </c>
       <c r="D202" s="15" t="s">
-        <v>1452</v>
+        <v>1315</v>
       </c>
       <c r="E202" s="26" t="s">
-        <v>1452</v>
+        <v>1315</v>
       </c>
       <c r="F202" s="15" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G202" s="15" t="s">
         <v>0</v>
@@ -59142,31 +59183,31 @@
         <v>538</v>
       </c>
       <c r="I202" s="15" t="s">
+        <v>1315</v>
+      </c>
+      <c r="J202" s="15" t="s">
+        <v>1315</v>
+      </c>
+      <c r="K202" s="15" t="s">
+        <v>1315</v>
+      </c>
+      <c r="L202" s="93" t="s">
+        <v>1315</v>
+      </c>
+      <c r="M202" s="94" t="s">
+        <v>1315</v>
+      </c>
+      <c r="N202" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="J202" s="15" t="s">
-        <v>1453</v>
-      </c>
-      <c r="K202" s="15" t="s">
-        <v>1452</v>
-      </c>
-      <c r="L202" s="93" t="s">
-        <v>1452</v>
-      </c>
-      <c r="M202" s="94" t="s">
-        <v>1452</v>
-      </c>
-      <c r="N202" s="15" t="s">
-        <v>1452</v>
-      </c>
       <c r="O202" s="26" t="s">
-        <v>1452</v>
+        <v>1315</v>
       </c>
       <c r="P202" s="157" t="s">
-        <v>1452</v>
+        <v>1315</v>
       </c>
       <c r="Q202" s="26" t="s">
-        <v>1452</v>
+        <v>1315</v>
       </c>
       <c r="R202" s="9" t="str">
         <f t="shared" si="25"/>
@@ -59177,7 +59218,7 @@
         <v/>
       </c>
       <c r="T202" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A202&lt;&gt;"",$I202="○"),
   (
     "mkdir """&amp;V202&amp;""" &amp; "
@@ -59190,7 +59231,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\200_Codes" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\200_Codes\extract_drawio_diagram.pyw（drawioダイヤグラム抽出）.lnk" "C:\codes\python\extract_drawio_diagram.pyw" "" ""</v>
+        <v/>
       </c>
       <c r="U202" s="9" t="str">
         <f ca="1">IFERROR(
@@ -59209,12 +59250,12 @@
         <v>200</v>
       </c>
       <c r="V202" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A202&lt;&gt;"",$I202="○"),
   shortcut設定!$F$4&amp;"\"&amp;U202&amp;"_"&amp;H202,
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\200_Codes</v>
+        <v/>
       </c>
       <c r="W202" s="13" t="str">
         <f>IF(
@@ -59230,7 +59271,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\edd（drawioダイヤグラム抽出）.lnk" "C:\codes\python\extract_drawio_diagram.pyw" "" ""</v>
+        <v/>
       </c>
       <c r="X202" s="14" t="str">
         <f>IF(
@@ -59238,7 +59279,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J202&amp;"（"&amp;$B202&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\edd（drawioダイヤグラム抽出）.lnk</v>
+        <v/>
       </c>
       <c r="Y202" s="13" t="str">
         <f>IF(
@@ -59319,7 +59360,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\BackupOtherPrgSettings.bat（各種プログラム設定バックアップ）.lnk" "C:\codes\bat\tools\other\BackupOtherPrgSettings.bat" "" ""</v>
       </c>
       <c r="AF202" s="9" t="str">
         <f>IF(
@@ -59327,7 +59368,7 @@
   shortcut設定!$F$6&amp;"\"&amp;A202&amp;"（"&amp;B202&amp;"）.lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\BackupOtherPrgSettings.bat（各種プログラム設定バックアップ）.lnk</v>
       </c>
       <c r="AG202" s="13" t="str">
         <f t="shared" si="28"/>
@@ -59356,23 +59397,57 @@
       </c>
     </row>
     <row r="203" spans="1:36">
-      <c r="A203" s="9"/>
-      <c r="B203" s="9"/>
-      <c r="C203" s="9"/>
-      <c r="D203" s="15"/>
-      <c r="E203" s="26"/>
-      <c r="F203" s="15"/>
-      <c r="G203" s="15"/>
-      <c r="H203" s="9"/>
-      <c r="I203" s="15"/>
-      <c r="J203" s="15"/>
-      <c r="K203" s="15"/>
-      <c r="L203" s="93"/>
-      <c r="M203" s="94"/>
-      <c r="N203" s="15"/>
-      <c r="O203" s="26"/>
-      <c r="P203" s="157"/>
-      <c r="Q203" s="26"/>
+      <c r="A203" s="9" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C203" s="9" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D203" s="15" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E203" s="26" t="s">
+        <v>1451</v>
+      </c>
+      <c r="F203" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G203" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H203" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="I203" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J203" s="15" t="s">
+        <v>1452</v>
+      </c>
+      <c r="K203" s="15" t="s">
+        <v>1451</v>
+      </c>
+      <c r="L203" s="93" t="s">
+        <v>1451</v>
+      </c>
+      <c r="M203" s="94" t="s">
+        <v>1451</v>
+      </c>
+      <c r="N203" s="15" t="s">
+        <v>1451</v>
+      </c>
+      <c r="O203" s="26" t="s">
+        <v>1451</v>
+      </c>
+      <c r="P203" s="157" t="s">
+        <v>1451</v>
+      </c>
+      <c r="Q203" s="26" t="s">
+        <v>1451</v>
+      </c>
       <c r="R203" s="9" t="str">
         <f t="shared" ref="R203:R208" si="30">IF(
   AND(
@@ -59385,19 +59460,11 @@
         <v/>
       </c>
       <c r="S203" s="9" t="str">
-        <f t="shared" ref="S203:S208" si="31">IF(
-  OR(
-    $H203="",
-    $H203="-",
-    COUNTIF(カテゴリ,$H203)&gt;0
-  ),
-  "",
-  "★NG★"
-)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="T203" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A203&lt;&gt;"",$I203="○"),
   (
     "mkdir """&amp;V203&amp;""" &amp; "
@@ -59410,10 +59477,10 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\200_Codes" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\200_Codes\extract_drawio_diagram.pyw（drawioダイヤグラム抽出）.lnk" "C:\codes\python\extract_drawio_diagram.pyw" "" ""</v>
       </c>
       <c r="U203" s="9" t="str">
-        <f>IFERROR(
+        <f ca="1">IFERROR(
   VLOOKUP(
     $H203,
     shortcut設定!$F:$J,
@@ -59426,15 +59493,15 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>200</v>
       </c>
       <c r="V203" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A203&lt;&gt;"",$I203="○"),
   shortcut設定!$F$4&amp;"\"&amp;U203&amp;"_"&amp;H203,
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\200_Codes</v>
       </c>
       <c r="W203" s="13" t="str">
         <f>IF(
@@ -59450,7 +59517,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\edd（drawioダイヤグラム抽出）.lnk" "C:\codes\python\extract_drawio_diagram.pyw" "" ""</v>
       </c>
       <c r="X203" s="14" t="str">
         <f>IF(
@@ -59458,7 +59525,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J203&amp;"（"&amp;$B203&amp;"）.lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\edd（drawioダイヤグラム抽出）.lnk</v>
       </c>
       <c r="Y203" s="13" t="str">
         <f>IF(
@@ -59500,7 +59567,7 @@
         <v/>
       </c>
       <c r="AB203" s="9" t="str">
-        <f>IFERROR(
+        <f ca="1">IFERROR(
   VLOOKUP(
     $H203,
     shortcut設定!$F:$J,
@@ -59513,10 +59580,10 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>200</v>
       </c>
       <c r="AC203" s="20" t="str">
-        <f t="shared" ref="AC203:AC208" si="32">IF(AND($M203&lt;&gt;"",$M203&lt;&gt;"-")," (&amp;"&amp;$M203&amp;")","")</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AD203" s="13" t="str">
@@ -59550,23 +59617,11 @@
         <v/>
       </c>
       <c r="AG203" s="13" t="str">
-        <f t="shared" ref="AG203:AG208" si="33">IF(
-  AND($A203&lt;&gt;"",$O203&lt;&gt;"-",$O203&lt;&gt;""),
-  (
-    "schtasks /create /tn """&amp;$O203&amp;""" /tr """&amp;$C203&amp;""" /sc daily /st "&amp;$P203&amp;" /rl highest"
-  ),
-  ""
-)</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH203" s="13" t="str">
-        <f t="shared" ref="AH203:AH208" si="34">IF(
-  AND($A203&lt;&gt;"",$O203&lt;&gt;"-",$O203&lt;&gt;""),
-  (
-    "schtasks /delete /tn """&amp;$O203&amp;""""
-  ),
-  ""
-)</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AI203" s="13" t="str">
@@ -59610,7 +59665,15 @@
         <v/>
       </c>
       <c r="S204" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="S204:S208" si="31">IF(
+  OR(
+    $H204="",
+    $H204="-",
+    COUNTIF(カテゴリ,$H204)&gt;0
+  ),
+  "",
+  "★NG★"
+)</f>
         <v/>
       </c>
       <c r="T204" s="13" t="str">
@@ -59733,7 +59796,7 @@
         <v/>
       </c>
       <c r="AC204" s="20" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="AC204:AC208" si="32">IF(AND($M204&lt;&gt;"",$M204&lt;&gt;"-")," (&amp;"&amp;$M204&amp;")","")</f>
         <v/>
       </c>
       <c r="AD204" s="13" t="str">
@@ -59767,11 +59830,23 @@
         <v/>
       </c>
       <c r="AG204" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="AG204:AG208" si="33">IF(
+  AND($A204&lt;&gt;"",$O204&lt;&gt;"-",$O204&lt;&gt;""),
+  (
+    "schtasks /create /tn """&amp;$O204&amp;""" /tr """&amp;$C204&amp;""" /sc daily /st "&amp;$P204&amp;" /rl highest"
+  ),
+  ""
+)</f>
         <v/>
       </c>
       <c r="AH204" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="AH204:AH208" si="34">IF(
+  AND($A204&lt;&gt;"",$O204&lt;&gt;"-",$O204&lt;&gt;""),
+  (
+    "schtasks /delete /tn """&amp;$O204&amp;""""
+  ),
+  ""
+)</f>
         <v/>
       </c>
       <c r="AI204" s="13" t="str">
@@ -62117,13 +62192,13 @@
   <autoFilter ref="A9:AJ209" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H211:H216 H11:H201 H202:H208" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H211:H216 H11:H203 H204:H208" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>カテゴリ</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F211:G216 F11:G201 F202:G208" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F211:G216 F11:G203 F204:G208" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"○,×"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I211:I216 L211:L216 N211:N216 N11:N201 N202:N208 L11:L201 L202:L208 I11:I201 I202:I208" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I211:I216 L211:L216 N211:N216 I11:I203 I204:I208 L11:L203 L204:L208 N11:N203 N204:N208" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"○,-"</formula1>
     </dataValidation>
   </dataValidations>

--- a/PC移行時チェックリスト.xlsx
+++ b/PC移行時チェックリスト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0550238-45FA-4627-8F91-FB28BA4A5B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F36B372-03F5-4B92-BED8-6A8649EA9109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32400" yWindow="615" windowWidth="32415" windowHeight="40725" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32400" yWindow="615" windowWidth="32415" windowHeight="40725" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="セットアップ事項" sheetId="21" r:id="rId1"/>
@@ -13001,7 +13001,7 @@
   </sheetPr>
   <dimension ref="A1:AN216"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane xSplit="2" ySplit="10" topLeftCell="P82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -65334,11 +65334,11 @@
   </sheetPr>
   <dimension ref="A2:I105"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C57" sqref="C57"/>
+      <selection pane="bottomRight" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="11.25"/>

--- a/PC移行時チェックリスト.xlsx
+++ b/PC移行時チェックリスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F36B372-03F5-4B92-BED8-6A8649EA9109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0218D7F3-06EE-40EE-AFAA-3CA22A3DB13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32400" yWindow="615" windowWidth="32415" windowHeight="40725" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32400" yWindow="600" windowWidth="32415" windowHeight="40725" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="セットアップ事項" sheetId="21" r:id="rId1"/>
@@ -13001,11 +13001,11 @@
   </sheetPr>
   <dimension ref="A1:AN216"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="10" topLeftCell="P82" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="10" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="W194" sqref="W194"/>
+      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="11.25" outlineLevelCol="1"/>
@@ -65334,11 +65334,11 @@
   </sheetPr>
   <dimension ref="A2:I105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D45" sqref="D45"/>
+      <selection pane="bottomRight" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="11.25"/>

--- a/PC移行時チェックリスト.xlsx
+++ b/PC移行時チェックリスト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0218D7F3-06EE-40EE-AFAA-3CA22A3DB13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03456253-C0BF-490B-A918-7DBF8ED4A02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32400" yWindow="600" windowWidth="32415" windowHeight="40725" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32385" yWindow="630" windowWidth="32385" windowHeight="40695" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="セットアップ事項" sheetId="21" r:id="rId1"/>
@@ -171,7 +171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E141" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+    <comment ref="E143" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -185,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D142" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+    <comment ref="D144" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -199,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J180" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
+    <comment ref="J182" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -213,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J182" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
+    <comment ref="J184" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -740,7 +740,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6067" uniqueCount="1460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6101" uniqueCount="1468">
   <si>
     <t>○</t>
   </si>
@@ -7494,14 +7494,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ScpPostToRemote.bat</t>
-  </si>
-  <si>
     <t>C:\root\30_tool\ConnectRobocipA1withWinScp.bat</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>C:\root\30_tool\ScpPostToRemote.bat</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -7513,14 +7506,6 @@
   </si>
   <si>
     <t>R</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>C:\root\30_tool\ScpFetchFromRemote.bat</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ScpFetchFromRemote.bat</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -7661,6 +7646,63 @@
   </si>
   <si>
     <t>ffr</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C:\prg\Unity Hub\Unity Hub.exe</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Unity Hub</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シミュレーター</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C:\prg_exe\HWMonitor\HWMonitor_x64.exe</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HWMonitor</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HWモニタ（CPU温度等測定）</t>
+    <rPh sb="9" eb="11">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソクテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ScpUploadToRemote.vbs</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C:\root\30_tool\ScpUploadToRemote.vbs</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C:\root\30_tool\ScpFetchFromRemote.vbs</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ScpFetchFromRemote.vbs</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -13002,10 +13044,10 @@
   <dimension ref="A1:AN216"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="10" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="10" topLeftCell="C138" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomRight" activeCell="D196" sqref="D196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="11.25" outlineLevelCol="1"/>
@@ -25570,19 +25612,19 @@
     </row>
     <row r="62" spans="1:36">
       <c r="A62" s="9" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>762</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="F62" s="15" t="s">
         <v>28</v>
@@ -36415,7 +36457,7 @@
         <v/>
       </c>
       <c r="S107" s="9" t="str">
-        <f t="shared" ref="S107:S139" si="16">IF(
+        <f t="shared" ref="S107:S141" si="16">IF(
   OR(
     $H107="",
     $H107="-",
@@ -36546,7 +36588,7 @@
         <v>113</v>
       </c>
       <c r="AC107" s="20" t="str">
-        <f t="shared" ref="AC107:AC139" si="17">IF(AND($M107&lt;&gt;"",$M107&lt;&gt;"-")," (&amp;"&amp;$M107&amp;")","")</f>
+        <f t="shared" ref="AC107:AC141" si="17">IF(AND($M107&lt;&gt;"",$M107&lt;&gt;"-")," (&amp;"&amp;$M107&amp;")","")</f>
         <v/>
       </c>
       <c r="AD107" s="13" t="str">
@@ -36580,7 +36622,7 @@
         <v/>
       </c>
       <c r="AG107" s="13" t="str">
-        <f t="shared" ref="AG107:AG139" si="18">IF(
+        <f t="shared" ref="AG107:AG141" si="18">IF(
   AND($A107&lt;&gt;"",$O107&lt;&gt;"-",$O107&lt;&gt;""),
   (
     "schtasks /create /tn """&amp;$O107&amp;""" /tr """&amp;$C107&amp;""" /sc daily /st "&amp;$P107&amp;" /rl highest"
@@ -36590,7 +36632,7 @@
         <v/>
       </c>
       <c r="AH107" s="13" t="str">
-        <f t="shared" ref="AH107:AH139" si="19">IF(
+        <f t="shared" ref="AH107:AH141" si="19">IF(
   AND($A107&lt;&gt;"",$O107&lt;&gt;"-",$O107&lt;&gt;""),
   (
     "schtasks /delete /tn """&amp;$O107&amp;""""
@@ -37820,7 +37862,7 @@
         <v>730</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="D113" s="15" t="s">
         <v>40</v>
@@ -39965,19 +40007,19 @@
     </row>
     <row r="122" spans="1:36">
       <c r="A122" s="9" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="E122" s="26" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="F122" s="15" t="s">
         <v>156</v>
@@ -39992,28 +40034,28 @@
         <v>0</v>
       </c>
       <c r="J122" s="15" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="K122" s="15" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="L122" s="93" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="M122" s="94" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="N122" s="15" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="O122" s="26" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="P122" s="157" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="Q122" s="26" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="R122" s="9" t="str">
         <f t="shared" si="15"/>
@@ -40204,19 +40246,19 @@
     </row>
     <row r="123" spans="1:36">
       <c r="A123" s="9" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="E123" s="26" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F123" s="15" t="s">
         <v>0</v>
@@ -40231,28 +40273,28 @@
         <v>0</v>
       </c>
       <c r="J123" s="15" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="K123" s="15" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="L123" s="93" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="M123" s="94" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="N123" s="15" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="O123" s="26" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="P123" s="157" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="Q123" s="26" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="R123" s="9" t="str">
         <f t="shared" si="15"/>
@@ -40443,62 +40485,70 @@
     </row>
     <row r="124" spans="1:36">
       <c r="A124" s="9" t="s">
-        <v>667</v>
+        <v>1461</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>806</v>
+        <v>1462</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>166</v>
+        <v>1460</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>40</v>
+        <v>1463</v>
       </c>
       <c r="E124" s="26" t="s">
-        <v>40</v>
+        <v>1463</v>
       </c>
       <c r="F124" s="15" t="s">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="G124" s="15" t="s">
-        <v>156</v>
+        <v>28</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I124" s="15" t="s">
-        <v>863</v>
+        <v>0</v>
       </c>
       <c r="J124" s="15" t="s">
-        <v>66</v>
+        <v>1463</v>
       </c>
       <c r="K124" s="15" t="s">
-        <v>66</v>
+        <v>1463</v>
       </c>
       <c r="L124" s="93" t="s">
-        <v>66</v>
+        <v>1463</v>
       </c>
       <c r="M124" s="94" t="s">
-        <v>564</v>
+        <v>1463</v>
       </c>
       <c r="N124" s="15" t="s">
-        <v>66</v>
+        <v>1463</v>
       </c>
       <c r="O124" s="26" t="s">
-        <v>1292</v>
+        <v>1463</v>
       </c>
       <c r="P124" s="157" t="s">
-        <v>1292</v>
+        <v>1463</v>
       </c>
       <c r="Q124" s="26" t="s">
-        <v>964</v>
+        <v>1463</v>
       </c>
       <c r="R124" s="9" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="S124" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f>IF(
+  OR(
+    $H124="",
+    $H124="-",
+    COUNTIF(カテゴリ,$H124)&gt;0
+  ),
+  "",
+  "★NG★"
+)</f>
         <v/>
       </c>
       <c r="T124" s="13" t="str">
@@ -40515,7 +40565,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit\LibreOffice（Office互換）.lnk" "C:\prg\LibreOffice\program\soffice.exe" "" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\171_Utility_System" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\171_Utility_System\HWMonitor（HWモニタ（CPU温度等測定））.lnk" "C:\prg_exe\HWMonitor\HWMonitor_x64.exe" "" ""</v>
       </c>
       <c r="U124" s="9" t="str">
         <f ca="1">IFERROR(
@@ -40531,7 +40581,7 @@
   ),
   ""
 )</f>
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="V124" s="13" t="str">
         <f ca="1">IF(
@@ -40539,7 +40589,7 @@
   shortcut設定!$F$4&amp;"\"&amp;U124&amp;"_"&amp;H124,
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\171_Utility_System</v>
       </c>
       <c r="W124" s="13" t="str">
         <f>IF(
@@ -40618,10 +40668,10 @@
   ),
   ""
 )</f>
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="AC124" s="20" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(AND($M124&lt;&gt;"",$M124&lt;&gt;"-")," (&amp;"&amp;$M124&amp;")","")</f>
         <v/>
       </c>
       <c r="AD124" s="13" t="str">
@@ -40655,11 +40705,23 @@
         <v/>
       </c>
       <c r="AG124" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(
+  AND($A124&lt;&gt;"",$O124&lt;&gt;"-",$O124&lt;&gt;""),
+  (
+    "schtasks /create /tn """&amp;$O124&amp;""" /tr """&amp;$C124&amp;""" /sc daily /st "&amp;$P124&amp;" /rl highest"
+  ),
+  ""
+)</f>
         <v/>
       </c>
       <c r="AH124" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(
+  AND($A124&lt;&gt;"",$O124&lt;&gt;"-",$O124&lt;&gt;""),
+  (
+    "schtasks /delete /tn """&amp;$O124&amp;""""
+  ),
+  ""
+)</f>
         <v/>
       </c>
       <c r="AI124" s="13" t="str">
@@ -40682,13 +40744,13 @@
     </row>
     <row r="125" spans="1:36">
       <c r="A125" s="9" t="s">
-        <v>475</v>
+        <v>667</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D125" s="15" t="s">
         <v>40</v>
@@ -40703,7 +40765,7 @@
         <v>156</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I125" s="15" t="s">
         <v>863</v>
@@ -40754,7 +40816,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\133_Music_Listen" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\133_Music_Listen\iTunes（音楽再生）.lnk" "C:\prg\iTunes\iTunes.exe" "" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit\LibreOffice（Office互換）.lnk" "C:\prg\LibreOffice\program\soffice.exe" "" ""</v>
       </c>
       <c r="U125" s="9" t="str">
         <f ca="1">IFERROR(
@@ -40770,7 +40832,7 @@
   ),
   ""
 )</f>
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="V125" s="13" t="str">
         <f ca="1">IF(
@@ -40778,7 +40840,7 @@
   shortcut設定!$F$4&amp;"\"&amp;U125&amp;"_"&amp;H125,
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\133_Music_Listen</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit</v>
       </c>
       <c r="W125" s="13" t="str">
         <f>IF(
@@ -40857,7 +40919,7 @@
   ),
   ""
 )</f>
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="AC125" s="20" t="str">
         <f t="shared" si="17"/>
@@ -40921,13 +40983,13 @@
     </row>
     <row r="126" spans="1:36">
       <c r="A126" s="9" t="s">
-        <v>54</v>
+        <v>475</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>809</v>
+        <v>761</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="D126" s="15" t="s">
         <v>40</v>
@@ -40942,7 +41004,7 @@
         <v>156</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I126" s="15" t="s">
         <v>863</v>
@@ -40993,7 +41055,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\172_Utility_Other" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\172_Utility_Other\Anki（暗記補助）.lnk" "C:\prg\Anki\anki.exe" "" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\133_Music_Listen" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\133_Music_Listen\iTunes（音楽再生）.lnk" "C:\prg\iTunes\iTunes.exe" "" ""</v>
       </c>
       <c r="U126" s="9" t="str">
         <f ca="1">IFERROR(
@@ -41009,7 +41071,7 @@
   ),
   ""
 )</f>
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="V126" s="13" t="str">
         <f ca="1">IF(
@@ -41017,7 +41079,7 @@
   shortcut設定!$F$4&amp;"\"&amp;U126&amp;"_"&amp;H126,
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\172_Utility_Other</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\133_Music_Listen</v>
       </c>
       <c r="W126" s="13" t="str">
         <f>IF(
@@ -41096,7 +41158,7 @@
   ),
   ""
 )</f>
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="AC126" s="20" t="str">
         <f t="shared" si="17"/>
@@ -41160,13 +41222,13 @@
     </row>
     <row r="127" spans="1:36">
       <c r="A127" s="9" t="s">
-        <v>670</v>
+        <v>54</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>310</v>
+        <v>90</v>
       </c>
       <c r="D127" s="15" t="s">
         <v>40</v>
@@ -41181,7 +41243,7 @@
         <v>156</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I127" s="15" t="s">
         <v>863</v>
@@ -41232,7 +41294,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit\はがき作家 あてな 17（はがき宛名編集）.lnk" "C:\prg\HagakiWriter17\AddressWriter17.exe" "" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\172_Utility_Other" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\172_Utility_Other\Anki（暗記補助）.lnk" "C:\prg\Anki\anki.exe" "" ""</v>
       </c>
       <c r="U127" s="9" t="str">
         <f ca="1">IFERROR(
@@ -41248,7 +41310,7 @@
   ),
   ""
 )</f>
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="V127" s="13" t="str">
         <f ca="1">IF(
@@ -41256,7 +41318,7 @@
   shortcut設定!$F$4&amp;"\"&amp;U127&amp;"_"&amp;H127,
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\172_Utility_Other</v>
       </c>
       <c r="W127" s="13" t="str">
         <f>IF(
@@ -41335,7 +41397,7 @@
   ),
   ""
 )</f>
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="AC127" s="20" t="str">
         <f t="shared" si="17"/>
@@ -41399,13 +41461,13 @@
     </row>
     <row r="128" spans="1:36">
       <c r="A128" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D128" s="15" t="s">
         <v>40</v>
@@ -41471,7 +41533,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit\はがき作家 うら 17（はがき表書き編集）.lnk" "C:\prg\HagakiWriter17\CardWriter17.exe" "" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit\はがき作家 あてな 17（はがき宛名編集）.lnk" "C:\prg\HagakiWriter17\AddressWriter17.exe" "" ""</v>
       </c>
       <c r="U128" s="9" t="str">
         <f ca="1">IFERROR(
@@ -41637,14 +41699,14 @@
       </c>
     </row>
     <row r="129" spans="1:36">
-      <c r="A129" s="171" t="s">
-        <v>1432</v>
+      <c r="A129" s="9" t="s">
+        <v>671</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>1433</v>
+        <v>811</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>1431</v>
+        <v>311</v>
       </c>
       <c r="D129" s="15" t="s">
         <v>40</v>
@@ -41653,40 +41715,40 @@
         <v>40</v>
       </c>
       <c r="F129" s="15" t="s">
-        <v>28</v>
+        <v>173</v>
       </c>
       <c r="G129" s="15" t="s">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="H129" s="9" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="I129" s="15" t="s">
-        <v>0</v>
+        <v>863</v>
       </c>
       <c r="J129" s="15" t="s">
-        <v>963</v>
+        <v>66</v>
       </c>
       <c r="K129" s="15" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="L129" s="93" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="M129" s="94" t="s">
-        <v>40</v>
+        <v>564</v>
       </c>
       <c r="N129" s="15" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="O129" s="26" t="s">
-        <v>40</v>
+        <v>1292</v>
       </c>
       <c r="P129" s="157" t="s">
-        <v>40</v>
+        <v>1292</v>
       </c>
       <c r="Q129" s="26" t="s">
-        <v>40</v>
+        <v>964</v>
       </c>
       <c r="R129" s="9" t="str">
         <f t="shared" si="15"/>
@@ -41710,7 +41772,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\113_Common_Edit" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\113_Common_Edit\USBメモリ復旧（データ復元）.lnk" "C:\prg\Fukkyutenshi\r-usb-jp.exe" "" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit\はがき作家 うら 17（はがき表書き編集）.lnk" "C:\prg\HagakiWriter17\CardWriter17.exe" "" ""</v>
       </c>
       <c r="U129" s="9" t="str">
         <f ca="1">IFERROR(
@@ -41726,7 +41788,7 @@
   ),
   ""
 )</f>
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="V129" s="13" t="str">
         <f ca="1">IF(
@@ -41734,7 +41796,7 @@
   shortcut設定!$F$4&amp;"\"&amp;U129&amp;"_"&amp;H129,
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\113_Common_Edit</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit</v>
       </c>
       <c r="W129" s="13" t="str">
         <f>IF(
@@ -41813,7 +41875,7 @@
   ),
   ""
 )</f>
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="AC129" s="20" t="str">
         <f t="shared" si="17"/>
@@ -41876,20 +41938,20 @@
       </c>
     </row>
     <row r="130" spans="1:36">
-      <c r="A130" s="9" t="s">
-        <v>1447</v>
+      <c r="A130" s="171" t="s">
+        <v>1428</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>1446</v>
+        <v>1429</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>1458</v>
+        <v>1427</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>1444</v>
+        <v>40</v>
       </c>
       <c r="E130" s="26" t="s">
-        <v>1444</v>
+        <v>40</v>
       </c>
       <c r="F130" s="15" t="s">
         <v>28</v>
@@ -41898,34 +41960,34 @@
         <v>0</v>
       </c>
       <c r="H130" s="9" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="I130" s="15" t="s">
         <v>0</v>
       </c>
       <c r="J130" s="15" t="s">
-        <v>1444</v>
+        <v>963</v>
       </c>
       <c r="K130" s="15" t="s">
-        <v>1444</v>
+        <v>40</v>
       </c>
       <c r="L130" s="93" t="s">
-        <v>1444</v>
+        <v>40</v>
       </c>
       <c r="M130" s="94" t="s">
-        <v>1444</v>
+        <v>40</v>
       </c>
       <c r="N130" s="15" t="s">
-        <v>1444</v>
+        <v>40</v>
       </c>
       <c r="O130" s="26" t="s">
-        <v>1444</v>
+        <v>40</v>
       </c>
       <c r="P130" s="157" t="s">
-        <v>1444</v>
+        <v>40</v>
       </c>
       <c r="Q130" s="26" t="s">
-        <v>1444</v>
+        <v>40</v>
       </c>
       <c r="R130" s="9" t="str">
         <f t="shared" si="15"/>
@@ -41949,7 +42011,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit\Cursor（テキストエディタ）.lnk" "C:\prg\cursor\Cursor.exe" "" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\113_Common_Edit" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\113_Common_Edit\USBメモリ復旧（データ復元）.lnk" "C:\prg\Fukkyutenshi\r-usb-jp.exe" "" ""</v>
       </c>
       <c r="U130" s="9" t="str">
         <f ca="1">IFERROR(
@@ -41965,7 +42027,7 @@
   ),
   ""
 )</f>
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="V130" s="13" t="str">
         <f ca="1">IF(
@@ -41973,7 +42035,7 @@
   shortcut設定!$F$4&amp;"\"&amp;U130&amp;"_"&amp;H130,
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\113_Common_Edit</v>
       </c>
       <c r="W130" s="13" t="str">
         <f>IF(
@@ -42052,7 +42114,7 @@
   ),
   ""
 )</f>
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="AC130" s="20" t="str">
         <f t="shared" si="17"/>
@@ -42116,22 +42178,22 @@
     </row>
     <row r="131" spans="1:36">
       <c r="A131" s="9" t="s">
-        <v>1455</v>
+        <v>1443</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>1456</v>
+        <v>1442</v>
       </c>
       <c r="C131" s="9" t="s">
         <v>1454</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>1457</v>
+        <v>1440</v>
       </c>
       <c r="E131" s="26" t="s">
-        <v>1457</v>
+        <v>1440</v>
       </c>
       <c r="F131" s="15" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G131" s="15" t="s">
         <v>0</v>
@@ -42143,43 +42205,35 @@
         <v>0</v>
       </c>
       <c r="J131" s="15" t="s">
-        <v>1457</v>
+        <v>1440</v>
       </c>
       <c r="K131" s="15" t="s">
-        <v>1457</v>
+        <v>1440</v>
       </c>
       <c r="L131" s="93" t="s">
-        <v>1457</v>
+        <v>1440</v>
       </c>
       <c r="M131" s="94" t="s">
-        <v>1457</v>
+        <v>1440</v>
       </c>
       <c r="N131" s="15" t="s">
-        <v>1457</v>
+        <v>1440</v>
       </c>
       <c r="O131" s="26" t="s">
-        <v>1457</v>
+        <v>1440</v>
       </c>
       <c r="P131" s="157" t="s">
-        <v>1457</v>
+        <v>1440</v>
       </c>
       <c r="Q131" s="26" t="s">
-        <v>1457</v>
+        <v>1440</v>
       </c>
       <c r="R131" s="9" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="S131" s="9" t="str">
-        <f>IF(
-  OR(
-    $H131="",
-    $H131="-",
-    COUNTIF(カテゴリ,$H131)&gt;0
-  ),
-  "",
-  "★NG★"
-)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="T131" s="13" t="str">
@@ -42196,7 +42250,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit\Obsidian（テキストエディタ）.lnk" "C:\prg\Obsidian\Obsidian.exe" "" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit\Cursor（テキストエディタ）.lnk" "C:\prg\cursor\Cursor.exe" "" ""</v>
       </c>
       <c r="U131" s="9" t="str">
         <f ca="1">IFERROR(
@@ -42302,7 +42356,7 @@
         <v>123</v>
       </c>
       <c r="AC131" s="20" t="str">
-        <f>IF(AND($M131&lt;&gt;"",$M131&lt;&gt;"-")," (&amp;"&amp;$M131&amp;")","")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AD131" s="13" t="str">
@@ -42336,23 +42390,11 @@
         <v/>
       </c>
       <c r="AG131" s="13" t="str">
-        <f>IF(
-  AND($A131&lt;&gt;"",$O131&lt;&gt;"-",$O131&lt;&gt;""),
-  (
-    "schtasks /create /tn """&amp;$O131&amp;""" /tr """&amp;$C131&amp;""" /sc daily /st "&amp;$P131&amp;" /rl highest"
-  ),
-  ""
-)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AH131" s="13" t="str">
-        <f>IF(
-  AND($A131&lt;&gt;"",$O131&lt;&gt;"-",$O131&lt;&gt;""),
-  (
-    "schtasks /delete /tn """&amp;$O131&amp;""""
-  ),
-  ""
-)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AI131" s="13" t="str">
@@ -42375,62 +42417,70 @@
     </row>
     <row r="132" spans="1:36">
       <c r="A132" s="9" t="s">
-        <v>672</v>
+        <v>1451</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>736</v>
+        <v>1452</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>89</v>
+        <v>1450</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>40</v>
+        <v>1453</v>
       </c>
       <c r="E132" s="26" t="s">
-        <v>40</v>
+        <v>1453</v>
       </c>
       <c r="F132" s="15" t="s">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="G132" s="15" t="s">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="H132" s="9" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I132" s="15" t="s">
-        <v>863</v>
+        <v>0</v>
       </c>
       <c r="J132" s="15" t="s">
-        <v>66</v>
+        <v>1453</v>
       </c>
       <c r="K132" s="15" t="s">
-        <v>66</v>
+        <v>1453</v>
       </c>
       <c r="L132" s="93" t="s">
-        <v>66</v>
+        <v>1453</v>
       </c>
       <c r="M132" s="94" t="s">
-        <v>564</v>
+        <v>1453</v>
       </c>
       <c r="N132" s="15" t="s">
-        <v>863</v>
+        <v>1453</v>
       </c>
       <c r="O132" s="26" t="s">
-        <v>1292</v>
+        <v>1453</v>
       </c>
       <c r="P132" s="157" t="s">
-        <v>1292</v>
+        <v>1453</v>
       </c>
       <c r="Q132" s="26" t="s">
-        <v>964</v>
+        <v>1453</v>
       </c>
       <c r="R132" s="9" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="S132" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f>IF(
+  OR(
+    $H132="",
+    $H132="-",
+    COUNTIF(カテゴリ,$H132)&gt;0
+  ),
+  "",
+  "★NG★"
+)</f>
         <v/>
       </c>
       <c r="T132" s="13" t="str">
@@ -42447,7 +42497,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global\MicrosoftEdge（ブラウザ）.lnk" "C:\Program Files (x86)\Microsoft\Edge\Application\msedge.exe" "" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit\Obsidian（テキストエディタ）.lnk" "C:\prg\Obsidian\Obsidian.exe" "" ""</v>
       </c>
       <c r="U132" s="9" t="str">
         <f ca="1">IFERROR(
@@ -42463,7 +42513,7 @@
   ),
   ""
 )</f>
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="V132" s="13" t="str">
         <f ca="1">IF(
@@ -42471,7 +42521,7 @@
   shortcut設定!$F$4&amp;"\"&amp;U132&amp;"_"&amp;H132,
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit</v>
       </c>
       <c r="W132" s="13" t="str">
         <f>IF(
@@ -42550,10 +42600,10 @@
   ),
   ""
 )</f>
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="AC132" s="20" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(AND($M132&lt;&gt;"",$M132&lt;&gt;"-")," (&amp;"&amp;$M132&amp;")","")</f>
         <v/>
       </c>
       <c r="AD132" s="13" t="str">
@@ -42576,7 +42626,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\MicrosoftEdge（ブラウザ）.lnk" "C:\Program Files (x86)\Microsoft\Edge\Application\msedge.exe" "" ""</v>
+        <v/>
       </c>
       <c r="AF132" s="9" t="str">
         <f>IF(
@@ -42584,14 +42634,26 @@
   shortcut設定!$F$6&amp;"\"&amp;A132&amp;"（"&amp;B132&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\MicrosoftEdge（ブラウザ）.lnk</v>
+        <v/>
       </c>
       <c r="AG132" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(
+  AND($A132&lt;&gt;"",$O132&lt;&gt;"-",$O132&lt;&gt;""),
+  (
+    "schtasks /create /tn """&amp;$O132&amp;""" /tr """&amp;$C132&amp;""" /sc daily /st "&amp;$P132&amp;" /rl highest"
+  ),
+  ""
+)</f>
         <v/>
       </c>
       <c r="AH132" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(
+  AND($A132&lt;&gt;"",$O132&lt;&gt;"-",$O132&lt;&gt;""),
+  (
+    "schtasks /delete /tn """&amp;$O132&amp;""""
+  ),
+  ""
+)</f>
         <v/>
       </c>
       <c r="AI132" s="13" t="str">
@@ -42614,62 +42676,70 @@
     </row>
     <row r="133" spans="1:36">
       <c r="A133" s="9" t="s">
-        <v>673</v>
+        <v>1457</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>812</v>
-      </c>
-      <c r="C133" s="77" t="s">
-        <v>91</v>
+        <v>1458</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>1456</v>
       </c>
       <c r="D133" s="15" t="s">
-        <v>885</v>
+        <v>1459</v>
       </c>
       <c r="E133" s="26" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F133" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G133" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H133" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I133" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J133" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F133" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G133" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="H133" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I133" s="15" t="s">
-        <v>863</v>
-      </c>
-      <c r="J133" s="15" t="s">
-        <v>66</v>
-      </c>
       <c r="K133" s="15" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="L133" s="93" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="M133" s="94" t="s">
-        <v>564</v>
+        <v>40</v>
       </c>
       <c r="N133" s="15" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="O133" s="26" t="s">
-        <v>1292</v>
+        <v>40</v>
       </c>
       <c r="P133" s="157" t="s">
-        <v>1292</v>
+        <v>40</v>
       </c>
       <c r="Q133" s="26" t="s">
-        <v>964</v>
+        <v>40</v>
       </c>
       <c r="R133" s="9" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="S133" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f>IF(
+  OR(
+    $H133="",
+    $H133="-",
+    COUNTIF(カテゴリ,$H133)&gt;0
+  ),
+  "",
+  "★NG★"
+)</f>
         <v/>
       </c>
       <c r="T133" s="13" t="str">
@@ -42686,7 +42756,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit\MicrosoftExcel（ドキュメント編集）.lnk" "C:\Program Files (x86)\Microsoft Office\root\Office16\EXCEL.EXE" "/x" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\113_Common_Edit" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\113_Common_Edit\Unity Hub（シミュレーター）.lnk" "C:\prg\Unity Hub\Unity Hub.exe" "" ""</v>
       </c>
       <c r="U133" s="9" t="str">
         <f ca="1">IFERROR(
@@ -42702,7 +42772,7 @@
   ),
   ""
 )</f>
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="V133" s="13" t="str">
         <f ca="1">IF(
@@ -42710,7 +42780,7 @@
   shortcut設定!$F$4&amp;"\"&amp;U133&amp;"_"&amp;H133,
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\113_Common_Edit</v>
       </c>
       <c r="W133" s="13" t="str">
         <f>IF(
@@ -42762,7 +42832,7 @@
         <v/>
       </c>
       <c r="AA133" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A133&lt;&gt;"",$L133&lt;&gt;"-",$L133&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -42773,7 +42843,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\123_MicrosoftExcel（ドキュメント編集）.lnk" "C:\Program Files (x86)\Microsoft Office\root\Office16\EXCEL.EXE" "/x" ""</v>
+        <v/>
       </c>
       <c r="AB133" s="9" t="str">
         <f ca="1">IFERROR(
@@ -42789,19 +42859,19 @@
   ),
   ""
 )</f>
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="AC133" s="20" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(AND($M133&lt;&gt;"",$M133&lt;&gt;"-")," (&amp;"&amp;$M133&amp;")","")</f>
         <v/>
       </c>
       <c r="AD133" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A133&lt;&gt;"",$L133="○"),
   shortcut設定!$F$5&amp;"\"&amp;AB133&amp;"_"&amp;A133&amp;"（"&amp;B133&amp;"）"&amp;AC133&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\123_MicrosoftExcel（ドキュメント編集）.lnk</v>
+        <v/>
       </c>
       <c r="AE133" s="13" t="str">
         <f>IF(
@@ -42826,11 +42896,23 @@
         <v/>
       </c>
       <c r="AG133" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(
+  AND($A133&lt;&gt;"",$O133&lt;&gt;"-",$O133&lt;&gt;""),
+  (
+    "schtasks /create /tn """&amp;$O133&amp;""" /tr """&amp;$C133&amp;""" /sc daily /st "&amp;$P133&amp;" /rl highest"
+  ),
+  ""
+)</f>
         <v/>
       </c>
       <c r="AH133" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(
+  AND($A133&lt;&gt;"",$O133&lt;&gt;"-",$O133&lt;&gt;""),
+  (
+    "schtasks /delete /tn """&amp;$O133&amp;""""
+  ),
+  ""
+)</f>
         <v/>
       </c>
       <c r="AI133" s="13" t="str">
@@ -42853,13 +42935,13 @@
     </row>
     <row r="134" spans="1:36">
       <c r="A134" s="9" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>812</v>
+        <v>736</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D134" s="15" t="s">
         <v>40</v>
@@ -42874,7 +42956,7 @@
         <v>156</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I134" s="15" t="s">
         <v>863</v>
@@ -42892,7 +42974,7 @@
         <v>564</v>
       </c>
       <c r="N134" s="15" t="s">
-        <v>66</v>
+        <v>863</v>
       </c>
       <c r="O134" s="26" t="s">
         <v>1292</v>
@@ -42925,7 +43007,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit\MicrosoftVisio（ドキュメント編集）.lnk" "C:\Program Files (x86)\Microsoft Office\root\Office16\VISIO.EXE" "" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global\MicrosoftEdge（ブラウザ）.lnk" "C:\Program Files (x86)\Microsoft\Edge\Application\msedge.exe" "" ""</v>
       </c>
       <c r="U134" s="9" t="str">
         <f ca="1">IFERROR(
@@ -42941,7 +43023,7 @@
   ),
   ""
 )</f>
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="V134" s="13" t="str">
         <f ca="1">IF(
@@ -42949,7 +43031,7 @@
   shortcut設定!$F$4&amp;"\"&amp;U134&amp;"_"&amp;H134,
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global</v>
       </c>
       <c r="W134" s="13" t="str">
         <f>IF(
@@ -43028,7 +43110,7 @@
   ),
   ""
 )</f>
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="AC134" s="20" t="str">
         <f t="shared" si="17"/>
@@ -43054,7 +43136,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\MicrosoftEdge（ブラウザ）.lnk" "C:\Program Files (x86)\Microsoft\Edge\Application\msedge.exe" "" ""</v>
       </c>
       <c r="AF134" s="9" t="str">
         <f>IF(
@@ -43062,7 +43144,7 @@
   shortcut設定!$F$6&amp;"\"&amp;A134&amp;"（"&amp;B134&amp;"）.lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\MicrosoftEdge（ブラウザ）.lnk</v>
       </c>
       <c r="AG134" s="13" t="str">
         <f t="shared" si="18"/>
@@ -43092,16 +43174,16 @@
     </row>
     <row r="135" spans="1:36">
       <c r="A135" s="9" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B135" s="9" t="s">
         <v>812</v>
       </c>
-      <c r="C135" s="9" t="s">
-        <v>93</v>
+      <c r="C135" s="77" t="s">
+        <v>91</v>
       </c>
       <c r="D135" s="15" t="s">
-        <v>40</v>
+        <v>885</v>
       </c>
       <c r="E135" s="26" t="s">
         <v>40</v>
@@ -43125,7 +43207,7 @@
         <v>66</v>
       </c>
       <c r="L135" s="93" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="M135" s="94" t="s">
         <v>564</v>
@@ -43164,7 +43246,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit\MicrosoftWord（ドキュメント編集）.lnk" "C:\Program Files (x86)\Microsoft Office\root\Office16\WINWORD.EXE" "" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit\MicrosoftExcel（ドキュメント編集）.lnk" "C:\Program Files (x86)\Microsoft Office\root\Office16\EXCEL.EXE" "/x" ""</v>
       </c>
       <c r="U135" s="9" t="str">
         <f ca="1">IFERROR(
@@ -43240,7 +43322,7 @@
         <v/>
       </c>
       <c r="AA135" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A135&lt;&gt;"",$L135&lt;&gt;"-",$L135&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -43251,7 +43333,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\123_MicrosoftExcel（ドキュメント編集）.lnk" "C:\Program Files (x86)\Microsoft Office\root\Office16\EXCEL.EXE" "/x" ""</v>
       </c>
       <c r="AB135" s="9" t="str">
         <f ca="1">IFERROR(
@@ -43274,12 +43356,12 @@
         <v/>
       </c>
       <c r="AD135" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A135&lt;&gt;"",$L135="○"),
   shortcut設定!$F$5&amp;"\"&amp;AB135&amp;"_"&amp;A135&amp;"（"&amp;B135&amp;"）"&amp;AC135&amp;".lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\123_MicrosoftExcel（ドキュメント編集）.lnk</v>
       </c>
       <c r="AE135" s="13" t="str">
         <f>IF(
@@ -43331,13 +43413,13 @@
     </row>
     <row r="136" spans="1:36">
       <c r="A136" s="9" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D136" s="15" t="s">
         <v>40</v>
@@ -43352,7 +43434,7 @@
         <v>156</v>
       </c>
       <c r="H136" s="9" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I136" s="15" t="s">
         <v>863</v>
@@ -43403,7 +43485,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global\MicrosoftOutlook（メーラー）.lnk" "C:\Program Files (x86)\Microsoft Office\root\Office16\OUTLOOK.EXE" "" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit\MicrosoftVisio（ドキュメント編集）.lnk" "C:\Program Files (x86)\Microsoft Office\root\Office16\VISIO.EXE" "" ""</v>
       </c>
       <c r="U136" s="9" t="str">
         <f ca="1">IFERROR(
@@ -43419,7 +43501,7 @@
   ),
   ""
 )</f>
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="V136" s="13" t="str">
         <f ca="1">IF(
@@ -43427,7 +43509,7 @@
   shortcut設定!$F$4&amp;"\"&amp;U136&amp;"_"&amp;H136,
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit</v>
       </c>
       <c r="W136" s="13" t="str">
         <f>IF(
@@ -43506,7 +43588,7 @@
   ),
   ""
 )</f>
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="AC136" s="20" t="str">
         <f t="shared" si="17"/>
@@ -43570,13 +43652,13 @@
     </row>
     <row r="137" spans="1:36">
       <c r="A137" s="9" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>874</v>
+        <v>93</v>
       </c>
       <c r="D137" s="15" t="s">
         <v>40</v>
@@ -43585,13 +43667,13 @@
         <v>40</v>
       </c>
       <c r="F137" s="15" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="G137" s="15" t="s">
         <v>156</v>
       </c>
       <c r="H137" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I137" s="15" t="s">
         <v>863</v>
@@ -43642,7 +43724,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\153_Picture_Edit" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\153_Picture_Edit\CopyTransPhoto（iPhone写真移動）.lnk" "%USERPROFILE%\AppData\Roaming\WindSolutions\CopyTransControlCenter\Applications\CopyTransControlCenter.exe" "" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit\MicrosoftWord（ドキュメント編集）.lnk" "C:\Program Files (x86)\Microsoft Office\root\Office16\WINWORD.EXE" "" ""</v>
       </c>
       <c r="U137" s="9" t="str">
         <f ca="1">IFERROR(
@@ -43658,7 +43740,7 @@
   ),
   ""
 )</f>
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="V137" s="13" t="str">
         <f ca="1">IF(
@@ -43666,7 +43748,7 @@
   shortcut設定!$F$4&amp;"\"&amp;U137&amp;"_"&amp;H137,
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\153_Picture_Edit</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\123_Doc_Edit</v>
       </c>
       <c r="W137" s="13" t="str">
         <f>IF(
@@ -43745,7 +43827,7 @@
   ),
   ""
 )</f>
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="AC137" s="20" t="str">
         <f t="shared" si="17"/>
@@ -43809,13 +43891,13 @@
     </row>
     <row r="138" spans="1:36">
       <c r="A138" s="9" t="s">
-        <v>872</v>
+        <v>676</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>873</v>
+        <v>813</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>875</v>
+        <v>94</v>
       </c>
       <c r="D138" s="15" t="s">
         <v>40</v>
@@ -43824,31 +43906,31 @@
         <v>40</v>
       </c>
       <c r="F138" s="15" t="s">
-        <v>28</v>
+        <v>156</v>
       </c>
       <c r="G138" s="15" t="s">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="H138" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I138" s="15" t="s">
-        <v>0</v>
+        <v>863</v>
       </c>
       <c r="J138" s="15" t="s">
-        <v>568</v>
+        <v>66</v>
       </c>
       <c r="K138" s="15" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="L138" s="93" t="s">
-        <v>568</v>
+        <v>66</v>
       </c>
       <c r="M138" s="94" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="N138" s="15" t="s">
-        <v>568</v>
+        <v>66</v>
       </c>
       <c r="O138" s="26" t="s">
         <v>1292</v>
@@ -43881,7 +43963,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\122_Doc_View" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\122_Doc_View\Kindle（電子書籍）.lnk" "%USERPROFILE%\AppData\Local\Amazon\Kindle\application\Kindle.exe" "" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global\MicrosoftOutlook（メーラー）.lnk" "C:\Program Files (x86)\Microsoft Office\root\Office16\OUTLOOK.EXE" "" ""</v>
       </c>
       <c r="U138" s="9" t="str">
         <f ca="1">IFERROR(
@@ -43897,7 +43979,7 @@
   ),
   ""
 )</f>
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="V138" s="13" t="str">
         <f ca="1">IF(
@@ -43905,7 +43987,7 @@
   shortcut設定!$F$4&amp;"\"&amp;U138&amp;"_"&amp;H138,
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\122_Doc_View</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global</v>
       </c>
       <c r="W138" s="13" t="str">
         <f>IF(
@@ -43984,7 +44066,7 @@
   ),
   ""
 )</f>
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="AC138" s="20" t="str">
         <f t="shared" si="17"/>
@@ -44048,13 +44130,13 @@
     </row>
     <row r="139" spans="1:36">
       <c r="A139" s="9" t="s">
-        <v>877</v>
+        <v>677</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>880</v>
+        <v>814</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D139" s="15" t="s">
         <v>40</v>
@@ -44063,31 +44145,31 @@
         <v>40</v>
       </c>
       <c r="F139" s="15" t="s">
-        <v>28</v>
+        <v>173</v>
       </c>
       <c r="G139" s="15" t="s">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="H139" s="9" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="I139" s="15" t="s">
-        <v>0</v>
+        <v>863</v>
       </c>
       <c r="J139" s="15" t="s">
-        <v>568</v>
+        <v>66</v>
       </c>
       <c r="K139" s="15" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="L139" s="93" t="s">
-        <v>568</v>
+        <v>66</v>
       </c>
       <c r="M139" s="94" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="N139" s="15" t="s">
-        <v>568</v>
+        <v>66</v>
       </c>
       <c r="O139" s="26" t="s">
         <v>1292</v>
@@ -44127,7 +44209,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global\LINE（コミュニケーション）.lnk" "%USERPROFILE%\AppData\Local\LINE\bin\LineLauncher.exe" "" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\153_Picture_Edit" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\153_Picture_Edit\CopyTransPhoto（iPhone写真移動）.lnk" "%USERPROFILE%\AppData\Roaming\WindSolutions\CopyTransControlCenter\Applications\CopyTransControlCenter.exe" "" ""</v>
       </c>
       <c r="U139" s="9" t="str">
         <f ca="1">IFERROR(
@@ -44143,7 +44225,7 @@
   ),
   ""
 )</f>
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="V139" s="13" t="str">
         <f ca="1">IF(
@@ -44151,7 +44233,7 @@
   shortcut設定!$F$4&amp;"\"&amp;U139&amp;"_"&amp;H139,
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\153_Picture_Edit</v>
       </c>
       <c r="W139" s="13" t="str">
         <f>IF(
@@ -44230,7 +44312,7 @@
   ),
   ""
 )</f>
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="AC139" s="20" t="str">
         <f t="shared" si="17"/>
@@ -44294,13 +44376,13 @@
     </row>
     <row r="140" spans="1:36">
       <c r="A140" s="9" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D140" s="15" t="s">
         <v>40</v>
@@ -44309,13 +44391,13 @@
         <v>40</v>
       </c>
       <c r="F140" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G140" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G140" s="15" t="s">
-        <v>28</v>
-      </c>
       <c r="H140" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I140" s="15" t="s">
         <v>0</v>
@@ -44349,15 +44431,7 @@
         <v/>
       </c>
       <c r="S140" s="9" t="str">
-        <f t="shared" ref="S140:S171" si="21">IF(
-  OR(
-    $H140="",
-    $H140="-",
-    COUNTIF(カテゴリ,$H140)&gt;0
-  ),
-  "",
-  "★NG★"
-)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="T140" s="13" t="str">
@@ -44374,7 +44448,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global\MicrosoftTeams（コミュニケーション）.lnk" "C:\Users\draem\AppData\Local\Microsoft\Teams\Update.exe --processStart "Teams.exe"" "" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\122_Doc_View" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\122_Doc_View\Kindle（電子書籍）.lnk" "%USERPROFILE%\AppData\Local\Amazon\Kindle\application\Kindle.exe" "" ""</v>
       </c>
       <c r="U140" s="9" t="str">
         <f ca="1">IFERROR(
@@ -44390,7 +44464,7 @@
   ),
   ""
 )</f>
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="V140" s="13" t="str">
         <f ca="1">IF(
@@ -44398,7 +44472,7 @@
   shortcut設定!$F$4&amp;"\"&amp;U140&amp;"_"&amp;H140,
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\122_Doc_View</v>
       </c>
       <c r="W140" s="13" t="str">
         <f>IF(
@@ -44477,10 +44551,10 @@
   ),
   ""
 )</f>
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="AC140" s="20" t="str">
-        <f t="shared" ref="AC140:AC171" si="22">IF(AND($M140&lt;&gt;"",$M140&lt;&gt;"-")," (&amp;"&amp;$M140&amp;")","")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AD140" s="13" t="str">
@@ -44514,23 +44588,11 @@
         <v/>
       </c>
       <c r="AG140" s="13" t="str">
-        <f t="shared" ref="AG140:AG171" si="23">IF(
-  AND($A140&lt;&gt;"",$O140&lt;&gt;"-",$O140&lt;&gt;""),
-  (
-    "schtasks /create /tn """&amp;$O140&amp;""" /tr """&amp;$C140&amp;""" /sc daily /st "&amp;$P140&amp;" /rl highest"
-  ),
-  ""
-)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AH140" s="13" t="str">
-        <f t="shared" ref="AH140:AH171" si="24">IF(
-  AND($A140&lt;&gt;"",$O140&lt;&gt;"-",$O140&lt;&gt;""),
-  (
-    "schtasks /delete /tn """&amp;$O140&amp;""""
-  ),
-  ""
-)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AI140" s="13" t="str">
@@ -44553,46 +44615,46 @@
     </row>
     <row r="141" spans="1:36">
       <c r="A141" s="9" t="s">
-        <v>1169</v>
+        <v>877</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>1171</v>
+        <v>880</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>1168</v>
+        <v>876</v>
       </c>
       <c r="D141" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E141" s="26" t="s">
-        <v>1210</v>
+        <v>40</v>
       </c>
       <c r="F141" s="15" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G141" s="15" t="s">
         <v>0</v>
       </c>
       <c r="H141" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I141" s="15" t="s">
         <v>0</v>
       </c>
       <c r="J141" s="15" t="s">
-        <v>1170</v>
+        <v>568</v>
       </c>
       <c r="K141" s="15" t="s">
         <v>40</v>
       </c>
       <c r="L141" s="93" t="s">
-        <v>40</v>
+        <v>568</v>
       </c>
       <c r="M141" s="94" t="s">
-        <v>40</v>
+        <v>568</v>
       </c>
       <c r="N141" s="15" t="s">
-        <v>40</v>
+        <v>568</v>
       </c>
       <c r="O141" s="26" t="s">
         <v>1292</v>
@@ -44601,14 +44663,14 @@
         <v>1292</v>
       </c>
       <c r="Q141" s="26" t="s">
-        <v>40</v>
+        <v>964</v>
       </c>
       <c r="R141" s="9" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="S141" s="9" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="T141" s="13" t="str">
@@ -44625,7 +44687,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\172_Utility_Other" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\172_Utility_Other\コマンドプロンプト（コマンドプロンプト起動）.lnk" "%windir%\system32\cmd.exe" "" "%MYDIRPATH_DESKTOP%"</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global\LINE（コミュニケーション）.lnk" "%USERPROFILE%\AppData\Local\LINE\bin\LineLauncher.exe" "" ""</v>
       </c>
       <c r="U141" s="9" t="str">
         <f ca="1">IFERROR(
@@ -44641,7 +44703,7 @@
   ),
   ""
 )</f>
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="V141" s="13" t="str">
         <f ca="1">IF(
@@ -44649,7 +44711,7 @@
   shortcut設定!$F$4&amp;"\"&amp;U141&amp;"_"&amp;H141,
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\172_Utility_Other</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global</v>
       </c>
       <c r="W141" s="13" t="str">
         <f>IF(
@@ -44665,7 +44727,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\cmd（コマンドプロンプト起動）.lnk" "%windir%\system32\cmd.exe" "" "%MYDIRPATH_DESKTOP%"</v>
+        <v/>
       </c>
       <c r="X141" s="14" t="str">
         <f>IF(
@@ -44673,7 +44735,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J141&amp;"（"&amp;$B141&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\cmd（コマンドプロンプト起動）.lnk</v>
+        <v/>
       </c>
       <c r="Y141" s="13" t="str">
         <f>IF(
@@ -44728,10 +44790,10 @@
   ),
   ""
 )</f>
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="AC141" s="20" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AD141" s="13" t="str">
@@ -44765,11 +44827,11 @@
         <v/>
       </c>
       <c r="AG141" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AH141" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AI141" s="13" t="str">
@@ -44792,16 +44854,16 @@
     </row>
     <row r="142" spans="1:36">
       <c r="A142" s="9" t="s">
-        <v>1169</v>
+        <v>879</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>1212</v>
+        <v>880</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>1211</v>
+        <v>878</v>
       </c>
       <c r="D142" s="15" t="s">
-        <v>1213</v>
+        <v>40</v>
       </c>
       <c r="E142" s="26" t="s">
         <v>40</v>
@@ -44810,28 +44872,28 @@
         <v>0</v>
       </c>
       <c r="G142" s="15" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H142" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I142" s="15" t="s">
         <v>0</v>
       </c>
       <c r="J142" s="15" t="s">
-        <v>1170</v>
+        <v>568</v>
       </c>
       <c r="K142" s="15" t="s">
         <v>40</v>
       </c>
       <c r="L142" s="93" t="s">
-        <v>40</v>
+        <v>568</v>
       </c>
       <c r="M142" s="94" t="s">
-        <v>40</v>
+        <v>568</v>
       </c>
       <c r="N142" s="15" t="s">
-        <v>40</v>
+        <v>568</v>
       </c>
       <c r="O142" s="26" t="s">
         <v>1292</v>
@@ -44840,14 +44902,22 @@
         <v>1292</v>
       </c>
       <c r="Q142" s="26" t="s">
-        <v>40</v>
+        <v>964</v>
       </c>
       <c r="R142" s="9" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="S142" s="9" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="S142:S173" si="21">IF(
+  OR(
+    $H142="",
+    $H142="-",
+    COUNTIF(カテゴリ,$H142)&gt;0
+  ),
+  "",
+  "★NG★"
+)</f>
         <v/>
       </c>
       <c r="T142" s="13" t="str">
@@ -44864,7 +44934,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\172_Utility_Other" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\172_Utility_Other\コマンドプロンプト（コマンドプロンプト起動_管理者権限）.lnk" "C:\codes\bat\tools\win\OpenCmdPromptAsRunas.bat" "%MYDIRPATH_DESKTOP%" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global\MicrosoftTeams（コミュニケーション）.lnk" "C:\Users\draem\AppData\Local\Microsoft\Teams\Update.exe --processStart "Teams.exe"" "" ""</v>
       </c>
       <c r="U142" s="9" t="str">
         <f ca="1">IFERROR(
@@ -44880,7 +44950,7 @@
   ),
   ""
 )</f>
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="V142" s="13" t="str">
         <f ca="1">IF(
@@ -44888,7 +44958,7 @@
   shortcut設定!$F$4&amp;"\"&amp;U142&amp;"_"&amp;H142,
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\172_Utility_Other</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\161_Network_Global</v>
       </c>
       <c r="W142" s="13" t="str">
         <f>IF(
@@ -44904,7 +44974,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\cmd（コマンドプロンプト起動_管理者権限）.lnk" "C:\codes\bat\tools\win\OpenCmdPromptAsRunas.bat" "%MYDIRPATH_DESKTOP%" ""</v>
+        <v/>
       </c>
       <c r="X142" s="14" t="str">
         <f>IF(
@@ -44912,7 +44982,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J142&amp;"（"&amp;$B142&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\cmd（コマンドプロンプト起動_管理者権限）.lnk</v>
+        <v/>
       </c>
       <c r="Y142" s="13" t="str">
         <f>IF(
@@ -44967,10 +45037,10 @@
   ),
   ""
 )</f>
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="AC142" s="20" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="AC142:AC173" si="22">IF(AND($M142&lt;&gt;"",$M142&lt;&gt;"-")," (&amp;"&amp;$M142&amp;")","")</f>
         <v/>
       </c>
       <c r="AD142" s="13" t="str">
@@ -45004,11 +45074,23 @@
         <v/>
       </c>
       <c r="AG142" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="AG142:AG173" si="23">IF(
+  AND($A142&lt;&gt;"",$O142&lt;&gt;"-",$O142&lt;&gt;""),
+  (
+    "schtasks /create /tn """&amp;$O142&amp;""" /tr """&amp;$C142&amp;""" /sc daily /st "&amp;$P142&amp;" /rl highest"
+  ),
+  ""
+)</f>
         <v/>
       </c>
       <c r="AH142" s="13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="AH142:AH173" si="24">IF(
+  AND($A142&lt;&gt;"",$O142&lt;&gt;"-",$O142&lt;&gt;""),
+  (
+    "schtasks /delete /tn """&amp;$O142&amp;""""
+  ),
+  ""
+)</f>
         <v/>
       </c>
       <c r="AI142" s="13" t="str">
@@ -45031,19 +45113,19 @@
     </row>
     <row r="143" spans="1:36">
       <c r="A143" s="9" t="s">
-        <v>678</v>
+        <v>1169</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>815</v>
+        <v>1171</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>96</v>
+        <v>1168</v>
       </c>
       <c r="D143" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E143" s="26" t="s">
-        <v>40</v>
+        <v>1210</v>
       </c>
       <c r="F143" s="15" t="s">
         <v>0</v>
@@ -45052,25 +45134,25 @@
         <v>0</v>
       </c>
       <c r="H143" s="9" t="s">
-        <v>538</v>
+        <v>70</v>
       </c>
       <c r="I143" s="15" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="J143" s="15" t="s">
-        <v>66</v>
+        <v>1170</v>
       </c>
       <c r="K143" s="15" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="L143" s="93" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="M143" s="94" t="s">
-        <v>564</v>
+        <v>40</v>
       </c>
       <c r="N143" s="15" t="s">
-        <v>863</v>
+        <v>40</v>
       </c>
       <c r="O143" s="26" t="s">
         <v>1292</v>
@@ -45079,7 +45161,7 @@
         <v>1292</v>
       </c>
       <c r="Q143" s="26" t="s">
-        <v>964</v>
+        <v>40</v>
       </c>
       <c r="R143" s="9" t="str">
         <f t="shared" si="20"/>
@@ -45090,7 +45172,7 @@
         <v/>
       </c>
       <c r="T143" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A143&lt;&gt;"",$I143="○"),
   (
     "mkdir """&amp;V143&amp;""" &amp; "
@@ -45103,7 +45185,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\172_Utility_Other" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\172_Utility_Other\コマンドプロンプト（コマンドプロンプト起動）.lnk" "%windir%\system32\cmd.exe" "" "%MYDIRPATH_DESKTOP%"</v>
       </c>
       <c r="U143" s="9" t="str">
         <f ca="1">IFERROR(
@@ -45119,15 +45201,15 @@
   ),
   ""
 )</f>
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="V143" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A143&lt;&gt;"",$I143="○"),
   shortcut設定!$F$4&amp;"\"&amp;U143&amp;"_"&amp;H143,
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\172_Utility_Other</v>
       </c>
       <c r="W143" s="13" t="str">
         <f>IF(
@@ -45143,7 +45225,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\cmd（コマンドプロンプト起動）.lnk" "%windir%\system32\cmd.exe" "" "%MYDIRPATH_DESKTOP%"</v>
       </c>
       <c r="X143" s="14" t="str">
         <f>IF(
@@ -45151,7 +45233,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J143&amp;"（"&amp;$B143&amp;"）.lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\cmd（コマンドプロンプト起動）.lnk</v>
       </c>
       <c r="Y143" s="13" t="str">
         <f>IF(
@@ -45206,7 +45288,7 @@
   ),
   ""
 )</f>
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="AC143" s="20" t="str">
         <f t="shared" si="22"/>
@@ -45232,7 +45314,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\UserDefHotKey2.ahk（ホットキー）.lnk" "C:\codes\ahk\UserDefHotKey2.ahk" "" ""</v>
+        <v/>
       </c>
       <c r="AF143" s="9" t="str">
         <f>IF(
@@ -45240,7 +45322,7 @@
   shortcut設定!$F$6&amp;"\"&amp;A143&amp;"（"&amp;B143&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\UserDefHotKey2.ahk（ホットキー）.lnk</v>
+        <v/>
       </c>
       <c r="AG143" s="13" t="str">
         <f t="shared" si="23"/>
@@ -45270,16 +45352,16 @@
     </row>
     <row r="144" spans="1:36">
       <c r="A144" s="9" t="s">
-        <v>679</v>
+        <v>1169</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>816</v>
+        <v>1212</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>561</v>
+        <v>1211</v>
       </c>
       <c r="D144" s="15" t="s">
-        <v>40</v>
+        <v>1213</v>
       </c>
       <c r="E144" s="26" t="s">
         <v>40</v>
@@ -45291,25 +45373,25 @@
         <v>0</v>
       </c>
       <c r="H144" s="9" t="s">
-        <v>538</v>
+        <v>70</v>
       </c>
       <c r="I144" s="15" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="J144" s="15" t="s">
-        <v>66</v>
+        <v>1170</v>
       </c>
       <c r="K144" s="15" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="L144" s="93" t="s">
-        <v>863</v>
+        <v>40</v>
       </c>
       <c r="M144" s="94" t="s">
-        <v>564</v>
+        <v>40</v>
       </c>
       <c r="N144" s="15" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="O144" s="26" t="s">
         <v>1292</v>
@@ -45318,7 +45400,7 @@
         <v>1292</v>
       </c>
       <c r="Q144" s="26" t="s">
-        <v>964</v>
+        <v>40</v>
       </c>
       <c r="R144" s="9" t="str">
         <f t="shared" si="20"/>
@@ -45329,7 +45411,7 @@
         <v/>
       </c>
       <c r="T144" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A144&lt;&gt;"",$I144="○"),
   (
     "mkdir """&amp;V144&amp;""" &amp; "
@@ -45342,7 +45424,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\172_Utility_Other" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\172_Utility_Other\コマンドプロンプト（コマンドプロンプト起動_管理者権限）.lnk" "C:\codes\bat\tools\win\OpenCmdPromptAsRunas.bat" "%MYDIRPATH_DESKTOP%" ""</v>
       </c>
       <c r="U144" s="9" t="str">
         <f ca="1">IFERROR(
@@ -45358,15 +45440,15 @@
   ),
   ""
 )</f>
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="V144" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A144&lt;&gt;"",$I144="○"),
   shortcut設定!$F$4&amp;"\"&amp;U144&amp;"_"&amp;H144,
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\172_Utility_Other</v>
       </c>
       <c r="W144" s="13" t="str">
         <f>IF(
@@ -45382,7 +45464,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\cmd（コマンドプロンプト起動_管理者権限）.lnk" "C:\codes\bat\tools\win\OpenCmdPromptAsRunas.bat" "%MYDIRPATH_DESKTOP%" ""</v>
       </c>
       <c r="X144" s="14" t="str">
         <f>IF(
@@ -45390,7 +45472,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J144&amp;"（"&amp;$B144&amp;"）.lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\cmd（コマンドプロンプト起動_管理者権限）.lnk</v>
       </c>
       <c r="Y144" s="13" t="str">
         <f>IF(
@@ -45418,7 +45500,7 @@
         <v/>
       </c>
       <c r="AA144" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A144&lt;&gt;"",$L144&lt;&gt;"-",$L144&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -45429,7 +45511,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_AddString2FileFolder.vbs（ファイルフォルダ接尾辞付与）.lnk" "C:\codes\vbs\tools\win\file_ope\AddString2FileFolder.vbs" "" ""</v>
+        <v/>
       </c>
       <c r="AB144" s="9" t="str">
         <f ca="1">IFERROR(
@@ -45445,19 +45527,19 @@
   ),
   ""
 )</f>
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="AC144" s="20" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AD144" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A144&lt;&gt;"",$L144="○"),
   shortcut設定!$F$5&amp;"\"&amp;AB144&amp;"_"&amp;A144&amp;"（"&amp;B144&amp;"）"&amp;AC144&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_AddString2FileFolder.vbs（ファイルフォルダ接尾辞付与）.lnk</v>
+        <v/>
       </c>
       <c r="AE144" s="13" t="str">
         <f>IF(
@@ -45509,13 +45591,13 @@
     </row>
     <row r="145" spans="1:36">
       <c r="A145" s="9" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D145" s="15" t="s">
         <v>40</v>
@@ -45542,13 +45624,13 @@
         <v>66</v>
       </c>
       <c r="L145" s="93" t="s">
-        <v>863</v>
+        <v>66</v>
       </c>
       <c r="M145" s="94" t="s">
         <v>564</v>
       </c>
       <c r="N145" s="15" t="s">
-        <v>66</v>
+        <v>863</v>
       </c>
       <c r="O145" s="26" t="s">
         <v>1292</v>
@@ -45657,7 +45739,7 @@
         <v/>
       </c>
       <c r="AA145" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A145&lt;&gt;"",$L145&lt;&gt;"-",$L145&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -45668,7 +45750,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_BackUpFile.vbs（ファイルバックアップ）.lnk" "C:\codes\vbs\tools\win\file_ope\BackUpFile.vbs" "" ""</v>
+        <v/>
       </c>
       <c r="AB145" s="9" t="str">
         <f ca="1">IFERROR(
@@ -45691,12 +45773,12 @@
         <v/>
       </c>
       <c r="AD145" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A145&lt;&gt;"",$L145="○"),
   shortcut設定!$F$5&amp;"\"&amp;AB145&amp;"_"&amp;A145&amp;"（"&amp;B145&amp;"）"&amp;AC145&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_BackUpFile.vbs（ファイルバックアップ）.lnk</v>
+        <v/>
       </c>
       <c r="AE145" s="13" t="str">
         <f>IF(
@@ -45710,7 +45792,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\UserDefHotKey2.ahk（ホットキー）.lnk" "C:\codes\ahk\UserDefHotKey2.ahk" "" ""</v>
       </c>
       <c r="AF145" s="9" t="str">
         <f>IF(
@@ -45718,7 +45800,7 @@
   shortcut設定!$F$6&amp;"\"&amp;A145&amp;"（"&amp;B145&amp;"）.lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\UserDefHotKey2.ahk（ホットキー）.lnk</v>
       </c>
       <c r="AG145" s="13" t="str">
         <f t="shared" si="23"/>
@@ -45748,13 +45830,13 @@
     </row>
     <row r="146" spans="1:36">
       <c r="A146" s="9" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>98</v>
+        <v>561</v>
       </c>
       <c r="D146" s="15" t="s">
         <v>40</v>
@@ -45907,7 +45989,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_BackUpMemoFiles.vbs（ファイル一括バックアップ）.lnk" "C:\codes\vbs\tools\win\file_ope\BackUpMemoFiles.vbs" "" ""</v>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_AddString2FileFolder.vbs（ファイルフォルダ接尾辞付与）.lnk" "C:\codes\vbs\tools\win\file_ope\AddString2FileFolder.vbs" "" ""</v>
       </c>
       <c r="AB146" s="9" t="str">
         <f ca="1">IFERROR(
@@ -45935,7 +46017,7 @@
   shortcut設定!$F$5&amp;"\"&amp;AB146&amp;"_"&amp;A146&amp;"（"&amp;B146&amp;"）"&amp;AC146&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_BackUpMemoFiles.vbs（ファイル一括バックアップ）.lnk</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_AddString2FileFolder.vbs（ファイルフォルダ接尾辞付与）.lnk</v>
       </c>
       <c r="AE146" s="13" t="str">
         <f>IF(
@@ -45987,13 +46069,13 @@
     </row>
     <row r="147" spans="1:36">
       <c r="A147" s="9" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D147" s="15" t="s">
         <v>40</v>
@@ -46146,7 +46228,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CopyRefFile.vbs（参照ファイル複製）.lnk" "C:\codes\vbs\tools\win\file_ope\CopyRefFile.vbs" "" ""</v>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_BackUpFile.vbs（ファイルバックアップ）.lnk" "C:\codes\vbs\tools\win\file_ope\BackUpFile.vbs" "" ""</v>
       </c>
       <c r="AB147" s="9" t="str">
         <f ca="1">IFERROR(
@@ -46174,7 +46256,7 @@
   shortcut設定!$F$5&amp;"\"&amp;AB147&amp;"_"&amp;A147&amp;"（"&amp;B147&amp;"）"&amp;AC147&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CopyRefFile.vbs（参照ファイル複製）.lnk</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_BackUpFile.vbs（ファイルバックアップ）.lnk</v>
       </c>
       <c r="AE147" s="13" t="str">
         <f>IF(
@@ -46226,13 +46308,13 @@
     </row>
     <row r="148" spans="1:36">
       <c r="A148" s="9" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D148" s="15" t="s">
         <v>40</v>
@@ -46385,7 +46467,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CopyRefFileFromWeb.vbs（参照ファイル複製fromWeb）.lnk" "C:\codes\vbs\tools\win\file_ope\CopyRefFileFromWeb.vbs" "" ""</v>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_BackUpMemoFiles.vbs（ファイル一括バックアップ）.lnk" "C:\codes\vbs\tools\win\file_ope\BackUpMemoFiles.vbs" "" ""</v>
       </c>
       <c r="AB148" s="9" t="str">
         <f ca="1">IFERROR(
@@ -46413,7 +46495,7 @@
   shortcut設定!$F$5&amp;"\"&amp;AB148&amp;"_"&amp;A148&amp;"（"&amp;B148&amp;"）"&amp;AC148&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CopyRefFileFromWeb.vbs（参照ファイル複製fromWeb）.lnk</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_BackUpMemoFiles.vbs（ファイル一括バックアップ）.lnk</v>
       </c>
       <c r="AE148" s="13" t="str">
         <f>IF(
@@ -46465,13 +46547,13 @@
     </row>
     <row r="149" spans="1:36">
       <c r="A149" s="9" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D149" s="15" t="s">
         <v>40</v>
@@ -46498,7 +46580,7 @@
         <v>66</v>
       </c>
       <c r="L149" s="93" t="s">
-        <v>66</v>
+        <v>863</v>
       </c>
       <c r="M149" s="94" t="s">
         <v>564</v>
@@ -46613,7 +46695,7 @@
         <v/>
       </c>
       <c r="AA149" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A149&lt;&gt;"",$L149&lt;&gt;"-",$L149&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -46624,7 +46706,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CopyRefFile.vbs（参照ファイル複製）.lnk" "C:\codes\vbs\tools\win\file_ope\CopyRefFile.vbs" "" ""</v>
       </c>
       <c r="AB149" s="9" t="str">
         <f ca="1">IFERROR(
@@ -46647,12 +46729,12 @@
         <v/>
       </c>
       <c r="AD149" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A149&lt;&gt;"",$L149="○"),
   shortcut設定!$F$5&amp;"\"&amp;AB149&amp;"_"&amp;A149&amp;"（"&amp;B149&amp;"）"&amp;AC149&amp;".lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CopyRefFile.vbs（参照ファイル複製）.lnk</v>
       </c>
       <c r="AE149" s="13" t="str">
         <f>IF(
@@ -46704,13 +46786,13 @@
     </row>
     <row r="150" spans="1:36">
       <c r="A150" s="9" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D150" s="15" t="s">
         <v>40</v>
@@ -46737,7 +46819,7 @@
         <v>66</v>
       </c>
       <c r="L150" s="93" t="s">
-        <v>66</v>
+        <v>863</v>
       </c>
       <c r="M150" s="94" t="s">
         <v>564</v>
@@ -46852,7 +46934,7 @@
         <v/>
       </c>
       <c r="AA150" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A150&lt;&gt;"",$L150&lt;&gt;"-",$L150&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -46863,7 +46945,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CopyRefFileFromWeb.vbs（参照ファイル複製fromWeb）.lnk" "C:\codes\vbs\tools\win\file_ope\CopyRefFileFromWeb.vbs" "" ""</v>
       </c>
       <c r="AB150" s="9" t="str">
         <f ca="1">IFERROR(
@@ -46886,12 +46968,12 @@
         <v/>
       </c>
       <c r="AD150" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A150&lt;&gt;"",$L150="○"),
   shortcut設定!$F$5&amp;"\"&amp;AB150&amp;"_"&amp;A150&amp;"（"&amp;B150&amp;"）"&amp;AC150&amp;".lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CopyRefFileFromWeb.vbs（参照ファイル複製fromWeb）.lnk</v>
       </c>
       <c r="AE150" s="13" t="str">
         <f>IF(
@@ -46943,13 +47025,13 @@
     </row>
     <row r="151" spans="1:36">
       <c r="A151" s="9" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D151" s="15" t="s">
         <v>40</v>
@@ -47182,13 +47264,13 @@
     </row>
     <row r="152" spans="1:36">
       <c r="A152" s="9" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D152" s="15" t="s">
         <v>40</v>
@@ -47421,13 +47503,13 @@
     </row>
     <row r="153" spans="1:36">
       <c r="A153" s="9" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D153" s="15" t="s">
         <v>40</v>
@@ -47660,13 +47742,13 @@
     </row>
     <row r="154" spans="1:36">
       <c r="A154" s="9" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D154" s="15" t="s">
         <v>40</v>
@@ -47899,13 +47981,13 @@
     </row>
     <row r="155" spans="1:36">
       <c r="A155" s="9" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="D155" s="15" t="s">
         <v>40</v>
@@ -47932,7 +48014,7 @@
         <v>66</v>
       </c>
       <c r="L155" s="93" t="s">
-        <v>863</v>
+        <v>66</v>
       </c>
       <c r="M155" s="94" t="s">
         <v>564</v>
@@ -48047,7 +48129,7 @@
         <v/>
       </c>
       <c r="AA155" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A155&lt;&gt;"",$L155&lt;&gt;"-",$L155&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -48058,7 +48140,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CreateRenameBat.vbs（リネーム用バッチ作成）.lnk" "C:\codes\vbs\tools\win\file_ope\CreateRenameBat.vbs" "" ""</v>
+        <v/>
       </c>
       <c r="AB155" s="9" t="str">
         <f ca="1">IFERROR(
@@ -48081,12 +48163,12 @@
         <v/>
       </c>
       <c r="AD155" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A155&lt;&gt;"",$L155="○"),
   shortcut設定!$F$5&amp;"\"&amp;AB155&amp;"_"&amp;A155&amp;"（"&amp;B155&amp;"）"&amp;AC155&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CreateRenameBat.vbs（リネーム用バッチ作成）.lnk</v>
+        <v/>
       </c>
       <c r="AE155" s="13" t="str">
         <f>IF(
@@ -48138,13 +48220,13 @@
     </row>
     <row r="156" spans="1:36">
       <c r="A156" s="9" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="D156" s="15" t="s">
         <v>40</v>
@@ -48171,7 +48253,7 @@
         <v>66</v>
       </c>
       <c r="L156" s="93" t="s">
-        <v>863</v>
+        <v>66</v>
       </c>
       <c r="M156" s="94" t="s">
         <v>564</v>
@@ -48286,7 +48368,7 @@
         <v/>
       </c>
       <c r="AA156" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A156&lt;&gt;"",$L156&lt;&gt;"-",$L156&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -48297,7 +48379,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CreateSymbolicLink.vbs（シンボリックリンク作成）.lnk" "C:\codes\vbs\tools\win\file_ope\CreateSymbolicLink.vbs" "" ""</v>
+        <v/>
       </c>
       <c r="AB156" s="9" t="str">
         <f ca="1">IFERROR(
@@ -48320,12 +48402,12 @@
         <v/>
       </c>
       <c r="AD156" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A156&lt;&gt;"",$L156="○"),
   shortcut設定!$F$5&amp;"\"&amp;AB156&amp;"_"&amp;A156&amp;"（"&amp;B156&amp;"）"&amp;AC156&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CreateSymbolicLink.vbs（シンボリックリンク作成）.lnk</v>
+        <v/>
       </c>
       <c r="AE156" s="13" t="str">
         <f>IF(
@@ -48377,13 +48459,13 @@
     </row>
     <row r="157" spans="1:36">
       <c r="A157" s="9" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="D157" s="15" t="s">
         <v>40</v>
@@ -48536,7 +48618,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_ExtractIfdef.vbs（C言語ifdef削除）.lnk" "C:\codes\vbs\tools\win\file_ope\ExtractIfdef.vbs" "" ""</v>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CreateRenameBat.vbs（リネーム用バッチ作成）.lnk" "C:\codes\vbs\tools\win\file_ope\CreateRenameBat.vbs" "" ""</v>
       </c>
       <c r="AB157" s="9" t="str">
         <f ca="1">IFERROR(
@@ -48564,7 +48646,7 @@
   shortcut設定!$F$5&amp;"\"&amp;AB157&amp;"_"&amp;A157&amp;"（"&amp;B157&amp;"）"&amp;AC157&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_ExtractIfdef.vbs（C言語ifdef削除）.lnk</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CreateRenameBat.vbs（リネーム用バッチ作成）.lnk</v>
       </c>
       <c r="AE157" s="13" t="str">
         <f>IF(
@@ -48615,14 +48697,14 @@
       </c>
     </row>
     <row r="158" spans="1:36">
-      <c r="A158" s="77" t="s">
-        <v>693</v>
-      </c>
-      <c r="B158" s="77" t="s">
-        <v>830</v>
+      <c r="A158" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>828</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="D158" s="15" t="s">
         <v>40</v>
@@ -48649,7 +48731,7 @@
         <v>66</v>
       </c>
       <c r="L158" s="93" t="s">
-        <v>66</v>
+        <v>863</v>
       </c>
       <c r="M158" s="94" t="s">
         <v>564</v>
@@ -48764,7 +48846,7 @@
         <v/>
       </c>
       <c r="AA158" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A158&lt;&gt;"",$L158&lt;&gt;"-",$L158&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -48775,7 +48857,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CreateSymbolicLink.vbs（シンボリックリンク作成）.lnk" "C:\codes\vbs\tools\win\file_ope\CreateSymbolicLink.vbs" "" ""</v>
       </c>
       <c r="AB158" s="9" t="str">
         <f ca="1">IFERROR(
@@ -48798,12 +48880,12 @@
         <v/>
       </c>
       <c r="AD158" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A158&lt;&gt;"",$L158="○"),
   shortcut設定!$F$5&amp;"\"&amp;AB158&amp;"_"&amp;A158&amp;"（"&amp;B158&amp;"）"&amp;AC158&amp;".lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CreateSymbolicLink.vbs（シンボリックリンク作成）.lnk</v>
       </c>
       <c r="AE158" s="13" t="str">
         <f>IF(
@@ -48855,13 +48937,13 @@
     </row>
     <row r="159" spans="1:36">
       <c r="A159" s="9" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D159" s="15" t="s">
         <v>40</v>
@@ -49014,7 +49096,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CopyToDir.vbs（フォルダファイルコピー）.lnk" "C:\codes\vbs\tools\win\file_ope\CopyToDir.vbs" "" ""</v>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_ExtractIfdef.vbs（C言語ifdef削除）.lnk" "C:\codes\vbs\tools\win\file_ope\ExtractIfdef.vbs" "" ""</v>
       </c>
       <c r="AB159" s="9" t="str">
         <f ca="1">IFERROR(
@@ -49042,7 +49124,7 @@
   shortcut設定!$F$5&amp;"\"&amp;AB159&amp;"_"&amp;A159&amp;"（"&amp;B159&amp;"）"&amp;AC159&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CopyToDir.vbs（フォルダファイルコピー）.lnk</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_ExtractIfdef.vbs（C言語ifdef削除）.lnk</v>
       </c>
       <c r="AE159" s="13" t="str">
         <f>IF(
@@ -49093,14 +49175,14 @@
       </c>
     </row>
     <row r="160" spans="1:36">
-      <c r="A160" s="9" t="s">
-        <v>695</v>
-      </c>
-      <c r="B160" s="9" t="s">
-        <v>832</v>
+      <c r="A160" s="77" t="s">
+        <v>693</v>
+      </c>
+      <c r="B160" s="77" t="s">
+        <v>830</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D160" s="15" t="s">
         <v>40</v>
@@ -49333,13 +49415,13 @@
     </row>
     <row r="161" spans="1:36">
       <c r="A161" s="9" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D161" s="15" t="s">
         <v>40</v>
@@ -49348,7 +49430,7 @@
         <v>40</v>
       </c>
       <c r="F161" s="15" t="s">
-        <v>559</v>
+        <v>0</v>
       </c>
       <c r="G161" s="15" t="s">
         <v>0</v>
@@ -49366,7 +49448,7 @@
         <v>66</v>
       </c>
       <c r="L161" s="93" t="s">
-        <v>66</v>
+        <v>863</v>
       </c>
       <c r="M161" s="94" t="s">
         <v>564</v>
@@ -49481,7 +49563,7 @@
         <v/>
       </c>
       <c r="AA161" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A161&lt;&gt;"",$L161&lt;&gt;"-",$L161&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -49492,7 +49574,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CopyToDir.vbs（フォルダファイルコピー）.lnk" "C:\codes\vbs\tools\win\file_ope\CopyToDir.vbs" "" ""</v>
       </c>
       <c r="AB161" s="9" t="str">
         <f ca="1">IFERROR(
@@ -49515,12 +49597,12 @@
         <v/>
       </c>
       <c r="AD161" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A161&lt;&gt;"",$L161="○"),
   shortcut設定!$F$5&amp;"\"&amp;AB161&amp;"_"&amp;A161&amp;"（"&amp;B161&amp;"）"&amp;AC161&amp;".lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CopyToDir.vbs（フォルダファイルコピー）.lnk</v>
       </c>
       <c r="AE161" s="13" t="str">
         <f>IF(
@@ -49572,13 +49654,13 @@
     </row>
     <row r="162" spans="1:36">
       <c r="A162" s="9" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D162" s="15" t="s">
         <v>40</v>
@@ -49587,7 +49669,7 @@
         <v>40</v>
       </c>
       <c r="F162" s="15" t="s">
-        <v>559</v>
+        <v>0</v>
       </c>
       <c r="G162" s="15" t="s">
         <v>0</v>
@@ -49811,13 +49893,13 @@
     </row>
     <row r="163" spans="1:36">
       <c r="A163" s="9" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D163" s="15" t="s">
         <v>40</v>
@@ -49826,7 +49908,7 @@
         <v>40</v>
       </c>
       <c r="F163" s="15" t="s">
-        <v>0</v>
+        <v>559</v>
       </c>
       <c r="G163" s="15" t="s">
         <v>0</v>
@@ -50050,13 +50132,13 @@
     </row>
     <row r="164" spans="1:36">
       <c r="A164" s="9" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D164" s="15" t="s">
         <v>40</v>
@@ -50065,7 +50147,7 @@
         <v>40</v>
       </c>
       <c r="F164" s="15" t="s">
-        <v>0</v>
+        <v>559</v>
       </c>
       <c r="G164" s="15" t="s">
         <v>0</v>
@@ -50289,13 +50371,13 @@
     </row>
     <row r="165" spans="1:36">
       <c r="A165" s="9" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D165" s="15" t="s">
         <v>40</v>
@@ -50528,13 +50610,13 @@
     </row>
     <row r="166" spans="1:36">
       <c r="A166" s="9" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D166" s="15" t="s">
         <v>40</v>
@@ -50767,13 +50849,13 @@
     </row>
     <row r="167" spans="1:36">
       <c r="A167" s="9" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D167" s="15" t="s">
         <v>40</v>
@@ -51006,13 +51088,13 @@
     </row>
     <row r="168" spans="1:36">
       <c r="A168" s="9" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D168" s="15" t="s">
         <v>40</v>
@@ -51039,7 +51121,7 @@
         <v>66</v>
       </c>
       <c r="L168" s="93" t="s">
-        <v>863</v>
+        <v>66</v>
       </c>
       <c r="M168" s="94" t="s">
         <v>564</v>
@@ -51154,7 +51236,7 @@
         <v/>
       </c>
       <c r="AA168" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A168&lt;&gt;"",$L168&lt;&gt;"-",$L168&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -51165,7 +51247,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_OutputFileInfo.vbs（ファイル情報出力）.lnk" "C:\codes\vbs\tools\win\file_info\OutputFileInfo.vbs" "" ""</v>
+        <v/>
       </c>
       <c r="AB168" s="9" t="str">
         <f ca="1">IFERROR(
@@ -51188,12 +51270,12 @@
         <v/>
       </c>
       <c r="AD168" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A168&lt;&gt;"",$L168="○"),
   shortcut設定!$F$5&amp;"\"&amp;AB168&amp;"_"&amp;A168&amp;"（"&amp;B168&amp;"）"&amp;AC168&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_OutputFileInfo.vbs（ファイル情報出力）.lnk</v>
+        <v/>
       </c>
       <c r="AE168" s="13" t="str">
         <f>IF(
@@ -51245,13 +51327,13 @@
     </row>
     <row r="169" spans="1:36">
       <c r="A169" s="9" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D169" s="15" t="s">
         <v>40</v>
@@ -51484,13 +51566,13 @@
     </row>
     <row r="170" spans="1:36">
       <c r="A170" s="9" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D170" s="15" t="s">
         <v>40</v>
@@ -51517,7 +51599,7 @@
         <v>66</v>
       </c>
       <c r="L170" s="93" t="s">
-        <v>66</v>
+        <v>863</v>
       </c>
       <c r="M170" s="94" t="s">
         <v>564</v>
@@ -51632,7 +51714,7 @@
         <v/>
       </c>
       <c r="AA170" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A170&lt;&gt;"",$L170&lt;&gt;"-",$L170&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -51643,7 +51725,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_OutputFileInfo.vbs（ファイル情報出力）.lnk" "C:\codes\vbs\tools\win\file_info\OutputFileInfo.vbs" "" ""</v>
       </c>
       <c r="AB170" s="9" t="str">
         <f ca="1">IFERROR(
@@ -51666,12 +51748,12 @@
         <v/>
       </c>
       <c r="AD170" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A170&lt;&gt;"",$L170="○"),
   shortcut設定!$F$5&amp;"\"&amp;AB170&amp;"_"&amp;A170&amp;"（"&amp;B170&amp;"）"&amp;AC170&amp;".lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_OutputFileInfo.vbs（ファイル情報出力）.lnk</v>
       </c>
       <c r="AE170" s="13" t="str">
         <f>IF(
@@ -51723,13 +51805,13 @@
     </row>
     <row r="171" spans="1:36">
       <c r="A171" s="9" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D171" s="15" t="s">
         <v>40</v>
@@ -51969,13 +52051,13 @@
     </row>
     <row r="172" spans="1:36">
       <c r="A172" s="9" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D172" s="15" t="s">
         <v>40</v>
@@ -51987,7 +52069,7 @@
         <v>0</v>
       </c>
       <c r="G172" s="15" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H172" s="9" t="s">
         <v>538</v>
@@ -52024,15 +52106,7 @@
         <v/>
       </c>
       <c r="S172" s="9" t="str">
-        <f t="shared" ref="S172:S203" si="26">IF(
-  OR(
-    $H172="",
-    $H172="-",
-    COUNTIF(カテゴリ,$H172)&gt;0
-  ),
-  "",
-  "★NG★"
-)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="T172" s="13" t="str">
@@ -52155,7 +52229,7 @@
         <v>200</v>
       </c>
       <c r="AC172" s="20" t="str">
-        <f t="shared" ref="AC172:AC203" si="27">IF(AND($M172&lt;&gt;"",$M172&lt;&gt;"-")," (&amp;"&amp;$M172&amp;")","")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AD172" s="13" t="str">
@@ -52189,23 +52263,11 @@
         <v/>
       </c>
       <c r="AG172" s="13" t="str">
-        <f t="shared" ref="AG172:AG203" si="28">IF(
-  AND($A172&lt;&gt;"",$O172&lt;&gt;"-",$O172&lt;&gt;""),
-  (
-    "schtasks /create /tn """&amp;$O172&amp;""" /tr """&amp;$C172&amp;""" /sc daily /st "&amp;$P172&amp;" /rl highest"
-  ),
-  ""
-)</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AH172" s="13" t="str">
-        <f t="shared" ref="AH172:AH203" si="29">IF(
-  AND($A172&lt;&gt;"",$O172&lt;&gt;"-",$O172&lt;&gt;""),
-  (
-    "schtasks /delete /tn """&amp;$O172&amp;""""
-  ),
-  ""
-)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AI172" s="13" t="str">
@@ -52228,13 +52290,13 @@
     </row>
     <row r="173" spans="1:36">
       <c r="A173" s="9" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D173" s="15" t="s">
         <v>40</v>
@@ -52261,10 +52323,10 @@
         <v>66</v>
       </c>
       <c r="L173" s="93" t="s">
-        <v>863</v>
+        <v>66</v>
       </c>
       <c r="M173" s="94" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="N173" s="15" t="s">
         <v>66</v>
@@ -52283,7 +52345,7 @@
         <v/>
       </c>
       <c r="S173" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="T173" s="13" t="str">
@@ -52376,7 +52438,7 @@
         <v/>
       </c>
       <c r="AA173" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A173&lt;&gt;"",$L173&lt;&gt;"-",$L173&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -52387,7 +52449,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CompareWithWinmerge.vbs（ファイル比較＠Winmerge） (&amp;D).lnk" "C:\codes\vbs\tools\wimmerge\CompareWithWinmerge.vbs" "" ""</v>
+        <v/>
       </c>
       <c r="AB173" s="9" t="str">
         <f ca="1">IFERROR(
@@ -52406,16 +52468,16 @@
         <v>200</v>
       </c>
       <c r="AC173" s="20" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve"> (&amp;D)</v>
+        <f t="shared" si="22"/>
+        <v/>
       </c>
       <c r="AD173" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A173&lt;&gt;"",$L173="○"),
   shortcut設定!$F$5&amp;"\"&amp;AB173&amp;"_"&amp;A173&amp;"（"&amp;B173&amp;"）"&amp;AC173&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CompareWithWinmerge.vbs（ファイル比較＠Winmerge） (&amp;D).lnk</v>
+        <v/>
       </c>
       <c r="AE173" s="13" t="str">
         <f>IF(
@@ -52440,11 +52502,11 @@
         <v/>
       </c>
       <c r="AG173" s="13" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AH173" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AI173" s="13" t="str">
@@ -52467,13 +52529,13 @@
     </row>
     <row r="174" spans="1:36">
       <c r="A174" s="9" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D174" s="15" t="s">
         <v>40</v>
@@ -52485,7 +52547,7 @@
         <v>0</v>
       </c>
       <c r="G174" s="15" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H174" s="9" t="s">
         <v>538</v>
@@ -52500,7 +52562,7 @@
         <v>66</v>
       </c>
       <c r="L174" s="93" t="s">
-        <v>863</v>
+        <v>66</v>
       </c>
       <c r="M174" s="94" t="s">
         <v>564</v>
@@ -52522,7 +52584,15 @@
         <v/>
       </c>
       <c r="S174" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="S174:S205" si="26">IF(
+  OR(
+    $H174="",
+    $H174="-",
+    COUNTIF(カテゴリ,$H174)&gt;0
+  ),
+  "",
+  "★NG★"
+)</f>
         <v/>
       </c>
       <c r="T174" s="13" t="str">
@@ -52615,7 +52685,7 @@
         <v/>
       </c>
       <c r="AA174" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A174&lt;&gt;"",$L174&lt;&gt;"-",$L174&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -52626,7 +52696,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_OpenAllFilesWithVim.vbs（全ファイル開く＠Vim）.lnk" "C:\codes\vbs\tools\vim\OpenAllFilesWithVim.vbs" "" ""</v>
+        <v/>
       </c>
       <c r="AB174" s="9" t="str">
         <f ca="1">IFERROR(
@@ -52645,16 +52715,16 @@
         <v>200</v>
       </c>
       <c r="AC174" s="20" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="AC174:AC205" si="27">IF(AND($M174&lt;&gt;"",$M174&lt;&gt;"-")," (&amp;"&amp;$M174&amp;")","")</f>
         <v/>
       </c>
       <c r="AD174" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A174&lt;&gt;"",$L174="○"),
   shortcut設定!$F$5&amp;"\"&amp;AB174&amp;"_"&amp;A174&amp;"（"&amp;B174&amp;"）"&amp;AC174&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_OpenAllFilesWithVim.vbs（全ファイル開く＠Vim）.lnk</v>
+        <v/>
       </c>
       <c r="AE174" s="13" t="str">
         <f>IF(
@@ -52679,11 +52749,23 @@
         <v/>
       </c>
       <c r="AG174" s="13" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="AG174:AG205" si="28">IF(
+  AND($A174&lt;&gt;"",$O174&lt;&gt;"-",$O174&lt;&gt;""),
+  (
+    "schtasks /create /tn """&amp;$O174&amp;""" /tr """&amp;$C174&amp;""" /sc daily /st "&amp;$P174&amp;" /rl highest"
+  ),
+  ""
+)</f>
         <v/>
       </c>
       <c r="AH174" s="13" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="AH174:AH205" si="29">IF(
+  AND($A174&lt;&gt;"",$O174&lt;&gt;"-",$O174&lt;&gt;""),
+  (
+    "schtasks /delete /tn """&amp;$O174&amp;""""
+  ),
+  ""
+)</f>
         <v/>
       </c>
       <c r="AI174" s="13" t="str">
@@ -52706,13 +52788,13 @@
     </row>
     <row r="175" spans="1:36">
       <c r="A175" s="9" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D175" s="15" t="s">
         <v>40</v>
@@ -52739,10 +52821,10 @@
         <v>66</v>
       </c>
       <c r="L175" s="93" t="s">
-        <v>66</v>
+        <v>863</v>
       </c>
       <c r="M175" s="94" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N175" s="15" t="s">
         <v>66</v>
@@ -52854,7 +52936,7 @@
         <v/>
       </c>
       <c r="AA175" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A175&lt;&gt;"",$L175&lt;&gt;"-",$L175&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -52865,7 +52947,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CompareWithWinmerge.vbs（ファイル比較＠Winmerge） (&amp;D).lnk" "C:\codes\vbs\tools\wimmerge\CompareWithWinmerge.vbs" "" ""</v>
       </c>
       <c r="AB175" s="9" t="str">
         <f ca="1">IFERROR(
@@ -52885,15 +52967,15 @@
       </c>
       <c r="AC175" s="20" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v xml:space="preserve"> (&amp;D)</v>
       </c>
       <c r="AD175" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A175&lt;&gt;"",$L175="○"),
   shortcut設定!$F$5&amp;"\"&amp;AB175&amp;"_"&amp;A175&amp;"（"&amp;B175&amp;"）"&amp;AC175&amp;".lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_CompareWithWinmerge.vbs（ファイル比較＠Winmerge） (&amp;D).lnk</v>
       </c>
       <c r="AE175" s="13" t="str">
         <f>IF(
@@ -52945,13 +53027,13 @@
     </row>
     <row r="176" spans="1:36">
       <c r="A176" s="9" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D176" s="15" t="s">
         <v>40</v>
@@ -52981,7 +53063,7 @@
         <v>863</v>
       </c>
       <c r="M176" s="94" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="N176" s="15" t="s">
         <v>66</v>
@@ -53104,7 +53186,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_UnzipFile.vbs（Zip解凍） (&amp;U).lnk" "C:\codes\vbs\tools\7zip\UnzipFile.vbs" "" ""</v>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_OpenAllFilesWithVim.vbs（全ファイル開く＠Vim）.lnk" "C:\codes\vbs\tools\vim\OpenAllFilesWithVim.vbs" "" ""</v>
       </c>
       <c r="AB176" s="9" t="str">
         <f ca="1">IFERROR(
@@ -53124,7 +53206,7 @@
       </c>
       <c r="AC176" s="20" t="str">
         <f t="shared" si="27"/>
-        <v xml:space="preserve"> (&amp;U)</v>
+        <v/>
       </c>
       <c r="AD176" s="13" t="str">
         <f ca="1">IF(
@@ -53132,7 +53214,7 @@
   shortcut設定!$F$5&amp;"\"&amp;AB176&amp;"_"&amp;A176&amp;"（"&amp;B176&amp;"）"&amp;AC176&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_UnzipFile.vbs（Zip解凍） (&amp;U).lnk</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_OpenAllFilesWithVim.vbs（全ファイル開く＠Vim）.lnk</v>
       </c>
       <c r="AE176" s="13" t="str">
         <f>IF(
@@ -53184,13 +53266,13 @@
     </row>
     <row r="177" spans="1:36">
       <c r="A177" s="9" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D177" s="15" t="s">
         <v>40</v>
@@ -53217,10 +53299,10 @@
         <v>66</v>
       </c>
       <c r="L177" s="93" t="s">
-        <v>863</v>
+        <v>66</v>
       </c>
       <c r="M177" s="94" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="N177" s="15" t="s">
         <v>66</v>
@@ -53332,7 +53414,7 @@
         <v/>
       </c>
       <c r="AA177" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A177&lt;&gt;"",$L177&lt;&gt;"-",$L177&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -53343,7 +53425,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_ZipFile.vbs（Zip圧縮） (&amp;Z).lnk" "C:\codes\vbs\tools\7zip\ZipFile.vbs" "" ""</v>
+        <v/>
       </c>
       <c r="AB177" s="9" t="str">
         <f ca="1">IFERROR(
@@ -53363,15 +53445,15 @@
       </c>
       <c r="AC177" s="20" t="str">
         <f t="shared" si="27"/>
-        <v xml:space="preserve"> (&amp;Z)</v>
+        <v/>
       </c>
       <c r="AD177" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A177&lt;&gt;"",$L177="○"),
   shortcut設定!$F$5&amp;"\"&amp;AB177&amp;"_"&amp;A177&amp;"（"&amp;B177&amp;"）"&amp;AC177&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_ZipFile.vbs（Zip圧縮） (&amp;Z).lnk</v>
+        <v/>
       </c>
       <c r="AE177" s="13" t="str">
         <f>IF(
@@ -53423,13 +53505,13 @@
     </row>
     <row r="178" spans="1:36">
       <c r="A178" s="9" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D178" s="15" t="s">
         <v>40</v>
@@ -53459,7 +53541,7 @@
         <v>863</v>
       </c>
       <c r="M178" s="94" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="N178" s="15" t="s">
         <v>66</v>
@@ -53582,7 +53664,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_ZipPasswordFile.vbs（Zipパスワード圧縮）.lnk" "C:\codes\vbs\tools\7zip\ZipPasswordFile.vbs" "" ""</v>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_UnzipFile.vbs（Zip解凍） (&amp;U).lnk" "C:\codes\vbs\tools\7zip\UnzipFile.vbs" "" ""</v>
       </c>
       <c r="AB178" s="9" t="str">
         <f ca="1">IFERROR(
@@ -53602,7 +53684,7 @@
       </c>
       <c r="AC178" s="20" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v xml:space="preserve"> (&amp;U)</v>
       </c>
       <c r="AD178" s="13" t="str">
         <f ca="1">IF(
@@ -53610,7 +53692,7 @@
   shortcut設定!$F$5&amp;"\"&amp;AB178&amp;"_"&amp;A178&amp;"（"&amp;B178&amp;"）"&amp;AC178&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_ZipPasswordFile.vbs（Zipパスワード圧縮）.lnk</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_UnzipFile.vbs（Zip解凍） (&amp;U).lnk</v>
       </c>
       <c r="AE178" s="13" t="str">
         <f>IF(
@@ -53662,13 +53744,13 @@
     </row>
     <row r="179" spans="1:36">
       <c r="A179" s="9" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>560</v>
+        <v>127</v>
       </c>
       <c r="D179" s="15" t="s">
         <v>40</v>
@@ -53695,10 +53777,10 @@
         <v>66</v>
       </c>
       <c r="L179" s="93" t="s">
-        <v>66</v>
+        <v>863</v>
       </c>
       <c r="M179" s="94" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="N179" s="15" t="s">
         <v>66</v>
@@ -53810,7 +53892,7 @@
         <v/>
       </c>
       <c r="AA179" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A179&lt;&gt;"",$L179&lt;&gt;"-",$L179&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -53821,7 +53903,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_ZipFile.vbs（Zip圧縮） (&amp;Z).lnk" "C:\codes\vbs\tools\7zip\ZipFile.vbs" "" ""</v>
       </c>
       <c r="AB179" s="9" t="str">
         <f ca="1">IFERROR(
@@ -53841,15 +53923,15 @@
       </c>
       <c r="AC179" s="20" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v xml:space="preserve"> (&amp;Z)</v>
       </c>
       <c r="AD179" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A179&lt;&gt;"",$L179="○"),
   shortcut設定!$F$5&amp;"\"&amp;AB179&amp;"_"&amp;A179&amp;"（"&amp;B179&amp;"）"&amp;AC179&amp;".lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_ZipFile.vbs（Zip圧縮） (&amp;Z).lnk</v>
       </c>
       <c r="AE179" s="13" t="str">
         <f>IF(
@@ -53901,13 +53983,13 @@
     </row>
     <row r="180" spans="1:36">
       <c r="A180" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>544</v>
+        <v>128</v>
       </c>
       <c r="D180" s="15" t="s">
         <v>40</v>
@@ -53916,7 +53998,7 @@
         <v>40</v>
       </c>
       <c r="F180" s="15" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G180" s="15" t="s">
         <v>0</v>
@@ -53934,13 +54016,13 @@
         <v>66</v>
       </c>
       <c r="L180" s="93" t="s">
-        <v>66</v>
+        <v>863</v>
       </c>
       <c r="M180" s="94" t="s">
         <v>564</v>
       </c>
       <c r="N180" s="15" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="O180" s="26" t="s">
         <v>1292</v>
@@ -54049,7 +54131,7 @@
         <v/>
       </c>
       <c r="AA180" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A180&lt;&gt;"",$L180&lt;&gt;"-",$L180&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -54060,7 +54142,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_ZipPasswordFile.vbs（Zipパスワード圧縮）.lnk" "C:\codes\vbs\tools\7zip\ZipPasswordFile.vbs" "" ""</v>
       </c>
       <c r="AB180" s="9" t="str">
         <f ca="1">IFERROR(
@@ -54083,12 +54165,12 @@
         <v/>
       </c>
       <c r="AD180" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A180&lt;&gt;"",$L180="○"),
   shortcut設定!$F$5&amp;"\"&amp;AB180&amp;"_"&amp;A180&amp;"（"&amp;B180&amp;"）"&amp;AC180&amp;".lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_ZipPasswordFile.vbs（Zipパスワード圧縮）.lnk</v>
       </c>
       <c r="AE180" s="13" t="str">
         <f>IF(
@@ -54140,13 +54222,13 @@
     </row>
     <row r="181" spans="1:36">
       <c r="A181" s="9" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="D181" s="15" t="s">
         <v>40</v>
@@ -54167,7 +54249,7 @@
         <v>66</v>
       </c>
       <c r="J181" s="15" t="s">
-        <v>864</v>
+        <v>66</v>
       </c>
       <c r="K181" s="15" t="s">
         <v>66</v>
@@ -54252,7 +54334,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttw（SSH接続toWSL2＠Teraterm）.lnk" "C:\codes\vbs\tools\teraterm\ConnectWSL2withTeraTerm.vbs" "" ""</v>
+        <v/>
       </c>
       <c r="X181" s="14" t="str">
         <f>IF(
@@ -54260,7 +54342,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J181&amp;"（"&amp;$B181&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttw（SSH接続toWSL2＠Teraterm）.lnk</v>
+        <v/>
       </c>
       <c r="Y181" s="13" t="str">
         <f>IF(
@@ -54379,13 +54461,13 @@
     </row>
     <row r="182" spans="1:36">
       <c r="A182" s="9" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>129</v>
+        <v>544</v>
       </c>
       <c r="D182" s="15" t="s">
         <v>40</v>
@@ -54394,7 +54476,7 @@
         <v>40</v>
       </c>
       <c r="F182" s="15" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G182" s="15" t="s">
         <v>0</v>
@@ -54418,7 +54500,7 @@
         <v>564</v>
       </c>
       <c r="N182" s="15" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="O182" s="26" t="s">
         <v>1292</v>
@@ -54618,13 +54700,13 @@
     </row>
     <row r="183" spans="1:36">
       <c r="A183" s="9" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>130</v>
+        <v>545</v>
       </c>
       <c r="D183" s="15" t="s">
         <v>40</v>
@@ -54633,7 +54715,7 @@
         <v>40</v>
       </c>
       <c r="F183" s="15" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G183" s="15" t="s">
         <v>0</v>
@@ -54645,7 +54727,7 @@
         <v>66</v>
       </c>
       <c r="J183" s="15" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="K183" s="15" t="s">
         <v>66</v>
@@ -54730,7 +54812,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttr（SSH接続toMyRaspberryPi＠Teraterm）.lnk" "C:\codes\ttl\login_raspberrypi.ttl" "" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttw（SSH接続toWSL2＠Teraterm）.lnk" "C:\codes\vbs\tools\teraterm\ConnectWSL2withTeraTerm.vbs" "" ""</v>
       </c>
       <c r="X183" s="14" t="str">
         <f>IF(
@@ -54738,7 +54820,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J183&amp;"（"&amp;$B183&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttr（SSH接続toMyRaspberryPi＠Teraterm）.lnk</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttw（SSH接続toWSL2＠Teraterm）.lnk</v>
       </c>
       <c r="Y183" s="13" t="str">
         <f>IF(
@@ -54857,13 +54939,13 @@
     </row>
     <row r="184" spans="1:36">
       <c r="A184" s="9" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>546</v>
+        <v>129</v>
       </c>
       <c r="D184" s="15" t="s">
         <v>40</v>
@@ -54872,7 +54954,7 @@
         <v>40</v>
       </c>
       <c r="F184" s="15" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G184" s="15" t="s">
         <v>0</v>
@@ -54884,7 +54966,7 @@
         <v>66</v>
       </c>
       <c r="J184" s="15" t="s">
-        <v>866</v>
+        <v>66</v>
       </c>
       <c r="K184" s="15" t="s">
         <v>66</v>
@@ -54969,7 +55051,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttm（SSH接続toMyMac＠Teraterm）.lnk" "C:\codes\ttl\login_mac.ttl" "" ""</v>
+        <v/>
       </c>
       <c r="X184" s="14" t="str">
         <f>IF(
@@ -54977,7 +55059,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J184&amp;"（"&amp;$B184&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttm（SSH接続toMyMac＠Teraterm）.lnk</v>
+        <v/>
       </c>
       <c r="Y184" s="13" t="str">
         <f>IF(
@@ -55096,13 +55178,13 @@
     </row>
     <row r="185" spans="1:36">
       <c r="A185" s="9" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>547</v>
+        <v>130</v>
       </c>
       <c r="D185" s="15" t="s">
         <v>40</v>
@@ -55123,7 +55205,7 @@
         <v>66</v>
       </c>
       <c r="J185" s="15" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="K185" s="15" t="s">
         <v>66</v>
@@ -55208,7 +55290,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\wsr（SFTP接続toMyRaspberryPi＠WinSCP）.lnk" "C:\codes\winscp\login_raspberrypi.bat" "" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttr（SSH接続toMyRaspberryPi＠Teraterm）.lnk" "C:\codes\ttl\login_raspberrypi.ttl" "" ""</v>
       </c>
       <c r="X185" s="14" t="str">
         <f>IF(
@@ -55216,7 +55298,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J185&amp;"（"&amp;$B185&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\wsr（SFTP接続toMyRaspberryPi＠WinSCP）.lnk</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttr（SSH接続toMyRaspberryPi＠Teraterm）.lnk</v>
       </c>
       <c r="Y185" s="13" t="str">
         <f>IF(
@@ -55335,13 +55417,13 @@
     </row>
     <row r="186" spans="1:36">
       <c r="A186" s="9" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D186" s="15" t="s">
         <v>40</v>
@@ -55350,10 +55432,10 @@
         <v>40</v>
       </c>
       <c r="F186" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G186" s="15" t="s">
         <v>0</v>
-      </c>
-      <c r="G186" s="15" t="s">
-        <v>28</v>
       </c>
       <c r="H186" s="9" t="s">
         <v>538</v>
@@ -55362,7 +55444,7 @@
         <v>66</v>
       </c>
       <c r="J186" s="15" t="s">
-        <v>66</v>
+        <v>866</v>
       </c>
       <c r="K186" s="15" t="s">
         <v>66</v>
@@ -55447,7 +55529,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttm（SSH接続toMyMac＠Teraterm）.lnk" "C:\codes\ttl\login_mac.ttl" "" ""</v>
       </c>
       <c r="X186" s="14" t="str">
         <f>IF(
@@ -55455,7 +55537,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J186&amp;"（"&amp;$B186&amp;"）.lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttm（SSH接続toMyMac＠Teraterm）.lnk</v>
       </c>
       <c r="Y186" s="13" t="str">
         <f>IF(
@@ -55574,13 +55656,13 @@
     </row>
     <row r="187" spans="1:36">
       <c r="A187" s="9" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D187" s="15" t="s">
         <v>40</v>
@@ -55589,7 +55671,7 @@
         <v>40</v>
       </c>
       <c r="F187" s="15" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G187" s="15" t="s">
         <v>0</v>
@@ -55601,7 +55683,7 @@
         <v>66</v>
       </c>
       <c r="J187" s="15" t="s">
-        <v>66</v>
+        <v>867</v>
       </c>
       <c r="K187" s="15" t="s">
         <v>66</v>
@@ -55613,7 +55695,7 @@
         <v>564</v>
       </c>
       <c r="N187" s="15" t="s">
-        <v>863</v>
+        <v>66</v>
       </c>
       <c r="O187" s="26" t="s">
         <v>1292</v>
@@ -55686,7 +55768,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\wsr（SFTP接続toMyRaspberryPi＠WinSCP）.lnk" "C:\codes\winscp\login_raspberrypi.bat" "" ""</v>
       </c>
       <c r="X187" s="14" t="str">
         <f>IF(
@@ -55694,7 +55776,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J187&amp;"（"&amp;$B187&amp;"）.lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\wsr（SFTP接続toMyRaspberryPi＠WinSCP）.lnk</v>
       </c>
       <c r="Y187" s="13" t="str">
         <f>IF(
@@ -55775,7 +55857,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\XF_BackupIniToTabbak.bat（X-Finder.iniタブバックアップ）.lnk" "C:\prg_exe\X-Finder\BackupIniToTabbak.bat" "" ""</v>
+        <v/>
       </c>
       <c r="AF187" s="9" t="str">
         <f>IF(
@@ -55783,7 +55865,7 @@
   shortcut設定!$F$6&amp;"\"&amp;A187&amp;"（"&amp;B187&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\XF_BackupIniToTabbak.bat（X-Finder.iniタブバックアップ）.lnk</v>
+        <v/>
       </c>
       <c r="AG187" s="13" t="str">
         <f t="shared" si="28"/>
@@ -55813,13 +55895,13 @@
     </row>
     <row r="188" spans="1:36">
       <c r="A188" s="9" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>817</v>
+        <v>857</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D188" s="15" t="s">
         <v>40</v>
@@ -55852,7 +55934,7 @@
         <v>564</v>
       </c>
       <c r="N188" s="15" t="s">
-        <v>558</v>
+        <v>66</v>
       </c>
       <c r="O188" s="26" t="s">
         <v>1292</v>
@@ -56052,13 +56134,13 @@
     </row>
     <row r="189" spans="1:36">
       <c r="A189" s="9" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D189" s="15" t="s">
         <v>40</v>
@@ -56070,7 +56152,7 @@
         <v>0</v>
       </c>
       <c r="G189" s="15" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H189" s="9" t="s">
         <v>538</v>
@@ -56253,7 +56335,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\ScheduledBackup.bat（定期ファイルバックアップ）.lnk" "C:\root\30_tool\ScheduledBackup.bat" "" ""</v>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\XF_BackupIniToTabbak.bat（X-Finder.iniタブバックアップ）.lnk" "C:\prg_exe\X-Finder\BackupIniToTabbak.bat" "" ""</v>
       </c>
       <c r="AF189" s="9" t="str">
         <f>IF(
@@ -56261,7 +56343,7 @@
   shortcut設定!$F$6&amp;"\"&amp;A189&amp;"（"&amp;B189&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\ScheduledBackup.bat（定期ファイルバックアップ）.lnk</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\XF_BackupIniToTabbak.bat（X-Finder.iniタブバックアップ）.lnk</v>
       </c>
       <c r="AG189" s="13" t="str">
         <f t="shared" si="28"/>
@@ -56291,13 +56373,13 @@
     </row>
     <row r="190" spans="1:36">
       <c r="A190" s="9" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>860</v>
+        <v>817</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D190" s="15" t="s">
         <v>40</v>
@@ -56318,7 +56400,7 @@
         <v>66</v>
       </c>
       <c r="J190" s="15" t="s">
-        <v>868</v>
+        <v>66</v>
       </c>
       <c r="K190" s="15" t="s">
         <v>66</v>
@@ -56330,7 +56412,7 @@
         <v>564</v>
       </c>
       <c r="N190" s="15" t="s">
-        <v>66</v>
+        <v>558</v>
       </c>
       <c r="O190" s="26" t="s">
         <v>1292</v>
@@ -56403,7 +56485,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\tvr（VNC接続toRobocipA1＠TurboVNC）.lnk" "C:\root\30_tool\ConnectRobocipA1withSshpfVnc.vbs" "" ""</v>
+        <v/>
       </c>
       <c r="X190" s="14" t="str">
         <f>IF(
@@ -56411,7 +56493,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J190&amp;"（"&amp;$B190&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\tvr（VNC接続toRobocipA1＠TurboVNC）.lnk</v>
+        <v/>
       </c>
       <c r="Y190" s="13" t="str">
         <f>IF(
@@ -56530,13 +56612,13 @@
     </row>
     <row r="191" spans="1:36">
       <c r="A191" s="9" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D191" s="15" t="s">
         <v>40</v>
@@ -56557,7 +56639,7 @@
         <v>66</v>
       </c>
       <c r="J191" s="15" t="s">
-        <v>865</v>
+        <v>66</v>
       </c>
       <c r="K191" s="15" t="s">
         <v>66</v>
@@ -56569,7 +56651,7 @@
         <v>564</v>
       </c>
       <c r="N191" s="15" t="s">
-        <v>66</v>
+        <v>863</v>
       </c>
       <c r="O191" s="26" t="s">
         <v>1292</v>
@@ -56642,7 +56724,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttr（SSH接続toRobocipA1＠Teraterm）.lnk" "C:\root\30_tool\ConnectRobocipA1withTeraTerm.ttl" "" ""</v>
+        <v/>
       </c>
       <c r="X191" s="14" t="str">
         <f>IF(
@@ -56650,7 +56732,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J191&amp;"（"&amp;$B191&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttr（SSH接続toRobocipA1＠Teraterm）.lnk</v>
+        <v/>
       </c>
       <c r="Y191" s="13" t="str">
         <f>IF(
@@ -56731,7 +56813,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\ScheduledBackup.bat（定期ファイルバックアップ）.lnk" "C:\root\30_tool\ScheduledBackup.bat" "" ""</v>
       </c>
       <c r="AF191" s="9" t="str">
         <f>IF(
@@ -56739,7 +56821,7 @@
   shortcut設定!$F$6&amp;"\"&amp;A191&amp;"（"&amp;B191&amp;"）.lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\ScheduledBackup.bat（定期ファイルバックアップ）.lnk</v>
       </c>
       <c r="AG191" s="13" t="str">
         <f t="shared" si="28"/>
@@ -56769,13 +56851,13 @@
     </row>
     <row r="192" spans="1:36">
       <c r="A192" s="9" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>1423</v>
+        <v>552</v>
       </c>
       <c r="D192" s="15" t="s">
         <v>40</v>
@@ -56796,7 +56878,7 @@
         <v>66</v>
       </c>
       <c r="J192" s="15" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="K192" s="15" t="s">
         <v>66</v>
@@ -56881,7 +56963,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\wsr（SFTP接続toRobocipA1＠WinSCP）.lnk" "C:\root\30_tool\ConnectRobocipA1withWinScp.bat" "" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\tvr（VNC接続toRobocipA1＠TurboVNC）.lnk" "C:\root\30_tool\ConnectRobocipA1withSshpfVnc.vbs" "" ""</v>
       </c>
       <c r="X192" s="14" t="str">
         <f>IF(
@@ -56889,7 +56971,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J192&amp;"（"&amp;$B192&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\wsr（SFTP接続toRobocipA1＠WinSCP）.lnk</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\tvr（VNC接続toRobocipA1＠TurboVNC）.lnk</v>
       </c>
       <c r="Y192" s="13" t="str">
         <f>IF(
@@ -57008,13 +57090,13 @@
     </row>
     <row r="193" spans="1:36">
       <c r="A193" s="9" t="s">
-        <v>1422</v>
+        <v>726</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>1425</v>
+        <v>861</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>1424</v>
+        <v>553</v>
       </c>
       <c r="D193" s="15" t="s">
         <v>40</v>
@@ -57023,40 +57105,40 @@
         <v>40</v>
       </c>
       <c r="F193" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G193" s="15" t="s">
         <v>28</v>
-      </c>
-      <c r="G193" s="15" t="s">
-        <v>0</v>
       </c>
       <c r="H193" s="9" t="s">
         <v>538</v>
       </c>
       <c r="I193" s="15" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="J193" s="15" t="s">
-        <v>40</v>
+        <v>865</v>
       </c>
       <c r="K193" s="15" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="L193" s="93" t="s">
-        <v>156</v>
+        <v>66</v>
       </c>
       <c r="M193" s="94" t="s">
-        <v>1426</v>
+        <v>564</v>
       </c>
       <c r="N193" s="15" t="s">
-        <v>963</v>
+        <v>66</v>
       </c>
       <c r="O193" s="26" t="s">
-        <v>963</v>
+        <v>1292</v>
       </c>
       <c r="P193" s="157" t="s">
-        <v>963</v>
+        <v>1292</v>
       </c>
       <c r="Q193" s="26" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="R193" s="9" t="str">
         <f t="shared" si="25"/>
@@ -57120,7 +57202,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttr（SSH接続toRobocipA1＠Teraterm）.lnk" "C:\root\30_tool\ConnectRobocipA1withTeraTerm.ttl" "" ""</v>
       </c>
       <c r="X193" s="14" t="str">
         <f>IF(
@@ -57128,7 +57210,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J193&amp;"（"&amp;$B193&amp;"）.lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttr（SSH接続toRobocipA1＠Teraterm）.lnk</v>
       </c>
       <c r="Y193" s="13" t="str">
         <f>IF(
@@ -57156,7 +57238,7 @@
         <v/>
       </c>
       <c r="AA193" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A193&lt;&gt;"",$L193&lt;&gt;"-",$L193&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -57167,7 +57249,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_ScpPostToRemote.bat（SCP送信toリモート） (&amp;R).lnk" "C:\root\30_tool\ScpPostToRemote.bat" "" ""</v>
+        <v/>
       </c>
       <c r="AB193" s="9" t="str">
         <f ca="1">IFERROR(
@@ -57187,15 +57269,15 @@
       </c>
       <c r="AC193" s="20" t="str">
         <f t="shared" si="27"/>
-        <v xml:space="preserve"> (&amp;R)</v>
+        <v/>
       </c>
       <c r="AD193" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A193&lt;&gt;"",$L193="○"),
   shortcut設定!$F$5&amp;"\"&amp;AB193&amp;"_"&amp;A193&amp;"（"&amp;B193&amp;"）"&amp;AC193&amp;".lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_ScpPostToRemote.bat（SCP送信toリモート） (&amp;R).lnk</v>
+        <v/>
       </c>
       <c r="AE193" s="13" t="str">
         <f>IF(
@@ -57247,13 +57329,13 @@
     </row>
     <row r="194" spans="1:36">
       <c r="A194" s="9" t="s">
-        <v>1428</v>
+        <v>727</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>1429</v>
+        <v>862</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>1427</v>
+        <v>1422</v>
       </c>
       <c r="D194" s="15" t="s">
         <v>40</v>
@@ -57262,40 +57344,40 @@
         <v>40</v>
       </c>
       <c r="F194" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G194" s="15" t="s">
         <v>28</v>
-      </c>
-      <c r="G194" s="15" t="s">
-        <v>0</v>
       </c>
       <c r="H194" s="9" t="s">
         <v>538</v>
       </c>
       <c r="I194" s="15" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="J194" s="15" t="s">
-        <v>1459</v>
+        <v>867</v>
       </c>
       <c r="K194" s="15" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="L194" s="93" t="s">
         <v>66</v>
       </c>
       <c r="M194" s="94" t="s">
-        <v>40</v>
+        <v>564</v>
       </c>
       <c r="N194" s="15" t="s">
-        <v>963</v>
+        <v>66</v>
       </c>
       <c r="O194" s="26" t="s">
-        <v>963</v>
+        <v>1292</v>
       </c>
       <c r="P194" s="157" t="s">
-        <v>963</v>
+        <v>1292</v>
       </c>
       <c r="Q194" s="26" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="R194" s="9" t="str">
         <f t="shared" si="25"/>
@@ -57359,7 +57441,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ffr（SCP受信fromリモート）.lnk" "C:\root\30_tool\ScpFetchFromRemote.bat" "" ""</v>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\wsr（SFTP接続toRobocipA1＠WinSCP）.lnk" "C:\root\30_tool\ConnectRobocipA1withWinScp.bat" "" ""</v>
       </c>
       <c r="X194" s="14" t="str">
         <f>IF(
@@ -57367,7 +57449,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J194&amp;"（"&amp;$B194&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ffr（SCP受信fromリモート）.lnk</v>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\wsr（SFTP接続toRobocipA1＠WinSCP）.lnk</v>
       </c>
       <c r="Y194" s="13" t="str">
         <f>IF(
@@ -57486,16 +57568,16 @@
     </row>
     <row r="195" spans="1:36">
       <c r="A195" s="9" t="s">
-        <v>970</v>
+        <v>1464</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>971</v>
+        <v>1423</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>965</v>
+        <v>1465</v>
       </c>
       <c r="D195" s="15" t="s">
-        <v>963</v>
+        <v>40</v>
       </c>
       <c r="E195" s="26" t="s">
         <v>40</v>
@@ -57510,31 +57592,31 @@
         <v>538</v>
       </c>
       <c r="I195" s="15" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="J195" s="15" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="K195" s="15" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="L195" s="93" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="M195" s="94" t="s">
-        <v>40</v>
+        <v>1424</v>
       </c>
       <c r="N195" s="15" t="s">
         <v>963</v>
       </c>
       <c r="O195" s="26" t="s">
-        <v>1292</v>
+        <v>963</v>
       </c>
       <c r="P195" s="157" t="s">
-        <v>1292</v>
+        <v>963</v>
       </c>
       <c r="Q195" s="26" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="R195" s="9" t="str">
         <f t="shared" si="25"/>
@@ -57634,7 +57716,7 @@
         <v/>
       </c>
       <c r="AA195" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A195&lt;&gt;"",$L195&lt;&gt;"-",$L195&lt;&gt;""),
   (
     """"&amp;shortcut設定!$F$7&amp;""""&amp;
@@ -57645,7 +57727,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_ScpUploadToRemote.vbs（SCP送信toリモート） (&amp;R).lnk" "C:\root\30_tool\ScpUploadToRemote.vbs" "" ""</v>
       </c>
       <c r="AB195" s="9" t="str">
         <f ca="1">IFERROR(
@@ -57665,15 +57747,15 @@
       </c>
       <c r="AC195" s="20" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v xml:space="preserve"> (&amp;R)</v>
       </c>
       <c r="AD195" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A195&lt;&gt;"",$L195="○"),
   shortcut設定!$F$5&amp;"\"&amp;AB195&amp;"_"&amp;A195&amp;"（"&amp;B195&amp;"）"&amp;AC195&amp;".lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_ScpUploadToRemote.vbs（SCP送信toリモート） (&amp;R).lnk</v>
       </c>
       <c r="AE195" s="13" t="str">
         <f>IF(
@@ -57717,7 +57799,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "C:\_push_all.bat.lnk" "C:\codes\bat\tools\tortoisegit\ShowGitPushWindows.bat" "" ""</v>
+        <v/>
       </c>
       <c r="AJ195" s="91" t="s">
         <v>181</v>
@@ -57725,16 +57807,16 @@
     </row>
     <row r="196" spans="1:36">
       <c r="A196" s="9" t="s">
-        <v>1082</v>
+        <v>1467</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>1044</v>
+        <v>1425</v>
       </c>
       <c r="C196" s="9" t="s">
-        <v>1081</v>
+        <v>1466</v>
       </c>
       <c r="D196" s="15" t="s">
-        <v>963</v>
+        <v>40</v>
       </c>
       <c r="E196" s="26" t="s">
         <v>40</v>
@@ -57749,31 +57831,31 @@
         <v>538</v>
       </c>
       <c r="I196" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J196" s="15" t="s">
+        <v>1455</v>
+      </c>
+      <c r="K196" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L196" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="M196" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="N196" s="15" t="s">
         <v>963</v>
       </c>
-      <c r="J196" s="15" t="s">
-        <v>1045</v>
-      </c>
-      <c r="K196" s="15" t="s">
-        <v>1045</v>
-      </c>
-      <c r="L196" s="93" t="s">
-        <v>1045</v>
-      </c>
-      <c r="M196" s="94" t="s">
-        <v>1045</v>
-      </c>
-      <c r="N196" s="15" t="s">
-        <v>0</v>
-      </c>
       <c r="O196" s="26" t="s">
-        <v>1292</v>
+        <v>963</v>
       </c>
       <c r="P196" s="157" t="s">
-        <v>1292</v>
+        <v>963</v>
       </c>
       <c r="Q196" s="26" t="s">
-        <v>40</v>
+        <v>963</v>
       </c>
       <c r="R196" s="9" t="str">
         <f t="shared" si="25"/>
@@ -57837,7 +57919,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ffr（SCP受信fromリモート）.lnk" "C:\root\30_tool\ScpFetchFromRemote.vbs" "" ""</v>
       </c>
       <c r="X196" s="14" t="str">
         <f>IF(
@@ -57845,7 +57927,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J196&amp;"（"&amp;$B196&amp;"）.lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ffr（SCP受信fromリモート）.lnk</v>
       </c>
       <c r="Y196" s="13" t="str">
         <f>IF(
@@ -57926,7 +58008,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\CreateProgramList.bat（インストールプログラム一覧作成）.lnk" "C:\codes\bat\tools\other\CreateProgramList.bat" "" ""</v>
+        <v/>
       </c>
       <c r="AF196" s="9" t="str">
         <f>IF(
@@ -57934,7 +58016,7 @@
   shortcut設定!$F$6&amp;"\"&amp;A196&amp;"（"&amp;B196&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\CreateProgramList.bat（インストールプログラム一覧作成）.lnk</v>
+        <v/>
       </c>
       <c r="AG196" s="13" t="str">
         <f t="shared" si="28"/>
@@ -57964,13 +58046,13 @@
     </row>
     <row r="197" spans="1:36">
       <c r="A197" s="9" t="s">
-        <v>1269</v>
+        <v>970</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>1274</v>
+        <v>971</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>1267</v>
+        <v>965</v>
       </c>
       <c r="D197" s="15" t="s">
         <v>963</v>
@@ -57988,16 +58070,16 @@
         <v>538</v>
       </c>
       <c r="I197" s="15" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="J197" s="15" t="s">
-        <v>1453</v>
+        <v>66</v>
       </c>
       <c r="K197" s="15" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="L197" s="93" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="M197" s="94" t="s">
         <v>40</v>
@@ -58012,7 +58094,7 @@
         <v>1292</v>
       </c>
       <c r="Q197" s="26" t="s">
-        <v>40</v>
+        <v>966</v>
       </c>
       <c r="R197" s="9" t="str">
         <f t="shared" si="25"/>
@@ -58023,7 +58105,7 @@
         <v/>
       </c>
       <c r="T197" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A197&lt;&gt;"",$I197="○"),
   (
     "mkdir """&amp;V197&amp;""" &amp; "
@@ -58036,7 +58118,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\200_Codes" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\200_Codes\BackupAll.bat（HDDバックアップ（全て））.lnk" "C:\codes\bat\tools\other\BackupAll.bat" "" ""</v>
+        <v/>
       </c>
       <c r="U197" s="9" t="str">
         <f ca="1">IFERROR(
@@ -58055,12 +58137,12 @@
         <v>200</v>
       </c>
       <c r="V197" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A197&lt;&gt;"",$I197="○"),
   shortcut設定!$F$4&amp;"\"&amp;U197&amp;"_"&amp;H197,
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\200_Codes</v>
+        <v/>
       </c>
       <c r="W197" s="13" t="str">
         <f>IF(
@@ -58076,7 +58158,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\bua（HDDバックアップ（全て））.lnk" "C:\codes\bat\tools\other\BackupAll.bat" "" ""</v>
+        <v/>
       </c>
       <c r="X197" s="14" t="str">
         <f>IF(
@@ -58084,7 +58166,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J197&amp;"（"&amp;$B197&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\bua（HDDバックアップ（全て））.lnk</v>
+        <v/>
       </c>
       <c r="Y197" s="13" t="str">
         <f>IF(
@@ -58195,7 +58277,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "C:\_push_all.bat.lnk" "C:\codes\bat\tools\tortoisegit\ShowGitPushWindows.bat" "" ""</v>
       </c>
       <c r="AJ197" s="91" t="s">
         <v>181</v>
@@ -58203,13 +58285,13 @@
     </row>
     <row r="198" spans="1:36">
       <c r="A198" s="9" t="s">
-        <v>1270</v>
+        <v>1082</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>1275</v>
+        <v>1044</v>
       </c>
       <c r="C198" s="9" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="D198" s="15" t="s">
         <v>963</v>
@@ -58227,22 +58309,22 @@
         <v>538</v>
       </c>
       <c r="I198" s="15" t="s">
-        <v>1279</v>
+        <v>963</v>
       </c>
       <c r="J198" s="15" t="s">
-        <v>963</v>
+        <v>1045</v>
       </c>
       <c r="K198" s="15" t="s">
-        <v>40</v>
+        <v>1045</v>
       </c>
       <c r="L198" s="93" t="s">
-        <v>40</v>
+        <v>1045</v>
       </c>
       <c r="M198" s="94" t="s">
-        <v>40</v>
+        <v>1045</v>
       </c>
       <c r="N198" s="15" t="s">
-        <v>963</v>
+        <v>0</v>
       </c>
       <c r="O198" s="26" t="s">
         <v>1292</v>
@@ -58404,7 +58486,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\CreateProgramList.bat（インストールプログラム一覧作成）.lnk" "C:\codes\bat\tools\other\CreateProgramList.bat" "" ""</v>
       </c>
       <c r="AF198" s="9" t="str">
         <f>IF(
@@ -58412,7 +58494,7 @@
   shortcut設定!$F$6&amp;"\"&amp;A198&amp;"（"&amp;B198&amp;"）.lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\CreateProgramList.bat（インストールプログラム一覧作成）.lnk</v>
       </c>
       <c r="AG198" s="13" t="str">
         <f t="shared" si="28"/>
@@ -58442,13 +58524,13 @@
     </row>
     <row r="199" spans="1:36">
       <c r="A199" s="9" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>1085</v>
+        <v>1267</v>
       </c>
       <c r="D199" s="15" t="s">
         <v>963</v>
@@ -58466,10 +58548,10 @@
         <v>538</v>
       </c>
       <c r="I199" s="15" t="s">
-        <v>1279</v>
+        <v>0</v>
       </c>
       <c r="J199" s="15" t="s">
-        <v>963</v>
+        <v>1449</v>
       </c>
       <c r="K199" s="15" t="s">
         <v>40</v>
@@ -58501,7 +58583,7 @@
         <v/>
       </c>
       <c r="T199" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A199&lt;&gt;"",$I199="○"),
   (
     "mkdir """&amp;V199&amp;""" &amp; "
@@ -58514,7 +58596,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\200_Codes" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\200_Codes\BackupAll.bat（HDDバックアップ（全て））.lnk" "C:\codes\bat\tools\other\BackupAll.bat" "" ""</v>
       </c>
       <c r="U199" s="9" t="str">
         <f ca="1">IFERROR(
@@ -58533,12 +58615,12 @@
         <v>200</v>
       </c>
       <c r="V199" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A199&lt;&gt;"",$I199="○"),
   shortcut設定!$F$4&amp;"\"&amp;U199&amp;"_"&amp;H199,
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\200_Codes</v>
       </c>
       <c r="W199" s="13" t="str">
         <f>IF(
@@ -58554,7 +58636,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\bua（HDDバックアップ（全て））.lnk" "C:\codes\bat\tools\other\BackupAll.bat" "" ""</v>
       </c>
       <c r="X199" s="14" t="str">
         <f>IF(
@@ -58562,7 +58644,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J199&amp;"（"&amp;$B199&amp;"）.lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\bua（HDDバックアップ（全て））.lnk</v>
       </c>
       <c r="Y199" s="13" t="str">
         <f>IF(
@@ -58681,13 +58763,13 @@
     </row>
     <row r="200" spans="1:36">
       <c r="A200" s="9" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="C200" s="9" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="D200" s="15" t="s">
         <v>963</v>
@@ -58696,7 +58778,7 @@
         <v>40</v>
       </c>
       <c r="F200" s="15" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G200" s="15" t="s">
         <v>0</v>
@@ -58920,13 +59002,13 @@
     </row>
     <row r="201" spans="1:36">
       <c r="A201" s="9" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>1268</v>
+        <v>1085</v>
       </c>
       <c r="D201" s="15" t="s">
         <v>963</v>
@@ -58935,10 +59017,10 @@
         <v>40</v>
       </c>
       <c r="F201" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G201" s="15" t="s">
         <v>0</v>
-      </c>
-      <c r="G201" s="15" t="s">
-        <v>28</v>
       </c>
       <c r="H201" s="9" t="s">
         <v>538</v>
@@ -58962,10 +59044,10 @@
         <v>963</v>
       </c>
       <c r="O201" s="26" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="P201" s="157" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="Q201" s="26" t="s">
         <v>40</v>
@@ -59133,11 +59215,11 @@
       </c>
       <c r="AG201" s="13" t="str">
         <f t="shared" si="28"/>
-        <v>schtasks /create /tn "_scheduled_backup_root" /tr "C:\codes\bat\tools\other\BackupRoot.bat" /sc daily /st 17:56 /rl highest</v>
+        <v/>
       </c>
       <c r="AH201" s="13" t="str">
         <f t="shared" si="29"/>
-        <v>schtasks /delete /tn "_scheduled_backup_root"</v>
+        <v/>
       </c>
       <c r="AI201" s="13" t="str">
         <f>IF(
@@ -59159,22 +59241,22 @@
     </row>
     <row r="202" spans="1:36">
       <c r="A202" s="9" t="s">
-        <v>1313</v>
+        <v>1272</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>1314</v>
+        <v>1277</v>
       </c>
       <c r="C202" s="9" t="s">
-        <v>1312</v>
+        <v>1086</v>
       </c>
       <c r="D202" s="15" t="s">
-        <v>1315</v>
+        <v>963</v>
       </c>
       <c r="E202" s="26" t="s">
-        <v>1315</v>
+        <v>40</v>
       </c>
       <c r="F202" s="15" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G202" s="15" t="s">
         <v>0</v>
@@ -59183,31 +59265,31 @@
         <v>538</v>
       </c>
       <c r="I202" s="15" t="s">
-        <v>1315</v>
+        <v>1279</v>
       </c>
       <c r="J202" s="15" t="s">
-        <v>1315</v>
+        <v>963</v>
       </c>
       <c r="K202" s="15" t="s">
-        <v>1315</v>
+        <v>40</v>
       </c>
       <c r="L202" s="93" t="s">
-        <v>1315</v>
+        <v>40</v>
       </c>
       <c r="M202" s="94" t="s">
-        <v>1315</v>
+        <v>40</v>
       </c>
       <c r="N202" s="15" t="s">
-        <v>0</v>
+        <v>963</v>
       </c>
       <c r="O202" s="26" t="s">
-        <v>1315</v>
+        <v>1292</v>
       </c>
       <c r="P202" s="157" t="s">
-        <v>1315</v>
+        <v>1292</v>
       </c>
       <c r="Q202" s="26" t="s">
-        <v>1315</v>
+        <v>40</v>
       </c>
       <c r="R202" s="9" t="str">
         <f t="shared" si="25"/>
@@ -59360,7 +59442,7 @@
   ),
   ""
 )</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\BackupOtherPrgSettings.bat（各種プログラム設定バックアップ）.lnk" "C:\codes\bat\tools\other\BackupOtherPrgSettings.bat" "" ""</v>
+        <v/>
       </c>
       <c r="AF202" s="9" t="str">
         <f>IF(
@@ -59368,7 +59450,7 @@
   shortcut設定!$F$6&amp;"\"&amp;A202&amp;"（"&amp;B202&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\BackupOtherPrgSettings.bat（各種プログラム設定バックアップ）.lnk</v>
+        <v/>
       </c>
       <c r="AG202" s="13" t="str">
         <f t="shared" si="28"/>
@@ -59398,55 +59480,55 @@
     </row>
     <row r="203" spans="1:36">
       <c r="A203" s="9" t="s">
-        <v>1449</v>
+        <v>1273</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>1450</v>
+        <v>1278</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>1448</v>
+        <v>1268</v>
       </c>
       <c r="D203" s="15" t="s">
-        <v>1451</v>
+        <v>963</v>
       </c>
       <c r="E203" s="26" t="s">
-        <v>1451</v>
+        <v>40</v>
       </c>
       <c r="F203" s="15" t="s">
         <v>0</v>
       </c>
       <c r="G203" s="15" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H203" s="9" t="s">
         <v>538</v>
       </c>
       <c r="I203" s="15" t="s">
-        <v>0</v>
+        <v>1279</v>
       </c>
       <c r="J203" s="15" t="s">
-        <v>1452</v>
+        <v>963</v>
       </c>
       <c r="K203" s="15" t="s">
-        <v>1451</v>
+        <v>40</v>
       </c>
       <c r="L203" s="93" t="s">
-        <v>1451</v>
+        <v>40</v>
       </c>
       <c r="M203" s="94" t="s">
-        <v>1451</v>
+        <v>40</v>
       </c>
       <c r="N203" s="15" t="s">
-        <v>1451</v>
+        <v>963</v>
       </c>
       <c r="O203" s="26" t="s">
-        <v>1451</v>
+        <v>1293</v>
       </c>
       <c r="P203" s="157" t="s">
-        <v>1451</v>
+        <v>1296</v>
       </c>
       <c r="Q203" s="26" t="s">
-        <v>1451</v>
+        <v>40</v>
       </c>
       <c r="R203" s="9" t="str">
         <f t="shared" ref="R203:R208" si="30">IF(
@@ -59464,7 +59546,7 @@
         <v/>
       </c>
       <c r="T203" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A203&lt;&gt;"",$I203="○"),
   (
     "mkdir """&amp;V203&amp;""" &amp; "
@@ -59477,7 +59559,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\200_Codes" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\200_Codes\extract_drawio_diagram.pyw（drawioダイヤグラム抽出）.lnk" "C:\codes\python\extract_drawio_diagram.pyw" "" ""</v>
+        <v/>
       </c>
       <c r="U203" s="9" t="str">
         <f ca="1">IFERROR(
@@ -59496,12 +59578,12 @@
         <v>200</v>
       </c>
       <c r="V203" s="13" t="str">
-        <f ca="1">IF(
+        <f>IF(
   AND($A203&lt;&gt;"",$I203="○"),
   shortcut設定!$F$4&amp;"\"&amp;U203&amp;"_"&amp;H203,
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\200_Codes</v>
+        <v/>
       </c>
       <c r="W203" s="13" t="str">
         <f>IF(
@@ -59517,7 +59599,7 @@
   ),
   ""
 )</f>
-        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\edd（drawioダイヤグラム抽出）.lnk" "C:\codes\python\extract_drawio_diagram.pyw" "" ""</v>
+        <v/>
       </c>
       <c r="X203" s="14" t="str">
         <f>IF(
@@ -59525,7 +59607,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J203&amp;"（"&amp;$B203&amp;"）.lnk",
   ""
 )</f>
-        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\edd（drawioダイヤグラム抽出）.lnk</v>
+        <v/>
       </c>
       <c r="Y203" s="13" t="str">
         <f>IF(
@@ -59618,11 +59700,11 @@
       </c>
       <c r="AG203" s="13" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>schtasks /create /tn "_scheduled_backup_root" /tr "C:\codes\bat\tools\other\BackupRoot.bat" /sc daily /st 17:56 /rl highest</v>
       </c>
       <c r="AH203" s="13" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>schtasks /delete /tn "_scheduled_backup_root"</v>
       </c>
       <c r="AI203" s="13" t="str">
         <f>IF(
@@ -59643,37 +59725,63 @@
       </c>
     </row>
     <row r="204" spans="1:36">
-      <c r="A204" s="9"/>
-      <c r="B204" s="9"/>
-      <c r="C204" s="9"/>
-      <c r="D204" s="15"/>
-      <c r="E204" s="26"/>
-      <c r="F204" s="15"/>
-      <c r="G204" s="15"/>
-      <c r="H204" s="9"/>
-      <c r="I204" s="15"/>
-      <c r="J204" s="15"/>
-      <c r="K204" s="15"/>
-      <c r="L204" s="93"/>
-      <c r="M204" s="94"/>
-      <c r="N204" s="15"/>
-      <c r="O204" s="26"/>
-      <c r="P204" s="157"/>
-      <c r="Q204" s="26"/>
+      <c r="A204" s="9" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C204" s="9" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D204" s="15" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E204" s="26" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F204" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G204" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H204" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="I204" s="15" t="s">
+        <v>1315</v>
+      </c>
+      <c r="J204" s="15" t="s">
+        <v>1315</v>
+      </c>
+      <c r="K204" s="15" t="s">
+        <v>1315</v>
+      </c>
+      <c r="L204" s="93" t="s">
+        <v>1315</v>
+      </c>
+      <c r="M204" s="94" t="s">
+        <v>1315</v>
+      </c>
+      <c r="N204" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="O204" s="26" t="s">
+        <v>1315</v>
+      </c>
+      <c r="P204" s="157" t="s">
+        <v>1315</v>
+      </c>
+      <c r="Q204" s="26" t="s">
+        <v>1315</v>
+      </c>
       <c r="R204" s="9" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="S204" s="9" t="str">
-        <f t="shared" ref="S204:S208" si="31">IF(
-  OR(
-    $H204="",
-    $H204="-",
-    COUNTIF(カテゴリ,$H204)&gt;0
-  ),
-  "",
-  "★NG★"
-)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="T204" s="13" t="str">
@@ -59693,7 +59801,7 @@
         <v/>
       </c>
       <c r="U204" s="9" t="str">
-        <f>IFERROR(
+        <f ca="1">IFERROR(
   VLOOKUP(
     $H204,
     shortcut設定!$F:$J,
@@ -59706,7 +59814,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>200</v>
       </c>
       <c r="V204" s="13" t="str">
         <f>IF(
@@ -59780,7 +59888,7 @@
         <v/>
       </c>
       <c r="AB204" s="9" t="str">
-        <f>IFERROR(
+        <f ca="1">IFERROR(
   VLOOKUP(
     $H204,
     shortcut設定!$F:$J,
@@ -59793,10 +59901,10 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>200</v>
       </c>
       <c r="AC204" s="20" t="str">
-        <f t="shared" ref="AC204:AC208" si="32">IF(AND($M204&lt;&gt;"",$M204&lt;&gt;"-")," (&amp;"&amp;$M204&amp;")","")</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AD204" s="13" t="str">
@@ -59819,7 +59927,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\BackupOtherPrgSettings.bat（各種プログラム設定バックアップ）.lnk" "C:\codes\bat\tools\other\BackupOtherPrgSettings.bat" "" ""</v>
       </c>
       <c r="AF204" s="9" t="str">
         <f>IF(
@@ -59827,26 +59935,14 @@
   shortcut設定!$F$6&amp;"\"&amp;A204&amp;"（"&amp;B204&amp;"）.lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\BackupOtherPrgSettings.bat（各種プログラム設定バックアップ）.lnk</v>
       </c>
       <c r="AG204" s="13" t="str">
-        <f t="shared" ref="AG204:AG208" si="33">IF(
-  AND($A204&lt;&gt;"",$O204&lt;&gt;"-",$O204&lt;&gt;""),
-  (
-    "schtasks /create /tn """&amp;$O204&amp;""" /tr """&amp;$C204&amp;""" /sc daily /st "&amp;$P204&amp;" /rl highest"
-  ),
-  ""
-)</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH204" s="13" t="str">
-        <f t="shared" ref="AH204:AH208" si="34">IF(
-  AND($A204&lt;&gt;"",$O204&lt;&gt;"-",$O204&lt;&gt;""),
-  (
-    "schtasks /delete /tn """&amp;$O204&amp;""""
-  ),
-  ""
-)</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AI204" s="13" t="str">
@@ -59868,33 +59964,67 @@
       </c>
     </row>
     <row r="205" spans="1:36">
-      <c r="A205" s="9"/>
-      <c r="B205" s="9"/>
-      <c r="C205" s="9"/>
-      <c r="D205" s="15"/>
-      <c r="E205" s="26"/>
-      <c r="F205" s="15"/>
-      <c r="G205" s="15"/>
-      <c r="H205" s="9"/>
-      <c r="I205" s="15"/>
-      <c r="J205" s="15"/>
-      <c r="K205" s="15"/>
-      <c r="L205" s="93"/>
-      <c r="M205" s="94"/>
-      <c r="N205" s="15"/>
-      <c r="O205" s="26"/>
-      <c r="P205" s="157"/>
-      <c r="Q205" s="26"/>
+      <c r="A205" s="9" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C205" s="9" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D205" s="15" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E205" s="26" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F205" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G205" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H205" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="I205" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J205" s="15" t="s">
+        <v>1448</v>
+      </c>
+      <c r="K205" s="15" t="s">
+        <v>1447</v>
+      </c>
+      <c r="L205" s="93" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M205" s="94" t="s">
+        <v>1447</v>
+      </c>
+      <c r="N205" s="15" t="s">
+        <v>1447</v>
+      </c>
+      <c r="O205" s="26" t="s">
+        <v>1447</v>
+      </c>
+      <c r="P205" s="157" t="s">
+        <v>1447</v>
+      </c>
+      <c r="Q205" s="26" t="s">
+        <v>1447</v>
+      </c>
       <c r="R205" s="9" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="S205" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="T205" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A205&lt;&gt;"",$I205="○"),
   (
     "mkdir """&amp;V205&amp;""" &amp; "
@@ -59907,10 +60037,10 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\200_Codes" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\200_Codes\extract_drawio_diagram.pyw（drawioダイヤグラム抽出）.lnk" "C:\codes\python\extract_drawio_diagram.pyw" "" ""</v>
       </c>
       <c r="U205" s="9" t="str">
-        <f>IFERROR(
+        <f ca="1">IFERROR(
   VLOOKUP(
     $H205,
     shortcut設定!$F:$J,
@@ -59923,15 +60053,15 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>200</v>
       </c>
       <c r="V205" s="13" t="str">
-        <f>IF(
+        <f ca="1">IF(
   AND($A205&lt;&gt;"",$I205="○"),
   shortcut設定!$F$4&amp;"\"&amp;U205&amp;"_"&amp;H205,
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\200_Codes</v>
       </c>
       <c r="W205" s="13" t="str">
         <f>IF(
@@ -59947,7 +60077,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>mkdir "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\edd（drawioダイヤグラム抽出）.lnk" "C:\codes\python\extract_drawio_diagram.pyw" "" ""</v>
       </c>
       <c r="X205" s="14" t="str">
         <f>IF(
@@ -59955,7 +60085,7 @@
   shortcut設定!$F$4&amp;"\"&amp;shortcut設定!$F$8&amp;"\"&amp;$J205&amp;"（"&amp;$B205&amp;"）.lnk",
   ""
 )</f>
-        <v/>
+        <v>%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\edd（drawioダイヤグラム抽出）.lnk</v>
       </c>
       <c r="Y205" s="13" t="str">
         <f>IF(
@@ -59997,7 +60127,7 @@
         <v/>
       </c>
       <c r="AB205" s="9" t="str">
-        <f>IFERROR(
+        <f ca="1">IFERROR(
   VLOOKUP(
     $H205,
     shortcut設定!$F:$J,
@@ -60010,10 +60140,10 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>200</v>
       </c>
       <c r="AC205" s="20" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AD205" s="13" t="str">
@@ -60047,11 +60177,11 @@
         <v/>
       </c>
       <c r="AG205" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH205" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AI205" s="13" t="str">
@@ -60095,7 +60225,15 @@
         <v/>
       </c>
       <c r="S206" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="S206:S208" si="31">IF(
+  OR(
+    $H206="",
+    $H206="-",
+    COUNTIF(カテゴリ,$H206)&gt;0
+  ),
+  "",
+  "★NG★"
+)</f>
         <v/>
       </c>
       <c r="T206" s="13" t="str">
@@ -60218,7 +60356,7 @@
         <v/>
       </c>
       <c r="AC206" s="20" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="AC206:AC208" si="32">IF(AND($M206&lt;&gt;"",$M206&lt;&gt;"-")," (&amp;"&amp;$M206&amp;")","")</f>
         <v/>
       </c>
       <c r="AD206" s="13" t="str">
@@ -60252,11 +60390,23 @@
         <v/>
       </c>
       <c r="AG206" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="AG206:AG208" si="33">IF(
+  AND($A206&lt;&gt;"",$O206&lt;&gt;"-",$O206&lt;&gt;""),
+  (
+    "schtasks /create /tn """&amp;$O206&amp;""" /tr """&amp;$C206&amp;""" /sc daily /st "&amp;$P206&amp;" /rl highest"
+  ),
+  ""
+)</f>
         <v/>
       </c>
       <c r="AH206" s="13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="AH206:AH208" si="34">IF(
+  AND($A206&lt;&gt;"",$O206&lt;&gt;"-",$O206&lt;&gt;""),
+  (
+    "schtasks /delete /tn """&amp;$O206&amp;""""
+  ),
+  ""
+)</f>
         <v/>
       </c>
       <c r="AI206" s="13" t="str">
@@ -62192,18 +62342,18 @@
   <autoFilter ref="A9:AJ209" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H211:H216 H11:H203 H204:H208" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H211:H216 H206:H208 H11:H205" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>カテゴリ</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F211:G216 F11:G203 F204:G208" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F211:G216 F206:G208 F11:G205" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"○,×"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I211:I216 L211:L216 N211:N216 I11:I203 I204:I208 L11:L203 L204:L208 N11:N203 N204:N208" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I211:I216 L211:L216 N211:N216 N206:N208 N11:N205 L206:L208 L11:L205 I206:I208 I11:I205" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"○,-"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A129" r:id="rId1" xr:uid="{94A09875-C916-4D1E-895C-FF8EA552A1A6}"/>
+    <hyperlink ref="A130" r:id="rId1" xr:uid="{94A09875-C916-4D1E-895C-FF8EA552A1A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="25" orientation="portrait" r:id="rId2"/>
@@ -64958,7 +65108,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>328</v>

--- a/PC移行時チェックリスト.xlsx
+++ b/PC移行時チェックリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03456253-C0BF-490B-A918-7DBF8ED4A02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA500F1-005F-47FD-998E-632E809400BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32385" yWindow="630" windowWidth="32385" windowHeight="40695" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13044,10 +13044,10 @@
   <dimension ref="A1:AN216"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="10" topLeftCell="C138" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="10" topLeftCell="P138" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D196" sqref="D196"/>
+      <selection pane="bottomRight" activeCell="W170" sqref="W170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="11.25" outlineLevelCol="1"/>
